--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC229AC8-FD64-42F8-BB52-A26F232EE5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1782,9 +1788,6 @@
     <t>563260</t>
   </si>
   <si>
-    <t>2PO</t>
-  </si>
-  <si>
     <t>WW Potato Sld 6 x 400g '23</t>
   </si>
   <si>
@@ -1812,9 +1815,6 @@
     <t>563262</t>
   </si>
   <si>
-    <t>8PO</t>
-  </si>
-  <si>
     <t>WW Psta Sld 12x110g '23 (TAS)</t>
   </si>
   <si>
@@ -1857,38 +1857,38 @@
     <t>Ver</t>
   </si>
   <si>
-    <t>0.3.19.1</t>
+    <t>S2E</t>
+  </si>
+  <si>
+    <t>8RF</t>
+  </si>
+  <si>
+    <t>2025.4.3.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1904,152 +1904,8 @@
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2062,194 +1918,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2272,251 +1942,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2549,58 +1977,40 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2616,6 +2026,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2865,33 +2278,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1" codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B106" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H156" sqref="H156"/>
+      <selection pane="bottomRight" activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.425" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.2833333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.5666666666667" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="32.1416666666667" customWidth="1"/>
-    <col min="6" max="9" width="22.8583333333333" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="9" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:9">
+    <row r="1" spans="1:9" ht="17.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2916,7 +2329,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" ht="17.25" hidden="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.25" hidden="1">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2939,7 +2352,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" ht="17.25" spans="1:9">
+    <row r="3" spans="1:9" ht="17.25">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -2964,7 +2377,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="17.25" spans="1:9">
+    <row r="4" spans="1:9" ht="17.25">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -2989,7 +2402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" ht="17.25" hidden="1" spans="1:9">
+    <row r="5" spans="1:9" ht="17.25" hidden="1">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -3012,7 +2425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" ht="17.25" spans="1:9">
+    <row r="6" spans="1:9" ht="17.25">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -3037,7 +2450,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="1:9">
+    <row r="7" spans="1:9" ht="17.25">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -3062,7 +2475,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="1:9">
+    <row r="8" spans="1:9" ht="17.25">
       <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
@@ -3087,7 +2500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="17.25" spans="1:9">
+    <row r="9" spans="1:9" ht="17.25">
       <c r="A9" s="5" t="s">
         <v>42</v>
       </c>
@@ -3112,7 +2525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="17.25" spans="1:9">
+    <row r="10" spans="1:9" ht="17.25">
       <c r="A10" s="7" t="s">
         <v>47</v>
       </c>
@@ -3129,7 +2542,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="17.25" spans="1:9">
+    <row r="11" spans="1:9" ht="17.25">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -3146,7 +2559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" ht="17.25" hidden="1" spans="1:9">
+    <row r="12" spans="1:9" ht="17.25" hidden="1">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
@@ -3169,7 +2582,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" ht="17.25" hidden="1" spans="1:9">
+    <row r="13" spans="1:9" ht="17.25" hidden="1">
       <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
@@ -3192,7 +2605,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" ht="17.25" hidden="1" spans="1:9">
+    <row r="14" spans="1:9" ht="17.25" hidden="1">
       <c r="A14" s="5" t="s">
         <v>61</v>
       </c>
@@ -3215,7 +2628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" ht="17.25" hidden="1" spans="1:9">
+    <row r="15" spans="1:9" ht="17.25" hidden="1">
       <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
@@ -3238,7 +2651,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" ht="17.25" hidden="1" spans="1:9">
+    <row r="16" spans="1:9" ht="17.25" hidden="1">
       <c r="A16" s="5" t="s">
         <v>71</v>
       </c>
@@ -3261,7 +2674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" ht="17.25" spans="1:9">
+    <row r="17" spans="1:9" ht="17.25">
       <c r="A17" s="7" t="s">
         <v>76</v>
       </c>
@@ -3282,7 +2695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" ht="17.25" spans="1:9">
+    <row r="18" spans="1:9" ht="17.25">
       <c r="A18" s="7" t="s">
         <v>80</v>
       </c>
@@ -3307,7 +2720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" ht="17.25" spans="1:9">
+    <row r="19" spans="1:9" ht="17.25">
       <c r="A19" s="7" t="s">
         <v>85</v>
       </c>
@@ -3332,7 +2745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" ht="17.25" spans="1:9">
+    <row r="20" spans="1:9" ht="17.25">
       <c r="A20" s="7" t="s">
         <v>90</v>
       </c>
@@ -3357,7 +2770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" ht="17.25" hidden="1" spans="1:9">
+    <row r="21" spans="1:9" ht="17.25" hidden="1">
       <c r="A21" s="5" t="s">
         <v>95</v>
       </c>
@@ -3380,7 +2793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" ht="17.25" hidden="1" spans="1:9">
+    <row r="22" spans="1:9" ht="17.25" hidden="1">
       <c r="A22" s="5" t="s">
         <v>100</v>
       </c>
@@ -3403,7 +2816,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" ht="17.25" hidden="1" spans="1:9">
+    <row r="23" spans="1:9" ht="17.25" hidden="1">
       <c r="A23" s="5" t="s">
         <v>105</v>
       </c>
@@ -3426,7 +2839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" ht="17.25" hidden="1" spans="1:9">
+    <row r="24" spans="1:9" ht="17.25" hidden="1">
       <c r="A24" s="5" t="s">
         <v>110</v>
       </c>
@@ -3449,7 +2862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" ht="17.25" hidden="1" spans="1:9">
+    <row r="25" spans="1:9" ht="17.25" hidden="1">
       <c r="A25" s="5" t="s">
         <v>115</v>
       </c>
@@ -3472,7 +2885,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" ht="17.25" hidden="1" spans="1:9">
+    <row r="26" spans="1:9" ht="17.25" hidden="1">
       <c r="A26" s="5" t="s">
         <v>120</v>
       </c>
@@ -3489,7 +2902,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" ht="17.25" hidden="1" spans="1:9">
+    <row r="27" spans="1:9" ht="17.25" hidden="1">
       <c r="A27" s="5" t="s">
         <v>122</v>
       </c>
@@ -3512,7 +2925,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" ht="17.25" hidden="1" spans="1:9">
+    <row r="28" spans="1:9" ht="17.25" hidden="1">
       <c r="A28" s="5" t="s">
         <v>127</v>
       </c>
@@ -3535,7 +2948,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" ht="17.25" spans="1:9">
+    <row r="29" spans="1:9" ht="17.25">
       <c r="A29" s="5" t="s">
         <v>132</v>
       </c>
@@ -3556,7 +2969,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" ht="17.25" spans="1:9">
+    <row r="30" spans="1:9" ht="17.25">
       <c r="A30" s="7" t="s">
         <v>136</v>
       </c>
@@ -3577,7 +2990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" ht="17.25" hidden="1" spans="1:9">
+    <row r="31" spans="1:9" ht="17.25" hidden="1">
       <c r="A31" s="5" t="s">
         <v>138</v>
       </c>
@@ -3600,7 +3013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" ht="17.25" hidden="1" spans="1:9">
+    <row r="32" spans="1:9" ht="17.25" hidden="1">
       <c r="A32" s="5" t="s">
         <v>143</v>
       </c>
@@ -3623,7 +3036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" ht="17.25" hidden="1" spans="1:9">
+    <row r="33" spans="1:9" ht="17.25" hidden="1">
       <c r="A33" s="5" t="s">
         <v>145</v>
       </c>
@@ -3646,7 +3059,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" ht="17.25" hidden="1" spans="1:9">
+    <row r="34" spans="1:9" ht="17.25" hidden="1">
       <c r="A34" s="5" t="s">
         <v>150</v>
       </c>
@@ -3669,7 +3082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" ht="17.25" spans="1:9">
+    <row r="35" spans="1:9" ht="17.25">
       <c r="A35" s="5" t="s">
         <v>155</v>
       </c>
@@ -3690,7 +3103,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" ht="17.25" spans="1:9">
+    <row r="36" spans="1:9" ht="17.25">
       <c r="A36" s="5" t="s">
         <v>158</v>
       </c>
@@ -3711,7 +3124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" ht="17.25" spans="1:9">
+    <row r="37" spans="1:9" ht="17.25">
       <c r="A37" s="5" t="s">
         <v>162</v>
       </c>
@@ -3736,7 +3149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" ht="17.25" spans="1:9">
+    <row r="38" spans="1:9" ht="17.25">
       <c r="A38" s="5" t="s">
         <v>167</v>
       </c>
@@ -3761,7 +3174,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" ht="17.25" spans="1:9">
+    <row r="39" spans="1:9" ht="17.25">
       <c r="A39" s="5" t="s">
         <v>172</v>
       </c>
@@ -3786,7 +3199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" ht="17.25" spans="1:9">
+    <row r="40" spans="1:9" ht="17.25">
       <c r="A40" s="5" t="s">
         <v>174</v>
       </c>
@@ -3811,7 +3224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" ht="17.25" spans="1:9">
+    <row r="41" spans="1:9" ht="17.25">
       <c r="A41" s="5" t="s">
         <v>176</v>
       </c>
@@ -3836,7 +3249,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" ht="17.25" spans="1:9">
+    <row r="42" spans="1:9" ht="17.25">
       <c r="A42" s="5" t="s">
         <v>181</v>
       </c>
@@ -3861,7 +3274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" ht="17.25" hidden="1" spans="1:9">
+    <row r="43" spans="1:9" ht="17.25" hidden="1">
       <c r="A43" s="5" t="s">
         <v>183</v>
       </c>
@@ -3884,7 +3297,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" ht="17.25" hidden="1" spans="1:9">
+    <row r="44" spans="1:9" ht="17.25" hidden="1">
       <c r="A44" s="5" t="s">
         <v>188</v>
       </c>
@@ -3907,7 +3320,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" ht="17.25" spans="1:9">
+    <row r="45" spans="1:9" ht="17.25">
       <c r="A45" s="5" t="s">
         <v>193</v>
       </c>
@@ -3932,7 +3345,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" ht="17.25" spans="1:9">
+    <row r="46" spans="1:9" ht="17.25">
       <c r="A46" s="7" t="s">
         <v>198</v>
       </c>
@@ -3953,7 +3366,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" ht="17.25" spans="1:9">
+    <row r="47" spans="1:9" ht="17.25">
       <c r="A47" s="7" t="s">
         <v>201</v>
       </c>
@@ -3978,7 +3391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" ht="17.25" spans="1:9">
+    <row r="48" spans="1:9" ht="17.25">
       <c r="A48" s="7" t="s">
         <v>206</v>
       </c>
@@ -4003,7 +3416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" ht="17.25" spans="1:9">
+    <row r="49" spans="1:9" ht="17.25">
       <c r="A49" s="7" t="s">
         <v>211</v>
       </c>
@@ -4028,7 +3441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" ht="17.25" spans="1:9">
+    <row r="50" spans="1:9" ht="17.25">
       <c r="A50" s="5" t="s">
         <v>216</v>
       </c>
@@ -4049,7 +3462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" ht="17.25" hidden="1" spans="1:9">
+    <row r="51" spans="1:9" ht="17.25" hidden="1">
       <c r="A51" s="5" t="s">
         <v>220</v>
       </c>
@@ -4072,7 +3485,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" ht="17.25" hidden="1" spans="1:9">
+    <row r="52" spans="1:9" ht="17.25" hidden="1">
       <c r="A52" s="5" t="s">
         <v>225</v>
       </c>
@@ -4095,7 +3508,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" ht="17.25" hidden="1" spans="1:9">
+    <row r="53" spans="1:9" ht="17.25" hidden="1">
       <c r="A53" s="5" t="s">
         <v>230</v>
       </c>
@@ -4118,7 +3531,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" ht="17.25" spans="1:9">
+    <row r="54" spans="1:9" ht="17.25">
       <c r="A54" s="5" t="s">
         <v>235</v>
       </c>
@@ -4143,7 +3556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" ht="17.25" hidden="1" spans="1:9">
+    <row r="55" spans="1:9" ht="17.25" hidden="1">
       <c r="A55" s="5" t="s">
         <v>240</v>
       </c>
@@ -4166,7 +3579,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" ht="17.25" hidden="1" spans="1:9">
+    <row r="56" spans="1:9" ht="17.25" hidden="1">
       <c r="A56" s="5" t="s">
         <v>245</v>
       </c>
@@ -4189,7 +3602,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" ht="17.25" hidden="1" spans="1:9">
+    <row r="57" spans="1:9" ht="17.25" hidden="1">
       <c r="A57" s="5" t="s">
         <v>250</v>
       </c>
@@ -4212,7 +3625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" ht="17.25" hidden="1" spans="1:9">
+    <row r="58" spans="1:9" ht="17.25" hidden="1">
       <c r="A58" s="5" t="s">
         <v>255</v>
       </c>
@@ -4235,7 +3648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" ht="17.25" spans="1:9">
+    <row r="59" spans="1:9" ht="17.25">
       <c r="A59" s="5" t="s">
         <v>260</v>
       </c>
@@ -4260,7 +3673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" ht="17.25" spans="1:9">
+    <row r="60" spans="1:9" ht="17.25">
       <c r="A60" s="5" t="s">
         <v>265</v>
       </c>
@@ -4281,7 +3694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" ht="17.25" hidden="1" spans="1:9">
+    <row r="61" spans="1:9" ht="17.25" hidden="1">
       <c r="A61" s="5" t="s">
         <v>268</v>
       </c>
@@ -4304,7 +3717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" ht="17.25" spans="1:9">
+    <row r="62" spans="1:9" ht="17.25">
       <c r="A62" s="5" t="s">
         <v>273</v>
       </c>
@@ -4329,7 +3742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" ht="17.25" spans="1:9">
+    <row r="63" spans="1:9" ht="17.25">
       <c r="A63" s="5" t="s">
         <v>278</v>
       </c>
@@ -4346,7 +3759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" ht="17.25" spans="1:9">
+    <row r="64" spans="1:9" ht="17.25">
       <c r="A64" s="5" t="s">
         <v>280</v>
       </c>
@@ -4363,7 +3776,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" ht="17.25" spans="1:9">
+    <row r="65" spans="1:9" ht="17.25">
       <c r="A65" s="5" t="s">
         <v>282</v>
       </c>
@@ -4380,7 +3793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" ht="17.25" hidden="1" spans="1:9">
+    <row r="66" spans="1:9" ht="17.25" hidden="1">
       <c r="A66" s="5" t="s">
         <v>284</v>
       </c>
@@ -4403,7 +3816,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" ht="17.25" hidden="1" spans="1:9">
+    <row r="67" spans="1:9" ht="17.25" hidden="1">
       <c r="A67" s="5" t="s">
         <v>289</v>
       </c>
@@ -4422,7 +3835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" ht="17.25" spans="1:9">
+    <row r="68" spans="1:9" ht="17.25">
       <c r="A68" s="5" t="s">
         <v>292</v>
       </c>
@@ -4443,7 +3856,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" ht="17.25" spans="1:9">
+    <row r="69" spans="1:9" ht="17.25">
       <c r="A69" s="7" t="s">
         <v>295</v>
       </c>
@@ -4468,7 +3881,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" ht="17.25" spans="1:9">
+    <row r="70" spans="1:9" ht="17.25">
       <c r="A70" s="7" t="s">
         <v>300</v>
       </c>
@@ -4493,7 +3906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" ht="17.25" spans="1:9">
+    <row r="71" spans="1:9" ht="17.25">
       <c r="A71" s="7" t="s">
         <v>305</v>
       </c>
@@ -4514,7 +3927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" ht="17.25" spans="1:9">
+    <row r="72" spans="1:9" ht="17.25">
       <c r="A72" s="5" t="s">
         <v>308</v>
       </c>
@@ -4535,7 +3948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" ht="17.25" spans="1:9">
+    <row r="73" spans="1:9" ht="17.25">
       <c r="A73" s="7" t="s">
         <v>311</v>
       </c>
@@ -4556,7 +3969,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" ht="17.25" spans="1:9">
+    <row r="74" spans="1:9" ht="17.25">
       <c r="A74" s="5" t="s">
         <v>314</v>
       </c>
@@ -4577,7 +3990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" ht="17.25" spans="1:9">
+    <row r="75" spans="1:9" ht="17.25">
       <c r="A75" s="5" t="s">
         <v>318</v>
       </c>
@@ -4598,7 +4011,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" ht="17.25" spans="1:9">
+    <row r="76" spans="1:9" ht="17.25">
       <c r="A76" s="5" t="s">
         <v>322</v>
       </c>
@@ -4619,7 +4032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" ht="17.25" spans="1:9">
+    <row r="77" spans="1:9" ht="17.25">
       <c r="A77" s="5" t="s">
         <v>325</v>
       </c>
@@ -4644,7 +4057,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" ht="17.25" spans="1:9">
+    <row r="78" spans="1:9" ht="17.25">
       <c r="A78" s="5" t="s">
         <v>330</v>
       </c>
@@ -4665,7 +4078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" ht="17.25" spans="1:9">
+    <row r="79" spans="1:9" ht="17.25">
       <c r="A79" s="5" t="s">
         <v>333</v>
       </c>
@@ -4690,7 +4103,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" ht="17.25" spans="1:9">
+    <row r="80" spans="1:9" ht="17.25">
       <c r="A80" s="5" t="s">
         <v>338</v>
       </c>
@@ -4715,7 +4128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" ht="17.25" spans="1:9">
+    <row r="81" spans="1:9" ht="17.25">
       <c r="A81" s="5" t="s">
         <v>343</v>
       </c>
@@ -4740,7 +4153,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" ht="17.25" spans="1:9">
+    <row r="82" spans="1:9" ht="17.25">
       <c r="A82" s="5" t="s">
         <v>348</v>
       </c>
@@ -4761,7 +4174,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" ht="17.25" spans="1:9">
+    <row r="83" spans="1:9" ht="17.25">
       <c r="A83" s="7" t="s">
         <v>351</v>
       </c>
@@ -4786,7 +4199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" ht="17.25" spans="1:9">
+    <row r="84" spans="1:9" ht="17.25">
       <c r="A84" s="7" t="s">
         <v>356</v>
       </c>
@@ -4811,7 +4224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" ht="17.25" spans="1:9">
+    <row r="85" spans="1:9" ht="17.25">
       <c r="A85" s="5" t="s">
         <v>361</v>
       </c>
@@ -4828,7 +4241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" ht="17.25" spans="1:9">
+    <row r="86" spans="1:9" ht="17.25">
       <c r="A86" s="5" t="s">
         <v>363</v>
       </c>
@@ -4845,7 +4258,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" ht="17.25" spans="1:9">
+    <row r="87" spans="1:9" ht="17.25">
       <c r="A87" s="5" t="s">
         <v>365</v>
       </c>
@@ -4864,7 +4277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" ht="17.25" spans="1:9">
+    <row r="88" spans="1:9" ht="17.25">
       <c r="A88" s="7" t="s">
         <v>368</v>
       </c>
@@ -4881,7 +4294,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" ht="17.25" spans="1:9">
+    <row r="89" spans="1:9" ht="17.25">
       <c r="A89" s="7" t="s">
         <v>370</v>
       </c>
@@ -4900,7 +4313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" ht="17.25" spans="1:9">
+    <row r="90" spans="1:9" ht="17.25">
       <c r="A90" s="5" t="s">
         <v>373</v>
       </c>
@@ -4917,7 +4330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" ht="17.25" spans="1:9">
+    <row r="91" spans="1:9" ht="17.25">
       <c r="A91" s="5" t="s">
         <v>375</v>
       </c>
@@ -4934,7 +4347,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" ht="17.25" spans="1:9">
+    <row r="92" spans="1:9" ht="17.25">
       <c r="A92" s="5" t="s">
         <v>377</v>
       </c>
@@ -4951,7 +4364,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" ht="17.25" spans="1:9">
+    <row r="93" spans="1:9" ht="17.25">
       <c r="A93" s="5" t="s">
         <v>379</v>
       </c>
@@ -4968,7 +4381,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" ht="17.25" spans="1:9">
+    <row r="94" spans="1:9" ht="17.25">
       <c r="A94" s="5" t="s">
         <v>381</v>
       </c>
@@ -4985,7 +4398,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" ht="17.25" hidden="1" spans="1:9">
+    <row r="95" spans="1:9" ht="17.25" hidden="1">
       <c r="A95" s="5" t="s">
         <v>383</v>
       </c>
@@ -5008,7 +4421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" ht="17.25" spans="1:9">
+    <row r="96" spans="1:9" ht="17.25">
       <c r="A96" s="5" t="s">
         <v>388</v>
       </c>
@@ -5029,7 +4442,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" ht="17.25" spans="1:9">
+    <row r="97" spans="1:9" ht="17.25">
       <c r="A97" s="5" t="s">
         <v>391</v>
       </c>
@@ -5048,7 +4461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" ht="17.25" spans="1:9">
+    <row r="98" spans="1:9" ht="17.25">
       <c r="A98" s="5" t="s">
         <v>393</v>
       </c>
@@ -5069,7 +4482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" ht="17.25" spans="1:9">
+    <row r="99" spans="1:9" ht="17.25">
       <c r="A99" s="5" t="s">
         <v>395</v>
       </c>
@@ -5090,7 +4503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" ht="17.25" spans="1:9">
+    <row r="100" spans="1:9" ht="17.25">
       <c r="A100" s="5" t="s">
         <v>398</v>
       </c>
@@ -5111,7 +4524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" ht="17.25" hidden="1" spans="1:9">
+    <row r="101" spans="1:9" ht="17.25" hidden="1">
       <c r="A101" s="5" t="s">
         <v>401</v>
       </c>
@@ -5134,7 +4547,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" ht="17.25" hidden="1" spans="1:9">
+    <row r="102" spans="1:9" ht="17.25" hidden="1">
       <c r="A102" s="5" t="s">
         <v>406</v>
       </c>
@@ -5157,7 +4570,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" ht="17.25" hidden="1" spans="1:9">
+    <row r="103" spans="1:9" ht="17.25" hidden="1">
       <c r="A103" s="5" t="s">
         <v>408</v>
       </c>
@@ -5180,7 +4593,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" ht="17.25" spans="1:9">
+    <row r="104" spans="1:9" ht="17.25">
       <c r="A104" s="5" t="s">
         <v>410</v>
       </c>
@@ -5199,7 +4612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" ht="17.25" spans="1:9">
+    <row r="105" spans="1:9" ht="17.25">
       <c r="A105" s="5" t="s">
         <v>412</v>
       </c>
@@ -5218,7 +4631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" ht="17.25" spans="1:9">
+    <row r="106" spans="1:9" ht="17.25">
       <c r="A106" s="5" t="s">
         <v>414</v>
       </c>
@@ -5237,7 +4650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" ht="17.25" spans="1:9">
+    <row r="107" spans="1:9" ht="17.25">
       <c r="A107" s="5" t="s">
         <v>416</v>
       </c>
@@ -5256,7 +4669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" ht="17.25" hidden="1" spans="1:9">
+    <row r="108" spans="1:9" ht="17.25" hidden="1">
       <c r="A108" s="5" t="s">
         <v>418</v>
       </c>
@@ -5279,7 +4692,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" ht="17.25" hidden="1" spans="1:9">
+    <row r="109" spans="1:9" ht="17.25" hidden="1">
       <c r="A109" s="5" t="s">
         <v>423</v>
       </c>
@@ -5302,7 +4715,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" ht="17.25" hidden="1" spans="1:9">
+    <row r="110" spans="1:9" ht="17.25" hidden="1">
       <c r="A110" s="5" t="s">
         <v>425</v>
       </c>
@@ -5325,7 +4738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" ht="17.25" hidden="1" spans="1:9">
+    <row r="111" spans="1:9" ht="17.25" hidden="1">
       <c r="A111" s="5" t="s">
         <v>427</v>
       </c>
@@ -5342,7 +4755,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" ht="17.25" hidden="1" spans="1:9">
+    <row r="112" spans="1:9" ht="17.25" hidden="1">
       <c r="A112" s="5" t="s">
         <v>429</v>
       </c>
@@ -5359,7 +4772,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" ht="17.25" hidden="1" spans="1:9">
+    <row r="113" spans="1:9" ht="17.25" hidden="1">
       <c r="A113" s="5" t="s">
         <v>431</v>
       </c>
@@ -5376,7 +4789,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" ht="17.25" hidden="1" spans="1:9">
+    <row r="114" spans="1:9" ht="17.25" hidden="1">
       <c r="A114" s="5" t="s">
         <v>433</v>
       </c>
@@ -5393,7 +4806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" ht="17.25" hidden="1" spans="1:9">
+    <row r="115" spans="1:9" ht="17.25" hidden="1">
       <c r="A115" s="5" t="s">
         <v>435</v>
       </c>
@@ -5410,7 +4823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" ht="17.25" spans="1:9">
+    <row r="116" spans="1:9" ht="17.25">
       <c r="A116" s="5" t="s">
         <v>437</v>
       </c>
@@ -5435,7 +4848,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" ht="17.25" spans="1:9">
+    <row r="117" spans="1:9" ht="17.25">
       <c r="A117" s="5" t="s">
         <v>442</v>
       </c>
@@ -5452,7 +4865,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" ht="17.25" hidden="1" spans="1:9">
+    <row r="118" spans="1:9" ht="17.25" hidden="1">
       <c r="A118" s="5" t="s">
         <v>444</v>
       </c>
@@ -5475,7 +4888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" ht="17.25" hidden="1" spans="1:9">
+    <row r="119" spans="1:9" ht="17.25" hidden="1">
       <c r="A119" s="5" t="s">
         <v>449</v>
       </c>
@@ -5498,7 +4911,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120" ht="17.25" spans="1:9">
+    <row r="120" spans="1:9" ht="17.25">
       <c r="A120" s="5" t="s">
         <v>454</v>
       </c>
@@ -5523,7 +4936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" ht="17.25" spans="1:9">
+    <row r="121" spans="1:9" ht="17.25">
       <c r="A121" s="5" t="s">
         <v>459</v>
       </c>
@@ -5548,7 +4961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" ht="17.25" spans="1:9">
+    <row r="122" spans="1:9" ht="17.25">
       <c r="A122" s="5" t="s">
         <v>464</v>
       </c>
@@ -5573,7 +4986,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" ht="17.25" hidden="1" spans="1:9">
+    <row r="123" spans="1:9" ht="17.25" hidden="1">
       <c r="A123" s="5" t="s">
         <v>466</v>
       </c>
@@ -5596,7 +5009,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" ht="17.25" hidden="1" spans="1:9">
+    <row r="124" spans="1:9" ht="17.25" hidden="1">
       <c r="A124" s="5" t="s">
         <v>471</v>
       </c>
@@ -5619,7 +5032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" ht="17.25" spans="1:9">
+    <row r="125" spans="1:9" ht="17.25">
       <c r="A125" s="5" t="s">
         <v>476</v>
       </c>
@@ -5644,7 +5057,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" ht="17.25" hidden="1" spans="1:9">
+    <row r="126" spans="1:9" ht="17.25" hidden="1">
       <c r="A126" s="5" t="s">
         <v>481</v>
       </c>
@@ -5667,7 +5080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" ht="17.25" hidden="1" spans="1:9">
+    <row r="127" spans="1:9" ht="17.25" hidden="1">
       <c r="A127" s="5" t="s">
         <v>486</v>
       </c>
@@ -5690,7 +5103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" ht="17.25" spans="1:9">
+    <row r="128" spans="1:9" ht="17.25">
       <c r="A128" s="5" t="s">
         <v>491</v>
       </c>
@@ -5713,7 +5126,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" ht="17.25" spans="1:9">
+    <row r="129" spans="1:9" ht="17.25">
       <c r="A129" s="5" t="s">
         <v>495</v>
       </c>
@@ -5738,7 +5151,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" ht="17.25" spans="1:9">
+    <row r="130" spans="1:9" ht="17.25">
       <c r="A130" s="5" t="s">
         <v>500</v>
       </c>
@@ -5763,7 +5176,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" ht="17.25" spans="1:9">
+    <row r="131" spans="1:9" ht="17.25">
       <c r="A131" s="5" t="s">
         <v>505</v>
       </c>
@@ -5788,7 +5201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" ht="17.25" spans="1:9">
+    <row r="132" spans="1:9" ht="17.25">
       <c r="A132" s="5" t="s">
         <v>510</v>
       </c>
@@ -5813,7 +5226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="133" ht="17.25" hidden="1" spans="1:9">
+    <row r="133" spans="1:9" ht="17.25" hidden="1">
       <c r="A133" s="5" t="s">
         <v>515</v>
       </c>
@@ -5836,7 +5249,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" ht="17.25" spans="1:9">
+    <row r="134" spans="1:9" ht="17.25">
       <c r="A134" s="5" t="s">
         <v>520</v>
       </c>
@@ -5861,7 +5274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" ht="17.25" spans="1:9">
+    <row r="135" spans="1:9" ht="17.25">
       <c r="A135" s="5" t="s">
         <v>525</v>
       </c>
@@ -5886,7 +5299,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" ht="17.25" hidden="1" spans="1:9">
+    <row r="136" spans="1:9" ht="17.25" hidden="1">
       <c r="A136" s="5" t="s">
         <v>527</v>
       </c>
@@ -5909,7 +5322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="137" ht="17.25" hidden="1" spans="1:9">
+    <row r="137" spans="1:9" ht="17.25" hidden="1">
       <c r="A137" s="5" t="s">
         <v>531</v>
       </c>
@@ -5932,7 +5345,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" ht="17.25" hidden="1" spans="1:9">
+    <row r="138" spans="1:9" ht="17.25" hidden="1">
       <c r="A138" s="5" t="s">
         <v>536</v>
       </c>
@@ -5955,7 +5368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="139" ht="17.25" hidden="1" spans="1:9">
+    <row r="139" spans="1:9" ht="17.25" hidden="1">
       <c r="A139" s="5" t="s">
         <v>541</v>
       </c>
@@ -5978,7 +5391,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" ht="17.25" spans="1:9">
+    <row r="140" spans="1:9" ht="17.25">
       <c r="A140" s="5" t="s">
         <v>543</v>
       </c>
@@ -6003,7 +5416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" ht="17.25" spans="1:9">
+    <row r="141" spans="1:9" ht="17.25">
       <c r="A141" s="5" t="s">
         <v>548</v>
       </c>
@@ -6028,7 +5441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" ht="17.25" spans="1:9">
+    <row r="142" spans="1:9" ht="17.25">
       <c r="A142" s="5" t="s">
         <v>550</v>
       </c>
@@ -6051,7 +5464,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" ht="17.25" spans="1:9">
+    <row r="143" spans="1:9" ht="17.25">
       <c r="A143" s="5" t="s">
         <v>554</v>
       </c>
@@ -6076,7 +5489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" ht="17.25" spans="1:9">
+    <row r="144" spans="1:9" ht="17.25">
       <c r="A144" s="5" t="s">
         <v>559</v>
       </c>
@@ -6101,7 +5514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" ht="17.25" spans="1:9">
+    <row r="145" spans="1:9" ht="17.25">
       <c r="A145" s="5" t="s">
         <v>564</v>
       </c>
@@ -6126,7 +5539,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" ht="17.25" spans="1:9">
+    <row r="146" spans="1:9" ht="17.25">
       <c r="A146" s="5" t="s">
         <v>569</v>
       </c>
@@ -6151,7 +5564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" ht="17.25" spans="1:9">
+    <row r="147" spans="1:9" ht="17.25">
       <c r="A147" s="5" t="s">
         <v>574</v>
       </c>
@@ -6176,7 +5589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" ht="17.25" spans="1:9">
+    <row r="148" spans="1:9" ht="17.25">
       <c r="A148" s="5" t="s">
         <v>579</v>
       </c>
@@ -6192,7 +5605,7 @@
         <v>582</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>161</v>
@@ -6201,23 +5614,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" ht="17.25" spans="1:9">
+    <row r="149" spans="1:9" ht="17.25">
       <c r="A149" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>584</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>585</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F149" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="F149" s="6" t="s">
+      <c r="G149" s="6" t="s">
         <v>587</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>588</v>
       </c>
       <c r="H149" s="6" t="s">
         <v>161</v>
@@ -6226,23 +5639,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" ht="17.25" spans="1:9">
+    <row r="150" spans="1:9" ht="17.25">
       <c r="A150" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>589</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>590</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="F150" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="F150" s="6" t="s">
-        <v>592</v>
-      </c>
       <c r="G150" s="6" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="H150" s="6" t="s">
         <v>161</v>
@@ -6251,9 +5664,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="151" ht="17.25" spans="1:9">
+    <row r="151" spans="1:9" ht="17.25">
       <c r="A151" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -6262,7 +5675,7 @@
         <v>551</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G151" s="6" t="s">
         <v>553</v>
@@ -6274,9 +5687,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" ht="17.25" spans="1:9">
+    <row r="152" spans="1:9" ht="17.25">
       <c r="A152" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>555</v>
@@ -6287,7 +5700,7 @@
         <v>556</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G152" s="6" t="s">
         <v>558</v>
@@ -6299,9 +5712,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" ht="17.25" spans="1:9">
+    <row r="153" spans="1:9" ht="17.25">
       <c r="A153" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>560</v>
@@ -6312,7 +5725,7 @@
         <v>561</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G153" s="6" t="s">
         <v>563</v>
@@ -6324,9 +5737,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" ht="17.25" spans="1:9">
+    <row r="154" spans="1:9" ht="17.25">
       <c r="A154" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>565</v>
@@ -6337,7 +5750,7 @@
         <v>566</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G154" s="6" t="s">
         <v>568</v>
@@ -6349,23 +5762,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" ht="17.25" spans="1:9">
+    <row r="155" spans="1:9" ht="17.25">
       <c r="A155" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="G155" s="6" t="s">
         <v>604</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>606</v>
       </c>
       <c r="H155" s="6" t="s">
         <v>219</v>
@@ -6375,43 +5788,41 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="I1:I155" etc:filterBottomFollowUsedRange="0">
+  <autoFilter ref="I1:I155" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="28"/>
       </filters>
     </filterColumn>
-    <extLst/>
   </autoFilter>
-  <sortState ref="A2:I155">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I155">
     <sortCondition ref="A1:A155"/>
   </sortState>
-  <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6421,6 +5832,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC229AC8-FD64-42F8-BB52-A26F232EE5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AD47DE-ADA2-4E8C-BAE3-CC4D5710770C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1611,9 +1611,6 @@
     <t>563276T</t>
   </si>
   <si>
-    <t>TBS</t>
-  </si>
-  <si>
     <t>WW Grain Tableh 6x250g 1905031</t>
   </si>
   <si>
@@ -1864,6 +1861,9 @@
   </si>
   <si>
     <t>2025.4.3.1</t>
+  </si>
+  <si>
+    <t>GH8</t>
   </si>
 </sst>
 </file>
@@ -1882,27 +1882,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF404040"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2287,11 +2287,11 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B106" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G141" sqref="G141"/>
+      <selection pane="bottomRight" activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5265,7 +5265,7 @@
         <v>523</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>524</v>
+        <v>608</v>
       </c>
       <c r="H134" s="6" t="s">
         <v>219</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="135" spans="1:9" ht="17.25">
       <c r="A135" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>521</v>
@@ -5287,10 +5287,10 @@
         <v>522</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>524</v>
+        <v>608</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>219</v>
@@ -5301,21 +5301,21 @@
     </row>
     <row r="136" spans="1:9" ht="17.25" hidden="1">
       <c r="A136" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>528</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F136" s="6">
         <v>563282</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H136" s="6"/>
       <c r="I136" s="6">
@@ -5324,21 +5324,21 @@
     </row>
     <row r="137" spans="1:9" ht="17.25" hidden="1">
       <c r="A137" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>531</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>532</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="F137" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="F137" s="6" t="s">
+      <c r="G137" s="6" t="s">
         <v>534</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>535</v>
       </c>
       <c r="H137" s="6"/>
       <c r="I137" s="6">
@@ -5347,21 +5347,21 @@
     </row>
     <row r="138" spans="1:9" ht="17.25" hidden="1">
       <c r="A138" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>536</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>537</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="F138" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="F138" s="6" t="s">
+      <c r="G138" s="6" t="s">
         <v>539</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>540</v>
       </c>
       <c r="H138" s="6"/>
       <c r="I138" s="6">
@@ -5370,21 +5370,21 @@
     </row>
     <row r="139" spans="1:9" ht="17.25" hidden="1">
       <c r="A139" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H139" s="6"/>
       <c r="I139" s="6">
@@ -5393,21 +5393,21 @@
     </row>
     <row r="140" spans="1:9" ht="17.25">
       <c r="A140" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>543</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>544</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="F140" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="F140" s="6" t="s">
+      <c r="G140" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>547</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>219</v>
@@ -5418,21 +5418,21 @@
     </row>
     <row r="141" spans="1:9" ht="17.25">
       <c r="A141" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
       <c r="E141" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>219</v>
@@ -5443,19 +5443,19 @@
     </row>
     <row r="142" spans="1:9" ht="17.25">
       <c r="A142" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
       <c r="E142" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="F142" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="F142" s="6" t="s">
+      <c r="G142" s="6" t="s">
         <v>552</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>553</v>
       </c>
       <c r="H142" s="6" t="s">
         <v>161</v>
@@ -5466,21 +5466,21 @@
     </row>
     <row r="143" spans="1:9" ht="17.25">
       <c r="A143" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>554</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>555</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
       <c r="E143" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F143" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="F143" s="6" t="s">
+      <c r="G143" s="6" t="s">
         <v>557</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>558</v>
       </c>
       <c r="H143" s="6" t="s">
         <v>161</v>
@@ -5491,21 +5491,21 @@
     </row>
     <row r="144" spans="1:9" ht="17.25">
       <c r="A144" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>559</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>560</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="F144" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="F144" s="6" t="s">
+      <c r="G144" s="6" t="s">
         <v>562</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>563</v>
       </c>
       <c r="H144" s="6" t="s">
         <v>161</v>
@@ -5516,21 +5516,21 @@
     </row>
     <row r="145" spans="1:9" ht="17.25">
       <c r="A145" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>565</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="F145" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="F145" s="6" t="s">
+      <c r="G145" s="6" t="s">
         <v>567</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>568</v>
       </c>
       <c r="H145" s="6" t="s">
         <v>161</v>
@@ -5541,21 +5541,21 @@
     </row>
     <row r="146" spans="1:9" ht="17.25">
       <c r="A146" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>569</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>570</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="F146" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="F146" s="6" t="s">
+      <c r="G146" s="6" t="s">
         <v>572</v>
-      </c>
-      <c r="G146" s="6" t="s">
-        <v>573</v>
       </c>
       <c r="H146" s="6" t="s">
         <v>321</v>
@@ -5566,21 +5566,21 @@
     </row>
     <row r="147" spans="1:9" ht="17.25">
       <c r="A147" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>574</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>575</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="F147" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="F147" s="6" t="s">
+      <c r="G147" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>578</v>
       </c>
       <c r="H147" s="6" t="s">
         <v>321</v>
@@ -5591,21 +5591,21 @@
     </row>
     <row r="148" spans="1:9" ht="17.25">
       <c r="A148" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>579</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>580</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="F148" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="F148" s="6" t="s">
-        <v>582</v>
-      </c>
       <c r="G148" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>161</v>
@@ -5616,21 +5616,21 @@
     </row>
     <row r="149" spans="1:9" ht="17.25">
       <c r="A149" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>583</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>584</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="F149" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="F149" s="6" t="s">
+      <c r="G149" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>587</v>
       </c>
       <c r="H149" s="6" t="s">
         <v>161</v>
@@ -5641,21 +5641,21 @@
     </row>
     <row r="150" spans="1:9" ht="17.25">
       <c r="A150" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>588</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>589</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="F150" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="F150" s="6" t="s">
-        <v>591</v>
-      </c>
       <c r="G150" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H150" s="6" t="s">
         <v>161</v>
@@ -5666,19 +5666,19 @@
     </row>
     <row r="151" spans="1:9" ht="17.25">
       <c r="A151" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>161</v>
@@ -5689,21 +5689,21 @@
     </row>
     <row r="152" spans="1:9" ht="17.25">
       <c r="A152" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H152" s="6" t="s">
         <v>161</v>
@@ -5714,21 +5714,21 @@
     </row>
     <row r="153" spans="1:9" ht="17.25">
       <c r="A153" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H153" s="6" t="s">
         <v>161</v>
@@ -5739,21 +5739,21 @@
     </row>
     <row r="154" spans="1:9" ht="17.25">
       <c r="A154" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="E154" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H154" s="6" t="s">
         <v>161</v>
@@ -5764,21 +5764,21 @@
     </row>
     <row r="155" spans="1:9" ht="17.25">
       <c r="A155" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>600</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>601</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="F155" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="F155" s="6" t="s">
+      <c r="G155" s="6" t="s">
         <v>603</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>604</v>
       </c>
       <c r="H155" s="6" t="s">
         <v>219</v>
@@ -5814,7 +5814,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -5822,12 +5822,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AD47DE-ADA2-4E8C-BAE3-CC4D5710770C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E30B4F-919B-4F42-951F-4F09EFB79AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1860,22 +1860,29 @@
     <t>8RF</t>
   </si>
   <si>
-    <t>2025.4.3.1</t>
-  </si>
-  <si>
     <t>GH8</t>
+  </si>
+  <si>
+    <t>2025.4.4.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1948,33 +1955,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2287,7 +2297,7 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -5265,7 +5275,7 @@
         <v>523</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H134" s="6" t="s">
         <v>219</v>
@@ -5290,7 +5300,7 @@
         <v>525</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>219</v>
@@ -5814,7 +5824,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -5826,8 +5836,8 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>607</v>
+      <c r="A2" s="9" t="s">
+        <v>608</v>
       </c>
     </row>
   </sheetData>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E30B4F-919B-4F42-951F-4F09EFB79AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26CDDF1-01E1-4C7F-8376-2BF4B64301E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1551,9 +1551,6 @@
     <t>563252</t>
   </si>
   <si>
-    <t>4CS</t>
-  </si>
-  <si>
     <t>WW Coleslaw 6 x 800g '23</t>
   </si>
   <si>
@@ -1863,7 +1860,10 @@
     <t>GH8</t>
   </si>
   <si>
-    <t>2025.4.4.1</t>
+    <t>8HL</t>
+  </si>
+  <si>
+    <t>2025.4.7.1</t>
   </si>
 </sst>
 </file>
@@ -2298,10 +2298,10 @@
   <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G134" sqref="G134"/>
+      <selection pane="bottomRight" activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5177,7 +5177,7 @@
         <v>503</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>504</v>
+        <v>607</v>
       </c>
       <c r="H130" s="6" t="s">
         <v>161</v>
@@ -5188,21 +5188,21 @@
     </row>
     <row r="131" spans="1:9" ht="17.25">
       <c r="A131" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>506</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
       <c r="E131" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="F131" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="F131" s="6" t="s">
+      <c r="G131" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>509</v>
       </c>
       <c r="H131" s="6" t="s">
         <v>161</v>
@@ -5213,21 +5213,21 @@
     </row>
     <row r="132" spans="1:9" ht="17.25">
       <c r="A132" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>510</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>511</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
       <c r="E132" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="F132" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="F132" s="6" t="s">
+      <c r="G132" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>514</v>
       </c>
       <c r="H132" s="6" t="s">
         <v>219</v>
@@ -5238,21 +5238,21 @@
     </row>
     <row r="133" spans="1:9" ht="17.25" hidden="1">
       <c r="A133" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>515</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>516</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
       <c r="E133" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="F133" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="F133" s="6" t="s">
+      <c r="G133" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>519</v>
       </c>
       <c r="H133" s="6"/>
       <c r="I133" s="6">
@@ -5261,21 +5261,21 @@
     </row>
     <row r="134" spans="1:9" ht="17.25">
       <c r="A134" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>520</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>521</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="F134" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="F134" s="6" t="s">
-        <v>523</v>
-      </c>
       <c r="G134" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H134" s="6" t="s">
         <v>219</v>
@@ -5286,21 +5286,21 @@
     </row>
     <row r="135" spans="1:9" ht="17.25">
       <c r="A135" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>219</v>
@@ -5311,21 +5311,21 @@
     </row>
     <row r="136" spans="1:9" ht="17.25" hidden="1">
       <c r="A136" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>526</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>527</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F136" s="6">
         <v>563282</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H136" s="6"/>
       <c r="I136" s="6">
@@ -5334,21 +5334,21 @@
     </row>
     <row r="137" spans="1:9" ht="17.25" hidden="1">
       <c r="A137" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>530</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>531</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="F137" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="F137" s="6" t="s">
+      <c r="G137" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>534</v>
       </c>
       <c r="H137" s="6"/>
       <c r="I137" s="6">
@@ -5357,21 +5357,21 @@
     </row>
     <row r="138" spans="1:9" ht="17.25" hidden="1">
       <c r="A138" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>535</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>536</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="F138" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="F138" s="6" t="s">
+      <c r="G138" s="6" t="s">
         <v>538</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>539</v>
       </c>
       <c r="H138" s="6"/>
       <c r="I138" s="6">
@@ -5380,21 +5380,21 @@
     </row>
     <row r="139" spans="1:9" ht="17.25" hidden="1">
       <c r="A139" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H139" s="6"/>
       <c r="I139" s="6">
@@ -5403,21 +5403,21 @@
     </row>
     <row r="140" spans="1:9" ht="17.25">
       <c r="A140" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>542</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>543</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="F140" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="F140" s="6" t="s">
+      <c r="G140" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>546</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>219</v>
@@ -5428,21 +5428,21 @@
     </row>
     <row r="141" spans="1:9" ht="17.25">
       <c r="A141" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
       <c r="E141" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>219</v>
@@ -5453,19 +5453,19 @@
     </row>
     <row r="142" spans="1:9" ht="17.25">
       <c r="A142" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
       <c r="E142" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="F142" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="F142" s="6" t="s">
+      <c r="G142" s="6" t="s">
         <v>551</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>552</v>
       </c>
       <c r="H142" s="6" t="s">
         <v>161</v>
@@ -5476,21 +5476,21 @@
     </row>
     <row r="143" spans="1:9" ht="17.25">
       <c r="A143" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>553</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>554</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
       <c r="E143" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="F143" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="F143" s="6" t="s">
+      <c r="G143" s="6" t="s">
         <v>556</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>557</v>
       </c>
       <c r="H143" s="6" t="s">
         <v>161</v>
@@ -5501,21 +5501,21 @@
     </row>
     <row r="144" spans="1:9" ht="17.25">
       <c r="A144" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>558</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>559</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="F144" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="F144" s="6" t="s">
+      <c r="G144" s="6" t="s">
         <v>561</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>562</v>
       </c>
       <c r="H144" s="6" t="s">
         <v>161</v>
@@ -5526,21 +5526,21 @@
     </row>
     <row r="145" spans="1:9" ht="17.25">
       <c r="A145" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>563</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>564</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="F145" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="F145" s="6" t="s">
+      <c r="G145" s="6" t="s">
         <v>566</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>567</v>
       </c>
       <c r="H145" s="6" t="s">
         <v>161</v>
@@ -5551,21 +5551,21 @@
     </row>
     <row r="146" spans="1:9" ht="17.25">
       <c r="A146" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>569</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="F146" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="F146" s="6" t="s">
+      <c r="G146" s="6" t="s">
         <v>571</v>
-      </c>
-      <c r="G146" s="6" t="s">
-        <v>572</v>
       </c>
       <c r="H146" s="6" t="s">
         <v>321</v>
@@ -5576,21 +5576,21 @@
     </row>
     <row r="147" spans="1:9" ht="17.25">
       <c r="A147" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>573</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>574</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="F147" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="F147" s="6" t="s">
+      <c r="G147" s="6" t="s">
         <v>576</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>577</v>
       </c>
       <c r="H147" s="6" t="s">
         <v>321</v>
@@ -5601,21 +5601,21 @@
     </row>
     <row r="148" spans="1:9" ht="17.25">
       <c r="A148" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>578</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>579</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="F148" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="F148" s="6" t="s">
-        <v>581</v>
-      </c>
       <c r="G148" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>161</v>
@@ -5626,21 +5626,21 @@
     </row>
     <row r="149" spans="1:9" ht="17.25">
       <c r="A149" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>583</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="F149" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="F149" s="6" t="s">
+      <c r="G149" s="6" t="s">
         <v>585</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>586</v>
       </c>
       <c r="H149" s="6" t="s">
         <v>161</v>
@@ -5651,21 +5651,21 @@
     </row>
     <row r="150" spans="1:9" ht="17.25">
       <c r="A150" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>587</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>588</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="F150" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="F150" s="6" t="s">
-        <v>590</v>
-      </c>
       <c r="G150" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H150" s="6" t="s">
         <v>161</v>
@@ -5676,19 +5676,19 @@
     </row>
     <row r="151" spans="1:9" ht="17.25">
       <c r="A151" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>161</v>
@@ -5699,21 +5699,21 @@
     </row>
     <row r="152" spans="1:9" ht="17.25">
       <c r="A152" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H152" s="6" t="s">
         <v>161</v>
@@ -5724,21 +5724,21 @@
     </row>
     <row r="153" spans="1:9" ht="17.25">
       <c r="A153" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H153" s="6" t="s">
         <v>161</v>
@@ -5749,21 +5749,21 @@
     </row>
     <row r="154" spans="1:9" ht="17.25">
       <c r="A154" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="E154" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H154" s="6" t="s">
         <v>161</v>
@@ -5774,21 +5774,21 @@
     </row>
     <row r="155" spans="1:9" ht="17.25">
       <c r="A155" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>599</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>600</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="F155" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="F155" s="6" t="s">
+      <c r="G155" s="6" t="s">
         <v>602</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>603</v>
       </c>
       <c r="H155" s="6" t="s">
         <v>219</v>
@@ -5832,7 +5832,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26CDDF1-01E1-4C7F-8376-2BF4B64301E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994C2C33-A54E-4603-A29A-0556F0D79E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1536,9 +1536,6 @@
     <t>563251</t>
   </si>
   <si>
-    <t>2CS</t>
-  </si>
-  <si>
     <t>WW Coleslaw 6 x 400g '23</t>
   </si>
   <si>
@@ -1794,9 +1791,6 @@
     <t>563261</t>
   </si>
   <si>
-    <t>4PO</t>
-  </si>
-  <si>
     <t>WW Potato Sld 6 x 800g '23</t>
   </si>
   <si>
@@ -1863,7 +1857,13 @@
     <t>8HL</t>
   </si>
   <si>
-    <t>2025.4.7.1</t>
+    <t>R4D</t>
+  </si>
+  <si>
+    <t>JE5</t>
+  </si>
+  <si>
+    <t>2025.4.9.1</t>
   </si>
 </sst>
 </file>
@@ -2298,10 +2298,10 @@
   <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G130" sqref="G130"/>
+      <selection pane="bottomRight" activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5152,7 +5152,7 @@
         <v>498</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>499</v>
+        <v>606</v>
       </c>
       <c r="H129" s="6" t="s">
         <v>161</v>
@@ -5163,21 +5163,21 @@
     </row>
     <row r="130" spans="1:9" ht="17.25">
       <c r="A130" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>501</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="F130" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="F130" s="6" t="s">
-        <v>503</v>
-      </c>
       <c r="G130" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H130" s="6" t="s">
         <v>161</v>
@@ -5188,21 +5188,21 @@
     </row>
     <row r="131" spans="1:9" ht="17.25">
       <c r="A131" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>504</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>505</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
       <c r="E131" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="F131" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="F131" s="6" t="s">
+      <c r="G131" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="H131" s="6" t="s">
         <v>161</v>
@@ -5213,21 +5213,21 @@
     </row>
     <row r="132" spans="1:9" ht="17.25">
       <c r="A132" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
       <c r="E132" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="F132" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="F132" s="6" t="s">
+      <c r="G132" s="6" t="s">
         <v>512</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>513</v>
       </c>
       <c r="H132" s="6" t="s">
         <v>219</v>
@@ -5238,21 +5238,21 @@
     </row>
     <row r="133" spans="1:9" ht="17.25" hidden="1">
       <c r="A133" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>514</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>515</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
       <c r="E133" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="F133" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="F133" s="6" t="s">
+      <c r="G133" s="6" t="s">
         <v>517</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>518</v>
       </c>
       <c r="H133" s="6"/>
       <c r="I133" s="6">
@@ -5261,21 +5261,21 @@
     </row>
     <row r="134" spans="1:9" ht="17.25">
       <c r="A134" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>520</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="F134" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="F134" s="6" t="s">
-        <v>522</v>
-      </c>
       <c r="G134" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H134" s="6" t="s">
         <v>219</v>
@@ -5286,21 +5286,21 @@
     </row>
     <row r="135" spans="1:9" ht="17.25">
       <c r="A135" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>219</v>
@@ -5311,21 +5311,21 @@
     </row>
     <row r="136" spans="1:9" ht="17.25" hidden="1">
       <c r="A136" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>526</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F136" s="6">
         <v>563282</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H136" s="6"/>
       <c r="I136" s="6">
@@ -5334,21 +5334,21 @@
     </row>
     <row r="137" spans="1:9" ht="17.25" hidden="1">
       <c r="A137" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>529</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>530</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="F137" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="F137" s="6" t="s">
+      <c r="G137" s="6" t="s">
         <v>532</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>533</v>
       </c>
       <c r="H137" s="6"/>
       <c r="I137" s="6">
@@ -5357,21 +5357,21 @@
     </row>
     <row r="138" spans="1:9" ht="17.25" hidden="1">
       <c r="A138" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>534</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>535</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="F138" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="F138" s="6" t="s">
+      <c r="G138" s="6" t="s">
         <v>537</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>538</v>
       </c>
       <c r="H138" s="6"/>
       <c r="I138" s="6">
@@ -5380,21 +5380,21 @@
     </row>
     <row r="139" spans="1:9" ht="17.25" hidden="1">
       <c r="A139" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H139" s="6"/>
       <c r="I139" s="6">
@@ -5403,21 +5403,21 @@
     </row>
     <row r="140" spans="1:9" ht="17.25">
       <c r="A140" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>541</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>542</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="F140" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="F140" s="6" t="s">
+      <c r="G140" s="6" t="s">
         <v>544</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>545</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>219</v>
@@ -5428,21 +5428,21 @@
     </row>
     <row r="141" spans="1:9" ht="17.25">
       <c r="A141" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
       <c r="E141" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>219</v>
@@ -5453,19 +5453,19 @@
     </row>
     <row r="142" spans="1:9" ht="17.25">
       <c r="A142" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
       <c r="E142" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="F142" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="F142" s="6" t="s">
+      <c r="G142" s="6" t="s">
         <v>550</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>551</v>
       </c>
       <c r="H142" s="6" t="s">
         <v>161</v>
@@ -5476,21 +5476,21 @@
     </row>
     <row r="143" spans="1:9" ht="17.25">
       <c r="A143" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>552</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>553</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
       <c r="E143" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="F143" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="F143" s="6" t="s">
+      <c r="G143" s="6" t="s">
         <v>555</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>556</v>
       </c>
       <c r="H143" s="6" t="s">
         <v>161</v>
@@ -5501,21 +5501,21 @@
     </row>
     <row r="144" spans="1:9" ht="17.25">
       <c r="A144" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>557</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>558</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="F144" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="F144" s="6" t="s">
+      <c r="G144" s="6" t="s">
         <v>560</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>561</v>
       </c>
       <c r="H144" s="6" t="s">
         <v>161</v>
@@ -5526,21 +5526,21 @@
     </row>
     <row r="145" spans="1:9" ht="17.25">
       <c r="A145" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>562</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>563</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="F145" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="F145" s="6" t="s">
+      <c r="G145" s="6" t="s">
         <v>565</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>566</v>
       </c>
       <c r="H145" s="6" t="s">
         <v>161</v>
@@ -5551,21 +5551,21 @@
     </row>
     <row r="146" spans="1:9" ht="17.25">
       <c r="A146" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>567</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>568</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="F146" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="F146" s="6" t="s">
+      <c r="G146" s="6" t="s">
         <v>570</v>
-      </c>
-      <c r="G146" s="6" t="s">
-        <v>571</v>
       </c>
       <c r="H146" s="6" t="s">
         <v>321</v>
@@ -5576,21 +5576,21 @@
     </row>
     <row r="147" spans="1:9" ht="17.25">
       <c r="A147" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>572</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>573</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="F147" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="F147" s="6" t="s">
+      <c r="G147" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>576</v>
       </c>
       <c r="H147" s="6" t="s">
         <v>321</v>
@@ -5601,21 +5601,21 @@
     </row>
     <row r="148" spans="1:9" ht="17.25">
       <c r="A148" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>578</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="F148" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="F148" s="6" t="s">
-        <v>580</v>
-      </c>
       <c r="G148" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>161</v>
@@ -5626,21 +5626,21 @@
     </row>
     <row r="149" spans="1:9" ht="17.25">
       <c r="A149" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>581</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>582</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="F149" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="F149" s="6" t="s">
-        <v>584</v>
-      </c>
       <c r="G149" s="6" t="s">
-        <v>585</v>
+        <v>607</v>
       </c>
       <c r="H149" s="6" t="s">
         <v>161</v>
@@ -5651,21 +5651,21 @@
     </row>
     <row r="150" spans="1:9" ht="17.25">
       <c r="A150" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H150" s="6" t="s">
         <v>161</v>
@@ -5676,19 +5676,19 @@
     </row>
     <row r="151" spans="1:9" ht="17.25">
       <c r="A151" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>161</v>
@@ -5699,21 +5699,21 @@
     </row>
     <row r="152" spans="1:9" ht="17.25">
       <c r="A152" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H152" s="6" t="s">
         <v>161</v>
@@ -5724,21 +5724,21 @@
     </row>
     <row r="153" spans="1:9" ht="17.25">
       <c r="A153" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H153" s="6" t="s">
         <v>161</v>
@@ -5749,21 +5749,21 @@
     </row>
     <row r="154" spans="1:9" ht="17.25">
       <c r="A154" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="E154" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H154" s="6" t="s">
         <v>161</v>
@@ -5774,21 +5774,21 @@
     </row>
     <row r="155" spans="1:9" ht="17.25">
       <c r="A155" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="G155" s="6" t="s">
         <v>600</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>602</v>
       </c>
       <c r="H155" s="6" t="s">
         <v>219</v>
@@ -5832,7 +5832,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994C2C33-A54E-4603-A29A-0556F0D79E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC05DE2-BC34-47D6-B2DF-1A7CE120323D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1863,7 +1863,7 @@
     <t>JE5</t>
   </si>
   <si>
-    <t>2025.4.9.1</t>
+    <t>2025.4.10.1</t>
   </si>
 </sst>
 </file>
@@ -2298,10 +2298,10 @@
   <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G149" sqref="G149"/>
+      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3349,7 +3349,7 @@
         <v>197</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="I45" s="6">
         <v>28</v>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC05DE2-BC34-47D6-B2DF-1A7CE120323D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B92E486-5CBB-479C-8A2B-54FBB9720965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="610">
   <si>
     <t>Product Name</t>
   </si>
@@ -1864,18 +1864,28 @@
   </si>
   <si>
     <t>2025.4.10.1</t>
+  </si>
+  <si>
+    <t>check filling authority</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1955,33 +1965,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -5822,22 +5835,32 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="10" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
         <v>608</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B92E486-5CBB-479C-8A2B-54FBB9720965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7BEDB1-33F0-470E-96BA-8CEDD714E5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="611">
   <si>
     <t>Product Name</t>
   </si>
@@ -1867,6 +1867,9 @@
   </si>
   <si>
     <t>check filling authority</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -2308,13 +2311,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomRight" activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5807,6 +5810,29 @@
         <v>219</v>
       </c>
       <c r="I155" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="17.25">
+      <c r="A156" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B156" s="6">
+        <v>1</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6">
+        <v>1</v>
+      </c>
+      <c r="F156" s="6">
+        <v>1</v>
+      </c>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6">
+        <v>10</v>
+      </c>
+      <c r="I156" s="6">
         <v>28</v>
       </c>
     </row>
@@ -5837,7 +5863,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7BEDB1-33F0-470E-96BA-8CEDD714E5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB2517A-0BF4-46C0-A1C5-9EB46453E5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2313,11 +2313,11 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B135" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E160" sqref="E160"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5863,8 +5863,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5886,7 +5886,7 @@
         <v>608</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB2517A-0BF4-46C0-A1C5-9EB46453E5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894F2BDA-FAC6-465E-831E-E9C49737E7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2317,7 +2317,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5864,7 +5864,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5886,7 +5886,7 @@
         <v>608</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894F2BDA-FAC6-465E-831E-E9C49737E7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B224EC8-55F1-4815-9237-29450A49D035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2313,11 +2313,11 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2397,7 +2397,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="I3" s="6">
         <v>28</v>
@@ -2422,7 +2422,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="I4" s="6">
         <v>28</v>
@@ -2470,7 +2470,7 @@
         <v>31</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="I6" s="6">
         <v>28</v>
@@ -2495,7 +2495,7 @@
         <v>36</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="I7" s="6">
         <v>28</v>
@@ -2520,7 +2520,7 @@
         <v>41</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="I8" s="6">
         <v>28</v>
@@ -2545,7 +2545,7 @@
         <v>46</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="I9" s="6">
         <v>28</v>
@@ -5863,7 +5863,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B224EC8-55F1-4815-9237-29450A49D035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E94C7F-1A3D-434C-8BE8-D5A85F3DE655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1560,9 +1560,6 @@
     <t>563253</t>
   </si>
   <si>
-    <t>8CS</t>
-  </si>
-  <si>
     <t>WW Csar PstaKit 4x400g 1908545</t>
   </si>
   <si>
@@ -1870,6 +1867,9 @@
   </si>
   <si>
     <t>TEST</t>
+  </si>
+  <si>
+    <t>1KH</t>
   </si>
 </sst>
 </file>
@@ -2314,10 +2314,10 @@
   <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5168,7 +5168,7 @@
         <v>498</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H129" s="6" t="s">
         <v>161</v>
@@ -5193,7 +5193,7 @@
         <v>502</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H130" s="6" t="s">
         <v>161</v>
@@ -5218,7 +5218,7 @@
         <v>506</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>507</v>
+        <v>610</v>
       </c>
       <c r="H131" s="6" t="s">
         <v>161</v>
@@ -5229,21 +5229,21 @@
     </row>
     <row r="132" spans="1:9" ht="17.25">
       <c r="A132" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>509</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
       <c r="E132" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="F132" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="F132" s="6" t="s">
+      <c r="G132" s="6" t="s">
         <v>511</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>512</v>
       </c>
       <c r="H132" s="6" t="s">
         <v>219</v>
@@ -5254,21 +5254,21 @@
     </row>
     <row r="133" spans="1:9" ht="17.25" hidden="1">
       <c r="A133" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>514</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
       <c r="E133" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="F133" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="F133" s="6" t="s">
+      <c r="G133" s="6" t="s">
         <v>516</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>517</v>
       </c>
       <c r="H133" s="6"/>
       <c r="I133" s="6">
@@ -5277,21 +5277,21 @@
     </row>
     <row r="134" spans="1:9" ht="17.25">
       <c r="A134" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>519</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="F134" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="F134" s="6" t="s">
-        <v>521</v>
-      </c>
       <c r="G134" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H134" s="6" t="s">
         <v>219</v>
@@ -5302,21 +5302,21 @@
     </row>
     <row r="135" spans="1:9" ht="17.25">
       <c r="A135" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>219</v>
@@ -5327,21 +5327,21 @@
     </row>
     <row r="136" spans="1:9" ht="17.25" hidden="1">
       <c r="A136" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>524</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>525</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F136" s="6">
         <v>563282</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H136" s="6"/>
       <c r="I136" s="6">
@@ -5350,21 +5350,21 @@
     </row>
     <row r="137" spans="1:9" ht="17.25" hidden="1">
       <c r="A137" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>528</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>529</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="F137" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="F137" s="6" t="s">
+      <c r="G137" s="6" t="s">
         <v>531</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>532</v>
       </c>
       <c r="H137" s="6"/>
       <c r="I137" s="6">
@@ -5373,21 +5373,21 @@
     </row>
     <row r="138" spans="1:9" ht="17.25" hidden="1">
       <c r="A138" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>534</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="F138" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F138" s="6" t="s">
+      <c r="G138" s="6" t="s">
         <v>536</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>537</v>
       </c>
       <c r="H138" s="6"/>
       <c r="I138" s="6">
@@ -5396,21 +5396,21 @@
     </row>
     <row r="139" spans="1:9" ht="17.25" hidden="1">
       <c r="A139" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H139" s="6"/>
       <c r="I139" s="6">
@@ -5419,21 +5419,21 @@
     </row>
     <row r="140" spans="1:9" ht="17.25">
       <c r="A140" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>540</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>541</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="F140" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="F140" s="6" t="s">
+      <c r="G140" s="6" t="s">
         <v>543</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>544</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>219</v>
@@ -5444,21 +5444,21 @@
     </row>
     <row r="141" spans="1:9" ht="17.25">
       <c r="A141" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
       <c r="E141" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>219</v>
@@ -5469,19 +5469,19 @@
     </row>
     <row r="142" spans="1:9" ht="17.25">
       <c r="A142" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
       <c r="E142" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="F142" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="F142" s="6" t="s">
+      <c r="G142" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>550</v>
       </c>
       <c r="H142" s="6" t="s">
         <v>161</v>
@@ -5492,21 +5492,21 @@
     </row>
     <row r="143" spans="1:9" ht="17.25">
       <c r="A143" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>551</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>552</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
       <c r="E143" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="F143" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="F143" s="6" t="s">
+      <c r="G143" s="6" t="s">
         <v>554</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>555</v>
       </c>
       <c r="H143" s="6" t="s">
         <v>161</v>
@@ -5517,21 +5517,21 @@
     </row>
     <row r="144" spans="1:9" ht="17.25">
       <c r="A144" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>556</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>557</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="F144" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="F144" s="6" t="s">
+      <c r="G144" s="6" t="s">
         <v>559</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>560</v>
       </c>
       <c r="H144" s="6" t="s">
         <v>161</v>
@@ -5542,21 +5542,21 @@
     </row>
     <row r="145" spans="1:9" ht="17.25">
       <c r="A145" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>561</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>562</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="F145" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="F145" s="6" t="s">
+      <c r="G145" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>565</v>
       </c>
       <c r="H145" s="6" t="s">
         <v>161</v>
@@ -5567,21 +5567,21 @@
     </row>
     <row r="146" spans="1:9" ht="17.25">
       <c r="A146" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>566</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>567</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="F146" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="F146" s="6" t="s">
+      <c r="G146" s="6" t="s">
         <v>569</v>
-      </c>
-      <c r="G146" s="6" t="s">
-        <v>570</v>
       </c>
       <c r="H146" s="6" t="s">
         <v>321</v>
@@ -5592,21 +5592,21 @@
     </row>
     <row r="147" spans="1:9" ht="17.25">
       <c r="A147" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>571</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>572</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="F147" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="F147" s="6" t="s">
+      <c r="G147" s="6" t="s">
         <v>574</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>575</v>
       </c>
       <c r="H147" s="6" t="s">
         <v>321</v>
@@ -5617,21 +5617,21 @@
     </row>
     <row r="148" spans="1:9" ht="17.25">
       <c r="A148" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>576</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>577</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="F148" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="F148" s="6" t="s">
-        <v>579</v>
-      </c>
       <c r="G148" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>161</v>
@@ -5642,21 +5642,21 @@
     </row>
     <row r="149" spans="1:9" ht="17.25">
       <c r="A149" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>580</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>581</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="F149" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="F149" s="6" t="s">
-        <v>583</v>
-      </c>
       <c r="G149" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H149" s="6" t="s">
         <v>161</v>
@@ -5667,21 +5667,21 @@
     </row>
     <row r="150" spans="1:9" ht="17.25">
       <c r="A150" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>584</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>585</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F150" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="F150" s="6" t="s">
-        <v>587</v>
-      </c>
       <c r="G150" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H150" s="6" t="s">
         <v>161</v>
@@ -5692,19 +5692,19 @@
     </row>
     <row r="151" spans="1:9" ht="17.25">
       <c r="A151" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>161</v>
@@ -5715,21 +5715,21 @@
     </row>
     <row r="152" spans="1:9" ht="17.25">
       <c r="A152" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H152" s="6" t="s">
         <v>161</v>
@@ -5740,21 +5740,21 @@
     </row>
     <row r="153" spans="1:9" ht="17.25">
       <c r="A153" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H153" s="6" t="s">
         <v>161</v>
@@ -5765,21 +5765,21 @@
     </row>
     <row r="154" spans="1:9" ht="17.25">
       <c r="A154" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="E154" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H154" s="6" t="s">
         <v>161</v>
@@ -5790,21 +5790,21 @@
     </row>
     <row r="155" spans="1:9" ht="17.25">
       <c r="A155" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>596</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>597</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="F155" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="F155" s="6" t="s">
+      <c r="G155" s="6" t="s">
         <v>599</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>600</v>
       </c>
       <c r="H155" s="6" t="s">
         <v>219</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="156" spans="1:9" ht="17.25">
       <c r="A156" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B156" s="6">
         <v>1</v>
@@ -5875,15 +5875,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E94C7F-1A3D-434C-8BE8-D5A85F3DE655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09E3471-BF4A-4538-B990-6DB8C517B1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="611">
   <si>
     <t>Product Name</t>
   </si>
@@ -2314,10 +2314,10 @@
   <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I132" sqref="I132"/>
+      <selection pane="bottomRight" activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4385,7 +4385,9 @@
         <v>378</v>
       </c>
       <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
+      <c r="H92" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="I92" s="6">
         <v>28</v>
       </c>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09E3471-BF4A-4538-B990-6DB8C517B1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9E4DE4-B7FB-45B9-B37C-BE09B7004482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="612">
   <si>
     <t>Product Name</t>
   </si>
@@ -1870,6 +1870,9 @@
   </si>
   <si>
     <t>1KH</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -2314,10 +2317,10 @@
   <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H75" sqref="H75"/>
+      <selection pane="bottomRight" activeCell="H166" sqref="H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2563,7 +2566,9 @@
         <v>48</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>611</v>
+      </c>
       <c r="I10" s="6">
         <v>28</v>
       </c>
@@ -4279,7 +4284,9 @@
         <v>364</v>
       </c>
       <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
+      <c r="H86" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="I86" s="6">
         <v>28</v>
       </c>
@@ -4298,7 +4305,9 @@
         <v>367</v>
       </c>
       <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
+      <c r="H87" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="I87" s="6">
         <v>28</v>
       </c>
@@ -4315,7 +4324,9 @@
         <v>369</v>
       </c>
       <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
+      <c r="H88" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="I88" s="6">
         <v>28</v>
       </c>
@@ -4334,7 +4345,9 @@
         <v>372</v>
       </c>
       <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
+      <c r="H89" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="I89" s="6">
         <v>28</v>
       </c>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="del" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$156</definedName>
@@ -1885,7 +1885,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1896,20 +1896,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2418,137 +2404,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2561,13 +2547,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2579,19 +2559,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2929,7 +2909,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="32.425" style="8" customWidth="1"/>
+    <col min="1" max="1" width="32.425" style="6" customWidth="1"/>
     <col min="2" max="2" width="18.2833333333333" customWidth="1"/>
     <col min="3" max="3" width="10.5666666666667" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
@@ -2938,3520 +2918,3520 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" ht="17.25" hidden="1" spans="1:9">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:9">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:9">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="5" ht="17.25" hidden="1" spans="1:9">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:9">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
+      <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:9">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:9">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:9">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:9">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="12" ht="17.25" hidden="1" spans="1:9">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="13" ht="17.25" hidden="1" spans="1:9">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12">
+      <c r="H13" s="10"/>
+      <c r="I13" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="14" ht="17.25" hidden="1" spans="1:9">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12">
+      <c r="H14" s="10"/>
+      <c r="I14" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="17.25" hidden="1" spans="1:9">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12">
+      <c r="H15" s="10"/>
+      <c r="I15" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="16" ht="17.25" hidden="1" spans="1:9">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12">
+      <c r="H16" s="10"/>
+      <c r="I16" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="1:9">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12" t="s">
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:9">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="1:9">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:9">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="21" ht="17.25" hidden="1" spans="1:9">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12">
+      <c r="H21" s="10"/>
+      <c r="I21" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="22" ht="17.25" hidden="1" spans="1:9">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12">
+      <c r="H22" s="10"/>
+      <c r="I22" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="23" ht="17.25" hidden="1" spans="1:9">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12">
+      <c r="H23" s="10"/>
+      <c r="I23" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="24" ht="17.25" hidden="1" spans="1:9">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12">
+      <c r="H24" s="10"/>
+      <c r="I24" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="25" ht="17.25" hidden="1" spans="1:9">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12">
+      <c r="H25" s="10"/>
+      <c r="I25" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="26" ht="17.25" hidden="1" spans="1:9">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12">
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="27" ht="17.25" hidden="1" spans="1:9">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12">
+      <c r="H27" s="10"/>
+      <c r="I27" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="28" ht="17.25" hidden="1" spans="1:9">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12">
+      <c r="H28" s="10"/>
+      <c r="I28" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:9">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12" t="s">
+      <c r="G29" s="10"/>
+      <c r="H29" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="1:9">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12" t="s">
+      <c r="G30" s="10"/>
+      <c r="H30" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="31" ht="17.25" hidden="1" spans="1:9">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12" t="s">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12">
+      <c r="H31" s="10"/>
+      <c r="I31" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="32" ht="17.25" hidden="1" spans="1:9">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12">
+      <c r="H32" s="10"/>
+      <c r="I32" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="33" ht="17.25" hidden="1" spans="1:9">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12" t="s">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12">
+      <c r="H33" s="10"/>
+      <c r="I33" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="34" ht="17.25" hidden="1" spans="1:9">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12">
+      <c r="H34" s="10"/>
+      <c r="I34" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="1:9">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12" t="s">
+      <c r="G35" s="10"/>
+      <c r="H35" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="36" ht="17.25" spans="1:9">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12" t="s">
+      <c r="G36" s="10"/>
+      <c r="H36" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="37" ht="17.25" spans="1:9">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="H37" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="1:9">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="1:9">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12" t="s">
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H39" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="1:9">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12" t="s">
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="41" ht="17.25" spans="1:9">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12" t="s">
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="42" ht="17.25" spans="1:9">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12" t="s">
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="43" ht="17.25" hidden="1" spans="1:9">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12" t="s">
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12">
+      <c r="H43" s="10"/>
+      <c r="I43" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="44" ht="17.25" hidden="1" spans="1:9">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12" t="s">
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12">
+      <c r="H44" s="10"/>
+      <c r="I44" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="45" ht="17.25" spans="1:9">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12" t="s">
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G45" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="46" ht="17.25" spans="1:9">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12" t="s">
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12" t="s">
+      <c r="G46" s="10"/>
+      <c r="H46" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="47" ht="17.25" spans="1:9">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12" t="s">
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="G47" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="H47" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I47" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="48" ht="17.25" spans="1:9">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12" t="s">
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="G48" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="H48" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="49" ht="17.25" spans="1:9">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12" t="s">
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="G49" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H49" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="50" ht="17.25" spans="1:9">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12" t="s">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12" t="s">
+      <c r="G50" s="10"/>
+      <c r="H50" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="51" ht="17.25" hidden="1" spans="1:9">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12" t="s">
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="G51" s="12" t="s">
+      <c r="G51" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12">
+      <c r="H51" s="10"/>
+      <c r="I51" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="52" ht="17.25" hidden="1" spans="1:9">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12" t="s">
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="G52" s="12" t="s">
+      <c r="G52" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12">
+      <c r="H52" s="10"/>
+      <c r="I52" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="53" ht="17.25" hidden="1" spans="1:9">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12" t="s">
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="G53" s="12" t="s">
+      <c r="G53" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12">
+      <c r="H53" s="10"/>
+      <c r="I53" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="54" ht="17.25" spans="1:9">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12" t="s">
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="G54" s="12" t="s">
+      <c r="G54" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="H54" s="12" t="s">
+      <c r="H54" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I54" s="12">
+      <c r="I54" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="55" ht="17.25" hidden="1" spans="1:9">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12" t="s">
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="G55" s="12" t="s">
+      <c r="G55" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12">
+      <c r="H55" s="10"/>
+      <c r="I55" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="56" ht="17.25" hidden="1" spans="1:9">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12" t="s">
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="G56" s="12" t="s">
+      <c r="G56" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12">
+      <c r="H56" s="10"/>
+      <c r="I56" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="57" ht="17.25" hidden="1" spans="1:9">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12" t="s">
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F57" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="G57" s="12" t="s">
+      <c r="G57" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12">
+      <c r="H57" s="10"/>
+      <c r="I57" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="58" ht="17.25" hidden="1" spans="1:9">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12" t="s">
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="G58" s="12" t="s">
+      <c r="G58" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12">
+      <c r="H58" s="10"/>
+      <c r="I58" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="59" ht="17.25" spans="1:9">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12" t="s">
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="F59" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="G59" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="H59" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I59" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="60" ht="17.25" spans="1:9">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12" t="s">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12" t="s">
+      <c r="G60" s="10"/>
+      <c r="H60" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I60" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="61" ht="17.25" hidden="1" spans="1:9">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12" t="s">
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F61" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="G61" s="12" t="s">
+      <c r="G61" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12">
+      <c r="H61" s="10"/>
+      <c r="I61" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="62" ht="17.25" spans="1:9">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12" t="s">
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F62" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="G62" s="12" t="s">
+      <c r="G62" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="H62" s="12" t="s">
+      <c r="H62" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I62" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="63" ht="17.25" spans="1:9">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12" t="s">
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12">
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="64" ht="17.25" spans="1:9">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12" t="s">
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12">
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="65" ht="17.25" spans="1:9">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12" t="s">
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12">
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="66" ht="17.25" hidden="1" spans="1:9">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12" t="s">
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="F66" s="12" t="s">
+      <c r="F66" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="G66" s="12" t="s">
+      <c r="G66" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12">
+      <c r="H66" s="10"/>
+      <c r="I66" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="67" ht="17.25" hidden="1" spans="1:9">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12" t="s">
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="F67" s="12" t="s">
+      <c r="F67" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12">
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="68" ht="17.25" spans="1:9">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12" t="s">
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="F68" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12" t="s">
+      <c r="G68" s="10"/>
+      <c r="H68" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I68" s="12">
+      <c r="I68" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="69" ht="17.25" spans="1:9">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12" t="s">
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="G69" s="12" t="s">
+      <c r="G69" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="H69" s="12" t="s">
+      <c r="H69" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I69" s="12">
+      <c r="I69" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="70" ht="17.25" spans="1:9">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12" t="s">
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="F70" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="G70" s="12" t="s">
+      <c r="G70" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="H70" s="12" t="s">
+      <c r="H70" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I70" s="12">
+      <c r="I70" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="71" ht="17.25" spans="1:9">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12" t="s">
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="F71" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12" t="s">
+      <c r="G71" s="10"/>
+      <c r="H71" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I71" s="12">
+      <c r="I71" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="72" ht="17.25" spans="1:9">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12" t="s">
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="F72" s="12" t="s">
+      <c r="F72" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12" t="s">
+      <c r="G72" s="10"/>
+      <c r="H72" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I72" s="12">
+      <c r="I72" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="73" ht="17.25" spans="1:9">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12" t="s">
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="F73" s="12" t="s">
+      <c r="F73" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12" t="s">
+      <c r="G73" s="10"/>
+      <c r="H73" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I73" s="12">
+      <c r="I73" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="74" ht="17.25" spans="1:9">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12" t="s">
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="F74" s="12" t="s">
+      <c r="F74" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12" t="s">
+      <c r="G74" s="10"/>
+      <c r="H74" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="I74" s="12">
+      <c r="I74" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="75" ht="17.25" spans="1:9">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12" t="s">
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="F75" s="12" t="s">
+      <c r="F75" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12" t="s">
+      <c r="G75" s="10"/>
+      <c r="H75" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="I75" s="12">
+      <c r="I75" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="76" ht="17.25" spans="1:9">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12" t="s">
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="F76" s="12" t="s">
+      <c r="F76" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12" t="s">
+      <c r="G76" s="10"/>
+      <c r="H76" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I76" s="12">
+      <c r="I76" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="77" ht="17.25" spans="1:9">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12" t="s">
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="F77" s="12" t="s">
+      <c r="F77" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="G77" s="12" t="s">
+      <c r="G77" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="H77" s="12" t="s">
+      <c r="H77" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I77" s="12">
+      <c r="I77" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="78" ht="17.25" spans="1:9">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12" t="s">
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="F78" s="12" t="s">
+      <c r="F78" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12" t="s">
+      <c r="G78" s="10"/>
+      <c r="H78" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="I78" s="12">
+      <c r="I78" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="79" ht="17.25" spans="1:9">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12" t="s">
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="F79" s="12" t="s">
+      <c r="F79" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="G79" s="12" t="s">
+      <c r="G79" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="H79" s="12" t="s">
+      <c r="H79" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I79" s="12">
+      <c r="I79" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="80" ht="17.25" spans="1:9">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12" t="s">
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="F80" s="12" t="s">
+      <c r="F80" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="G80" s="12" t="s">
+      <c r="G80" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="H80" s="12" t="s">
+      <c r="H80" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I80" s="12">
+      <c r="I80" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="81" ht="17.25" spans="1:9">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12" t="s">
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="F81" s="12" t="s">
+      <c r="F81" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="G81" s="12" t="s">
+      <c r="G81" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="H81" s="12" t="s">
+      <c r="H81" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="I81" s="12">
+      <c r="I81" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="82" ht="17.25" spans="1:9">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12" t="s">
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="F82" s="12" t="s">
+      <c r="F82" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12" t="s">
+      <c r="G82" s="10"/>
+      <c r="H82" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="I82" s="12">
+      <c r="I82" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="83" ht="17.25" spans="1:9">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12" t="s">
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="F83" s="12" t="s">
+      <c r="F83" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="G83" s="12" t="s">
+      <c r="G83" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="H83" s="12" t="s">
+      <c r="H83" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I83" s="12">
+      <c r="I83" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="84" ht="17.25" spans="1:9">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12" t="s">
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="F84" s="12" t="s">
+      <c r="F84" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="G84" s="12" t="s">
+      <c r="G84" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="H84" s="12" t="s">
+      <c r="H84" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I84" s="12">
+      <c r="I84" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="85" ht="17.25" spans="1:9">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12" t="s">
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12">
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="86" ht="17.25" spans="1:9">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12" t="s">
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12" t="s">
+      <c r="G86" s="10"/>
+      <c r="H86" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I86" s="12">
+      <c r="I86" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="87" ht="17.25" spans="1:9">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12" t="s">
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="F87" s="12" t="s">
+      <c r="F87" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12" t="s">
+      <c r="G87" s="10"/>
+      <c r="H87" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I87" s="12">
+      <c r="I87" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="88" ht="17.25" spans="1:9">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12" t="s">
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12" t="s">
+      <c r="G88" s="10"/>
+      <c r="H88" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I88" s="12">
+      <c r="I88" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="89" ht="17.25" spans="1:9">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12" t="s">
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="F89" s="12" t="s">
+      <c r="F89" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12" t="s">
+      <c r="G89" s="10"/>
+      <c r="H89" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I89" s="12">
+      <c r="I89" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="90" ht="17.25" spans="1:9">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12" t="s">
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12">
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="91" ht="17.25" spans="1:9">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12" t="s">
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12">
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="92" ht="17.25" spans="1:9">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12" t="s">
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12" t="s">
+      <c r="G92" s="10"/>
+      <c r="H92" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I92" s="12">
+      <c r="I92" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="93" ht="17.25" spans="1:9">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12" t="s">
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12">
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="94" ht="17.25" spans="1:9">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12" t="s">
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12">
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="95" ht="17.25" hidden="1" spans="1:9">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12" t="s">
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="F95" s="12" t="s">
+      <c r="F95" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="G95" s="12" t="s">
+      <c r="G95" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12">
+      <c r="H95" s="10"/>
+      <c r="I95" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="96" ht="17.25" spans="1:9">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12" t="s">
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="F96" s="12" t="s">
+      <c r="F96" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12" t="s">
+      <c r="G96" s="10"/>
+      <c r="H96" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I96" s="12">
+      <c r="I96" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="97" ht="17.25" spans="1:9">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12" t="s">
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12" t="s">
+      <c r="G97" s="10"/>
+      <c r="H97" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I97" s="12">
+      <c r="I97" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="98" ht="17.25" spans="1:9">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12" t="s">
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="F98" s="12" t="s">
+      <c r="F98" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12" t="s">
+      <c r="G98" s="10"/>
+      <c r="H98" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I98" s="12">
+      <c r="I98" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="99" ht="17.25" spans="1:9">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12" t="s">
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="F99" s="12" t="s">
+      <c r="F99" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12" t="s">
+      <c r="G99" s="10"/>
+      <c r="H99" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="I99" s="12">
+      <c r="I99" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="100" ht="17.25" spans="1:9">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12" t="s">
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="F100" s="12" t="s">
+      <c r="F100" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12" t="s">
+      <c r="G100" s="10"/>
+      <c r="H100" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I100" s="12">
+      <c r="I100" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="101" ht="17.25" hidden="1" spans="1:9">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12" t="s">
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="F101" s="12" t="s">
+      <c r="F101" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="G101" s="12" t="s">
+      <c r="G101" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12">
+      <c r="H101" s="10"/>
+      <c r="I101" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="102" ht="17.25" hidden="1" spans="1:9">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12" t="s">
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="F102" s="12" t="s">
+      <c r="F102" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="G102" s="12" t="s">
+      <c r="G102" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12">
+      <c r="H102" s="10"/>
+      <c r="I102" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="103" ht="17.25" hidden="1" spans="1:9">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12" t="s">
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="F103" s="12" t="s">
+      <c r="F103" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="G103" s="12" t="s">
+      <c r="G103" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12">
+      <c r="H103" s="10"/>
+      <c r="I103" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="104" ht="17.25" spans="1:9">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12" t="s">
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12" t="s">
+      <c r="G104" s="10"/>
+      <c r="H104" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="I104" s="12">
+      <c r="I104" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="105" ht="17.25" spans="1:9">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12" t="s">
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12" t="s">
+      <c r="G105" s="10"/>
+      <c r="H105" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I105" s="12">
+      <c r="I105" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="106" ht="17.25" spans="1:9">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12" t="s">
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12" t="s">
+      <c r="G106" s="10"/>
+      <c r="H106" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I106" s="12">
+      <c r="I106" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="107" ht="17.25" spans="1:9">
-      <c r="A107" s="11" t="s">
+      <c r="A107" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12" t="s">
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12" t="s">
+      <c r="G107" s="10"/>
+      <c r="H107" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I107" s="12">
+      <c r="I107" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="108" ht="17.25" hidden="1" spans="1:9">
-      <c r="A108" s="11" t="s">
+      <c r="A108" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12" t="s">
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="F108" s="12" t="s">
+      <c r="F108" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="G108" s="12" t="s">
+      <c r="G108" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12">
+      <c r="H108" s="10"/>
+      <c r="I108" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="109" ht="17.25" hidden="1" spans="1:9">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12" t="s">
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="F109" s="12" t="s">
+      <c r="F109" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="G109" s="12" t="s">
+      <c r="G109" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12">
+      <c r="H109" s="10"/>
+      <c r="I109" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="110" ht="17.25" hidden="1" spans="1:9">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12" t="s">
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="F110" s="12" t="s">
+      <c r="F110" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="G110" s="12" t="s">
+      <c r="G110" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12">
+      <c r="H110" s="10"/>
+      <c r="I110" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="111" ht="17.25" hidden="1" spans="1:9">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12" t="s">
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12">
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="112" ht="17.25" hidden="1" spans="1:9">
-      <c r="A112" s="11" t="s">
+      <c r="A112" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="B112" s="12"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12" t="s">
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12">
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="113" ht="17.25" hidden="1" spans="1:9">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12" t="s">
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12">
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="114" ht="17.25" hidden="1" spans="1:9">
-      <c r="A114" s="11" t="s">
+      <c r="A114" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12" t="s">
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12">
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="115" ht="17.25" hidden="1" spans="1:9">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12" t="s">
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12">
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="116" ht="17.25" spans="1:9">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12" t="s">
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="F116" s="12" t="s">
+      <c r="F116" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="G116" s="12" t="s">
+      <c r="G116" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="H116" s="12" t="s">
+      <c r="H116" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I116" s="12">
+      <c r="I116" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="117" ht="17.25" spans="1:9">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12" t="s">
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12">
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="118" ht="17.25" hidden="1" spans="1:9">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12" t="s">
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="F118" s="12" t="s">
+      <c r="F118" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="G118" s="12" t="s">
+      <c r="G118" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12">
+      <c r="H118" s="10"/>
+      <c r="I118" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="119" ht="17.25" hidden="1" spans="1:9">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12" t="s">
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="F119" s="12" t="s">
+      <c r="F119" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="G119" s="12" t="s">
+      <c r="G119" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12">
+      <c r="H119" s="10"/>
+      <c r="I119" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="120" ht="17.25" spans="1:9">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12" t="s">
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="F120" s="12" t="s">
+      <c r="F120" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="G120" s="12" t="s">
+      <c r="G120" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="H120" s="12" t="s">
+      <c r="H120" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="I120" s="12">
+      <c r="I120" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="121" ht="17.25" spans="1:9">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12" t="s">
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="F121" s="12" t="s">
+      <c r="F121" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="G121" s="12" t="s">
+      <c r="G121" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="H121" s="12" t="s">
+      <c r="H121" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="I121" s="12">
+      <c r="I121" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="122" ht="17.25" spans="1:9">
-      <c r="A122" s="11" t="s">
+      <c r="A122" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12" t="s">
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="F122" s="12" t="s">
+      <c r="F122" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="G122" s="12" t="s">
+      <c r="G122" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="H122" s="12" t="s">
+      <c r="H122" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="I122" s="12">
+      <c r="I122" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="123" ht="17.25" hidden="1" spans="1:9">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12" t="s">
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F123" s="12" t="s">
+      <c r="F123" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="G123" s="12" t="s">
+      <c r="G123" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="H123" s="12"/>
-      <c r="I123" s="12">
+      <c r="H123" s="10"/>
+      <c r="I123" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="124" ht="17.25" hidden="1" spans="1:9">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B124" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12" t="s">
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="F124" s="12" t="s">
+      <c r="F124" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="G124" s="12" t="s">
+      <c r="G124" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="H124" s="12"/>
-      <c r="I124" s="12">
+      <c r="H124" s="10"/>
+      <c r="I124" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="125" ht="17.25" spans="1:9">
-      <c r="A125" s="11" t="s">
+      <c r="A125" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12" t="s">
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="F125" s="12" t="s">
+      <c r="F125" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="G125" s="12" t="s">
+      <c r="G125" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="H125" s="12" t="s">
+      <c r="H125" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="I125" s="12">
+      <c r="I125" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="126" ht="17.25" hidden="1" spans="1:9">
-      <c r="A126" s="11" t="s">
+      <c r="A126" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12" t="s">
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="F126" s="12" t="s">
+      <c r="F126" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="G126" s="12" t="s">
+      <c r="G126" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="H126" s="12"/>
-      <c r="I126" s="12">
+      <c r="H126" s="10"/>
+      <c r="I126" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="127" ht="17.25" hidden="1" spans="1:9">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12" t="s">
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="F127" s="12" t="s">
+      <c r="F127" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="G127" s="12" t="s">
+      <c r="G127" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="H127" s="12"/>
-      <c r="I127" s="12">
+      <c r="H127" s="10"/>
+      <c r="I127" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="128" ht="17.25" spans="1:9">
-      <c r="A128" s="11" t="s">
+      <c r="A128" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12" t="s">
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="F128" s="12" t="s">
+      <c r="F128" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="G128" s="12" t="s">
+      <c r="G128" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="H128" s="12" t="s">
+      <c r="H128" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I128" s="12">
+      <c r="I128" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="129" ht="17.25" spans="1:9">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12" t="s">
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="F129" s="12" t="s">
+      <c r="F129" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="G129" s="12" t="s">
+      <c r="G129" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="H129" s="12" t="s">
+      <c r="H129" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I129" s="12">
+      <c r="I129" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="130" ht="17.25" spans="1:9">
-      <c r="A130" s="11" t="s">
+      <c r="A130" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="B130" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12" t="s">
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="F130" s="12" t="s">
+      <c r="F130" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="G130" s="12" t="s">
+      <c r="G130" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="H130" s="12" t="s">
+      <c r="H130" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I130" s="12">
+      <c r="I130" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="131" ht="17.25" spans="1:9">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12" t="s">
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="F131" s="12" t="s">
+      <c r="F131" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="G131" s="12" t="s">
+      <c r="G131" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="H131" s="12" t="s">
+      <c r="H131" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I131" s="12">
+      <c r="I131" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="132" ht="17.25" spans="1:9">
-      <c r="A132" s="11" t="s">
+      <c r="A132" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="B132" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12" t="s">
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="F132" s="12" t="s">
+      <c r="F132" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="G132" s="12" t="s">
+      <c r="G132" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="H132" s="12" t="s">
+      <c r="H132" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="I132" s="12">
+      <c r="I132" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="133" ht="17.25" hidden="1" spans="1:9">
-      <c r="A133" s="11" t="s">
+      <c r="A133" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12" t="s">
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="F133" s="12" t="s">
+      <c r="F133" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="G133" s="12" t="s">
+      <c r="G133" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12">
+      <c r="H133" s="10"/>
+      <c r="I133" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="134" ht="17.25" spans="1:9">
-      <c r="A134" s="11" t="s">
+      <c r="A134" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12" t="s">
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="F134" s="12" t="s">
+      <c r="F134" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="G134" s="12" t="s">
+      <c r="G134" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="H134" s="12" t="s">
+      <c r="H134" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="I134" s="12">
+      <c r="I134" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="135" ht="17.25" spans="1:9">
-      <c r="A135" s="11" t="s">
+      <c r="A135" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="B135" s="12" t="s">
+      <c r="B135" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12" t="s">
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="F135" s="12" t="s">
+      <c r="F135" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="G135" s="12" t="s">
+      <c r="G135" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="H135" s="12" t="s">
+      <c r="H135" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="I135" s="12">
+      <c r="I135" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="136" ht="17.25" hidden="1" spans="1:9">
-      <c r="A136" s="11" t="s">
+      <c r="A136" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B136" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12" t="s">
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="F136" s="12">
+      <c r="F136" s="10">
         <v>563282</v>
       </c>
-      <c r="G136" s="12" t="s">
+      <c r="G136" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="H136" s="12"/>
-      <c r="I136" s="12">
+      <c r="H136" s="10"/>
+      <c r="I136" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="137" ht="17.25" hidden="1" spans="1:9">
-      <c r="A137" s="11" t="s">
+      <c r="A137" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="12" t="s">
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="F137" s="12" t="s">
+      <c r="F137" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="G137" s="12" t="s">
+      <c r="G137" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="H137" s="12"/>
-      <c r="I137" s="12">
+      <c r="H137" s="10"/>
+      <c r="I137" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="138" ht="17.25" hidden="1" spans="1:9">
-      <c r="A138" s="11" t="s">
+      <c r="A138" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B138" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12" t="s">
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="F138" s="12" t="s">
+      <c r="F138" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="G138" s="12" t="s">
+      <c r="G138" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="H138" s="12"/>
-      <c r="I138" s="12">
+      <c r="H138" s="10"/>
+      <c r="I138" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="139" ht="17.25" hidden="1" spans="1:9">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12" t="s">
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="F139" s="12" t="s">
+      <c r="F139" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="G139" s="12" t="s">
+      <c r="G139" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="H139" s="12"/>
-      <c r="I139" s="12">
+      <c r="H139" s="10"/>
+      <c r="I139" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="140" ht="17.25" spans="1:9">
-      <c r="A140" s="11" t="s">
+      <c r="A140" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12" t="s">
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="F140" s="12" t="s">
+      <c r="F140" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="G140" s="12" t="s">
+      <c r="G140" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="H140" s="12" t="s">
+      <c r="H140" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="I140" s="12">
+      <c r="I140" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="141" ht="17.25" spans="1:9">
-      <c r="A141" s="11" t="s">
+      <c r="A141" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="B141" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12" t="s">
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="F141" s="12" t="s">
+      <c r="F141" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="G141" s="12" t="s">
+      <c r="G141" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="H141" s="12" t="s">
+      <c r="H141" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="I141" s="12">
+      <c r="I141" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="142" ht="17.25" spans="1:9">
-      <c r="A142" s="11" t="s">
+      <c r="A142" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="B142" s="12"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="12" t="s">
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="F142" s="12" t="s">
+      <c r="F142" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="G142" s="12" t="s">
+      <c r="G142" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="H142" s="12" t="s">
+      <c r="H142" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I142" s="12">
+      <c r="I142" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="143" ht="17.25" spans="1:9">
-      <c r="A143" s="11" t="s">
+      <c r="A143" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="B143" s="12" t="s">
+      <c r="B143" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="12" t="s">
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="F143" s="12" t="s">
+      <c r="F143" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="G143" s="12" t="s">
+      <c r="G143" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="H143" s="12" t="s">
+      <c r="H143" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I143" s="12">
+      <c r="I143" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="144" ht="17.25" spans="1:9">
-      <c r="A144" s="11" t="s">
+      <c r="A144" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="B144" s="12" t="s">
+      <c r="B144" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="C144" s="12"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="12" t="s">
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="F144" s="12" t="s">
+      <c r="F144" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="G144" s="12" t="s">
+      <c r="G144" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="H144" s="12" t="s">
+      <c r="H144" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I144" s="12">
+      <c r="I144" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="145" ht="17.25" spans="1:9">
-      <c r="A145" s="11" t="s">
+      <c r="A145" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="B145" s="12" t="s">
+      <c r="B145" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="12" t="s">
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="F145" s="12" t="s">
+      <c r="F145" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="G145" s="12" t="s">
+      <c r="G145" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="H145" s="12" t="s">
+      <c r="H145" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I145" s="12">
+      <c r="I145" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="146" ht="17.25" spans="1:9">
-      <c r="A146" s="11" t="s">
+      <c r="A146" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="B146" s="12" t="s">
+      <c r="B146" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12" t="s">
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="F146" s="12" t="s">
+      <c r="F146" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="G146" s="12" t="s">
+      <c r="G146" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="H146" s="12" t="s">
+      <c r="H146" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="I146" s="12">
+      <c r="I146" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="147" ht="17.25" spans="1:9">
-      <c r="A147" s="11" t="s">
+      <c r="A147" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="12" t="s">
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="F147" s="12" t="s">
+      <c r="F147" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="G147" s="12" t="s">
+      <c r="G147" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="H147" s="12" t="s">
+      <c r="H147" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="I147" s="12">
+      <c r="I147" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="148" ht="17.25" spans="1:9">
-      <c r="A148" s="11" t="s">
+      <c r="A148" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="B148" s="12" t="s">
+      <c r="B148" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="C148" s="12"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12" t="s">
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="F148" s="12" t="s">
+      <c r="F148" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="G148" s="12" t="s">
+      <c r="G148" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="H148" s="12" t="s">
+      <c r="H148" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I148" s="12">
+      <c r="I148" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="149" ht="17.25" spans="1:9">
-      <c r="A149" s="11" t="s">
+      <c r="A149" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B149" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12" t="s">
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="F149" s="12" t="s">
+      <c r="F149" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="G149" s="12" t="s">
+      <c r="G149" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="H149" s="12" t="s">
+      <c r="H149" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I149" s="12">
+      <c r="I149" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="150" ht="17.25" spans="1:9">
-      <c r="A150" s="11" t="s">
+      <c r="A150" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="B150" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12" t="s">
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="F150" s="12" t="s">
+      <c r="F150" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="G150" s="12" t="s">
+      <c r="G150" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="H150" s="12" t="s">
+      <c r="H150" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I150" s="12">
+      <c r="I150" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="151" ht="17.25" spans="1:9">
-      <c r="A151" s="11" t="s">
+      <c r="A151" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="B151" s="12"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12" t="s">
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="F151" s="12" t="s">
+      <c r="F151" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="G151" s="12" t="s">
+      <c r="G151" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="H151" s="12" t="s">
+      <c r="H151" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I151" s="12">
+      <c r="I151" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:9">
-      <c r="A152" s="11" t="s">
+      <c r="A152" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="B152" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12" t="s">
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="F152" s="12" t="s">
+      <c r="F152" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="G152" s="12" t="s">
+      <c r="G152" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="H152" s="12" t="s">
+      <c r="H152" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I152" s="12">
+      <c r="I152" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="153" ht="17.25" spans="1:9">
-      <c r="A153" s="11" t="s">
+      <c r="A153" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="B153" s="12" t="s">
+      <c r="B153" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12" t="s">
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="F153" s="12" t="s">
+      <c r="F153" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="G153" s="12" t="s">
+      <c r="G153" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="H153" s="12" t="s">
+      <c r="H153" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I153" s="12">
+      <c r="I153" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="154" ht="17.25" spans="1:9">
-      <c r="A154" s="11" t="s">
+      <c r="A154" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="B154" s="12" t="s">
+      <c r="B154" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12" t="s">
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="F154" s="12" t="s">
+      <c r="F154" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="G154" s="12" t="s">
+      <c r="G154" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="H154" s="12" t="s">
+      <c r="H154" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I154" s="12">
+      <c r="I154" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="155" ht="17.25" spans="1:9">
-      <c r="A155" s="11" t="s">
+      <c r="A155" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="B155" s="12" t="s">
+      <c r="B155" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12" t="s">
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="F155" s="12" t="s">
+      <c r="F155" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="G155" s="12" t="s">
+      <c r="G155" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="H155" s="12" t="s">
+      <c r="H155" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="I155" s="12">
+      <c r="I155" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="156" ht="17.25" spans="1:9">
-      <c r="A156" s="11" t="s">
+      <c r="A156" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="B156" s="12">
+      <c r="B156" s="10">
         <v>1</v>
       </c>
-      <c r="C156" s="12"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12">
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10">
         <v>1</v>
       </c>
-      <c r="F156" s="12">
+      <c r="F156" s="10">
         <v>1</v>
       </c>
-      <c r="G156" s="12"/>
-      <c r="H156" s="12">
+      <c r="G156" s="10"/>
+      <c r="H156" s="10">
         <v>10</v>
       </c>
-      <c r="I156" s="12">
+      <c r="I156" s="10">
         <v>28</v>
       </c>
     </row>
@@ -6485,7 +6465,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -6502,18 +6482,18 @@
       <c r="B1" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>613</v>
       </c>
     </row>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B38F8D-D202-499C-8AD6-DF8A0EAA4370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1588222A-E822-42EA-9A42-B4EDDEC97628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1386,9 +1386,6 @@
     <t>ND2</t>
   </si>
   <si>
-    <t>WW AsnStySldBwl6x230g 1917611</t>
-  </si>
-  <si>
     <t>9339687265442</t>
   </si>
   <si>
@@ -1401,9 +1398,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>WW Bas PestoKit 4x400g 1909676</t>
-  </si>
-  <si>
     <t>9339687343768</t>
   </si>
   <si>
@@ -1419,9 +1413,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>WW Basil Pesto 6x250g 1905020</t>
-  </si>
-  <si>
     <t>9339687354382</t>
   </si>
   <si>
@@ -1440,9 +1431,6 @@
     <t>563283T</t>
   </si>
   <si>
-    <t>WW Broot&amp;FetaBwl6x200g 1917660</t>
-  </si>
-  <si>
     <t>9339687265411</t>
   </si>
   <si>
@@ -1500,9 +1488,6 @@
     <t>M9T</t>
   </si>
   <si>
-    <t>WW Cobb Sld Bwl 6x240g 1917651</t>
-  </si>
-  <si>
     <t>9339687265428</t>
   </si>
   <si>
@@ -1572,9 +1557,6 @@
     <t>1KH</t>
   </si>
   <si>
-    <t>WW Csar PstaKit 4x400g 1908545</t>
-  </si>
-  <si>
     <t>9339687343782</t>
   </si>
   <si>
@@ -1587,9 +1569,6 @@
     <t>CAE</t>
   </si>
   <si>
-    <t>WW Csar SldBwl 6x200g 1917620</t>
-  </si>
-  <si>
     <t>9339687265435</t>
   </si>
   <si>
@@ -1617,15 +1596,9 @@
     <t>GH8</t>
   </si>
   <si>
-    <t>WW Grain Tableh 6x250g 1905031</t>
-  </si>
-  <si>
     <t>563276</t>
   </si>
   <si>
-    <t>WW Greek Kit 4 x 400g 1907049</t>
-  </si>
-  <si>
     <t>9339687343751</t>
   </si>
   <si>
@@ -1665,9 +1638,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>WW Mexcn SldBwl 6x220g 1917640</t>
-  </si>
-  <si>
     <t>200488N</t>
   </si>
   <si>
@@ -1879,6 +1849,36 @@
   </si>
   <si>
     <t>00:00:00 19/04/2025</t>
+  </si>
+  <si>
+    <t>WW Basil Pesto 6x250g</t>
+  </si>
+  <si>
+    <t>WW Bas PestoKit 4x400g</t>
+  </si>
+  <si>
+    <t>WW AsnStySldBwl6x230g</t>
+  </si>
+  <si>
+    <t>WW Broot&amp;FetaBwl6x200g</t>
+  </si>
+  <si>
+    <t>WW Cobb Sld Bwl 6x240g</t>
+  </si>
+  <si>
+    <t>WW Csar PstaKit 4x400g</t>
+  </si>
+  <si>
+    <t>WW Csar SldBwl 6x200g</t>
+  </si>
+  <si>
+    <t>WW Grain Tableh 6x250g</t>
+  </si>
+  <si>
+    <t>WW Greek Kit 4 x 400g</t>
+  </si>
+  <si>
+    <t>WW Mexcn SldBwl 6x220g</t>
   </si>
 </sst>
 </file>
@@ -2311,7 +2311,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2391,7 +2391,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I3" s="9">
         <v>28</v>
@@ -2416,7 +2416,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I4" s="9">
         <v>28</v>
@@ -2464,7 +2464,7 @@
         <v>31</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I6" s="9">
         <v>28</v>
@@ -2489,7 +2489,7 @@
         <v>36</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I7" s="9">
         <v>28</v>
@@ -2514,7 +2514,7 @@
         <v>41</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I8" s="9">
         <v>28</v>
@@ -2539,7 +2539,7 @@
         <v>46</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I9" s="9">
         <v>28</v>
@@ -4922,21 +4922,21 @@
     </row>
     <row r="119" spans="1:9" ht="17.25">
       <c r="A119" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>450</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="F119" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="F119" s="9" t="s">
+      <c r="G119" s="9" t="s">
         <v>452</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>453</v>
       </c>
       <c r="H119" s="9"/>
       <c r="I119" s="9">
@@ -4945,24 +4945,24 @@
     </row>
     <row r="120" spans="1:9" ht="17.25">
       <c r="A120" s="8" t="s">
-        <v>454</v>
+        <v>605</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="G120" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="F120" s="9" t="s">
+      <c r="H120" s="9" t="s">
         <v>457</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>459</v>
       </c>
       <c r="I120" s="9">
         <v>28</v>
@@ -4970,24 +4970,24 @@
     </row>
     <row r="121" spans="1:9" ht="17.25">
       <c r="A121" s="8" t="s">
-        <v>460</v>
+        <v>604</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I121" s="9">
         <v>28</v>
@@ -4995,24 +4995,24 @@
     </row>
     <row r="122" spans="1:9" ht="17.25">
       <c r="A122" s="8" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="G122" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="F122" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>458</v>
-      </c>
       <c r="H122" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I122" s="9">
         <v>28</v>
@@ -5020,21 +5020,21 @@
     </row>
     <row r="123" spans="1:9" ht="17.25">
       <c r="A123" s="8" t="s">
-        <v>467</v>
+        <v>607</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H123" s="9"/>
       <c r="I123" s="9">
@@ -5043,21 +5043,21 @@
     </row>
     <row r="124" spans="1:9" ht="17.25">
       <c r="A124" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H124" s="9"/>
       <c r="I124" s="9">
@@ -5066,24 +5066,24 @@
     </row>
     <row r="125" spans="1:9" ht="17.25">
       <c r="A125" s="8" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I125" s="9">
         <v>28</v>
@@ -5091,21 +5091,21 @@
     </row>
     <row r="126" spans="1:9" ht="17.25">
       <c r="A126" s="8" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H126" s="9"/>
       <c r="I126" s="9">
@@ -5114,21 +5114,21 @@
     </row>
     <row r="127" spans="1:9" ht="17.25">
       <c r="A127" s="8" t="s">
-        <v>487</v>
+        <v>608</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H127" s="9"/>
       <c r="I127" s="9">
@@ -5137,19 +5137,19 @@
     </row>
     <row r="128" spans="1:9" ht="17.25">
       <c r="A128" s="8" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="H128" s="9" t="s">
         <v>161</v>
@@ -5160,21 +5160,21 @@
     </row>
     <row r="129" spans="1:9" ht="17.25">
       <c r="A129" s="8" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H129" s="9" t="s">
         <v>161</v>
@@ -5185,21 +5185,21 @@
     </row>
     <row r="130" spans="1:9" ht="17.25">
       <c r="A130" s="8" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H130" s="9" t="s">
         <v>161</v>
@@ -5210,21 +5210,21 @@
     </row>
     <row r="131" spans="1:9" ht="17.25">
       <c r="A131" s="8" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H131" s="9" t="s">
         <v>161</v>
@@ -5235,21 +5235,21 @@
     </row>
     <row r="132" spans="1:9" ht="17.25">
       <c r="A132" s="8" t="s">
-        <v>511</v>
+        <v>609</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H132" s="9" t="s">
         <v>219</v>
@@ -5260,21 +5260,21 @@
     </row>
     <row r="133" spans="1:9" ht="17.25">
       <c r="A133" s="8" t="s">
-        <v>516</v>
+        <v>610</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="H133" s="9"/>
       <c r="I133" s="9">
@@ -5283,21 +5283,21 @@
     </row>
     <row r="134" spans="1:9" ht="17.25">
       <c r="A134" s="8" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H134" s="9" t="s">
         <v>219</v>
@@ -5308,21 +5308,21 @@
     </row>
     <row r="135" spans="1:9" ht="17.25">
       <c r="A135" s="8" t="s">
-        <v>526</v>
+        <v>611</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H135" s="9" t="s">
         <v>219</v>
@@ -5333,21 +5333,21 @@
     </row>
     <row r="136" spans="1:9" ht="17.25">
       <c r="A136" s="8" t="s">
-        <v>528</v>
+        <v>612</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="F136" s="9">
         <v>563282</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="H136" s="9"/>
       <c r="I136" s="9">
@@ -5356,21 +5356,21 @@
     </row>
     <row r="137" spans="1:9" ht="17.25">
       <c r="A137" s="8" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="H137" s="9"/>
       <c r="I137" s="9">
@@ -5379,21 +5379,21 @@
     </row>
     <row r="138" spans="1:9" ht="17.25">
       <c r="A138" s="8" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="H138" s="9"/>
       <c r="I138" s="9">
@@ -5402,21 +5402,21 @@
     </row>
     <row r="139" spans="1:9" ht="17.25">
       <c r="A139" s="8" t="s">
-        <v>542</v>
+        <v>613</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="H139" s="9"/>
       <c r="I139" s="9">
@@ -5425,21 +5425,21 @@
     </row>
     <row r="140" spans="1:9" ht="17.25">
       <c r="A140" s="8" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="H140" s="9" t="s">
         <v>219</v>
@@ -5450,21 +5450,21 @@
     </row>
     <row r="141" spans="1:9" ht="17.25">
       <c r="A141" s="8" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="H141" s="9" t="s">
         <v>219</v>
@@ -5475,19 +5475,19 @@
     </row>
     <row r="142" spans="1:9" ht="17.25">
       <c r="A142" s="8" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="H142" s="9" t="s">
         <v>161</v>
@@ -5498,21 +5498,21 @@
     </row>
     <row r="143" spans="1:9" ht="17.25">
       <c r="A143" s="8" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="H143" s="9" t="s">
         <v>161</v>
@@ -5523,21 +5523,21 @@
     </row>
     <row r="144" spans="1:9" ht="17.25">
       <c r="A144" s="8" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="H144" s="9" t="s">
         <v>161</v>
@@ -5548,21 +5548,21 @@
     </row>
     <row r="145" spans="1:9" ht="17.25">
       <c r="A145" s="8" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="H145" s="9" t="s">
         <v>161</v>
@@ -5573,21 +5573,21 @@
     </row>
     <row r="146" spans="1:9" ht="17.25">
       <c r="A146" s="8" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="H146" s="9" t="s">
         <v>321</v>
@@ -5598,21 +5598,21 @@
     </row>
     <row r="147" spans="1:9" ht="17.25">
       <c r="A147" s="8" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="H147" s="9" t="s">
         <v>321</v>
@@ -5623,21 +5623,21 @@
     </row>
     <row r="148" spans="1:9" ht="17.25">
       <c r="A148" s="8" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H148" s="9" t="s">
         <v>161</v>
@@ -5648,21 +5648,21 @@
     </row>
     <row r="149" spans="1:9" ht="17.25">
       <c r="A149" s="8" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="H149" s="9" t="s">
         <v>161</v>
@@ -5673,21 +5673,21 @@
     </row>
     <row r="150" spans="1:9" ht="17.25">
       <c r="A150" s="8" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="H150" s="9" t="s">
         <v>161</v>
@@ -5698,19 +5698,19 @@
     </row>
     <row r="151" spans="1:9" ht="17.25">
       <c r="A151" s="8" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="H151" s="9" t="s">
         <v>161</v>
@@ -5721,21 +5721,21 @@
     </row>
     <row r="152" spans="1:9" ht="17.25">
       <c r="A152" s="8" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="H152" s="9" t="s">
         <v>161</v>
@@ -5746,21 +5746,21 @@
     </row>
     <row r="153" spans="1:9" ht="17.25">
       <c r="A153" s="8" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="H153" s="9" t="s">
         <v>161</v>
@@ -5771,21 +5771,21 @@
     </row>
     <row r="154" spans="1:9" ht="17.25">
       <c r="A154" s="8" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="H154" s="9" t="s">
         <v>161</v>
@@ -5796,21 +5796,21 @@
     </row>
     <row r="155" spans="1:9" ht="17.25">
       <c r="A155" s="8" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="H155" s="9" t="s">
         <v>219</v>
@@ -5821,7 +5821,7 @@
     </row>
     <row r="156" spans="1:9" ht="17.25">
       <c r="A156" s="8" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="B156" s="9">
         <v>1</v>
@@ -5875,24 +5875,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1588222A-E822-42EA-9A42-B4EDDEC97628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EFECC7-06D5-43F8-8DBE-910901F2A130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -270,18 +270,12 @@
     <t>K4I</t>
   </si>
   <si>
-    <t>Cls Coleslaw 2 x 1Kg 24'</t>
-  </si>
-  <si>
     <t>19310645244607</t>
   </si>
   <si>
     <t>564094</t>
   </si>
   <si>
-    <t>Cls Coleslaw 6 x 400g 24'</t>
-  </si>
-  <si>
     <t>9310645389813</t>
   </si>
   <si>
@@ -294,9 +288,6 @@
     <t>UD1</t>
   </si>
   <si>
-    <t>Cls Coleslaw 6 x 800g 24'</t>
-  </si>
-  <si>
     <t>9310645099347</t>
   </si>
   <si>
@@ -309,9 +300,6 @@
     <t>SO5</t>
   </si>
   <si>
-    <t>Cls Coleslaw 8 x 250g 24'</t>
-  </si>
-  <si>
     <t>9310645214948</t>
   </si>
   <si>
@@ -435,9 +423,6 @@
     <t>JK9</t>
   </si>
   <si>
-    <t>Cls Greek Salad 2 x 1Kg 23'</t>
-  </si>
-  <si>
     <t>19310645244669</t>
   </si>
   <si>
@@ -513,9 +498,6 @@
     <t>564035</t>
   </si>
   <si>
-    <t>Cls Pasta Sld 2 x 1Kg 24'</t>
-  </si>
-  <si>
     <t>19310645244621</t>
   </si>
   <si>
@@ -525,9 +507,6 @@
     <t>14</t>
   </si>
   <si>
-    <t>Cls Pasta Sld 6 x 400g 24'</t>
-  </si>
-  <si>
     <t>9310645389806</t>
   </si>
   <si>
@@ -540,9 +519,6 @@
     <t>5UR</t>
   </si>
   <si>
-    <t>Cls Pasta Sld 6 x 800g 24'</t>
-  </si>
-  <si>
     <t>9310645099262</t>
   </si>
   <si>
@@ -555,21 +531,12 @@
     <t>8ML</t>
   </si>
   <si>
-    <t>Cls Pasta Sld 6x400g 24'(TAS)</t>
-  </si>
-  <si>
     <t>599736T</t>
   </si>
   <si>
-    <t>Cls Pasta Sld 6x800g 24'(TAS)</t>
-  </si>
-  <si>
     <t>599737T</t>
   </si>
   <si>
-    <t>Cls Pasta Sld 8 x 250g 24'</t>
-  </si>
-  <si>
     <t>9310645214931</t>
   </si>
   <si>
@@ -582,9 +549,6 @@
     <t>6JH</t>
   </si>
   <si>
-    <t>Cls Pasta Sld 8x250g 24'(TAS)</t>
-  </si>
-  <si>
     <t>599735T</t>
   </si>
   <si>
@@ -633,18 +597,12 @@
     <t>D9C</t>
   </si>
   <si>
-    <t>Cls Potato Sld 2 x 1Kg 24'</t>
-  </si>
-  <si>
     <t>19310645244645</t>
   </si>
   <si>
     <t>564096</t>
   </si>
   <si>
-    <t>Cls Potato Sld 6 x 400g 24'</t>
-  </si>
-  <si>
     <t>9310645389820</t>
   </si>
   <si>
@@ -657,9 +615,6 @@
     <t>EW7</t>
   </si>
   <si>
-    <t>Cls Potato Sld 6 x 800g 24'</t>
-  </si>
-  <si>
     <t>9310645099378</t>
   </si>
   <si>
@@ -672,9 +627,6 @@
     <t>8SM</t>
   </si>
   <si>
-    <t>Cls Potato Sld 8 x 250g 24'</t>
-  </si>
-  <si>
     <t>9310645214924</t>
   </si>
   <si>
@@ -834,9 +786,6 @@
     <t>WD8</t>
   </si>
   <si>
-    <t>Cls YLC SeafdSld 3x1kg 1908760</t>
-  </si>
-  <si>
     <t>19335656001681</t>
   </si>
   <si>
@@ -1500,9 +1449,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>WW Coleslaw 12 x 110g '23</t>
-  </si>
-  <si>
     <t>19300633699496</t>
   </si>
   <si>
@@ -1512,9 +1458,6 @@
     <t>CS0</t>
   </si>
   <si>
-    <t>WW Coleslaw 6 x 250g '23</t>
-  </si>
-  <si>
     <t>9300633626501</t>
   </si>
   <si>
@@ -1527,9 +1470,6 @@
     <t>R4D</t>
   </si>
   <si>
-    <t>WW Coleslaw 6 x 400g '23</t>
-  </si>
-  <si>
     <t>9300633225674</t>
   </si>
   <si>
@@ -1542,9 +1482,6 @@
     <t>8HL</t>
   </si>
   <si>
-    <t>WW Coleslaw 6 x 800g '23</t>
-  </si>
-  <si>
     <t>9300633987015</t>
   </si>
   <si>
@@ -1662,9 +1599,6 @@
     <t>200372T</t>
   </si>
   <si>
-    <t>WW Pasta Sld 12 x 110g '23</t>
-  </si>
-  <si>
     <t>19339687212085</t>
   </si>
   <si>
@@ -1674,9 +1608,6 @@
     <t>1PS</t>
   </si>
   <si>
-    <t>WW Pasta Sld 6 x 250g '23</t>
-  </si>
-  <si>
     <t>9300633626525</t>
   </si>
   <si>
@@ -1689,9 +1620,6 @@
     <t>2PS</t>
   </si>
   <si>
-    <t>WW Pasta Sld 6 x 400g '23</t>
-  </si>
-  <si>
     <t>9300633731151</t>
   </si>
   <si>
@@ -1704,9 +1632,6 @@
     <t>4SP</t>
   </si>
   <si>
-    <t>WW Pasta Sld 6 x 800g '23</t>
-  </si>
-  <si>
     <t>9300633731168</t>
   </si>
   <si>
@@ -1749,9 +1674,6 @@
     <t>PE7</t>
   </si>
   <si>
-    <t>WW Potato Sld 6 x 250g '23</t>
-  </si>
-  <si>
     <t>9300633626518</t>
   </si>
   <si>
@@ -1764,9 +1686,6 @@
     <t>S2E</t>
   </si>
   <si>
-    <t>WW Potato Sld 6 x 400g '23</t>
-  </si>
-  <si>
     <t>9300633731175</t>
   </si>
   <si>
@@ -1779,9 +1698,6 @@
     <t>JE5</t>
   </si>
   <si>
-    <t>WW Potato Sld 6 x 800g '23</t>
-  </si>
-  <si>
     <t>9300633731182</t>
   </si>
   <si>
@@ -1794,27 +1710,15 @@
     <t>8RF</t>
   </si>
   <si>
-    <t>WW Psta Sld 12x110g '23 (TAS)</t>
-  </si>
-  <si>
     <t>563270T</t>
   </si>
   <si>
-    <t>WW Psta Sld 6x250g '23 (TAS)</t>
-  </si>
-  <si>
     <t>563271T</t>
   </si>
   <si>
-    <t>WW Psta Sld 6x400g '23 (TAS)</t>
-  </si>
-  <si>
     <t>563272T</t>
   </si>
   <si>
-    <t>WW Psta Sld 6x800g '23 (TAS)</t>
-  </si>
-  <si>
     <t>563273T</t>
   </si>
   <si>
@@ -1879,6 +1783,102 @@
   </si>
   <si>
     <t>WW Mexcn SldBwl 6x220g</t>
+  </si>
+  <si>
+    <t>Cls Pasta Sld 2 x 1Kg</t>
+  </si>
+  <si>
+    <t>Cls Coleslaw 2 x 1Kg</t>
+  </si>
+  <si>
+    <t>Cls Coleslaw 6 x 400g</t>
+  </si>
+  <si>
+    <t>Cls Coleslaw 6 x 800g</t>
+  </si>
+  <si>
+    <t>Cls Coleslaw 8 x 250g</t>
+  </si>
+  <si>
+    <t>Cls Pasta Sld 6 x 400g</t>
+  </si>
+  <si>
+    <t>Cls Pasta Sld 6 x 800g</t>
+  </si>
+  <si>
+    <t>Cls Pasta Sld 6x400g(TAS)</t>
+  </si>
+  <si>
+    <t>Cls Pasta Sld 6x800g(TAS)</t>
+  </si>
+  <si>
+    <t>Cls Pasta Sld 8 x 250g</t>
+  </si>
+  <si>
+    <t>Cls Pasta Sld 8x250g(TAS)</t>
+  </si>
+  <si>
+    <t>Cls Potato Sld 2 x 1Kg</t>
+  </si>
+  <si>
+    <t>Cls Potato Sld 6 x 400g</t>
+  </si>
+  <si>
+    <t>Cls Potato Sld 6 x 800g</t>
+  </si>
+  <si>
+    <t>Cls Potato Sld 8 x 250g</t>
+  </si>
+  <si>
+    <t>Cls Greek Salad 2 x 1Kg</t>
+  </si>
+  <si>
+    <t>Cls YLC SeafdSld 3x1kg</t>
+  </si>
+  <si>
+    <t>WW Coleslaw 12 x 110g</t>
+  </si>
+  <si>
+    <t>WW Coleslaw 6 x 250g</t>
+  </si>
+  <si>
+    <t>WW Coleslaw 6 x 400g</t>
+  </si>
+  <si>
+    <t>WW Coleslaw 6 x 800g</t>
+  </si>
+  <si>
+    <t>WW Pasta Sld 12 x 110g</t>
+  </si>
+  <si>
+    <t>WW Pasta Sld 6 x 250g</t>
+  </si>
+  <si>
+    <t>WW Pasta Sld 6 x 400g</t>
+  </si>
+  <si>
+    <t>WW Pasta Sld 6 x 800g</t>
+  </si>
+  <si>
+    <t>WW Potato Sld 6 x 250g</t>
+  </si>
+  <si>
+    <t>WW Potato Sld 6 x 400g</t>
+  </si>
+  <si>
+    <t>WW Potato Sld 6 x 800g</t>
+  </si>
+  <si>
+    <t>WW Psta Sld 12x110g (TAS)</t>
+  </si>
+  <si>
+    <t>WW Psta Sld 6x250g (TAS)</t>
+  </si>
+  <si>
+    <t>WW Psta Sld 6x400g (TAS)</t>
+  </si>
+  <si>
+    <t>WW Psta Sld 6x800g (TAS)</t>
   </si>
 </sst>
 </file>
@@ -2311,7 +2311,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A141" sqref="A141"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2391,7 +2391,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="I3" s="9">
         <v>28</v>
@@ -2416,7 +2416,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="I4" s="9">
         <v>28</v>
@@ -2464,7 +2464,7 @@
         <v>31</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="I6" s="9">
         <v>28</v>
@@ -2489,7 +2489,7 @@
         <v>36</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="I7" s="9">
         <v>28</v>
@@ -2514,7 +2514,7 @@
         <v>41</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="I8" s="9">
         <v>28</v>
@@ -2539,7 +2539,7 @@
         <v>46</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="I9" s="9">
         <v>28</v>
@@ -2698,16 +2698,16 @@
     </row>
     <row r="17" spans="1:9" ht="17.25">
       <c r="A17" s="10" t="s">
-        <v>77</v>
+        <v>583</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
@@ -2719,21 +2719,21 @@
     </row>
     <row r="18" spans="1:9" ht="17.25">
       <c r="A18" s="10" t="s">
-        <v>80</v>
+        <v>584</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>17</v>
@@ -2744,21 +2744,21 @@
     </row>
     <row r="19" spans="1:9" ht="17.25">
       <c r="A19" s="10" t="s">
-        <v>85</v>
+        <v>585</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>17</v>
@@ -2769,21 +2769,21 @@
     </row>
     <row r="20" spans="1:9" ht="17.25">
       <c r="A20" s="10" t="s">
-        <v>90</v>
+        <v>586</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>17</v>
@@ -2794,21 +2794,21 @@
     </row>
     <row r="21" spans="1:9" ht="17.25">
       <c r="A21" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9">
@@ -2817,21 +2817,21 @@
     </row>
     <row r="22" spans="1:9" ht="17.25">
       <c r="A22" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9">
@@ -2840,21 +2840,21 @@
     </row>
     <row r="23" spans="1:9" ht="17.25">
       <c r="A23" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9">
@@ -2863,21 +2863,21 @@
     </row>
     <row r="24" spans="1:9" ht="17.25">
       <c r="A24" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9">
@@ -2886,21 +2886,21 @@
     </row>
     <row r="25" spans="1:9" ht="17.25">
       <c r="A25" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9">
@@ -2909,14 +2909,14 @@
     </row>
     <row r="26" spans="1:9" ht="17.25">
       <c r="A26" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -2926,21 +2926,21 @@
     </row>
     <row r="27" spans="1:9" ht="17.25">
       <c r="A27" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9">
@@ -2949,21 +2949,21 @@
     </row>
     <row r="28" spans="1:9" ht="17.25">
       <c r="A28" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9">
@@ -2972,20 +2972,20 @@
     </row>
     <row r="29" spans="1:9" ht="17.25">
       <c r="A29" s="8" t="s">
-        <v>132</v>
+        <v>597</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I29" s="9">
         <v>28</v>
@@ -2993,20 +2993,20 @@
     </row>
     <row r="30" spans="1:9" ht="17.25">
       <c r="A30" s="10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I30" s="9">
         <v>28</v>
@@ -3014,21 +3014,21 @@
     </row>
     <row r="31" spans="1:9" ht="17.25">
       <c r="A31" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9">
@@ -3037,21 +3037,21 @@
     </row>
     <row r="32" spans="1:9" ht="17.25">
       <c r="A32" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9">
@@ -3060,21 +3060,21 @@
     </row>
     <row r="33" spans="1:9" ht="17.25">
       <c r="A33" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9">
@@ -3083,21 +3083,21 @@
     </row>
     <row r="34" spans="1:9" ht="17.25">
       <c r="A34" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="9">
@@ -3106,20 +3106,20 @@
     </row>
     <row r="35" spans="1:9" ht="17.25">
       <c r="A35" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I35" s="9">
         <v>28</v>
@@ -3127,20 +3127,20 @@
     </row>
     <row r="36" spans="1:9" ht="17.25">
       <c r="A36" s="8" t="s">
-        <v>158</v>
+        <v>582</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I36" s="9">
         <v>28</v>
@@ -3148,24 +3148,24 @@
     </row>
     <row r="37" spans="1:9" ht="17.25">
       <c r="A37" s="8" t="s">
-        <v>162</v>
+        <v>587</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I37" s="9">
         <v>28</v>
@@ -3173,24 +3173,24 @@
     </row>
     <row r="38" spans="1:9" ht="17.25">
       <c r="A38" s="8" t="s">
-        <v>167</v>
+        <v>588</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I38" s="9">
         <v>28</v>
@@ -3198,24 +3198,24 @@
     </row>
     <row r="39" spans="1:9" ht="17.25">
       <c r="A39" s="8" t="s">
-        <v>172</v>
+        <v>589</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>173</v>
-      </c>
       <c r="G39" s="9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I39" s="9">
         <v>28</v>
@@ -3223,24 +3223,24 @@
     </row>
     <row r="40" spans="1:9" ht="17.25">
       <c r="A40" s="8" t="s">
-        <v>174</v>
+        <v>590</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I40" s="9">
         <v>28</v>
@@ -3248,24 +3248,24 @@
     </row>
     <row r="41" spans="1:9" ht="17.25">
       <c r="A41" s="8" t="s">
-        <v>176</v>
+        <v>591</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I41" s="9">
         <v>28</v>
@@ -3273,24 +3273,24 @@
     </row>
     <row r="42" spans="1:9" ht="17.25">
       <c r="A42" s="8" t="s">
-        <v>181</v>
+        <v>592</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I42" s="9">
         <v>28</v>
@@ -3298,21 +3298,21 @@
     </row>
     <row r="43" spans="1:9" ht="17.25">
       <c r="A43" s="8" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="H43" s="9"/>
       <c r="I43" s="9">
@@ -3321,21 +3321,21 @@
     </row>
     <row r="44" spans="1:9" ht="17.25">
       <c r="A44" s="8" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="9">
@@ -3344,24 +3344,24 @@
     </row>
     <row r="45" spans="1:9" ht="17.25">
       <c r="A45" s="8" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I45" s="9">
         <v>28</v>
@@ -3369,20 +3369,20 @@
     </row>
     <row r="46" spans="1:9" ht="17.25">
       <c r="A46" s="10" t="s">
-        <v>198</v>
+        <v>593</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I46" s="9">
         <v>28</v>
@@ -3390,24 +3390,24 @@
     </row>
     <row r="47" spans="1:9" ht="17.25">
       <c r="A47" s="10" t="s">
-        <v>201</v>
+        <v>594</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I47" s="9">
         <v>28</v>
@@ -3415,24 +3415,24 @@
     </row>
     <row r="48" spans="1:9" ht="17.25">
       <c r="A48" s="10" t="s">
-        <v>206</v>
+        <v>595</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I48" s="9">
         <v>28</v>
@@ -3440,24 +3440,24 @@
     </row>
     <row r="49" spans="1:9" ht="17.25">
       <c r="A49" s="10" t="s">
-        <v>211</v>
+        <v>596</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I49" s="9">
         <v>28</v>
@@ -3465,20 +3465,20 @@
     </row>
     <row r="50" spans="1:9" ht="17.25">
       <c r="A50" s="8" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I50" s="9">
         <v>28</v>
@@ -3486,21 +3486,21 @@
     </row>
     <row r="51" spans="1:9" ht="17.25">
       <c r="A51" s="8" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="9">
@@ -3509,21 +3509,21 @@
     </row>
     <row r="52" spans="1:9" ht="17.25">
       <c r="A52" s="8" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9">
@@ -3532,21 +3532,21 @@
     </row>
     <row r="53" spans="1:9" ht="17.25">
       <c r="A53" s="8" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="9">
@@ -3555,24 +3555,24 @@
     </row>
     <row r="54" spans="1:9" ht="17.25">
       <c r="A54" s="8" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I54" s="9">
         <v>28</v>
@@ -3580,21 +3580,21 @@
     </row>
     <row r="55" spans="1:9" ht="17.25">
       <c r="A55" s="8" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="9">
@@ -3603,21 +3603,21 @@
     </row>
     <row r="56" spans="1:9" ht="17.25">
       <c r="A56" s="8" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="9">
@@ -3626,21 +3626,21 @@
     </row>
     <row r="57" spans="1:9" ht="17.25">
       <c r="A57" s="8" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="9">
@@ -3649,21 +3649,21 @@
     </row>
     <row r="58" spans="1:9" ht="17.25">
       <c r="A58" s="8" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="9">
@@ -3672,24 +3672,24 @@
     </row>
     <row r="59" spans="1:9" ht="17.25">
       <c r="A59" s="8" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I59" s="9">
         <v>28</v>
@@ -3697,20 +3697,20 @@
     </row>
     <row r="60" spans="1:9" ht="17.25">
       <c r="A60" s="8" t="s">
-        <v>265</v>
+        <v>598</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I60" s="9">
         <v>28</v>
@@ -3718,21 +3718,21 @@
     </row>
     <row r="61" spans="1:9" ht="17.25">
       <c r="A61" s="8" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9">
@@ -3741,24 +3741,24 @@
     </row>
     <row r="62" spans="1:9" ht="17.25">
       <c r="A62" s="8" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I62" s="9">
         <v>28</v>
@@ -3766,14 +3766,14 @@
     </row>
     <row r="63" spans="1:9" ht="17.25">
       <c r="A63" s="8" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
@@ -3783,14 +3783,14 @@
     </row>
     <row r="64" spans="1:9" ht="17.25">
       <c r="A64" s="8" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
@@ -3800,14 +3800,14 @@
     </row>
     <row r="65" spans="1:9" ht="17.25">
       <c r="A65" s="8" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
@@ -3817,21 +3817,21 @@
     </row>
     <row r="66" spans="1:9" ht="17.25">
       <c r="A66" s="8" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="9">
@@ -3840,16 +3840,16 @@
     </row>
     <row r="67" spans="1:9" ht="17.25">
       <c r="A67" s="8" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
@@ -3859,20 +3859,20 @@
     </row>
     <row r="68" spans="1:9" ht="17.25">
       <c r="A68" s="8" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I68" s="9">
         <v>28</v>
@@ -3880,24 +3880,24 @@
     </row>
     <row r="69" spans="1:9" ht="17.25">
       <c r="A69" s="10" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I69" s="9">
         <v>28</v>
@@ -3905,24 +3905,24 @@
     </row>
     <row r="70" spans="1:9" ht="17.25">
       <c r="A70" s="10" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I70" s="9">
         <v>28</v>
@@ -3930,20 +3930,20 @@
     </row>
     <row r="71" spans="1:9" ht="17.25">
       <c r="A71" s="10" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I71" s="9">
         <v>28</v>
@@ -3951,20 +3951,20 @@
     </row>
     <row r="72" spans="1:9" ht="17.25">
       <c r="A72" s="8" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I72" s="9">
         <v>28</v>
@@ -3972,20 +3972,20 @@
     </row>
     <row r="73" spans="1:9" ht="17.25">
       <c r="A73" s="10" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I73" s="9">
         <v>28</v>
@@ -3993,20 +3993,20 @@
     </row>
     <row r="74" spans="1:9" ht="17.25">
       <c r="A74" s="8" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="I74" s="9">
         <v>28</v>
@@ -4014,20 +4014,20 @@
     </row>
     <row r="75" spans="1:9" ht="17.25">
       <c r="A75" s="8" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="I75" s="9">
         <v>28</v>
@@ -4035,16 +4035,16 @@
     </row>
     <row r="76" spans="1:9" ht="17.25">
       <c r="A76" s="8" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9" t="s">
@@ -4056,21 +4056,21 @@
     </row>
     <row r="77" spans="1:9" ht="17.25">
       <c r="A77" s="8" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>17</v>
@@ -4081,20 +4081,20 @@
     </row>
     <row r="78" spans="1:9" ht="17.25">
       <c r="A78" s="8" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="9" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="I78" s="9">
         <v>28</v>
@@ -4102,24 +4102,24 @@
     </row>
     <row r="79" spans="1:9" ht="17.25">
       <c r="A79" s="8" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I79" s="9">
         <v>28</v>
@@ -4127,24 +4127,24 @@
     </row>
     <row r="80" spans="1:9" ht="17.25">
       <c r="A80" s="8" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I80" s="9">
         <v>28</v>
@@ -4152,24 +4152,24 @@
     </row>
     <row r="81" spans="1:9" ht="17.25">
       <c r="A81" s="8" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="I81" s="9">
         <v>28</v>
@@ -4177,20 +4177,20 @@
     </row>
     <row r="82" spans="1:9" ht="17.25">
       <c r="A82" s="8" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="9" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="I82" s="9">
         <v>28</v>
@@ -4198,24 +4198,24 @@
     </row>
     <row r="83" spans="1:9" ht="17.25">
       <c r="A83" s="10" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I83" s="9">
         <v>28</v>
@@ -4223,24 +4223,24 @@
     </row>
     <row r="84" spans="1:9" ht="17.25">
       <c r="A84" s="10" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I84" s="9">
         <v>28</v>
@@ -4248,14 +4248,14 @@
     </row>
     <row r="85" spans="1:9" ht="17.25">
       <c r="A85" s="8" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
@@ -4265,18 +4265,18 @@
     </row>
     <row r="86" spans="1:9" ht="17.25">
       <c r="A86" s="8" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="G86" s="9"/>
       <c r="H86" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I86" s="9">
         <v>28</v>
@@ -4284,20 +4284,20 @@
     </row>
     <row r="87" spans="1:9" ht="17.25">
       <c r="A87" s="8" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="G87" s="9"/>
       <c r="H87" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I87" s="9">
         <v>28</v>
@@ -4305,18 +4305,18 @@
     </row>
     <row r="88" spans="1:9" ht="17.25">
       <c r="A88" s="10" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I88" s="9">
         <v>28</v>
@@ -4324,20 +4324,20 @@
     </row>
     <row r="89" spans="1:9" ht="17.25">
       <c r="A89" s="10" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I89" s="9">
         <v>28</v>
@@ -4345,14 +4345,14 @@
     </row>
     <row r="90" spans="1:9" ht="17.25">
       <c r="A90" s="8" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
@@ -4362,14 +4362,14 @@
     </row>
     <row r="91" spans="1:9" ht="17.25">
       <c r="A91" s="8" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
@@ -4379,18 +4379,18 @@
     </row>
     <row r="92" spans="1:9" ht="17.25">
       <c r="A92" s="8" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I92" s="9">
         <v>28</v>
@@ -4398,14 +4398,14 @@
     </row>
     <row r="93" spans="1:9" ht="17.25">
       <c r="A93" s="8" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
@@ -4415,14 +4415,14 @@
     </row>
     <row r="94" spans="1:9" ht="17.25">
       <c r="A94" s="8" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
@@ -4432,21 +4432,21 @@
     </row>
     <row r="95" spans="1:9" ht="17.25">
       <c r="A95" s="8" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="H95" s="9"/>
       <c r="I95" s="9">
@@ -4455,20 +4455,20 @@
     </row>
     <row r="96" spans="1:9" ht="17.25">
       <c r="A96" s="8" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I96" s="9">
         <v>28</v>
@@ -4476,18 +4476,18 @@
     </row>
     <row r="97" spans="1:9" ht="17.25">
       <c r="A97" s="8" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I97" s="9">
         <v>28</v>
@@ -4495,20 +4495,20 @@
     </row>
     <row r="98" spans="1:9" ht="17.25">
       <c r="A98" s="8" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I98" s="9">
         <v>28</v>
@@ -4516,20 +4516,20 @@
     </row>
     <row r="99" spans="1:9" ht="17.25">
       <c r="A99" s="8" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="9" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="I99" s="9">
         <v>28</v>
@@ -4537,20 +4537,20 @@
     </row>
     <row r="100" spans="1:9" ht="17.25">
       <c r="A100" s="8" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I100" s="9">
         <v>28</v>
@@ -4558,21 +4558,21 @@
     </row>
     <row r="101" spans="1:9" ht="17.25">
       <c r="A101" s="8" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="H101" s="9"/>
       <c r="I101" s="9">
@@ -4581,21 +4581,21 @@
     </row>
     <row r="102" spans="1:9" ht="17.25">
       <c r="A102" s="8" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="H102" s="9"/>
       <c r="I102" s="9">
@@ -4604,21 +4604,21 @@
     </row>
     <row r="103" spans="1:9" ht="17.25">
       <c r="A103" s="8" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="H103" s="9"/>
       <c r="I103" s="9">
@@ -4627,18 +4627,18 @@
     </row>
     <row r="104" spans="1:9" ht="17.25">
       <c r="A104" s="8" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="G104" s="9"/>
       <c r="H104" s="9" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="I104" s="9">
         <v>28</v>
@@ -4646,18 +4646,18 @@
     </row>
     <row r="105" spans="1:9" ht="17.25">
       <c r="A105" s="8" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I105" s="9">
         <v>28</v>
@@ -4665,18 +4665,18 @@
     </row>
     <row r="106" spans="1:9" ht="17.25">
       <c r="A106" s="8" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I106" s="9">
         <v>28</v>
@@ -4684,18 +4684,18 @@
     </row>
     <row r="107" spans="1:9" ht="17.25">
       <c r="A107" s="8" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I107" s="9">
         <v>28</v>
@@ -4703,21 +4703,21 @@
     </row>
     <row r="108" spans="1:9" ht="17.25">
       <c r="A108" s="8" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H108" s="9"/>
       <c r="I108" s="9">
@@ -4726,21 +4726,21 @@
     </row>
     <row r="109" spans="1:9" ht="17.25">
       <c r="A109" s="8" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="9">
@@ -4749,21 +4749,21 @@
     </row>
     <row r="110" spans="1:9" ht="17.25">
       <c r="A110" s="8" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H110" s="9"/>
       <c r="I110" s="9">
@@ -4772,14 +4772,14 @@
     </row>
     <row r="111" spans="1:9" ht="17.25">
       <c r="A111" s="8" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
@@ -4789,14 +4789,14 @@
     </row>
     <row r="112" spans="1:9" ht="17.25">
       <c r="A112" s="8" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
       <c r="F112" s="9" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
@@ -4806,14 +4806,14 @@
     </row>
     <row r="113" spans="1:9" ht="17.25">
       <c r="A113" s="8" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
@@ -4823,14 +4823,14 @@
     </row>
     <row r="114" spans="1:9" ht="17.25">
       <c r="A114" s="8" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
@@ -4840,14 +4840,14 @@
     </row>
     <row r="115" spans="1:9" ht="17.25">
       <c r="A115" s="8" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
@@ -4857,24 +4857,24 @@
     </row>
     <row r="116" spans="1:9" ht="17.25">
       <c r="A116" s="8" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I116" s="9">
         <v>28</v>
@@ -4882,14 +4882,14 @@
     </row>
     <row r="117" spans="1:9" ht="17.25">
       <c r="A117" s="8" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
@@ -4899,21 +4899,21 @@
     </row>
     <row r="118" spans="1:9" ht="17.25">
       <c r="A118" s="8" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="H118" s="9"/>
       <c r="I118" s="9">
@@ -4922,21 +4922,21 @@
     </row>
     <row r="119" spans="1:9" ht="17.25">
       <c r="A119" s="8" t="s">
-        <v>606</v>
+        <v>574</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="H119" s="9"/>
       <c r="I119" s="9">
@@ -4945,24 +4945,24 @@
     </row>
     <row r="120" spans="1:9" ht="17.25">
       <c r="A120" s="8" t="s">
-        <v>605</v>
+        <v>573</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="I120" s="9">
         <v>28</v>
@@ -4970,24 +4970,24 @@
     </row>
     <row r="121" spans="1:9" ht="17.25">
       <c r="A121" s="8" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="I121" s="9">
         <v>28</v>
@@ -4995,24 +4995,24 @@
     </row>
     <row r="122" spans="1:9" ht="17.25">
       <c r="A122" s="8" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="I122" s="9">
         <v>28</v>
@@ -5020,21 +5020,21 @@
     </row>
     <row r="123" spans="1:9" ht="17.25">
       <c r="A123" s="8" t="s">
-        <v>607</v>
+        <v>575</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="H123" s="9"/>
       <c r="I123" s="9">
@@ -5043,21 +5043,21 @@
     </row>
     <row r="124" spans="1:9" ht="17.25">
       <c r="A124" s="8" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="H124" s="9"/>
       <c r="I124" s="9">
@@ -5066,24 +5066,24 @@
     </row>
     <row r="125" spans="1:9" ht="17.25">
       <c r="A125" s="8" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="I125" s="9">
         <v>28</v>
@@ -5091,21 +5091,21 @@
     </row>
     <row r="126" spans="1:9" ht="17.25">
       <c r="A126" s="8" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="H126" s="9"/>
       <c r="I126" s="9">
@@ -5114,21 +5114,21 @@
     </row>
     <row r="127" spans="1:9" ht="17.25">
       <c r="A127" s="8" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="H127" s="9"/>
       <c r="I127" s="9">
@@ -5137,22 +5137,22 @@
     </row>
     <row r="128" spans="1:9" ht="17.25">
       <c r="A128" s="8" t="s">
-        <v>487</v>
+        <v>599</v>
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I128" s="9">
         <v>28</v>
@@ -5160,24 +5160,24 @@
     </row>
     <row r="129" spans="1:9" ht="17.25">
       <c r="A129" s="8" t="s">
-        <v>491</v>
+        <v>600</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I129" s="9">
         <v>28</v>
@@ -5185,24 +5185,24 @@
     </row>
     <row r="130" spans="1:9" ht="17.25">
       <c r="A130" s="8" t="s">
-        <v>496</v>
+        <v>601</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I130" s="9">
         <v>28</v>
@@ -5210,24 +5210,24 @@
     </row>
     <row r="131" spans="1:9" ht="17.25">
       <c r="A131" s="8" t="s">
-        <v>501</v>
+        <v>602</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I131" s="9">
         <v>28</v>
@@ -5235,24 +5235,24 @@
     </row>
     <row r="132" spans="1:9" ht="17.25">
       <c r="A132" s="8" t="s">
-        <v>609</v>
+        <v>577</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I132" s="9">
         <v>28</v>
@@ -5260,21 +5260,21 @@
     </row>
     <row r="133" spans="1:9" ht="17.25">
       <c r="A133" s="8" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="H133" s="9"/>
       <c r="I133" s="9">
@@ -5283,24 +5283,24 @@
     </row>
     <row r="134" spans="1:9" ht="17.25">
       <c r="A134" s="8" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I134" s="9">
         <v>28</v>
@@ -5308,24 +5308,24 @@
     </row>
     <row r="135" spans="1:9" ht="17.25">
       <c r="A135" s="8" t="s">
-        <v>611</v>
+        <v>579</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I135" s="9">
         <v>28</v>
@@ -5333,21 +5333,21 @@
     </row>
     <row r="136" spans="1:9" ht="17.25">
       <c r="A136" s="8" t="s">
-        <v>612</v>
+        <v>580</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="F136" s="9">
         <v>563282</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="H136" s="9"/>
       <c r="I136" s="9">
@@ -5356,21 +5356,21 @@
     </row>
     <row r="137" spans="1:9" ht="17.25">
       <c r="A137" s="8" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="H137" s="9"/>
       <c r="I137" s="9">
@@ -5379,21 +5379,21 @@
     </row>
     <row r="138" spans="1:9" ht="17.25">
       <c r="A138" s="8" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="H138" s="9"/>
       <c r="I138" s="9">
@@ -5402,21 +5402,21 @@
     </row>
     <row r="139" spans="1:9" ht="17.25">
       <c r="A139" s="8" t="s">
-        <v>613</v>
+        <v>581</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="H139" s="9"/>
       <c r="I139" s="9">
@@ -5425,24 +5425,24 @@
     </row>
     <row r="140" spans="1:9" ht="17.25">
       <c r="A140" s="8" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I140" s="9">
         <v>28</v>
@@ -5450,24 +5450,24 @@
     </row>
     <row r="141" spans="1:9" ht="17.25">
       <c r="A141" s="8" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I141" s="9">
         <v>28</v>
@@ -5475,22 +5475,22 @@
     </row>
     <row r="142" spans="1:9" ht="17.25">
       <c r="A142" s="8" t="s">
-        <v>541</v>
+        <v>603</v>
       </c>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I142" s="9">
         <v>28</v>
@@ -5498,24 +5498,24 @@
     </row>
     <row r="143" spans="1:9" ht="17.25">
       <c r="A143" s="8" t="s">
-        <v>545</v>
+        <v>604</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I143" s="9">
         <v>28</v>
@@ -5523,24 +5523,24 @@
     </row>
     <row r="144" spans="1:9" ht="17.25">
       <c r="A144" s="8" t="s">
-        <v>550</v>
+        <v>605</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I144" s="9">
         <v>28</v>
@@ -5548,24 +5548,24 @@
     </row>
     <row r="145" spans="1:9" ht="17.25">
       <c r="A145" s="8" t="s">
-        <v>555</v>
+        <v>606</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I145" s="9">
         <v>28</v>
@@ -5573,24 +5573,24 @@
     </row>
     <row r="146" spans="1:9" ht="17.25">
       <c r="A146" s="8" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="I146" s="9">
         <v>28</v>
@@ -5598,24 +5598,24 @@
     </row>
     <row r="147" spans="1:9" ht="17.25">
       <c r="A147" s="8" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="I147" s="9">
         <v>28</v>
@@ -5623,24 +5623,24 @@
     </row>
     <row r="148" spans="1:9" ht="17.25">
       <c r="A148" s="8" t="s">
-        <v>570</v>
+        <v>607</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I148" s="9">
         <v>28</v>
@@ -5648,24 +5648,24 @@
     </row>
     <row r="149" spans="1:9" ht="17.25">
       <c r="A149" s="8" t="s">
-        <v>575</v>
+        <v>608</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9" t="s">
-        <v>577</v>
+        <v>550</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I149" s="9">
         <v>28</v>
@@ -5673,24 +5673,24 @@
     </row>
     <row r="150" spans="1:9" ht="17.25">
       <c r="A150" s="8" t="s">
-        <v>580</v>
+        <v>609</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>581</v>
+        <v>553</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9" t="s">
-        <v>582</v>
+        <v>554</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>583</v>
+        <v>555</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I150" s="9">
         <v>28</v>
@@ -5698,22 +5698,22 @@
     </row>
     <row r="151" spans="1:9" ht="17.25">
       <c r="A151" s="8" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I151" s="9">
         <v>28</v>
@@ -5721,24 +5721,24 @@
     </row>
     <row r="152" spans="1:9" ht="17.25">
       <c r="A152" s="8" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>588</v>
+        <v>558</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I152" s="9">
         <v>28</v>
@@ -5746,24 +5746,24 @@
     </row>
     <row r="153" spans="1:9" ht="17.25">
       <c r="A153" s="8" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>590</v>
+        <v>559</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I153" s="9">
         <v>28</v>
@@ -5771,24 +5771,24 @@
     </row>
     <row r="154" spans="1:9" ht="17.25">
       <c r="A154" s="8" t="s">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>592</v>
+        <v>560</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I154" s="9">
         <v>28</v>
@@ -5796,24 +5796,24 @@
     </row>
     <row r="155" spans="1:9" ht="17.25">
       <c r="A155" s="8" t="s">
-        <v>593</v>
+        <v>561</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9" t="s">
-        <v>595</v>
+        <v>563</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>596</v>
+        <v>564</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>597</v>
+        <v>565</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I155" s="9">
         <v>28</v>
@@ -5821,7 +5821,7 @@
     </row>
     <row r="156" spans="1:9" ht="17.25">
       <c r="A156" s="8" t="s">
-        <v>598</v>
+        <v>566</v>
       </c>
       <c r="B156" s="9">
         <v>1</v>
@@ -5875,24 +5875,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>599</v>
+        <v>567</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>600</v>
+        <v>568</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>601</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>603</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EFECC7-06D5-43F8-8DBE-910901F2A130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22659355-2442-4084-B435-95F79C9E7446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1656,9 +1656,6 @@
     <t>563280</t>
   </si>
   <si>
-    <t>PE3</t>
-  </si>
-  <si>
     <t>WW Pot, Egg &amp; Bac 6 x 750g</t>
   </si>
   <si>
@@ -1879,6 +1876,9 @@
   </si>
   <si>
     <t>WW Psta Sld 6x800g (TAS)</t>
+  </si>
+  <si>
+    <t>9PW</t>
   </si>
 </sst>
 </file>
@@ -2308,10 +2308,10 @@
   <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B133" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="17" spans="1:9" ht="17.25">
       <c r="A17" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="18" spans="1:9" ht="17.25">
       <c r="A18" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>79</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="19" spans="1:9" ht="17.25">
       <c r="A19" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>83</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="20" spans="1:9" ht="17.25">
       <c r="A20" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>87</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="29" spans="1:9" ht="17.25">
       <c r="A29" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="36" spans="1:9" ht="17.25">
       <c r="A36" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="37" spans="1:9" ht="17.25">
       <c r="A37" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>156</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="38" spans="1:9" ht="17.25">
       <c r="A38" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>160</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="39" spans="1:9" ht="17.25">
       <c r="A39" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>156</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="40" spans="1:9" ht="17.25">
       <c r="A40" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>160</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="41" spans="1:9" ht="17.25">
       <c r="A41" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>166</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="42" spans="1:9" ht="17.25">
       <c r="A42" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>166</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="46" spans="1:9" ht="17.25">
       <c r="A46" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="47" spans="1:9" ht="17.25">
       <c r="A47" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>188</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="48" spans="1:9" ht="17.25">
       <c r="A48" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>192</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="49" spans="1:9" ht="17.25">
       <c r="A49" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>196</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="60" spans="1:9" ht="17.25">
       <c r="A60" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="119" spans="1:9" ht="17.25">
       <c r="A119" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>432</v>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="120" spans="1:9" ht="17.25">
       <c r="A120" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>436</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="121" spans="1:9" ht="17.25">
       <c r="A121" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>441</v>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="123" spans="1:9" ht="17.25">
       <c r="A123" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>447</v>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="127" spans="1:9" ht="17.25">
       <c r="A127" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>466</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="128" spans="1:9" ht="17.25">
       <c r="A128" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="129" spans="1:9" ht="17.25">
       <c r="A129" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>473</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="130" spans="1:9" ht="17.25">
       <c r="A130" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>477</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="131" spans="1:9" ht="17.25">
       <c r="A131" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>481</v>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="132" spans="1:9" ht="17.25">
       <c r="A132" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>485</v>
@@ -5260,7 +5260,7 @@
     </row>
     <row r="133" spans="1:9" ht="17.25">
       <c r="A133" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>489</v>
@@ -5308,7 +5308,7 @@
     </row>
     <row r="135" spans="1:9" ht="17.25">
       <c r="A135" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>494</v>
@@ -5333,7 +5333,7 @@
     </row>
     <row r="136" spans="1:9" ht="17.25">
       <c r="A136" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>499</v>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="139" spans="1:9" ht="17.25">
       <c r="A139" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>508</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="142" spans="1:9" ht="17.25">
       <c r="A142" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="143" spans="1:9" ht="17.25">
       <c r="A143" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>523</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="144" spans="1:9" ht="17.25">
       <c r="A144" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>527</v>
@@ -5548,7 +5548,7 @@
     </row>
     <row r="145" spans="1:9" ht="17.25">
       <c r="A145" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>531</v>
@@ -5587,7 +5587,7 @@
         <v>538</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>539</v>
+        <v>613</v>
       </c>
       <c r="H146" s="9" t="s">
         <v>304</v>
@@ -5598,21 +5598,21 @@
     </row>
     <row r="147" spans="1:9" ht="17.25">
       <c r="A147" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B147" s="9" t="s">
         <v>540</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>541</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="F147" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="F147" s="9" t="s">
+      <c r="G147" s="9" t="s">
         <v>543</v>
-      </c>
-      <c r="G147" s="9" t="s">
-        <v>544</v>
       </c>
       <c r="H147" s="9" t="s">
         <v>304</v>
@@ -5623,21 +5623,21 @@
     </row>
     <row r="148" spans="1:9" ht="17.25">
       <c r="A148" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="F148" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="F148" s="9" t="s">
+      <c r="G148" s="9" t="s">
         <v>547</v>
-      </c>
-      <c r="G148" s="9" t="s">
-        <v>548</v>
       </c>
       <c r="H148" s="9" t="s">
         <v>155</v>
@@ -5648,21 +5648,21 @@
     </row>
     <row r="149" spans="1:9" ht="17.25">
       <c r="A149" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="F149" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="F149" s="9" t="s">
+      <c r="G149" s="9" t="s">
         <v>551</v>
-      </c>
-      <c r="G149" s="9" t="s">
-        <v>552</v>
       </c>
       <c r="H149" s="9" t="s">
         <v>155</v>
@@ -5673,21 +5673,21 @@
     </row>
     <row r="150" spans="1:9" ht="17.25">
       <c r="A150" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="F150" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="F150" s="9" t="s">
+      <c r="G150" s="9" t="s">
         <v>555</v>
-      </c>
-      <c r="G150" s="9" t="s">
-        <v>556</v>
       </c>
       <c r="H150" s="9" t="s">
         <v>155</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="151" spans="1:9" ht="17.25">
       <c r="A151" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -5707,7 +5707,7 @@
         <v>520</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G151" s="9" t="s">
         <v>522</v>
@@ -5721,7 +5721,7 @@
     </row>
     <row r="152" spans="1:9" ht="17.25">
       <c r="A152" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>523</v>
@@ -5732,7 +5732,7 @@
         <v>524</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G152" s="9" t="s">
         <v>526</v>
@@ -5746,7 +5746,7 @@
     </row>
     <row r="153" spans="1:9" ht="17.25">
       <c r="A153" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B153" s="9" t="s">
         <v>527</v>
@@ -5757,7 +5757,7 @@
         <v>528</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G153" s="9" t="s">
         <v>530</v>
@@ -5771,7 +5771,7 @@
     </row>
     <row r="154" spans="1:9" ht="17.25">
       <c r="A154" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B154" s="9" t="s">
         <v>531</v>
@@ -5782,7 +5782,7 @@
         <v>532</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G154" s="9" t="s">
         <v>534</v>
@@ -5796,21 +5796,21 @@
     </row>
     <row r="155" spans="1:9" ht="17.25">
       <c r="A155" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B155" s="9" t="s">
         <v>561</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>562</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="F155" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="F155" s="9" t="s">
+      <c r="G155" s="9" t="s">
         <v>564</v>
-      </c>
-      <c r="G155" s="9" t="s">
-        <v>565</v>
       </c>
       <c r="H155" s="9" t="s">
         <v>203</v>
@@ -5821,7 +5821,7 @@
     </row>
     <row r="156" spans="1:9" ht="17.25">
       <c r="A156" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B156" s="9">
         <v>1</v>
@@ -5875,24 +5875,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>568</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22659355-2442-4084-B435-95F79C9E7446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECF74AF-D208-46EB-9C2D-E6A6BF027104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="del" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$158</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="621">
   <si>
     <t>Product Name</t>
   </si>
@@ -1731,9 +1731,6 @@
     <t>200371N</t>
   </si>
   <si>
-    <t>MD2</t>
-  </si>
-  <si>
     <t>TEST</t>
   </si>
   <si>
@@ -1879,13 +1876,37 @@
   </si>
   <si>
     <t>9PW</t>
+  </si>
+  <si>
+    <t>7HM</t>
+  </si>
+  <si>
+    <t>LK Tabbouleh Sld 8 x 290g</t>
+  </si>
+  <si>
+    <t>599792</t>
+  </si>
+  <si>
+    <t>LK Tabbouleh Sld 8 x 290g (TAS)</t>
+  </si>
+  <si>
+    <t>599792T</t>
+  </si>
+  <si>
+    <t>19339562014230</t>
+  </si>
+  <si>
+    <t>E2G</t>
+  </si>
+  <si>
+    <t>9339562012192</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1895,22 +1916,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF404040"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1962,7 +1990,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1972,7 +2000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1981,19 +2009,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2305,13 +2336,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B133" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A146" sqref="A146"/>
+      <selection pane="bottomRight" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2698,7 +2729,7 @@
     </row>
     <row r="17" spans="1:9" ht="17.25">
       <c r="A17" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2719,7 +2750,7 @@
     </row>
     <row r="18" spans="1:9" ht="17.25">
       <c r="A18" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>79</v>
@@ -2744,7 +2775,7 @@
     </row>
     <row r="19" spans="1:9" ht="17.25">
       <c r="A19" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>83</v>
@@ -2769,7 +2800,7 @@
     </row>
     <row r="20" spans="1:9" ht="17.25">
       <c r="A20" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>87</v>
@@ -2972,7 +3003,7 @@
     </row>
     <row r="29" spans="1:9" ht="17.25">
       <c r="A29" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -3127,7 +3158,7 @@
     </row>
     <row r="36" spans="1:9" ht="17.25">
       <c r="A36" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -3148,7 +3179,7 @@
     </row>
     <row r="37" spans="1:9" ht="17.25">
       <c r="A37" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>156</v>
@@ -3173,7 +3204,7 @@
     </row>
     <row r="38" spans="1:9" ht="17.25">
       <c r="A38" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>160</v>
@@ -3198,7 +3229,7 @@
     </row>
     <row r="39" spans="1:9" ht="17.25">
       <c r="A39" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>156</v>
@@ -3223,7 +3254,7 @@
     </row>
     <row r="40" spans="1:9" ht="17.25">
       <c r="A40" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>160</v>
@@ -3248,7 +3279,7 @@
     </row>
     <row r="41" spans="1:9" ht="17.25">
       <c r="A41" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>166</v>
@@ -3273,7 +3304,7 @@
     </row>
     <row r="42" spans="1:9" ht="17.25">
       <c r="A42" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>166</v>
@@ -3369,7 +3400,7 @@
     </row>
     <row r="46" spans="1:9" ht="17.25">
       <c r="A46" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -3390,7 +3421,7 @@
     </row>
     <row r="47" spans="1:9" ht="17.25">
       <c r="A47" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>188</v>
@@ -3415,7 +3446,7 @@
     </row>
     <row r="48" spans="1:9" ht="17.25">
       <c r="A48" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>192</v>
@@ -3440,7 +3471,7 @@
     </row>
     <row r="49" spans="1:9" ht="17.25">
       <c r="A49" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>196</v>
@@ -3697,7 +3728,7 @@
     </row>
     <row r="60" spans="1:9" ht="17.25">
       <c r="A60" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -4247,34 +4278,48 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="17.25">
-      <c r="A85" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="B85" s="9"/>
+      <c r="A85" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>620</v>
+      </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
+      <c r="E85" s="9" t="s">
+        <v>618</v>
+      </c>
       <c r="F85" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
+        <v>615</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I85" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="17.25">
-      <c r="A86" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="B86" s="9"/>
+      <c r="A86" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>620</v>
+      </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
+      <c r="E86" s="9" t="s">
+        <v>618</v>
+      </c>
       <c r="F86" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="G86" s="9"/>
+        <v>617</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>619</v>
+      </c>
       <c r="H86" s="9" t="s">
         <v>130</v>
       </c>
@@ -4284,35 +4329,31 @@
     </row>
     <row r="87" spans="1:9" ht="17.25">
       <c r="A87" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
-        <v>349</v>
-      </c>
+      <c r="E87" s="9"/>
       <c r="F87" s="9" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G87" s="9"/>
-      <c r="H87" s="9" t="s">
-        <v>130</v>
-      </c>
+      <c r="H87" s="9"/>
       <c r="I87" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="17.25">
-      <c r="A88" s="10" t="s">
-        <v>351</v>
+      <c r="A88" s="8" t="s">
+        <v>346</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="9" t="s">
@@ -4323,17 +4364,17 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="17.25">
-      <c r="A89" s="10" t="s">
-        <v>353</v>
+      <c r="A89" s="8" t="s">
+        <v>348</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9" t="s">
@@ -4344,68 +4385,72 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="17.25">
-      <c r="A90" s="8" t="s">
-        <v>356</v>
+      <c r="A90" s="10" t="s">
+        <v>351</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
+      <c r="H90" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I90" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="17.25">
-      <c r="A91" s="8" t="s">
-        <v>358</v>
+      <c r="A91" s="10" t="s">
+        <v>353</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
+      <c r="E91" s="9" t="s">
+        <v>354</v>
+      </c>
       <c r="F91" s="9" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
+      <c r="H91" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I91" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="17.25">
       <c r="A92" s="8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G92" s="9"/>
-      <c r="H92" s="9" t="s">
-        <v>130</v>
-      </c>
+      <c r="H92" s="9"/>
       <c r="I92" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="17.25">
       <c r="A93" s="8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
@@ -4415,87 +4460,83 @@
     </row>
     <row r="94" spans="1:9" ht="17.25">
       <c r="A94" s="8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
+      <c r="H94" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I94" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="17.25">
       <c r="A95" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>367</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
-      <c r="E95" s="9" t="s">
-        <v>368</v>
-      </c>
+      <c r="E95" s="9"/>
       <c r="F95" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>370</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="17.25">
       <c r="A96" s="8" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
-      <c r="E96" s="9" t="s">
-        <v>372</v>
-      </c>
+      <c r="E96" s="9"/>
       <c r="F96" s="9" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G96" s="9"/>
-      <c r="H96" s="9" t="s">
-        <v>130</v>
-      </c>
+      <c r="H96" s="9"/>
       <c r="I96" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="17.25">
       <c r="A97" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="B97" s="9"/>
+        <v>366</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>367</v>
+      </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
+      <c r="E97" s="9" t="s">
+        <v>368</v>
+      </c>
       <c r="F97" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9" t="s">
-        <v>130</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="H97" s="9"/>
       <c r="I97" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="17.25">
       <c r="A98" s="8" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -4504,7 +4545,7 @@
         <v>372</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="9" t="s">
@@ -4516,20 +4557,18 @@
     </row>
     <row r="99" spans="1:9" ht="17.25">
       <c r="A99" s="8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
-        <v>379</v>
-      </c>
+      <c r="E99" s="9"/>
       <c r="F99" s="9" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="9" t="s">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="I99" s="9">
         <v>28</v>
@@ -4537,16 +4576,16 @@
     </row>
     <row r="100" spans="1:9" ht="17.25">
       <c r="A100" s="8" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9" t="s">
@@ -4558,53 +4597,49 @@
     </row>
     <row r="101" spans="1:9" ht="17.25">
       <c r="A101" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>385</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="H101" s="9"/>
+        <v>380</v>
+      </c>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="I101" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="17.25">
       <c r="A102" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>385</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="H102" s="9"/>
+        <v>383</v>
+      </c>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I102" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="17.25">
       <c r="A103" s="8" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>385</v>
@@ -4615,7 +4650,7 @@
         <v>386</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G103" s="9" t="s">
         <v>388</v>
@@ -4627,56 +4662,64 @@
     </row>
     <row r="104" spans="1:9" ht="17.25">
       <c r="A104" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B104" s="9"/>
+        <v>389</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
+      <c r="E104" s="9" t="s">
+        <v>386</v>
+      </c>
       <c r="F104" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9" t="s">
-        <v>300</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="H104" s="9"/>
       <c r="I104" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="17.25">
       <c r="A105" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="B105" s="9"/>
+        <v>391</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
+      <c r="E105" s="9" t="s">
+        <v>386</v>
+      </c>
       <c r="F105" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9" t="s">
-        <v>130</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="H105" s="9"/>
       <c r="I105" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="17.25">
       <c r="A106" s="8" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="9" t="s">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="I106" s="9">
         <v>28</v>
@@ -4684,14 +4727,14 @@
     </row>
     <row r="107" spans="1:9" ht="17.25">
       <c r="A107" s="8" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="9" t="s">
@@ -4703,53 +4746,45 @@
     </row>
     <row r="108" spans="1:9" ht="17.25">
       <c r="A108" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>402</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
-      <c r="E108" s="9" t="s">
-        <v>403</v>
-      </c>
+      <c r="E108" s="9"/>
       <c r="F108" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="H108" s="9"/>
+        <v>398</v>
+      </c>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I108" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="17.25">
       <c r="A109" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>402</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
-      <c r="E109" s="9" t="s">
-        <v>403</v>
-      </c>
+      <c r="E109" s="9"/>
       <c r="F109" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="H109" s="9"/>
+        <v>400</v>
+      </c>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I109" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="17.25">
       <c r="A110" s="8" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>402</v>
@@ -4760,7 +4795,7 @@
         <v>403</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>405</v>
@@ -4772,16 +4807,22 @@
     </row>
     <row r="111" spans="1:9" ht="17.25">
       <c r="A111" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="B111" s="9"/>
+        <v>406</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>402</v>
+      </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
+      <c r="E111" s="9" t="s">
+        <v>403</v>
+      </c>
       <c r="F111" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="G111" s="9"/>
+        <v>407</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>405</v>
+      </c>
       <c r="H111" s="9"/>
       <c r="I111" s="9">
         <v>32</v>
@@ -4789,16 +4830,22 @@
     </row>
     <row r="112" spans="1:9" ht="17.25">
       <c r="A112" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="B112" s="9"/>
+        <v>408</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>402</v>
+      </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
+      <c r="E112" s="9" t="s">
+        <v>403</v>
+      </c>
       <c r="F112" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="G112" s="9"/>
+        <v>409</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>405</v>
+      </c>
       <c r="H112" s="9"/>
       <c r="I112" s="9">
         <v>32</v>
@@ -4806,14 +4853,14 @@
     </row>
     <row r="113" spans="1:9" ht="17.25">
       <c r="A113" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
@@ -4823,14 +4870,14 @@
     </row>
     <row r="114" spans="1:9" ht="17.25">
       <c r="A114" s="8" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
@@ -4840,14 +4887,14 @@
     </row>
     <row r="115" spans="1:9" ht="17.25">
       <c r="A115" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
@@ -4857,145 +4904,129 @@
     </row>
     <row r="116" spans="1:9" ht="17.25">
       <c r="A116" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>421</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
-      <c r="E116" s="9" t="s">
-        <v>422</v>
-      </c>
+      <c r="E116" s="9"/>
       <c r="F116" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>130</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
       <c r="I116" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="17.25">
       <c r="A117" s="8" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="17.25">
       <c r="A118" s="8" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="H118" s="9"/>
+        <v>424</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I118" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="17.25">
       <c r="A119" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>432</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
-      <c r="E119" s="9" t="s">
-        <v>433</v>
-      </c>
+      <c r="E119" s="9"/>
       <c r="F119" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>435</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="G119" s="9"/>
       <c r="H119" s="9"/>
       <c r="I119" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="17.25">
       <c r="A120" s="8" t="s">
-        <v>572</v>
+        <v>427</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>440</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="H120" s="9"/>
       <c r="I120" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="17.25">
       <c r="A121" s="8" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="H121" s="9" t="s">
-        <v>440</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="H121" s="9"/>
       <c r="I121" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="17.25">
       <c r="A122" s="8" t="s">
-        <v>445</v>
+        <v>571</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>436</v>
@@ -5006,7 +5037,7 @@
         <v>437</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G122" s="9" t="s">
         <v>439</v>
@@ -5020,92 +5051,94 @@
     </row>
     <row r="123" spans="1:9" ht="17.25">
       <c r="A123" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="H123" s="9"/>
+        <v>444</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>440</v>
+      </c>
       <c r="I123" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="17.25">
       <c r="A124" s="8" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="H124" s="9"/>
+        <v>439</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>440</v>
+      </c>
       <c r="I124" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="17.25">
       <c r="A125" s="8" t="s">
-        <v>456</v>
+        <v>573</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="H125" s="9" t="s">
-        <v>440</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="H125" s="9"/>
       <c r="I125" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="17.25">
       <c r="A126" s="8" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="H126" s="9"/>
       <c r="I126" s="9">
@@ -5114,92 +5147,90 @@
     </row>
     <row r="127" spans="1:9" ht="17.25">
       <c r="A127" s="8" t="s">
-        <v>575</v>
+        <v>456</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="H127" s="9"/>
+        <v>460</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>440</v>
+      </c>
       <c r="I127" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="17.25">
       <c r="A128" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="B128" s="9"/>
+        <v>461</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>462</v>
+      </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="H128" s="9" t="s">
-        <v>155</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="H128" s="9"/>
       <c r="I128" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="17.25">
       <c r="A129" s="8" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="H129" s="9" t="s">
-        <v>155</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="H129" s="9"/>
       <c r="I129" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="17.25">
       <c r="A130" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>477</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="H130" s="9" t="s">
         <v>155</v>
@@ -5210,21 +5241,21 @@
     </row>
     <row r="131" spans="1:9" ht="17.25">
       <c r="A131" s="8" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H131" s="9" t="s">
         <v>155</v>
@@ -5235,24 +5266,24 @@
     </row>
     <row r="132" spans="1:9" ht="17.25">
       <c r="A132" s="8" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="I132" s="9">
         <v>28</v>
@@ -5260,44 +5291,46 @@
     </row>
     <row r="133" spans="1:9" ht="17.25">
       <c r="A133" s="8" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="H133" s="9"/>
+        <v>484</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="I133" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="17.25">
       <c r="A134" s="8" t="s">
-        <v>493</v>
+        <v>575</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="H134" s="9" t="s">
         <v>203</v>
@@ -5308,92 +5341,94 @@
     </row>
     <row r="135" spans="1:9" ht="17.25">
       <c r="A135" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="H135" s="9" t="s">
-        <v>203</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="H135" s="9"/>
       <c r="I135" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="17.25">
       <c r="A136" s="8" t="s">
-        <v>579</v>
+        <v>493</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="F136" s="9">
-        <v>563282</v>
+        <v>495</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>496</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="H136" s="9"/>
+        <v>497</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="I136" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="17.25">
       <c r="A137" s="8" t="s">
-        <v>502</v>
+        <v>577</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="H137" s="9"/>
+        <v>497</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="I137" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="17.25">
       <c r="A138" s="8" t="s">
-        <v>507</v>
+        <v>578</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="F138" s="9" t="s">
-        <v>510</v>
+        <v>500</v>
+      </c>
+      <c r="F138" s="9">
+        <v>563282</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="H138" s="9"/>
       <c r="I138" s="9">
@@ -5402,21 +5437,21 @@
     </row>
     <row r="139" spans="1:9" ht="17.25">
       <c r="A139" s="8" t="s">
-        <v>580</v>
+        <v>502</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H139" s="9"/>
       <c r="I139" s="9">
@@ -5425,72 +5460,70 @@
     </row>
     <row r="140" spans="1:9" ht="17.25">
       <c r="A140" s="8" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="H140" s="9" t="s">
-        <v>203</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="H140" s="9"/>
       <c r="I140" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="17.25">
       <c r="A141" s="8" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="H141" s="9" t="s">
-        <v>203</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="H141" s="9"/>
       <c r="I141" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="17.25">
       <c r="A142" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="B142" s="9"/>
+        <v>513</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>514</v>
+      </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="I142" s="9">
         <v>28</v>
@@ -5498,24 +5531,24 @@
     </row>
     <row r="143" spans="1:9" ht="17.25">
       <c r="A143" s="8" t="s">
-        <v>603</v>
+        <v>518</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="I143" s="9">
         <v>28</v>
@@ -5523,21 +5556,19 @@
     </row>
     <row r="144" spans="1:9" ht="17.25">
       <c r="A144" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>527</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="H144" s="9" t="s">
         <v>155</v>
@@ -5548,21 +5579,21 @@
     </row>
     <row r="145" spans="1:9" ht="17.25">
       <c r="A145" s="8" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="H145" s="9" t="s">
         <v>155</v>
@@ -5573,24 +5604,24 @@
     </row>
     <row r="146" spans="1:9" ht="17.25">
       <c r="A146" s="8" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>613</v>
+        <v>530</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>304</v>
+        <v>155</v>
       </c>
       <c r="I146" s="9">
         <v>28</v>
@@ -5598,24 +5629,24 @@
     </row>
     <row r="147" spans="1:9" ht="17.25">
       <c r="A147" s="8" t="s">
-        <v>539</v>
+        <v>604</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>304</v>
+        <v>155</v>
       </c>
       <c r="I147" s="9">
         <v>28</v>
@@ -5623,24 +5654,24 @@
     </row>
     <row r="148" spans="1:9" ht="17.25">
       <c r="A148" s="8" t="s">
-        <v>606</v>
+        <v>535</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>547</v>
+        <v>612</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>155</v>
+        <v>304</v>
       </c>
       <c r="I148" s="9">
         <v>28</v>
@@ -5648,24 +5679,24 @@
     </row>
     <row r="149" spans="1:9" ht="17.25">
       <c r="A149" s="8" t="s">
-        <v>607</v>
+        <v>539</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>155</v>
+        <v>304</v>
       </c>
       <c r="I149" s="9">
         <v>28</v>
@@ -5673,21 +5704,21 @@
     </row>
     <row r="150" spans="1:9" ht="17.25">
       <c r="A150" s="8" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="H150" s="9" t="s">
         <v>155</v>
@@ -5698,19 +5729,21 @@
     </row>
     <row r="151" spans="1:9" ht="17.25">
       <c r="A151" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="B151" s="9"/>
+        <v>606</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>548</v>
+      </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="H151" s="9" t="s">
         <v>155</v>
@@ -5721,21 +5754,21 @@
     </row>
     <row r="152" spans="1:9" ht="17.25">
       <c r="A152" s="8" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="H152" s="9" t="s">
         <v>155</v>
@@ -5746,21 +5779,19 @@
     </row>
     <row r="153" spans="1:9" ht="17.25">
       <c r="A153" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>527</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="H153" s="9" t="s">
         <v>155</v>
@@ -5771,21 +5802,21 @@
     </row>
     <row r="154" spans="1:9" ht="17.25">
       <c r="A154" s="8" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="H154" s="9" t="s">
         <v>155</v>
@@ -5796,24 +5827,24 @@
     </row>
     <row r="155" spans="1:9" ht="17.25">
       <c r="A155" s="8" t="s">
-        <v>560</v>
+        <v>610</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>561</v>
+        <v>527</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9" t="s">
-        <v>562</v>
+        <v>528</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="I155" s="9">
         <v>28</v>
@@ -5821,30 +5852,80 @@
     </row>
     <row r="156" spans="1:9" ht="17.25">
       <c r="A156" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="B156" s="9">
-        <v>1</v>
+        <v>611</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>531</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
-      <c r="E156" s="9">
+      <c r="E156" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="H156" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I156" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="17.25">
+      <c r="A157" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="I157" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="17.25">
+      <c r="A158" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="B158" s="9">
         <v>1</v>
       </c>
-      <c r="F156" s="9">
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9">
         <v>1</v>
       </c>
-      <c r="G156" s="9"/>
-      <c r="H156" s="9">
+      <c r="F158" s="9">
+        <v>1</v>
+      </c>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9">
         <v>10</v>
       </c>
-      <c r="I156" s="9">
+      <c r="I158" s="9">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I155">
-    <sortCondition ref="A1:A155"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I157">
+    <sortCondition ref="A1:A157"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
@@ -5853,7 +5934,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5875,24 +5956,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECF74AF-D208-46EB-9C2D-E6A6BF027104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF9262E-0DCA-4C29-B8FF-D2CDF8649A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1668,9 +1668,6 @@
     <t>563281</t>
   </si>
   <si>
-    <t>PE7</t>
-  </si>
-  <si>
     <t>9300633626518</t>
   </si>
   <si>
@@ -1900,6 +1897,9 @@
   </si>
   <si>
     <t>9339562012192</t>
+  </si>
+  <si>
+    <t>5PS</t>
   </si>
 </sst>
 </file>
@@ -2339,10 +2339,10 @@
   <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B136" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B87" sqref="B87"/>
+      <selection pane="bottomRight" activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="17" spans="1:9" ht="17.25">
       <c r="A17" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="18" spans="1:9" ht="17.25">
       <c r="A18" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>79</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="19" spans="1:9" ht="17.25">
       <c r="A19" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>83</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="20" spans="1:9" ht="17.25">
       <c r="A20" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>87</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="29" spans="1:9" ht="17.25">
       <c r="A29" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="36" spans="1:9" ht="17.25">
       <c r="A36" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="37" spans="1:9" ht="17.25">
       <c r="A37" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>156</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="38" spans="1:9" ht="17.25">
       <c r="A38" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>160</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="39" spans="1:9" ht="17.25">
       <c r="A39" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>156</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="40" spans="1:9" ht="17.25">
       <c r="A40" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>160</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="41" spans="1:9" ht="17.25">
       <c r="A41" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>166</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="42" spans="1:9" ht="17.25">
       <c r="A42" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>166</v>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="46" spans="1:9" ht="17.25">
       <c r="A46" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="47" spans="1:9" ht="17.25">
       <c r="A47" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>188</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="48" spans="1:9" ht="17.25">
       <c r="A48" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>192</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="49" spans="1:9" ht="17.25">
       <c r="A49" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>196</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="60" spans="1:9" ht="17.25">
       <c r="A60" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -4279,21 +4279,21 @@
     </row>
     <row r="85" spans="1:9" ht="17.25">
       <c r="A85" s="11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="G85" s="9" t="s">
         <v>618</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>619</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>130</v>
@@ -4304,21 +4304,21 @@
     </row>
     <row r="86" spans="1:9" ht="17.25">
       <c r="A86" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="G86" s="9" t="s">
         <v>618</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>619</v>
       </c>
       <c r="H86" s="9" t="s">
         <v>130</v>
@@ -5003,7 +5003,7 @@
     </row>
     <row r="121" spans="1:9" ht="17.25">
       <c r="A121" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>432</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="122" spans="1:9" ht="17.25">
       <c r="A122" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>436</v>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="123" spans="1:9" ht="17.25">
       <c r="A123" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>441</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="125" spans="1:9" ht="17.25">
       <c r="A125" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>447</v>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="129" spans="1:9" ht="17.25">
       <c r="A129" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>466</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="130" spans="1:9" ht="17.25">
       <c r="A130" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="131" spans="1:9" ht="17.25">
       <c r="A131" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>473</v>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="132" spans="1:9" ht="17.25">
       <c r="A132" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>477</v>
@@ -5291,7 +5291,7 @@
     </row>
     <row r="133" spans="1:9" ht="17.25">
       <c r="A133" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>481</v>
@@ -5316,7 +5316,7 @@
     </row>
     <row r="134" spans="1:9" ht="17.25">
       <c r="A134" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>485</v>
@@ -5341,7 +5341,7 @@
     </row>
     <row r="135" spans="1:9" ht="17.25">
       <c r="A135" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>489</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="137" spans="1:9" ht="17.25">
       <c r="A137" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>494</v>
@@ -5414,7 +5414,7 @@
     </row>
     <row r="138" spans="1:9" ht="17.25">
       <c r="A138" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>499</v>
@@ -5483,7 +5483,7 @@
     </row>
     <row r="141" spans="1:9" ht="17.25">
       <c r="A141" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>508</v>
@@ -5556,7 +5556,7 @@
     </row>
     <row r="144" spans="1:9" ht="17.25">
       <c r="A144" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -5579,7 +5579,7 @@
     </row>
     <row r="145" spans="1:9" ht="17.25">
       <c r="A145" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>523</v>
@@ -5604,7 +5604,7 @@
     </row>
     <row r="146" spans="1:9" ht="17.25">
       <c r="A146" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>527</v>
@@ -5629,7 +5629,7 @@
     </row>
     <row r="147" spans="1:9" ht="17.25">
       <c r="A147" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>531</v>
@@ -5668,7 +5668,7 @@
         <v>538</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H148" s="9" t="s">
         <v>304</v>
@@ -5693,7 +5693,7 @@
         <v>542</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>543</v>
+        <v>620</v>
       </c>
       <c r="H149" s="9" t="s">
         <v>304</v>
@@ -5704,21 +5704,21 @@
     </row>
     <row r="150" spans="1:9" ht="17.25">
       <c r="A150" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="F150" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="F150" s="9" t="s">
+      <c r="G150" s="9" t="s">
         <v>546</v>
-      </c>
-      <c r="G150" s="9" t="s">
-        <v>547</v>
       </c>
       <c r="H150" s="9" t="s">
         <v>155</v>
@@ -5729,21 +5729,21 @@
     </row>
     <row r="151" spans="1:9" ht="17.25">
       <c r="A151" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="F151" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="F151" s="9" t="s">
+      <c r="G151" s="9" t="s">
         <v>550</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>551</v>
       </c>
       <c r="H151" s="9" t="s">
         <v>155</v>
@@ -5754,21 +5754,21 @@
     </row>
     <row r="152" spans="1:9" ht="17.25">
       <c r="A152" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="F152" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="F152" s="9" t="s">
+      <c r="G152" s="9" t="s">
         <v>554</v>
-      </c>
-      <c r="G152" s="9" t="s">
-        <v>555</v>
       </c>
       <c r="H152" s="9" t="s">
         <v>155</v>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="153" spans="1:9" ht="17.25">
       <c r="A153" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -5788,7 +5788,7 @@
         <v>520</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G153" s="9" t="s">
         <v>522</v>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="154" spans="1:9" ht="17.25">
       <c r="A154" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B154" s="9" t="s">
         <v>523</v>
@@ -5813,7 +5813,7 @@
         <v>524</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G154" s="9" t="s">
         <v>526</v>
@@ -5827,7 +5827,7 @@
     </row>
     <row r="155" spans="1:9" ht="17.25">
       <c r="A155" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>527</v>
@@ -5838,7 +5838,7 @@
         <v>528</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G155" s="9" t="s">
         <v>530</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="156" spans="1:9" ht="17.25">
       <c r="A156" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>531</v>
@@ -5863,7 +5863,7 @@
         <v>532</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G156" s="9" t="s">
         <v>534</v>
@@ -5877,21 +5877,21 @@
     </row>
     <row r="157" spans="1:9" ht="17.25">
       <c r="A157" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>560</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>561</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="F157" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="F157" s="9" t="s">
-        <v>563</v>
-      </c>
       <c r="G157" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H157" s="9" t="s">
         <v>203</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="158" spans="1:9" ht="17.25">
       <c r="A158" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B158" s="9">
         <v>1</v>
@@ -5956,24 +5956,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>566</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF9262E-0DCA-4C29-B8FF-D2CDF8649A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7842A1C6-6003-413C-A156-048171195256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -594,9 +594,6 @@
     <t>599756</t>
   </si>
   <si>
-    <t>D9C</t>
-  </si>
-  <si>
     <t>19310645244645</t>
   </si>
   <si>
@@ -1900,6 +1897,9 @@
   </si>
   <si>
     <t>5PS</t>
+  </si>
+  <si>
+    <t>J7C</t>
   </si>
 </sst>
 </file>
@@ -2339,10 +2339,10 @@
   <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B136" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G150" sqref="G150"/>
+      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2422,7 +2422,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I3" s="9">
         <v>28</v>
@@ -2447,7 +2447,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I4" s="9">
         <v>28</v>
@@ -2495,7 +2495,7 @@
         <v>31</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I6" s="9">
         <v>28</v>
@@ -2520,7 +2520,7 @@
         <v>36</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I7" s="9">
         <v>28</v>
@@ -2545,7 +2545,7 @@
         <v>41</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I8" s="9">
         <v>28</v>
@@ -2570,7 +2570,7 @@
         <v>46</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I9" s="9">
         <v>28</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="17" spans="1:9" ht="17.25">
       <c r="A17" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="18" spans="1:9" ht="17.25">
       <c r="A18" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>79</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="19" spans="1:9" ht="17.25">
       <c r="A19" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>83</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="20" spans="1:9" ht="17.25">
       <c r="A20" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>87</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="29" spans="1:9" ht="17.25">
       <c r="A29" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="36" spans="1:9" ht="17.25">
       <c r="A36" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="37" spans="1:9" ht="17.25">
       <c r="A37" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>156</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="38" spans="1:9" ht="17.25">
       <c r="A38" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>160</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="39" spans="1:9" ht="17.25">
       <c r="A39" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>156</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="40" spans="1:9" ht="17.25">
       <c r="A40" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>160</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="41" spans="1:9" ht="17.25">
       <c r="A41" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>166</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="42" spans="1:9" ht="17.25">
       <c r="A42" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>166</v>
@@ -3389,7 +3389,7 @@
         <v>184</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>185</v>
+        <v>620</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>130</v>
@@ -3400,16 +3400,16 @@
     </row>
     <row r="46" spans="1:9" ht="17.25">
       <c r="A46" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>187</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9" t="s">
@@ -3421,21 +3421,21 @@
     </row>
     <row r="47" spans="1:9" ht="17.25">
       <c r="A47" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="G47" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>155</v>
@@ -3446,21 +3446,21 @@
     </row>
     <row r="48" spans="1:9" ht="17.25">
       <c r="A48" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="G48" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>155</v>
@@ -3471,21 +3471,21 @@
     </row>
     <row r="49" spans="1:9" ht="17.25">
       <c r="A49" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="G49" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>155</v>
@@ -3496,20 +3496,20 @@
     </row>
     <row r="50" spans="1:9" ht="17.25">
       <c r="A50" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>202</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I50" s="9">
         <v>28</v>
@@ -3517,21 +3517,21 @@
     </row>
     <row r="51" spans="1:9" ht="17.25">
       <c r="A51" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="G51" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>208</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="9">
@@ -3540,21 +3540,21 @@
     </row>
     <row r="52" spans="1:9" ht="17.25">
       <c r="A52" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F52" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="G52" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>213</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9">
@@ -3563,21 +3563,21 @@
     </row>
     <row r="53" spans="1:9" ht="17.25">
       <c r="A53" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>214</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>215</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F53" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="G53" s="9" t="s">
         <v>217</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>218</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="9">
@@ -3586,21 +3586,21 @@
     </row>
     <row r="54" spans="1:9" ht="17.25">
       <c r="A54" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>220</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="G54" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>223</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>130</v>
@@ -3611,21 +3611,21 @@
     </row>
     <row r="55" spans="1:9" ht="17.25">
       <c r="A55" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>225</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F55" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="G55" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>228</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="9">
@@ -3634,21 +3634,21 @@
     </row>
     <row r="56" spans="1:9" ht="17.25">
       <c r="A56" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F56" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="G56" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="9">
@@ -3657,21 +3657,21 @@
     </row>
     <row r="57" spans="1:9" ht="17.25">
       <c r="A57" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>234</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>235</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F57" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="G57" s="9" t="s">
         <v>237</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>238</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="9">
@@ -3680,21 +3680,21 @@
     </row>
     <row r="58" spans="1:9" ht="17.25">
       <c r="A58" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>240</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F58" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="G58" s="9" t="s">
         <v>242</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>243</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="9">
@@ -3703,21 +3703,21 @@
     </row>
     <row r="59" spans="1:9" ht="17.25">
       <c r="A59" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>244</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>245</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F59" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="G59" s="9" t="s">
         <v>247</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>248</v>
       </c>
       <c r="H59" s="9" t="s">
         <v>130</v>
@@ -3728,20 +3728,20 @@
     </row>
     <row r="60" spans="1:9" ht="17.25">
       <c r="A60" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F60" s="9" t="s">
         <v>249</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>250</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I60" s="9">
         <v>28</v>
@@ -3749,21 +3749,21 @@
     </row>
     <row r="61" spans="1:9" ht="17.25">
       <c r="A61" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>251</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>252</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F61" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="G61" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>255</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9">
@@ -3772,21 +3772,21 @@
     </row>
     <row r="62" spans="1:9" ht="17.25">
       <c r="A62" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>256</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>257</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F62" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="G62" s="9" t="s">
         <v>259</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>130</v>
@@ -3797,14 +3797,14 @@
     </row>
     <row r="63" spans="1:9" ht="17.25">
       <c r="A63" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
@@ -3814,14 +3814,14 @@
     </row>
     <row r="64" spans="1:9" ht="17.25">
       <c r="A64" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
@@ -3831,14 +3831,14 @@
     </row>
     <row r="65" spans="1:9" ht="17.25">
       <c r="A65" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
@@ -3848,21 +3848,21 @@
     </row>
     <row r="66" spans="1:9" ht="17.25">
       <c r="A66" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F66" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="G66" s="9" t="s">
         <v>270</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>271</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="9">
@@ -3871,16 +3871,16 @@
     </row>
     <row r="67" spans="1:9" ht="17.25">
       <c r="A67" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F67" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>274</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
@@ -3890,16 +3890,16 @@
     </row>
     <row r="68" spans="1:9" ht="17.25">
       <c r="A68" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F68" s="9" t="s">
         <v>276</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>277</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="9" t="s">
@@ -3911,21 +3911,21 @@
     </row>
     <row r="69" spans="1:9" ht="17.25">
       <c r="A69" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>279</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F69" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="G69" s="9" t="s">
         <v>281</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>282</v>
       </c>
       <c r="H69" s="9" t="s">
         <v>155</v>
@@ -3936,21 +3936,21 @@
     </row>
     <row r="70" spans="1:9" ht="17.25">
       <c r="A70" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>284</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F70" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="G70" s="9" t="s">
         <v>286</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>287</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>155</v>
@@ -3961,16 +3961,16 @@
     </row>
     <row r="71" spans="1:9" ht="17.25">
       <c r="A71" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F71" s="9" t="s">
         <v>289</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>290</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="9" t="s">
@@ -3982,16 +3982,16 @@
     </row>
     <row r="72" spans="1:9" ht="17.25">
       <c r="A72" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F72" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>293</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9" t="s">
@@ -4003,16 +4003,16 @@
     </row>
     <row r="73" spans="1:9" ht="17.25">
       <c r="A73" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F73" s="9" t="s">
         <v>295</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>296</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9" t="s">
@@ -4024,20 +4024,20 @@
     </row>
     <row r="74" spans="1:9" ht="17.25">
       <c r="A74" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="F74" s="9" t="s">
         <v>298</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>299</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I74" s="9">
         <v>28</v>
@@ -4045,20 +4045,20 @@
     </row>
     <row r="75" spans="1:9" ht="17.25">
       <c r="A75" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F75" s="9" t="s">
         <v>302</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>303</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I75" s="9">
         <v>28</v>
@@ -4066,16 +4066,16 @@
     </row>
     <row r="76" spans="1:9" ht="17.25">
       <c r="A76" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="F76" s="9" t="s">
         <v>306</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>307</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9" t="s">
@@ -4087,21 +4087,21 @@
     </row>
     <row r="77" spans="1:9" ht="17.25">
       <c r="A77" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>309</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F77" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="G77" s="9" t="s">
         <v>311</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>312</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>17</v>
@@ -4112,20 +4112,20 @@
     </row>
     <row r="78" spans="1:9" ht="17.25">
       <c r="A78" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="F78" s="9" t="s">
         <v>314</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>315</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I78" s="9">
         <v>28</v>
@@ -4133,21 +4133,21 @@
     </row>
     <row r="79" spans="1:9" ht="17.25">
       <c r="A79" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>317</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="F79" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="G79" s="9" t="s">
         <v>319</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>320</v>
       </c>
       <c r="H79" s="9" t="s">
         <v>155</v>
@@ -4158,21 +4158,21 @@
     </row>
     <row r="80" spans="1:9" ht="17.25">
       <c r="A80" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>321</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>322</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="F80" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="G80" s="9" t="s">
         <v>324</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>325</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>155</v>
@@ -4183,24 +4183,24 @@
     </row>
     <row r="81" spans="1:9" ht="17.25">
       <c r="A81" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>326</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>327</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F81" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="G81" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="G81" s="9" t="s">
-        <v>330</v>
-      </c>
       <c r="H81" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I81" s="9">
         <v>28</v>
@@ -4208,20 +4208,20 @@
     </row>
     <row r="82" spans="1:9" ht="17.25">
       <c r="A82" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F82" s="9" t="s">
         <v>332</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>333</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I82" s="9">
         <v>28</v>
@@ -4229,21 +4229,21 @@
     </row>
     <row r="83" spans="1:9" ht="17.25">
       <c r="A83" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>334</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>335</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F83" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="G83" s="9" t="s">
         <v>337</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>338</v>
       </c>
       <c r="H83" s="9" t="s">
         <v>155</v>
@@ -4254,21 +4254,21 @@
     </row>
     <row r="84" spans="1:9" ht="17.25">
       <c r="A84" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>339</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>340</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F84" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="G84" s="9" t="s">
         <v>342</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>343</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>155</v>
@@ -4279,21 +4279,21 @@
     </row>
     <row r="85" spans="1:9" ht="17.25">
       <c r="A85" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="G85" s="9" t="s">
         <v>617</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>618</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>130</v>
@@ -4304,21 +4304,21 @@
     </row>
     <row r="86" spans="1:9" ht="17.25">
       <c r="A86" s="11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="G86" s="9" t="s">
         <v>617</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>618</v>
       </c>
       <c r="H86" s="9" t="s">
         <v>130</v>
@@ -4329,14 +4329,14 @@
     </row>
     <row r="87" spans="1:9" ht="17.25">
       <c r="A87" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
@@ -4346,14 +4346,14 @@
     </row>
     <row r="88" spans="1:9" ht="17.25">
       <c r="A88" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="9" t="s">
@@ -4365,16 +4365,16 @@
     </row>
     <row r="89" spans="1:9" ht="17.25">
       <c r="A89" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="F89" s="9" t="s">
         <v>349</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>350</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9" t="s">
@@ -4386,14 +4386,14 @@
     </row>
     <row r="90" spans="1:9" ht="17.25">
       <c r="A90" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="9" t="s">
@@ -4405,16 +4405,16 @@
     </row>
     <row r="91" spans="1:9" ht="17.25">
       <c r="A91" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="F91" s="9" t="s">
         <v>354</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>355</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="9" t="s">
@@ -4426,14 +4426,14 @@
     </row>
     <row r="92" spans="1:9" ht="17.25">
       <c r="A92" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
@@ -4443,14 +4443,14 @@
     </row>
     <row r="93" spans="1:9" ht="17.25">
       <c r="A93" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
@@ -4460,14 +4460,14 @@
     </row>
     <row r="94" spans="1:9" ht="17.25">
       <c r="A94" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="9" t="s">
@@ -4479,14 +4479,14 @@
     </row>
     <row r="95" spans="1:9" ht="17.25">
       <c r="A95" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
@@ -4496,14 +4496,14 @@
     </row>
     <row r="96" spans="1:9" ht="17.25">
       <c r="A96" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
@@ -4513,21 +4513,21 @@
     </row>
     <row r="97" spans="1:9" ht="17.25">
       <c r="A97" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>366</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>367</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="F97" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="G97" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>370</v>
       </c>
       <c r="H97" s="9"/>
       <c r="I97" s="9">
@@ -4536,16 +4536,16 @@
     </row>
     <row r="98" spans="1:9" ht="17.25">
       <c r="A98" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="F98" s="9" t="s">
         <v>372</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>373</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="9" t="s">
@@ -4557,14 +4557,14 @@
     </row>
     <row r="99" spans="1:9" ht="17.25">
       <c r="A99" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="9" t="s">
@@ -4576,16 +4576,16 @@
     </row>
     <row r="100" spans="1:9" ht="17.25">
       <c r="A100" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9" t="s">
@@ -4597,20 +4597,20 @@
     </row>
     <row r="101" spans="1:9" ht="17.25">
       <c r="A101" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="F101" s="9" t="s">
         <v>379</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>380</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I101" s="9">
         <v>28</v>
@@ -4618,16 +4618,16 @@
     </row>
     <row r="102" spans="1:9" ht="17.25">
       <c r="A102" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="F102" s="9" t="s">
         <v>382</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>383</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="9" t="s">
@@ -4639,21 +4639,21 @@
     </row>
     <row r="103" spans="1:9" ht="17.25">
       <c r="A103" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>385</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="F103" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="G103" s="9" t="s">
         <v>387</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>388</v>
       </c>
       <c r="H103" s="9"/>
       <c r="I103" s="9">
@@ -4662,21 +4662,21 @@
     </row>
     <row r="104" spans="1:9" ht="17.25">
       <c r="A104" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H104" s="9"/>
       <c r="I104" s="9">
@@ -4685,21 +4685,21 @@
     </row>
     <row r="105" spans="1:9" ht="17.25">
       <c r="A105" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H105" s="9"/>
       <c r="I105" s="9">
@@ -4708,18 +4708,18 @@
     </row>
     <row r="106" spans="1:9" ht="17.25">
       <c r="A106" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I106" s="9">
         <v>28</v>
@@ -4727,14 +4727,14 @@
     </row>
     <row r="107" spans="1:9" ht="17.25">
       <c r="A107" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="9" t="s">
@@ -4746,14 +4746,14 @@
     </row>
     <row r="108" spans="1:9" ht="17.25">
       <c r="A108" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="9" t="s">
@@ -4765,14 +4765,14 @@
     </row>
     <row r="109" spans="1:9" ht="17.25">
       <c r="A109" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="9" t="s">
@@ -4784,21 +4784,21 @@
     </row>
     <row r="110" spans="1:9" ht="17.25">
       <c r="A110" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B110" s="9" t="s">
         <v>401</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>402</v>
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="F110" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="F110" s="9" t="s">
+      <c r="G110" s="9" t="s">
         <v>404</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>405</v>
       </c>
       <c r="H110" s="9"/>
       <c r="I110" s="9">
@@ -4807,21 +4807,21 @@
     </row>
     <row r="111" spans="1:9" ht="17.25">
       <c r="A111" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H111" s="9"/>
       <c r="I111" s="9">
@@ -4830,21 +4830,21 @@
     </row>
     <row r="112" spans="1:9" ht="17.25">
       <c r="A112" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H112" s="9"/>
       <c r="I112" s="9">
@@ -4853,14 +4853,14 @@
     </row>
     <row r="113" spans="1:9" ht="17.25">
       <c r="A113" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
@@ -4870,14 +4870,14 @@
     </row>
     <row r="114" spans="1:9" ht="17.25">
       <c r="A114" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
@@ -4887,14 +4887,14 @@
     </row>
     <row r="115" spans="1:9" ht="17.25">
       <c r="A115" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
@@ -4904,14 +4904,14 @@
     </row>
     <row r="116" spans="1:9" ht="17.25">
       <c r="A116" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
@@ -4921,14 +4921,14 @@
     </row>
     <row r="117" spans="1:9" ht="17.25">
       <c r="A117" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
@@ -4938,21 +4938,21 @@
     </row>
     <row r="118" spans="1:9" ht="17.25">
       <c r="A118" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>420</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>421</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="F118" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="F118" s="9" t="s">
+      <c r="G118" s="9" t="s">
         <v>423</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>424</v>
       </c>
       <c r="H118" s="9" t="s">
         <v>130</v>
@@ -4963,14 +4963,14 @@
     </row>
     <row r="119" spans="1:9" ht="17.25">
       <c r="A119" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
@@ -4980,21 +4980,21 @@
     </row>
     <row r="120" spans="1:9" ht="17.25">
       <c r="A120" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B120" s="9" t="s">
         <v>427</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>428</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="F120" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="F120" s="9" t="s">
+      <c r="G120" s="9" t="s">
         <v>430</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>431</v>
       </c>
       <c r="H120" s="9"/>
       <c r="I120" s="9">
@@ -5003,21 +5003,21 @@
     </row>
     <row r="121" spans="1:9" ht="17.25">
       <c r="A121" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="F121" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="F121" s="9" t="s">
+      <c r="G121" s="9" t="s">
         <v>434</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>435</v>
       </c>
       <c r="H121" s="9"/>
       <c r="I121" s="9">
@@ -5026,24 +5026,24 @@
     </row>
     <row r="122" spans="1:9" ht="17.25">
       <c r="A122" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="F122" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="F122" s="9" t="s">
+      <c r="G122" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="G122" s="9" t="s">
+      <c r="H122" s="9" t="s">
         <v>439</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>440</v>
       </c>
       <c r="I122" s="9">
         <v>28</v>
@@ -5051,24 +5051,24 @@
     </row>
     <row r="123" spans="1:9" ht="17.25">
       <c r="A123" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="F123" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="G123" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="G123" s="9" t="s">
-        <v>444</v>
-      </c>
       <c r="H123" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I123" s="9">
         <v>28</v>
@@ -5076,24 +5076,24 @@
     </row>
     <row r="124" spans="1:9" ht="17.25">
       <c r="A124" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G124" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="H124" s="9" t="s">
         <v>439</v>
-      </c>
-      <c r="H124" s="9" t="s">
-        <v>440</v>
       </c>
       <c r="I124" s="9">
         <v>28</v>
@@ -5101,21 +5101,21 @@
     </row>
     <row r="125" spans="1:9" ht="17.25">
       <c r="A125" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="F125" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="F125" s="9" t="s">
+      <c r="G125" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>450</v>
       </c>
       <c r="H125" s="9"/>
       <c r="I125" s="9">
@@ -5124,21 +5124,21 @@
     </row>
     <row r="126" spans="1:9" ht="17.25">
       <c r="A126" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B126" s="9" t="s">
         <v>451</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>452</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="F126" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F126" s="9" t="s">
+      <c r="G126" s="9" t="s">
         <v>454</v>
-      </c>
-      <c r="G126" s="9" t="s">
-        <v>455</v>
       </c>
       <c r="H126" s="9"/>
       <c r="I126" s="9">
@@ -5147,24 +5147,24 @@
     </row>
     <row r="127" spans="1:9" ht="17.25">
       <c r="A127" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B127" s="9" t="s">
         <v>456</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>457</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="F127" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="F127" s="9" t="s">
+      <c r="G127" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="G127" s="9" t="s">
-        <v>460</v>
-      </c>
       <c r="H127" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I127" s="9">
         <v>28</v>
@@ -5172,21 +5172,21 @@
     </row>
     <row r="128" spans="1:9" ht="17.25">
       <c r="A128" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B128" s="9" t="s">
         <v>461</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>462</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="F128" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="F128" s="9" t="s">
+      <c r="G128" s="9" t="s">
         <v>464</v>
-      </c>
-      <c r="G128" s="9" t="s">
-        <v>465</v>
       </c>
       <c r="H128" s="9"/>
       <c r="I128" s="9">
@@ -5195,21 +5195,21 @@
     </row>
     <row r="129" spans="1:9" ht="17.25">
       <c r="A129" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="F129" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="F129" s="9" t="s">
+      <c r="G129" s="9" t="s">
         <v>468</v>
-      </c>
-      <c r="G129" s="9" t="s">
-        <v>469</v>
       </c>
       <c r="H129" s="9"/>
       <c r="I129" s="9">
@@ -5218,19 +5218,19 @@
     </row>
     <row r="130" spans="1:9" ht="17.25">
       <c r="A130" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="F130" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="F130" s="9" t="s">
+      <c r="G130" s="9" t="s">
         <v>471</v>
-      </c>
-      <c r="G130" s="9" t="s">
-        <v>472</v>
       </c>
       <c r="H130" s="9" t="s">
         <v>155</v>
@@ -5241,21 +5241,21 @@
     </row>
     <row r="131" spans="1:9" ht="17.25">
       <c r="A131" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="F131" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="F131" s="9" t="s">
+      <c r="G131" s="9" t="s">
         <v>475</v>
-      </c>
-      <c r="G131" s="9" t="s">
-        <v>476</v>
       </c>
       <c r="H131" s="9" t="s">
         <v>155</v>
@@ -5266,21 +5266,21 @@
     </row>
     <row r="132" spans="1:9" ht="17.25">
       <c r="A132" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="F132" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="F132" s="9" t="s">
+      <c r="G132" s="9" t="s">
         <v>479</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>480</v>
       </c>
       <c r="H132" s="9" t="s">
         <v>155</v>
@@ -5291,21 +5291,21 @@
     </row>
     <row r="133" spans="1:9" ht="17.25">
       <c r="A133" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="F133" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="F133" s="9" t="s">
+      <c r="G133" s="9" t="s">
         <v>483</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>484</v>
       </c>
       <c r="H133" s="9" t="s">
         <v>155</v>
@@ -5316,24 +5316,24 @@
     </row>
     <row r="134" spans="1:9" ht="17.25">
       <c r="A134" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="F134" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="F134" s="9" t="s">
+      <c r="G134" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="G134" s="9" t="s">
-        <v>488</v>
-      </c>
       <c r="H134" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I134" s="9">
         <v>28</v>
@@ -5341,21 +5341,21 @@
     </row>
     <row r="135" spans="1:9" ht="17.25">
       <c r="A135" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="F135" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="F135" s="9" t="s">
+      <c r="G135" s="9" t="s">
         <v>491</v>
-      </c>
-      <c r="G135" s="9" t="s">
-        <v>492</v>
       </c>
       <c r="H135" s="9"/>
       <c r="I135" s="9">
@@ -5364,24 +5364,24 @@
     </row>
     <row r="136" spans="1:9" ht="17.25">
       <c r="A136" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B136" s="9" t="s">
         <v>493</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>494</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="F136" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="F136" s="9" t="s">
+      <c r="G136" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="G136" s="9" t="s">
-        <v>497</v>
-      </c>
       <c r="H136" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I136" s="9">
         <v>28</v>
@@ -5389,24 +5389,24 @@
     </row>
     <row r="137" spans="1:9" ht="17.25">
       <c r="A137" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I137" s="9">
         <v>28</v>
@@ -5414,21 +5414,21 @@
     </row>
     <row r="138" spans="1:9" ht="17.25">
       <c r="A138" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F138" s="9">
         <v>563282</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H138" s="9"/>
       <c r="I138" s="9">
@@ -5437,21 +5437,21 @@
     </row>
     <row r="139" spans="1:9" ht="17.25">
       <c r="A139" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>502</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>503</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="F139" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="F139" s="9" t="s">
+      <c r="G139" s="9" t="s">
         <v>505</v>
-      </c>
-      <c r="G139" s="9" t="s">
-        <v>506</v>
       </c>
       <c r="H139" s="9"/>
       <c r="I139" s="9">
@@ -5460,21 +5460,21 @@
     </row>
     <row r="140" spans="1:9" ht="17.25">
       <c r="A140" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="B140" s="9" t="s">
         <v>507</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>508</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="F140" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="F140" s="9" t="s">
+      <c r="G140" s="9" t="s">
         <v>510</v>
-      </c>
-      <c r="G140" s="9" t="s">
-        <v>511</v>
       </c>
       <c r="H140" s="9"/>
       <c r="I140" s="9">
@@ -5483,21 +5483,21 @@
     </row>
     <row r="141" spans="1:9" ht="17.25">
       <c r="A141" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H141" s="9"/>
       <c r="I141" s="9">
@@ -5506,24 +5506,24 @@
     </row>
     <row r="142" spans="1:9" ht="17.25">
       <c r="A142" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="B142" s="9" t="s">
         <v>513</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>514</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="F142" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="F142" s="9" t="s">
+      <c r="G142" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="G142" s="9" t="s">
-        <v>517</v>
-      </c>
       <c r="H142" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I142" s="9">
         <v>28</v>
@@ -5531,24 +5531,24 @@
     </row>
     <row r="143" spans="1:9" ht="17.25">
       <c r="A143" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I143" s="9">
         <v>28</v>
@@ -5556,19 +5556,19 @@
     </row>
     <row r="144" spans="1:9" ht="17.25">
       <c r="A144" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="F144" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="F144" s="9" t="s">
+      <c r="G144" s="9" t="s">
         <v>521</v>
-      </c>
-      <c r="G144" s="9" t="s">
-        <v>522</v>
       </c>
       <c r="H144" s="9" t="s">
         <v>155</v>
@@ -5579,21 +5579,21 @@
     </row>
     <row r="145" spans="1:9" ht="17.25">
       <c r="A145" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="F145" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="F145" s="9" t="s">
+      <c r="G145" s="9" t="s">
         <v>525</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>526</v>
       </c>
       <c r="H145" s="9" t="s">
         <v>155</v>
@@ -5604,21 +5604,21 @@
     </row>
     <row r="146" spans="1:9" ht="17.25">
       <c r="A146" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="F146" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="F146" s="9" t="s">
+      <c r="G146" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="G146" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="H146" s="9" t="s">
         <v>155</v>
@@ -5629,21 +5629,21 @@
     </row>
     <row r="147" spans="1:9" ht="17.25">
       <c r="A147" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="F147" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="F147" s="9" t="s">
+      <c r="G147" s="9" t="s">
         <v>533</v>
-      </c>
-      <c r="G147" s="9" t="s">
-        <v>534</v>
       </c>
       <c r="H147" s="9" t="s">
         <v>155</v>
@@ -5654,24 +5654,24 @@
     </row>
     <row r="148" spans="1:9" ht="17.25">
       <c r="A148" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="B148" s="9" t="s">
         <v>535</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>536</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="F148" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="F148" s="9" t="s">
-        <v>538</v>
-      </c>
       <c r="G148" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I148" s="9">
         <v>28</v>
@@ -5679,24 +5679,24 @@
     </row>
     <row r="149" spans="1:9" ht="17.25">
       <c r="A149" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B149" s="9" t="s">
         <v>539</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>540</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="F149" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="F149" s="9" t="s">
-        <v>542</v>
-      </c>
       <c r="G149" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I149" s="9">
         <v>28</v>
@@ -5704,21 +5704,21 @@
     </row>
     <row r="150" spans="1:9" ht="17.25">
       <c r="A150" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="F150" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="F150" s="9" t="s">
+      <c r="G150" s="9" t="s">
         <v>545</v>
-      </c>
-      <c r="G150" s="9" t="s">
-        <v>546</v>
       </c>
       <c r="H150" s="9" t="s">
         <v>155</v>
@@ -5729,21 +5729,21 @@
     </row>
     <row r="151" spans="1:9" ht="17.25">
       <c r="A151" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="F151" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="F151" s="9" t="s">
+      <c r="G151" s="9" t="s">
         <v>549</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>550</v>
       </c>
       <c r="H151" s="9" t="s">
         <v>155</v>
@@ -5754,21 +5754,21 @@
     </row>
     <row r="152" spans="1:9" ht="17.25">
       <c r="A152" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="F152" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="F152" s="9" t="s">
+      <c r="G152" s="9" t="s">
         <v>553</v>
-      </c>
-      <c r="G152" s="9" t="s">
-        <v>554</v>
       </c>
       <c r="H152" s="9" t="s">
         <v>155</v>
@@ -5779,19 +5779,19 @@
     </row>
     <row r="153" spans="1:9" ht="17.25">
       <c r="A153" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H153" s="9" t="s">
         <v>155</v>
@@ -5802,21 +5802,21 @@
     </row>
     <row r="154" spans="1:9" ht="17.25">
       <c r="A154" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H154" s="9" t="s">
         <v>155</v>
@@ -5827,21 +5827,21 @@
     </row>
     <row r="155" spans="1:9" ht="17.25">
       <c r="A155" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H155" s="9" t="s">
         <v>155</v>
@@ -5852,21 +5852,21 @@
     </row>
     <row r="156" spans="1:9" ht="17.25">
       <c r="A156" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H156" s="9" t="s">
         <v>155</v>
@@ -5877,24 +5877,24 @@
     </row>
     <row r="157" spans="1:9" ht="17.25">
       <c r="A157" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>559</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>560</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="F157" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="F157" s="9" t="s">
-        <v>562</v>
-      </c>
       <c r="G157" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H157" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I157" s="9">
         <v>28</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="158" spans="1:9" ht="17.25">
       <c r="A158" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B158" s="9">
         <v>1</v>
@@ -5956,24 +5956,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>565</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7842A1C6-6003-413C-A156-048171195256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB75EA1-5999-45D3-86D3-129EB7666D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -816,9 +816,6 @@
     <t>515570</t>
   </si>
   <si>
-    <t>CB5</t>
-  </si>
-  <si>
     <t>Coriander Sliced 3mm-Sachet15g</t>
   </si>
   <si>
@@ -1900,6 +1897,9 @@
   </si>
   <si>
     <t>J7C</t>
+  </si>
+  <si>
+    <t>HL9</t>
   </si>
 </sst>
 </file>
@@ -2339,10 +2339,10 @@
   <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2422,7 +2422,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I3" s="9">
         <v>28</v>
@@ -2447,7 +2447,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I4" s="9">
         <v>28</v>
@@ -2495,7 +2495,7 @@
         <v>31</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I6" s="9">
         <v>28</v>
@@ -2520,7 +2520,7 @@
         <v>36</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I7" s="9">
         <v>28</v>
@@ -2545,7 +2545,7 @@
         <v>41</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I8" s="9">
         <v>28</v>
@@ -2570,7 +2570,7 @@
         <v>46</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I9" s="9">
         <v>28</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="17" spans="1:9" ht="17.25">
       <c r="A17" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="18" spans="1:9" ht="17.25">
       <c r="A18" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>79</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="19" spans="1:9" ht="17.25">
       <c r="A19" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>83</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="20" spans="1:9" ht="17.25">
       <c r="A20" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>87</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="29" spans="1:9" ht="17.25">
       <c r="A29" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="36" spans="1:9" ht="17.25">
       <c r="A36" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="37" spans="1:9" ht="17.25">
       <c r="A37" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>156</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="38" spans="1:9" ht="17.25">
       <c r="A38" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>160</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="39" spans="1:9" ht="17.25">
       <c r="A39" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>156</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="40" spans="1:9" ht="17.25">
       <c r="A40" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>160</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="41" spans="1:9" ht="17.25">
       <c r="A41" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>166</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="42" spans="1:9" ht="17.25">
       <c r="A42" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>166</v>
@@ -3389,7 +3389,7 @@
         <v>184</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>130</v>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="46" spans="1:9" ht="17.25">
       <c r="A46" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="47" spans="1:9" ht="17.25">
       <c r="A47" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>187</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="48" spans="1:9" ht="17.25">
       <c r="A48" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>191</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="49" spans="1:9" ht="17.25">
       <c r="A49" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>195</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="60" spans="1:9" ht="17.25">
       <c r="A60" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -3786,7 +3786,7 @@
         <v>258</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>259</v>
+        <v>620</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>130</v>
@@ -3797,14 +3797,14 @@
     </row>
     <row r="63" spans="1:9" ht="17.25">
       <c r="A63" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
@@ -3814,14 +3814,14 @@
     </row>
     <row r="64" spans="1:9" ht="17.25">
       <c r="A64" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
@@ -3831,14 +3831,14 @@
     </row>
     <row r="65" spans="1:9" ht="17.25">
       <c r="A65" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
@@ -3848,21 +3848,21 @@
     </row>
     <row r="66" spans="1:9" ht="17.25">
       <c r="A66" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F66" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="G66" s="9" t="s">
         <v>269</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="9">
@@ -3871,16 +3871,16 @@
     </row>
     <row r="67" spans="1:9" ht="17.25">
       <c r="A67" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F67" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
@@ -3890,16 +3890,16 @@
     </row>
     <row r="68" spans="1:9" ht="17.25">
       <c r="A68" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="F68" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>276</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="9" t="s">
@@ -3911,21 +3911,21 @@
     </row>
     <row r="69" spans="1:9" ht="17.25">
       <c r="A69" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>277</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>278</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="F69" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="G69" s="9" t="s">
         <v>280</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>281</v>
       </c>
       <c r="H69" s="9" t="s">
         <v>155</v>
@@ -3936,21 +3936,21 @@
     </row>
     <row r="70" spans="1:9" ht="17.25">
       <c r="A70" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>283</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F70" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="G70" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>286</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>155</v>
@@ -3961,16 +3961,16 @@
     </row>
     <row r="71" spans="1:9" ht="17.25">
       <c r="A71" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F71" s="9" t="s">
         <v>288</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>289</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="9" t="s">
@@ -3982,16 +3982,16 @@
     </row>
     <row r="72" spans="1:9" ht="17.25">
       <c r="A72" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F72" s="9" t="s">
         <v>291</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>292</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9" t="s">
@@ -4003,16 +4003,16 @@
     </row>
     <row r="73" spans="1:9" ht="17.25">
       <c r="A73" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F73" s="9" t="s">
         <v>294</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>295</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9" t="s">
@@ -4024,20 +4024,20 @@
     </row>
     <row r="74" spans="1:9" ht="17.25">
       <c r="A74" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F74" s="9" t="s">
         <v>297</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>298</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I74" s="9">
         <v>28</v>
@@ -4045,20 +4045,20 @@
     </row>
     <row r="75" spans="1:9" ht="17.25">
       <c r="A75" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F75" s="9" t="s">
         <v>301</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>302</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I75" s="9">
         <v>28</v>
@@ -4066,16 +4066,16 @@
     </row>
     <row r="76" spans="1:9" ht="17.25">
       <c r="A76" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F76" s="9" t="s">
         <v>305</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>306</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9" t="s">
@@ -4087,21 +4087,21 @@
     </row>
     <row r="77" spans="1:9" ht="17.25">
       <c r="A77" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>307</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>308</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F77" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="G77" s="9" t="s">
         <v>310</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>311</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>17</v>
@@ -4112,20 +4112,20 @@
     </row>
     <row r="78" spans="1:9" ht="17.25">
       <c r="A78" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F78" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>314</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I78" s="9">
         <v>28</v>
@@ -4133,21 +4133,21 @@
     </row>
     <row r="79" spans="1:9" ht="17.25">
       <c r="A79" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>316</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="F79" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="G79" s="9" t="s">
         <v>318</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>319</v>
       </c>
       <c r="H79" s="9" t="s">
         <v>155</v>
@@ -4158,21 +4158,21 @@
     </row>
     <row r="80" spans="1:9" ht="17.25">
       <c r="A80" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>320</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>321</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="F80" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="G80" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>155</v>
@@ -4183,24 +4183,24 @@
     </row>
     <row r="81" spans="1:9" ht="17.25">
       <c r="A81" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>325</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>326</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F81" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="G81" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="G81" s="9" t="s">
-        <v>329</v>
-      </c>
       <c r="H81" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I81" s="9">
         <v>28</v>
@@ -4208,20 +4208,20 @@
     </row>
     <row r="82" spans="1:9" ht="17.25">
       <c r="A82" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F82" s="9" t="s">
         <v>331</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>332</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I82" s="9">
         <v>28</v>
@@ -4229,21 +4229,21 @@
     </row>
     <row r="83" spans="1:9" ht="17.25">
       <c r="A83" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>333</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>334</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="F83" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="G83" s="9" t="s">
         <v>336</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>337</v>
       </c>
       <c r="H83" s="9" t="s">
         <v>155</v>
@@ -4254,21 +4254,21 @@
     </row>
     <row r="84" spans="1:9" ht="17.25">
       <c r="A84" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>338</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>339</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F84" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="G84" s="9" t="s">
         <v>341</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>342</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>155</v>
@@ -4279,21 +4279,21 @@
     </row>
     <row r="85" spans="1:9" ht="17.25">
       <c r="A85" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="G85" s="9" t="s">
         <v>616</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>617</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>130</v>
@@ -4304,21 +4304,21 @@
     </row>
     <row r="86" spans="1:9" ht="17.25">
       <c r="A86" s="11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="G86" s="9" t="s">
         <v>616</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>617</v>
       </c>
       <c r="H86" s="9" t="s">
         <v>130</v>
@@ -4329,14 +4329,14 @@
     </row>
     <row r="87" spans="1:9" ht="17.25">
       <c r="A87" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
@@ -4346,14 +4346,14 @@
     </row>
     <row r="88" spans="1:9" ht="17.25">
       <c r="A88" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="9" t="s">
@@ -4365,16 +4365,16 @@
     </row>
     <row r="89" spans="1:9" ht="17.25">
       <c r="A89" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="F89" s="9" t="s">
         <v>348</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>349</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9" t="s">
@@ -4386,14 +4386,14 @@
     </row>
     <row r="90" spans="1:9" ht="17.25">
       <c r="A90" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="9" t="s">
@@ -4405,16 +4405,16 @@
     </row>
     <row r="91" spans="1:9" ht="17.25">
       <c r="A91" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="F91" s="9" t="s">
         <v>353</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>354</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="9" t="s">
@@ -4426,14 +4426,14 @@
     </row>
     <row r="92" spans="1:9" ht="17.25">
       <c r="A92" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
@@ -4443,14 +4443,14 @@
     </row>
     <row r="93" spans="1:9" ht="17.25">
       <c r="A93" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
@@ -4460,14 +4460,14 @@
     </row>
     <row r="94" spans="1:9" ht="17.25">
       <c r="A94" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="9" t="s">
@@ -4479,14 +4479,14 @@
     </row>
     <row r="95" spans="1:9" ht="17.25">
       <c r="A95" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
@@ -4496,14 +4496,14 @@
     </row>
     <row r="96" spans="1:9" ht="17.25">
       <c r="A96" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
@@ -4513,21 +4513,21 @@
     </row>
     <row r="97" spans="1:9" ht="17.25">
       <c r="A97" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>365</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>366</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="F97" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="G97" s="9" t="s">
         <v>368</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>369</v>
       </c>
       <c r="H97" s="9"/>
       <c r="I97" s="9">
@@ -4536,16 +4536,16 @@
     </row>
     <row r="98" spans="1:9" ht="17.25">
       <c r="A98" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="F98" s="9" t="s">
         <v>371</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>372</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="9" t="s">
@@ -4557,14 +4557,14 @@
     </row>
     <row r="99" spans="1:9" ht="17.25">
       <c r="A99" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="9" t="s">
@@ -4576,16 +4576,16 @@
     </row>
     <row r="100" spans="1:9" ht="17.25">
       <c r="A100" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9" t="s">
@@ -4597,20 +4597,20 @@
     </row>
     <row r="101" spans="1:9" ht="17.25">
       <c r="A101" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="F101" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>379</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I101" s="9">
         <v>28</v>
@@ -4618,16 +4618,16 @@
     </row>
     <row r="102" spans="1:9" ht="17.25">
       <c r="A102" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="F102" s="9" t="s">
         <v>381</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>382</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="9" t="s">
@@ -4639,21 +4639,21 @@
     </row>
     <row r="103" spans="1:9" ht="17.25">
       <c r="A103" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>383</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>384</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F103" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="G103" s="9" t="s">
         <v>386</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>387</v>
       </c>
       <c r="H103" s="9"/>
       <c r="I103" s="9">
@@ -4662,21 +4662,21 @@
     </row>
     <row r="104" spans="1:9" ht="17.25">
       <c r="A104" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H104" s="9"/>
       <c r="I104" s="9">
@@ -4685,21 +4685,21 @@
     </row>
     <row r="105" spans="1:9" ht="17.25">
       <c r="A105" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H105" s="9"/>
       <c r="I105" s="9">
@@ -4708,18 +4708,18 @@
     </row>
     <row r="106" spans="1:9" ht="17.25">
       <c r="A106" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I106" s="9">
         <v>28</v>
@@ -4727,14 +4727,14 @@
     </row>
     <row r="107" spans="1:9" ht="17.25">
       <c r="A107" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="9" t="s">
@@ -4746,14 +4746,14 @@
     </row>
     <row r="108" spans="1:9" ht="17.25">
       <c r="A108" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="9" t="s">
@@ -4765,14 +4765,14 @@
     </row>
     <row r="109" spans="1:9" ht="17.25">
       <c r="A109" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="9" t="s">
@@ -4784,21 +4784,21 @@
     </row>
     <row r="110" spans="1:9" ht="17.25">
       <c r="A110" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B110" s="9" t="s">
         <v>400</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>401</v>
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="F110" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="F110" s="9" t="s">
+      <c r="G110" s="9" t="s">
         <v>403</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>404</v>
       </c>
       <c r="H110" s="9"/>
       <c r="I110" s="9">
@@ -4807,21 +4807,21 @@
     </row>
     <row r="111" spans="1:9" ht="17.25">
       <c r="A111" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H111" s="9"/>
       <c r="I111" s="9">
@@ -4830,21 +4830,21 @@
     </row>
     <row r="112" spans="1:9" ht="17.25">
       <c r="A112" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H112" s="9"/>
       <c r="I112" s="9">
@@ -4853,14 +4853,14 @@
     </row>
     <row r="113" spans="1:9" ht="17.25">
       <c r="A113" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
@@ -4870,14 +4870,14 @@
     </row>
     <row r="114" spans="1:9" ht="17.25">
       <c r="A114" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
@@ -4887,14 +4887,14 @@
     </row>
     <row r="115" spans="1:9" ht="17.25">
       <c r="A115" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
@@ -4904,14 +4904,14 @@
     </row>
     <row r="116" spans="1:9" ht="17.25">
       <c r="A116" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
@@ -4921,14 +4921,14 @@
     </row>
     <row r="117" spans="1:9" ht="17.25">
       <c r="A117" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
@@ -4938,21 +4938,21 @@
     </row>
     <row r="118" spans="1:9" ht="17.25">
       <c r="A118" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>419</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>420</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="F118" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="F118" s="9" t="s">
+      <c r="G118" s="9" t="s">
         <v>422</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>423</v>
       </c>
       <c r="H118" s="9" t="s">
         <v>130</v>
@@ -4963,14 +4963,14 @@
     </row>
     <row r="119" spans="1:9" ht="17.25">
       <c r="A119" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
@@ -4980,21 +4980,21 @@
     </row>
     <row r="120" spans="1:9" ht="17.25">
       <c r="A120" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B120" s="9" t="s">
         <v>426</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>427</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F120" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="F120" s="9" t="s">
+      <c r="G120" s="9" t="s">
         <v>429</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>430</v>
       </c>
       <c r="H120" s="9"/>
       <c r="I120" s="9">
@@ -5003,21 +5003,21 @@
     </row>
     <row r="121" spans="1:9" ht="17.25">
       <c r="A121" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F121" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="F121" s="9" t="s">
+      <c r="G121" s="9" t="s">
         <v>433</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>434</v>
       </c>
       <c r="H121" s="9"/>
       <c r="I121" s="9">
@@ -5026,24 +5026,24 @@
     </row>
     <row r="122" spans="1:9" ht="17.25">
       <c r="A122" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="F122" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="F122" s="9" t="s">
+      <c r="G122" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="G122" s="9" t="s">
+      <c r="H122" s="9" t="s">
         <v>438</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>439</v>
       </c>
       <c r="I122" s="9">
         <v>28</v>
@@ -5051,24 +5051,24 @@
     </row>
     <row r="123" spans="1:9" ht="17.25">
       <c r="A123" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="F123" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="G123" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="G123" s="9" t="s">
-        <v>443</v>
-      </c>
       <c r="H123" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I123" s="9">
         <v>28</v>
@@ -5076,24 +5076,24 @@
     </row>
     <row r="124" spans="1:9" ht="17.25">
       <c r="A124" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G124" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="H124" s="9" t="s">
         <v>438</v>
-      </c>
-      <c r="H124" s="9" t="s">
-        <v>439</v>
       </c>
       <c r="I124" s="9">
         <v>28</v>
@@ -5101,21 +5101,21 @@
     </row>
     <row r="125" spans="1:9" ht="17.25">
       <c r="A125" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="F125" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="F125" s="9" t="s">
+      <c r="G125" s="9" t="s">
         <v>448</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>449</v>
       </c>
       <c r="H125" s="9"/>
       <c r="I125" s="9">
@@ -5124,21 +5124,21 @@
     </row>
     <row r="126" spans="1:9" ht="17.25">
       <c r="A126" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B126" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>451</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="F126" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="F126" s="9" t="s">
+      <c r="G126" s="9" t="s">
         <v>453</v>
-      </c>
-      <c r="G126" s="9" t="s">
-        <v>454</v>
       </c>
       <c r="H126" s="9"/>
       <c r="I126" s="9">
@@ -5147,24 +5147,24 @@
     </row>
     <row r="127" spans="1:9" ht="17.25">
       <c r="A127" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B127" s="9" t="s">
         <v>455</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>456</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="F127" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="F127" s="9" t="s">
+      <c r="G127" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="G127" s="9" t="s">
-        <v>459</v>
-      </c>
       <c r="H127" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I127" s="9">
         <v>28</v>
@@ -5172,21 +5172,21 @@
     </row>
     <row r="128" spans="1:9" ht="17.25">
       <c r="A128" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B128" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="F128" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="F128" s="9" t="s">
+      <c r="G128" s="9" t="s">
         <v>463</v>
-      </c>
-      <c r="G128" s="9" t="s">
-        <v>464</v>
       </c>
       <c r="H128" s="9"/>
       <c r="I128" s="9">
@@ -5195,21 +5195,21 @@
     </row>
     <row r="129" spans="1:9" ht="17.25">
       <c r="A129" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="F129" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="F129" s="9" t="s">
+      <c r="G129" s="9" t="s">
         <v>467</v>
-      </c>
-      <c r="G129" s="9" t="s">
-        <v>468</v>
       </c>
       <c r="H129" s="9"/>
       <c r="I129" s="9">
@@ -5218,19 +5218,19 @@
     </row>
     <row r="130" spans="1:9" ht="17.25">
       <c r="A130" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F130" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="F130" s="9" t="s">
+      <c r="G130" s="9" t="s">
         <v>470</v>
-      </c>
-      <c r="G130" s="9" t="s">
-        <v>471</v>
       </c>
       <c r="H130" s="9" t="s">
         <v>155</v>
@@ -5241,21 +5241,21 @@
     </row>
     <row r="131" spans="1:9" ht="17.25">
       <c r="A131" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="F131" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="F131" s="9" t="s">
+      <c r="G131" s="9" t="s">
         <v>474</v>
-      </c>
-      <c r="G131" s="9" t="s">
-        <v>475</v>
       </c>
       <c r="H131" s="9" t="s">
         <v>155</v>
@@ -5266,21 +5266,21 @@
     </row>
     <row r="132" spans="1:9" ht="17.25">
       <c r="A132" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="F132" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="F132" s="9" t="s">
+      <c r="G132" s="9" t="s">
         <v>478</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>479</v>
       </c>
       <c r="H132" s="9" t="s">
         <v>155</v>
@@ -5291,21 +5291,21 @@
     </row>
     <row r="133" spans="1:9" ht="17.25">
       <c r="A133" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="F133" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="F133" s="9" t="s">
+      <c r="G133" s="9" t="s">
         <v>482</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>483</v>
       </c>
       <c r="H133" s="9" t="s">
         <v>155</v>
@@ -5316,21 +5316,21 @@
     </row>
     <row r="134" spans="1:9" ht="17.25">
       <c r="A134" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="F134" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="F134" s="9" t="s">
+      <c r="G134" s="9" t="s">
         <v>486</v>
-      </c>
-      <c r="G134" s="9" t="s">
-        <v>487</v>
       </c>
       <c r="H134" s="9" t="s">
         <v>202</v>
@@ -5341,21 +5341,21 @@
     </row>
     <row r="135" spans="1:9" ht="17.25">
       <c r="A135" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="F135" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="F135" s="9" t="s">
+      <c r="G135" s="9" t="s">
         <v>490</v>
-      </c>
-      <c r="G135" s="9" t="s">
-        <v>491</v>
       </c>
       <c r="H135" s="9"/>
       <c r="I135" s="9">
@@ -5364,21 +5364,21 @@
     </row>
     <row r="136" spans="1:9" ht="17.25">
       <c r="A136" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="B136" s="9" t="s">
         <v>492</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>493</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="F136" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="F136" s="9" t="s">
+      <c r="G136" s="9" t="s">
         <v>495</v>
-      </c>
-      <c r="G136" s="9" t="s">
-        <v>496</v>
       </c>
       <c r="H136" s="9" t="s">
         <v>202</v>
@@ -5389,21 +5389,21 @@
     </row>
     <row r="137" spans="1:9" ht="17.25">
       <c r="A137" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H137" s="9" t="s">
         <v>202</v>
@@ -5414,21 +5414,21 @@
     </row>
     <row r="138" spans="1:9" ht="17.25">
       <c r="A138" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F138" s="9">
         <v>563282</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H138" s="9"/>
       <c r="I138" s="9">
@@ -5437,21 +5437,21 @@
     </row>
     <row r="139" spans="1:9" ht="17.25">
       <c r="A139" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>501</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>502</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="F139" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="F139" s="9" t="s">
+      <c r="G139" s="9" t="s">
         <v>504</v>
-      </c>
-      <c r="G139" s="9" t="s">
-        <v>505</v>
       </c>
       <c r="H139" s="9"/>
       <c r="I139" s="9">
@@ -5460,21 +5460,21 @@
     </row>
     <row r="140" spans="1:9" ht="17.25">
       <c r="A140" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="B140" s="9" t="s">
         <v>506</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>507</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="F140" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="F140" s="9" t="s">
+      <c r="G140" s="9" t="s">
         <v>509</v>
-      </c>
-      <c r="G140" s="9" t="s">
-        <v>510</v>
       </c>
       <c r="H140" s="9"/>
       <c r="I140" s="9">
@@ -5483,21 +5483,21 @@
     </row>
     <row r="141" spans="1:9" ht="17.25">
       <c r="A141" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H141" s="9"/>
       <c r="I141" s="9">
@@ -5506,21 +5506,21 @@
     </row>
     <row r="142" spans="1:9" ht="17.25">
       <c r="A142" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="B142" s="9" t="s">
         <v>512</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>513</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F142" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="F142" s="9" t="s">
+      <c r="G142" s="9" t="s">
         <v>515</v>
-      </c>
-      <c r="G142" s="9" t="s">
-        <v>516</v>
       </c>
       <c r="H142" s="9" t="s">
         <v>202</v>
@@ -5531,21 +5531,21 @@
     </row>
     <row r="143" spans="1:9" ht="17.25">
       <c r="A143" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H143" s="9" t="s">
         <v>202</v>
@@ -5556,19 +5556,19 @@
     </row>
     <row r="144" spans="1:9" ht="17.25">
       <c r="A144" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F144" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="F144" s="9" t="s">
+      <c r="G144" s="9" t="s">
         <v>520</v>
-      </c>
-      <c r="G144" s="9" t="s">
-        <v>521</v>
       </c>
       <c r="H144" s="9" t="s">
         <v>155</v>
@@ -5579,21 +5579,21 @@
     </row>
     <row r="145" spans="1:9" ht="17.25">
       <c r="A145" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="F145" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="F145" s="9" t="s">
+      <c r="G145" s="9" t="s">
         <v>524</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>525</v>
       </c>
       <c r="H145" s="9" t="s">
         <v>155</v>
@@ -5604,21 +5604,21 @@
     </row>
     <row r="146" spans="1:9" ht="17.25">
       <c r="A146" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="F146" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="F146" s="9" t="s">
+      <c r="G146" s="9" t="s">
         <v>528</v>
-      </c>
-      <c r="G146" s="9" t="s">
-        <v>529</v>
       </c>
       <c r="H146" s="9" t="s">
         <v>155</v>
@@ -5629,21 +5629,21 @@
     </row>
     <row r="147" spans="1:9" ht="17.25">
       <c r="A147" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="F147" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="F147" s="9" t="s">
+      <c r="G147" s="9" t="s">
         <v>532</v>
-      </c>
-      <c r="G147" s="9" t="s">
-        <v>533</v>
       </c>
       <c r="H147" s="9" t="s">
         <v>155</v>
@@ -5654,24 +5654,24 @@
     </row>
     <row r="148" spans="1:9" ht="17.25">
       <c r="A148" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="B148" s="9" t="s">
         <v>534</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>535</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="F148" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="F148" s="9" t="s">
-        <v>537</v>
-      </c>
       <c r="G148" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I148" s="9">
         <v>28</v>
@@ -5679,24 +5679,24 @@
     </row>
     <row r="149" spans="1:9" ht="17.25">
       <c r="A149" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="B149" s="9" t="s">
         <v>538</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>539</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="F149" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="F149" s="9" t="s">
-        <v>541</v>
-      </c>
       <c r="G149" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I149" s="9">
         <v>28</v>
@@ -5704,21 +5704,21 @@
     </row>
     <row r="150" spans="1:9" ht="17.25">
       <c r="A150" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="F150" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="F150" s="9" t="s">
+      <c r="G150" s="9" t="s">
         <v>544</v>
-      </c>
-      <c r="G150" s="9" t="s">
-        <v>545</v>
       </c>
       <c r="H150" s="9" t="s">
         <v>155</v>
@@ -5729,21 +5729,21 @@
     </row>
     <row r="151" spans="1:9" ht="17.25">
       <c r="A151" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="F151" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="F151" s="9" t="s">
+      <c r="G151" s="9" t="s">
         <v>548</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>549</v>
       </c>
       <c r="H151" s="9" t="s">
         <v>155</v>
@@ -5754,21 +5754,21 @@
     </row>
     <row r="152" spans="1:9" ht="17.25">
       <c r="A152" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="F152" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="F152" s="9" t="s">
+      <c r="G152" s="9" t="s">
         <v>552</v>
-      </c>
-      <c r="G152" s="9" t="s">
-        <v>553</v>
       </c>
       <c r="H152" s="9" t="s">
         <v>155</v>
@@ -5779,19 +5779,19 @@
     </row>
     <row r="153" spans="1:9" ht="17.25">
       <c r="A153" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H153" s="9" t="s">
         <v>155</v>
@@ -5802,21 +5802,21 @@
     </row>
     <row r="154" spans="1:9" ht="17.25">
       <c r="A154" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H154" s="9" t="s">
         <v>155</v>
@@ -5827,21 +5827,21 @@
     </row>
     <row r="155" spans="1:9" ht="17.25">
       <c r="A155" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H155" s="9" t="s">
         <v>155</v>
@@ -5852,21 +5852,21 @@
     </row>
     <row r="156" spans="1:9" ht="17.25">
       <c r="A156" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H156" s="9" t="s">
         <v>155</v>
@@ -5877,21 +5877,21 @@
     </row>
     <row r="157" spans="1:9" ht="17.25">
       <c r="A157" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>558</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>559</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="F157" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="F157" s="9" t="s">
-        <v>561</v>
-      </c>
       <c r="G157" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H157" s="9" t="s">
         <v>202</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="158" spans="1:9" ht="17.25">
       <c r="A158" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B158" s="9">
         <v>1</v>
@@ -5956,24 +5956,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>564</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB75EA1-5999-45D3-86D3-129EB7666D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F53B112-C775-4504-ABF5-1AE4654D1058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2339,10 +2339,10 @@
   <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
+      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3392,7 +3392,7 @@
         <v>619</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>130</v>
+        <v>302</v>
       </c>
       <c r="I45" s="9">
         <v>28</v>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F53B112-C775-4504-ABF5-1AE4654D1058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E1C1A0-8EF9-4593-BADC-4573A67C7AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="del" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="626">
   <si>
     <t>Product Name</t>
   </si>
@@ -1900,18 +1900,40 @@
   </si>
   <si>
     <t>HL9</t>
+  </si>
+  <si>
+    <t>599807</t>
+  </si>
+  <si>
+    <t>3MD</t>
+  </si>
+  <si>
+    <t>Cls Crmy Basil Pasta 6x700g</t>
+  </si>
+  <si>
+    <t>9310645484730</t>
+  </si>
+  <si>
+    <t>1311913</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1990,7 +2012,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2000,7 +2022,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2009,23 +2031,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2336,13 +2364,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomRight" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2350,7 +2378,7 @@
     <col min="1" max="1" width="32.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="32.140625" customWidth="1"/>
     <col min="6" max="9" width="22.85546875" customWidth="1"/>
   </cols>
@@ -3748,80 +3776,88 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="17.25">
-      <c r="A61" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>251</v>
-      </c>
+      <c r="A61" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="B61" s="9"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+      <c r="D61" s="9" t="s">
+        <v>624</v>
+      </c>
       <c r="E61" s="9" t="s">
-        <v>252</v>
+        <v>625</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>253</v>
+        <v>621</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9">
-        <v>32</v>
+        <v>622</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="13">
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="17.25">
       <c r="A62" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>130</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="H62" s="9"/>
       <c r="I62" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="17.25">
       <c r="A63" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B63" s="9"/>
+        <v>255</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>256</v>
+      </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
+      <c r="E63" s="9" t="s">
+        <v>257</v>
+      </c>
       <c r="F63" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
+        <v>258</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I63" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="17.25">
       <c r="A64" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
@@ -3831,14 +3867,14 @@
     </row>
     <row r="65" spans="1:9" ht="17.25">
       <c r="A65" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
@@ -3848,41 +3884,39 @@
     </row>
     <row r="66" spans="1:9" ht="17.25">
       <c r="A66" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>266</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>267</v>
-      </c>
+      <c r="E66" s="9"/>
       <c r="F66" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>269</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="17.25">
       <c r="A67" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B67" s="9"/>
+        <v>265</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>266</v>
+      </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="G67" s="9"/>
+        <v>268</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="H67" s="9"/>
       <c r="I67" s="9">
         <v>32</v>
@@ -3890,43 +3924,37 @@
     </row>
     <row r="68" spans="1:9" ht="17.25">
       <c r="A68" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G68" s="9"/>
-      <c r="H68" s="9" t="s">
-        <v>155</v>
-      </c>
+      <c r="H68" s="9"/>
       <c r="I68" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="17.25">
-      <c r="A69" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>277</v>
-      </c>
+      <c r="A69" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>280</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G69" s="9"/>
       <c r="H69" s="9" t="s">
         <v>155</v>
       </c>
@@ -3936,21 +3964,21 @@
     </row>
     <row r="70" spans="1:9" ht="17.25">
       <c r="A70" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>155</v>
@@ -3961,18 +3989,22 @@
     </row>
     <row r="71" spans="1:9" ht="17.25">
       <c r="A71" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B71" s="9"/>
+        <v>281</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>282</v>
+      </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="G71" s="9"/>
+        <v>284</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>285</v>
+      </c>
       <c r="H71" s="9" t="s">
         <v>155</v>
       </c>
@@ -3981,17 +4013,17 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="17.25">
-      <c r="A72" s="8" t="s">
-        <v>289</v>
+      <c r="A72" s="10" t="s">
+        <v>286</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9" t="s">
@@ -4002,17 +4034,17 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="17.25">
-      <c r="A73" s="10" t="s">
-        <v>292</v>
+      <c r="A73" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9" t="s">
@@ -4023,21 +4055,21 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="17.25">
-      <c r="A74" s="8" t="s">
-        <v>295</v>
+      <c r="A74" s="10" t="s">
+        <v>292</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9" t="s">
-        <v>298</v>
+        <v>155</v>
       </c>
       <c r="I74" s="9">
         <v>28</v>
@@ -4045,20 +4077,20 @@
     </row>
     <row r="75" spans="1:9" ht="17.25">
       <c r="A75" s="8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I75" s="9">
         <v>28</v>
@@ -4066,20 +4098,20 @@
     </row>
     <row r="76" spans="1:9" ht="17.25">
       <c r="A76" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="I76" s="9">
         <v>28</v>
@@ -4087,22 +4119,18 @@
     </row>
     <row r="77" spans="1:9" ht="17.25">
       <c r="A77" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>307</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>310</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="G77" s="9"/>
       <c r="H77" s="9" t="s">
         <v>17</v>
       </c>
@@ -4112,20 +4140,24 @@
     </row>
     <row r="78" spans="1:9" ht="17.25">
       <c r="A78" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="B78" s="9"/>
+        <v>306</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>307</v>
+      </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="G78" s="9"/>
+        <v>309</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>310</v>
+      </c>
       <c r="H78" s="9" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9">
         <v>28</v>
@@ -4133,24 +4165,20 @@
     </row>
     <row r="79" spans="1:9" ht="17.25">
       <c r="A79" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>315</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>318</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G79" s="9"/>
       <c r="H79" s="9" t="s">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="I79" s="9">
         <v>28</v>
@@ -4158,21 +4186,21 @@
     </row>
     <row r="80" spans="1:9" ht="17.25">
       <c r="A80" s="8" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>155</v>
@@ -4183,24 +4211,24 @@
     </row>
     <row r="81" spans="1:9" ht="17.25">
       <c r="A81" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>302</v>
+        <v>155</v>
       </c>
       <c r="I81" s="9">
         <v>28</v>
@@ -4208,18 +4236,22 @@
     </row>
     <row r="82" spans="1:9" ht="17.25">
       <c r="A82" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B82" s="9"/>
+        <v>324</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>325</v>
+      </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="G82" s="9"/>
+        <v>327</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>328</v>
+      </c>
       <c r="H82" s="9" t="s">
         <v>302</v>
       </c>
@@ -4228,25 +4260,21 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="17.25">
-      <c r="A83" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>333</v>
-      </c>
+      <c r="A83" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>336</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="G83" s="9"/>
       <c r="H83" s="9" t="s">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="I83" s="9">
         <v>28</v>
@@ -4254,21 +4282,21 @@
     </row>
     <row r="84" spans="1:9" ht="17.25">
       <c r="A84" s="10" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>155</v>
@@ -4278,25 +4306,25 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="17.25">
-      <c r="A85" s="11" t="s">
-        <v>611</v>
+      <c r="A85" s="10" t="s">
+        <v>337</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>617</v>
+        <v>338</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>615</v>
+        <v>339</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>612</v>
+        <v>340</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>616</v>
+        <v>341</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="I85" s="9">
         <v>28</v>
@@ -4304,7 +4332,7 @@
     </row>
     <row r="86" spans="1:9" ht="17.25">
       <c r="A86" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>617</v>
@@ -4315,7 +4343,7 @@
         <v>615</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>616</v>
@@ -4328,53 +4356,57 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="17.25">
-      <c r="A87" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B87" s="9"/>
+      <c r="A87" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>617</v>
+      </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
+      <c r="E87" s="9" t="s">
+        <v>615</v>
+      </c>
       <c r="F87" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
+        <v>614</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I87" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="17.25">
       <c r="A88" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G88" s="9"/>
-      <c r="H88" s="9" t="s">
-        <v>130</v>
-      </c>
+      <c r="H88" s="9"/>
       <c r="I88" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="17.25">
       <c r="A89" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
-        <v>347</v>
-      </c>
+      <c r="E89" s="9"/>
       <c r="F89" s="9" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9" t="s">
@@ -4385,15 +4417,17 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="17.25">
-      <c r="A90" s="10" t="s">
-        <v>349</v>
+      <c r="A90" s="8" t="s">
+        <v>346</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
+      <c r="E90" s="9" t="s">
+        <v>347</v>
+      </c>
       <c r="F90" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="9" t="s">
@@ -4405,16 +4439,14 @@
     </row>
     <row r="91" spans="1:9" ht="17.25">
       <c r="A91" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>352</v>
-      </c>
+      <c r="E91" s="9"/>
       <c r="F91" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="9" t="s">
@@ -4425,32 +4457,36 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="17.25">
-      <c r="A92" s="8" t="s">
-        <v>354</v>
+      <c r="A92" s="10" t="s">
+        <v>351</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
+      <c r="E92" s="9" t="s">
+        <v>352</v>
+      </c>
       <c r="F92" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
+      <c r="H92" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I92" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="17.25">
       <c r="A93" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
@@ -4460,50 +4496,50 @@
     </row>
     <row r="94" spans="1:9" ht="17.25">
       <c r="A94" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G94" s="9"/>
-      <c r="H94" s="9" t="s">
-        <v>130</v>
-      </c>
+      <c r="H94" s="9"/>
       <c r="I94" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="17.25">
       <c r="A95" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
+      <c r="H95" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I95" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="17.25">
       <c r="A96" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
@@ -4513,58 +4549,56 @@
     </row>
     <row r="97" spans="1:9" ht="17.25">
       <c r="A97" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>365</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
-      <c r="E97" s="9" t="s">
-        <v>366</v>
-      </c>
+      <c r="E97" s="9"/>
       <c r="F97" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>368</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="17.25">
       <c r="A98" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="B98" s="9"/>
+        <v>364</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>365</v>
+      </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9" t="s">
-        <v>130</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="H98" s="9"/>
       <c r="I98" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="17.25">
       <c r="A99" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
+      <c r="E99" s="9" t="s">
+        <v>370</v>
+      </c>
       <c r="F99" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="9" t="s">
@@ -4576,16 +4610,14 @@
     </row>
     <row r="100" spans="1:9" ht="17.25">
       <c r="A100" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
-      <c r="E100" s="9" t="s">
-        <v>370</v>
-      </c>
+      <c r="E100" s="9"/>
       <c r="F100" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9" t="s">
@@ -4597,20 +4629,20 @@
     </row>
     <row r="101" spans="1:9" ht="17.25">
       <c r="A101" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="9" t="s">
-        <v>298</v>
+        <v>130</v>
       </c>
       <c r="I101" s="9">
         <v>28</v>
@@ -4618,20 +4650,20 @@
     </row>
     <row r="102" spans="1:9" ht="17.25">
       <c r="A102" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="9" t="s">
-        <v>130</v>
+        <v>298</v>
       </c>
       <c r="I102" s="9">
         <v>28</v>
@@ -4639,30 +4671,28 @@
     </row>
     <row r="103" spans="1:9" ht="17.25">
       <c r="A103" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>383</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="H103" s="9"/>
+        <v>381</v>
+      </c>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I103" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="17.25">
       <c r="A104" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>383</v>
@@ -4673,7 +4703,7 @@
         <v>384</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G104" s="9" t="s">
         <v>386</v>
@@ -4685,7 +4715,7 @@
     </row>
     <row r="105" spans="1:9" ht="17.25">
       <c r="A105" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>383</v>
@@ -4696,7 +4726,7 @@
         <v>384</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G105" s="9" t="s">
         <v>386</v>
@@ -4708,37 +4738,41 @@
     </row>
     <row r="106" spans="1:9" ht="17.25">
       <c r="A106" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="B106" s="9"/>
+        <v>389</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>383</v>
+      </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
+      <c r="E106" s="9" t="s">
+        <v>384</v>
+      </c>
       <c r="F106" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9" t="s">
-        <v>298</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="H106" s="9"/>
       <c r="I106" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="17.25">
       <c r="A107" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="9" t="s">
-        <v>130</v>
+        <v>298</v>
       </c>
       <c r="I107" s="9">
         <v>28</v>
@@ -4746,14 +4780,14 @@
     </row>
     <row r="108" spans="1:9" ht="17.25">
       <c r="A108" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="9" t="s">
@@ -4765,14 +4799,14 @@
     </row>
     <row r="109" spans="1:9" ht="17.25">
       <c r="A109" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="9" t="s">
@@ -4784,30 +4818,26 @@
     </row>
     <row r="110" spans="1:9" ht="17.25">
       <c r="A110" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>400</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
-      <c r="E110" s="9" t="s">
-        <v>401</v>
-      </c>
+      <c r="E110" s="9"/>
       <c r="F110" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="H110" s="9"/>
+        <v>398</v>
+      </c>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I110" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="17.25">
       <c r="A111" s="8" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>400</v>
@@ -4818,7 +4848,7 @@
         <v>401</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G111" s="9" t="s">
         <v>403</v>
@@ -4830,7 +4860,7 @@
     </row>
     <row r="112" spans="1:9" ht="17.25">
       <c r="A112" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>400</v>
@@ -4841,7 +4871,7 @@
         <v>401</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>403</v>
@@ -4853,16 +4883,22 @@
     </row>
     <row r="113" spans="1:9" ht="17.25">
       <c r="A113" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="B113" s="9"/>
+        <v>406</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>400</v>
+      </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
+      <c r="E113" s="9" t="s">
+        <v>401</v>
+      </c>
       <c r="F113" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="G113" s="9"/>
+        <v>407</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>403</v>
+      </c>
       <c r="H113" s="9"/>
       <c r="I113" s="9">
         <v>32</v>
@@ -4870,14 +4906,14 @@
     </row>
     <row r="114" spans="1:9" ht="17.25">
       <c r="A114" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
@@ -4887,14 +4923,14 @@
     </row>
     <row r="115" spans="1:9" ht="17.25">
       <c r="A115" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
@@ -4904,14 +4940,14 @@
     </row>
     <row r="116" spans="1:9" ht="17.25">
       <c r="A116" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
@@ -4921,14 +4957,14 @@
     </row>
     <row r="117" spans="1:9" ht="17.25">
       <c r="A117" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
@@ -4938,86 +4974,80 @@
     </row>
     <row r="118" spans="1:9" ht="17.25">
       <c r="A118" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>419</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
-      <c r="E118" s="9" t="s">
-        <v>420</v>
-      </c>
+      <c r="E118" s="9"/>
       <c r="F118" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>130</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
       <c r="I118" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="17.25">
       <c r="A119" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B119" s="9"/>
+        <v>418</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>419</v>
+      </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
+      <c r="E119" s="9" t="s">
+        <v>420</v>
+      </c>
       <c r="F119" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
+        <v>421</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I119" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="17.25">
       <c r="A120" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>426</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
-      <c r="E120" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="E120" s="9"/>
       <c r="F120" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>429</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="G120" s="9"/>
       <c r="H120" s="9"/>
       <c r="I120" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="17.25">
       <c r="A121" s="8" t="s">
-        <v>569</v>
+        <v>425</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H121" s="9"/>
       <c r="I121" s="9">
@@ -5026,46 +5056,44 @@
     </row>
     <row r="122" spans="1:9" ht="17.25">
       <c r="A122" s="8" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>438</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="H122" s="9"/>
       <c r="I122" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="17.25">
       <c r="A123" s="8" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H123" s="9" t="s">
         <v>438</v>
@@ -5076,21 +5104,21 @@
     </row>
     <row r="124" spans="1:9" ht="17.25">
       <c r="A124" s="8" t="s">
-        <v>443</v>
+        <v>567</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="H124" s="9" t="s">
         <v>438</v>
@@ -5101,44 +5129,46 @@
     </row>
     <row r="125" spans="1:9" ht="17.25">
       <c r="A125" s="8" t="s">
-        <v>570</v>
+        <v>443</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="H125" s="9"/>
+        <v>437</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="I125" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="17.25">
       <c r="A126" s="8" t="s">
-        <v>449</v>
+        <v>570</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H126" s="9"/>
       <c r="I126" s="9">
@@ -5147,69 +5177,69 @@
     </row>
     <row r="127" spans="1:9" ht="17.25">
       <c r="A127" s="8" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="H127" s="9" t="s">
-        <v>438</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="H127" s="9"/>
       <c r="I127" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="17.25">
       <c r="A128" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="H128" s="9"/>
+        <v>458</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="I128" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="17.25">
       <c r="A129" s="8" t="s">
-        <v>571</v>
+        <v>459</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H129" s="9"/>
       <c r="I129" s="9">
@@ -5218,44 +5248,42 @@
     </row>
     <row r="130" spans="1:9" ht="17.25">
       <c r="A130" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="B130" s="9"/>
+        <v>571</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>464</v>
+      </c>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>155</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="H130" s="9"/>
       <c r="I130" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="17.25">
       <c r="A131" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>471</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H131" s="9" t="s">
         <v>155</v>
@@ -5266,21 +5294,21 @@
     </row>
     <row r="132" spans="1:9" ht="17.25">
       <c r="A132" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H132" s="9" t="s">
         <v>155</v>
@@ -5291,21 +5319,21 @@
     </row>
     <row r="133" spans="1:9" ht="17.25">
       <c r="A133" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H133" s="9" t="s">
         <v>155</v>
@@ -5316,24 +5344,24 @@
     </row>
     <row r="134" spans="1:9" ht="17.25">
       <c r="A134" s="8" t="s">
-        <v>572</v>
+        <v>597</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="I134" s="9">
         <v>28</v>
@@ -5341,55 +5369,55 @@
     </row>
     <row r="135" spans="1:9" ht="17.25">
       <c r="A135" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="H135" s="9"/>
+        <v>486</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="I135" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="17.25">
       <c r="A136" s="8" t="s">
-        <v>491</v>
+        <v>573</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>202</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="H136" s="9"/>
       <c r="I136" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="17.25">
       <c r="A137" s="8" t="s">
-        <v>574</v>
+        <v>491</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>492</v>
@@ -5400,7 +5428,7 @@
         <v>493</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G137" s="9" t="s">
         <v>495</v>
@@ -5414,44 +5442,46 @@
     </row>
     <row r="138" spans="1:9" ht="17.25">
       <c r="A138" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="F138" s="9">
-        <v>563282</v>
+        <v>493</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>496</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="H138" s="9"/>
+        <v>495</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="I138" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="17.25">
       <c r="A139" s="8" t="s">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="F139" s="9" t="s">
-        <v>503</v>
+        <v>498</v>
+      </c>
+      <c r="F139" s="9">
+        <v>563282</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H139" s="9"/>
       <c r="I139" s="9">
@@ -5460,21 +5490,21 @@
     </row>
     <row r="140" spans="1:9" ht="17.25">
       <c r="A140" s="8" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H140" s="9"/>
       <c r="I140" s="9">
@@ -5483,7 +5513,7 @@
     </row>
     <row r="141" spans="1:9" ht="17.25">
       <c r="A141" s="8" t="s">
-        <v>576</v>
+        <v>505</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>506</v>
@@ -5494,7 +5524,7 @@
         <v>507</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G141" s="9" t="s">
         <v>509</v>
@@ -5506,32 +5536,30 @@
     </row>
     <row r="142" spans="1:9" ht="17.25">
       <c r="A142" s="8" t="s">
-        <v>511</v>
+        <v>576</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>202</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="H142" s="9"/>
       <c r="I142" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="17.25">
       <c r="A143" s="8" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>512</v>
@@ -5542,7 +5570,7 @@
         <v>513</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G143" s="9" t="s">
         <v>515</v>
@@ -5556,22 +5584,24 @@
     </row>
     <row r="144" spans="1:9" ht="17.25">
       <c r="A144" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="B144" s="9"/>
+        <v>516</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>512</v>
+      </c>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="I144" s="9">
         <v>28</v>
@@ -5579,21 +5609,19 @@
     </row>
     <row r="145" spans="1:9" ht="17.25">
       <c r="A145" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>521</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H145" s="9" t="s">
         <v>155</v>
@@ -5604,21 +5632,21 @@
     </row>
     <row r="146" spans="1:9" ht="17.25">
       <c r="A146" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H146" s="9" t="s">
         <v>155</v>
@@ -5629,21 +5657,21 @@
     </row>
     <row r="147" spans="1:9" ht="17.25">
       <c r="A147" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H147" s="9" t="s">
         <v>155</v>
@@ -5654,24 +5682,24 @@
     </row>
     <row r="148" spans="1:9" ht="17.25">
       <c r="A148" s="8" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>609</v>
+        <v>532</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>302</v>
+        <v>155</v>
       </c>
       <c r="I148" s="9">
         <v>28</v>
@@ -5679,21 +5707,21 @@
     </row>
     <row r="149" spans="1:9" ht="17.25">
       <c r="A149" s="8" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="H149" s="9" t="s">
         <v>302</v>
@@ -5704,24 +5732,24 @@
     </row>
     <row r="150" spans="1:9" ht="17.25">
       <c r="A150" s="8" t="s">
-        <v>602</v>
+        <v>537</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>544</v>
+        <v>618</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="I150" s="9">
         <v>28</v>
@@ -5729,21 +5757,21 @@
     </row>
     <row r="151" spans="1:9" ht="17.25">
       <c r="A151" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="H151" s="9" t="s">
         <v>155</v>
@@ -5754,21 +5782,21 @@
     </row>
     <row r="152" spans="1:9" ht="17.25">
       <c r="A152" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="H152" s="9" t="s">
         <v>155</v>
@@ -5779,19 +5807,21 @@
     </row>
     <row r="153" spans="1:9" ht="17.25">
       <c r="A153" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="B153" s="9"/>
+        <v>604</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>549</v>
+      </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>520</v>
+        <v>552</v>
       </c>
       <c r="H153" s="9" t="s">
         <v>155</v>
@@ -5802,21 +5832,19 @@
     </row>
     <row r="154" spans="1:9" ht="17.25">
       <c r="A154" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>521</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H154" s="9" t="s">
         <v>155</v>
@@ -5827,21 +5855,21 @@
     </row>
     <row r="155" spans="1:9" ht="17.25">
       <c r="A155" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H155" s="9" t="s">
         <v>155</v>
@@ -5852,21 +5880,21 @@
     </row>
     <row r="156" spans="1:9" ht="17.25">
       <c r="A156" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H156" s="9" t="s">
         <v>155</v>
@@ -5877,24 +5905,24 @@
     </row>
     <row r="157" spans="1:9" ht="17.25">
       <c r="A157" s="8" t="s">
-        <v>557</v>
+        <v>608</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>610</v>
+        <v>532</v>
       </c>
       <c r="H157" s="9" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="I157" s="9">
         <v>28</v>
@@ -5902,30 +5930,55 @@
     </row>
     <row r="158" spans="1:9" ht="17.25">
       <c r="A158" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="B158" s="9">
-        <v>1</v>
+        <v>557</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>558</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
-      <c r="E158" s="9">
+      <c r="E158" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="H158" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I158" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="17.25">
+      <c r="A159" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="B159" s="9">
         <v>1</v>
       </c>
-      <c r="F158" s="9">
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9">
         <v>1</v>
       </c>
-      <c r="G158" s="9"/>
-      <c r="H158" s="9">
+      <c r="F159" s="9">
+        <v>1</v>
+      </c>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9">
         <v>10</v>
       </c>
-      <c r="I158" s="9">
+      <c r="I159" s="9">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I157">
-    <sortCondition ref="A1:A157"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I158">
+    <sortCondition ref="A1:A158"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E1C1A0-8EF9-4593-BADC-4573A67C7AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83944B2E-7596-451C-9134-51A02F911DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1584,9 +1584,6 @@
     <t>200372N</t>
   </si>
   <si>
-    <t>MR2</t>
-  </si>
-  <si>
     <t>WW Mxd Rainbw Veg 6 x 750g-TAS</t>
   </si>
   <si>
@@ -1915,6 +1912,9 @@
   </si>
   <si>
     <t>1311913</t>
+  </si>
+  <si>
+    <t>K3C</t>
   </si>
 </sst>
 </file>
@@ -2052,7 +2052,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2367,10 +2367,10 @@
   <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I56" sqref="I56"/>
+      <selection pane="bottomRight" activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="17" spans="1:9" ht="17.25">
       <c r="A17" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="18" spans="1:9" ht="17.25">
       <c r="A18" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>79</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="19" spans="1:9" ht="17.25">
       <c r="A19" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>83</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="20" spans="1:9" ht="17.25">
       <c r="A20" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>87</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="29" spans="1:9" ht="17.25">
       <c r="A29" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="36" spans="1:9" ht="17.25">
       <c r="A36" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="37" spans="1:9" ht="17.25">
       <c r="A37" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>156</v>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="38" spans="1:9" ht="17.25">
       <c r="A38" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>160</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="39" spans="1:9" ht="17.25">
       <c r="A39" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>156</v>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="40" spans="1:9" ht="17.25">
       <c r="A40" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>160</v>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="41" spans="1:9" ht="17.25">
       <c r="A41" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>166</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="42" spans="1:9" ht="17.25">
       <c r="A42" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>166</v>
@@ -3417,7 +3417,7 @@
         <v>184</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>302</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="46" spans="1:9" ht="17.25">
       <c r="A46" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="47" spans="1:9" ht="17.25">
       <c r="A47" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>187</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="48" spans="1:9" ht="17.25">
       <c r="A48" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>191</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="49" spans="1:9" ht="17.25">
       <c r="A49" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>195</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="60" spans="1:9" ht="17.25">
       <c r="A60" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -3777,21 +3777,21 @@
     </row>
     <row r="61" spans="1:9" ht="17.25">
       <c r="A61" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>625</v>
-      </c>
       <c r="F61" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="G61" s="9" t="s">
         <v>621</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>622</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>17</v>
@@ -3839,7 +3839,7 @@
         <v>258</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>130</v>
@@ -4332,21 +4332,21 @@
     </row>
     <row r="86" spans="1:9" ht="17.25">
       <c r="A86" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="G86" s="9" t="s">
         <v>615</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>616</v>
       </c>
       <c r="H86" s="9" t="s">
         <v>130</v>
@@ -4357,21 +4357,21 @@
     </row>
     <row r="87" spans="1:9" ht="17.25">
       <c r="A87" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="G87" s="9" t="s">
         <v>615</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>616</v>
       </c>
       <c r="H87" s="9" t="s">
         <v>130</v>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="122" spans="1:9" ht="17.25">
       <c r="A122" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>430</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="123" spans="1:9" ht="17.25">
       <c r="A123" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>434</v>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="124" spans="1:9" ht="17.25">
       <c r="A124" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>439</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="126" spans="1:9" ht="17.25">
       <c r="A126" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>445</v>
@@ -5248,7 +5248,7 @@
     </row>
     <row r="130" spans="1:9" ht="17.25">
       <c r="A130" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>464</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="131" spans="1:9" ht="17.25">
       <c r="A131" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="132" spans="1:9" ht="17.25">
       <c r="A132" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>471</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="133" spans="1:9" ht="17.25">
       <c r="A133" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>475</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="134" spans="1:9" ht="17.25">
       <c r="A134" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>479</v>
@@ -5369,7 +5369,7 @@
     </row>
     <row r="135" spans="1:9" ht="17.25">
       <c r="A135" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>483</v>
@@ -5394,7 +5394,7 @@
     </row>
     <row r="136" spans="1:9" ht="17.25">
       <c r="A136" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>487</v>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="138" spans="1:9" ht="17.25">
       <c r="A138" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>492</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="139" spans="1:9" ht="17.25">
       <c r="A139" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>497</v>
@@ -5536,7 +5536,7 @@
     </row>
     <row r="142" spans="1:9" ht="17.25">
       <c r="A142" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>506</v>
@@ -5573,7 +5573,7 @@
         <v>514</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>515</v>
+        <v>625</v>
       </c>
       <c r="H143" s="9" t="s">
         <v>202</v>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="144" spans="1:9" ht="17.25">
       <c r="A144" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>512</v>
@@ -5595,10 +5595,10 @@
         <v>513</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>515</v>
+        <v>625</v>
       </c>
       <c r="H144" s="9" t="s">
         <v>202</v>
@@ -5609,19 +5609,19 @@
     </row>
     <row r="145" spans="1:9" ht="17.25">
       <c r="A145" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="F145" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="F145" s="9" t="s">
+      <c r="G145" s="9" t="s">
         <v>519</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>520</v>
       </c>
       <c r="H145" s="9" t="s">
         <v>155</v>
@@ -5632,21 +5632,21 @@
     </row>
     <row r="146" spans="1:9" ht="17.25">
       <c r="A146" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="F146" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="F146" s="9" t="s">
+      <c r="G146" s="9" t="s">
         <v>523</v>
-      </c>
-      <c r="G146" s="9" t="s">
-        <v>524</v>
       </c>
       <c r="H146" s="9" t="s">
         <v>155</v>
@@ -5657,21 +5657,21 @@
     </row>
     <row r="147" spans="1:9" ht="17.25">
       <c r="A147" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="F147" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="F147" s="9" t="s">
+      <c r="G147" s="9" t="s">
         <v>527</v>
-      </c>
-      <c r="G147" s="9" t="s">
-        <v>528</v>
       </c>
       <c r="H147" s="9" t="s">
         <v>155</v>
@@ -5682,21 +5682,21 @@
     </row>
     <row r="148" spans="1:9" ht="17.25">
       <c r="A148" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="F148" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="F148" s="9" t="s">
+      <c r="G148" s="9" t="s">
         <v>531</v>
-      </c>
-      <c r="G148" s="9" t="s">
-        <v>532</v>
       </c>
       <c r="H148" s="9" t="s">
         <v>155</v>
@@ -5707,21 +5707,21 @@
     </row>
     <row r="149" spans="1:9" ht="17.25">
       <c r="A149" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="B149" s="9" t="s">
         <v>533</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>534</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="F149" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="F149" s="9" t="s">
-        <v>536</v>
-      </c>
       <c r="G149" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H149" s="9" t="s">
         <v>302</v>
@@ -5732,21 +5732,21 @@
     </row>
     <row r="150" spans="1:9" ht="17.25">
       <c r="A150" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="B150" s="9" t="s">
         <v>537</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>538</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="F150" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="F150" s="9" t="s">
-        <v>540</v>
-      </c>
       <c r="G150" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H150" s="9" t="s">
         <v>302</v>
@@ -5757,21 +5757,21 @@
     </row>
     <row r="151" spans="1:9" ht="17.25">
       <c r="A151" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="F151" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="F151" s="9" t="s">
+      <c r="G151" s="9" t="s">
         <v>543</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>544</v>
       </c>
       <c r="H151" s="9" t="s">
         <v>155</v>
@@ -5782,21 +5782,21 @@
     </row>
     <row r="152" spans="1:9" ht="17.25">
       <c r="A152" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="F152" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="F152" s="9" t="s">
+      <c r="G152" s="9" t="s">
         <v>547</v>
-      </c>
-      <c r="G152" s="9" t="s">
-        <v>548</v>
       </c>
       <c r="H152" s="9" t="s">
         <v>155</v>
@@ -5807,21 +5807,21 @@
     </row>
     <row r="153" spans="1:9" ht="17.25">
       <c r="A153" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="F153" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="F153" s="9" t="s">
+      <c r="G153" s="9" t="s">
         <v>551</v>
-      </c>
-      <c r="G153" s="9" t="s">
-        <v>552</v>
       </c>
       <c r="H153" s="9" t="s">
         <v>155</v>
@@ -5832,19 +5832,19 @@
     </row>
     <row r="154" spans="1:9" ht="17.25">
       <c r="A154" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H154" s="9" t="s">
         <v>155</v>
@@ -5855,21 +5855,21 @@
     </row>
     <row r="155" spans="1:9" ht="17.25">
       <c r="A155" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H155" s="9" t="s">
         <v>155</v>
@@ -5880,21 +5880,21 @@
     </row>
     <row r="156" spans="1:9" ht="17.25">
       <c r="A156" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H156" s="9" t="s">
         <v>155</v>
@@ -5905,21 +5905,21 @@
     </row>
     <row r="157" spans="1:9" ht="17.25">
       <c r="A157" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H157" s="9" t="s">
         <v>155</v>
@@ -5930,21 +5930,21 @@
     </row>
     <row r="158" spans="1:9" ht="17.25">
       <c r="A158" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B158" s="9" t="s">
         <v>557</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>558</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="E158" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="F158" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="F158" s="9" t="s">
-        <v>560</v>
-      </c>
       <c r="G158" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H158" s="9" t="s">
         <v>202</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="159" spans="1:9" ht="17.25">
       <c r="A159" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B159" s="9">
         <v>1</v>
@@ -6009,24 +6009,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>563</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DF6BD8-37AF-4379-BA4F-13EE41BA44FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83944B2E-7596-451C-9134-51A02F911DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="626">
   <si>
     <t>Product Name</t>
   </si>
@@ -60,6 +60,1668 @@
     <t>water mark</t>
   </si>
   <si>
+    <t>Aldi Asian Bowl 7 x 230g</t>
+  </si>
+  <si>
+    <t>4088700092583</t>
+  </si>
+  <si>
+    <t>4061461820299</t>
+  </si>
+  <si>
+    <t>200305N</t>
+  </si>
+  <si>
+    <t>AS8</t>
+  </si>
+  <si>
+    <t>Aldi Coleslaw Sld 6 x 800g</t>
+  </si>
+  <si>
+    <t>4061459928037</t>
+  </si>
+  <si>
+    <t>4061459928044</t>
+  </si>
+  <si>
+    <t>599664</t>
+  </si>
+  <si>
+    <t>DT2</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Aldi Coleslaw Sld 9 x 250g</t>
+  </si>
+  <si>
+    <t>4088700203897</t>
+  </si>
+  <si>
+    <t>4061463442598</t>
+  </si>
+  <si>
+    <t>599514</t>
+  </si>
+  <si>
+    <t>LA1</t>
+  </si>
+  <si>
+    <t>Aldi Cut Watermelon 6 x 600g</t>
+  </si>
+  <si>
+    <t>4061461198541</t>
+  </si>
+  <si>
+    <t>598406</t>
+  </si>
+  <si>
+    <t>8JA</t>
+  </si>
+  <si>
+    <t>Aldi Pasta Sld 6 x 800g</t>
+  </si>
+  <si>
+    <t>4061459928051</t>
+  </si>
+  <si>
+    <t>4061459928068</t>
+  </si>
+  <si>
+    <t>599663</t>
+  </si>
+  <si>
+    <t>2MU</t>
+  </si>
+  <si>
+    <t>Aldi Pasta Sld 9 x 250g</t>
+  </si>
+  <si>
+    <t>4088700203880</t>
+  </si>
+  <si>
+    <t>4061463443731</t>
+  </si>
+  <si>
+    <t>599515</t>
+  </si>
+  <si>
+    <t>DP1</t>
+  </si>
+  <si>
+    <t>Aldi Potato Sld 6 x 800g</t>
+  </si>
+  <si>
+    <t>4061459928075</t>
+  </si>
+  <si>
+    <t>4061459935028</t>
+  </si>
+  <si>
+    <t>599662</t>
+  </si>
+  <si>
+    <t>1LF</t>
+  </si>
+  <si>
+    <t>Aldi Potato Sld 9 x 250g</t>
+  </si>
+  <si>
+    <t>4088700203903</t>
+  </si>
+  <si>
+    <t>4061463443373</t>
+  </si>
+  <si>
+    <t>599516</t>
+  </si>
+  <si>
+    <t>OT1</t>
+  </si>
+  <si>
+    <t>Celery Diced 5mm 2 x 2Kg</t>
+  </si>
+  <si>
+    <t>401220</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Cheese-AusFetaDiced10mmSht80g</t>
+  </si>
+  <si>
+    <t>600870S080</t>
+  </si>
+  <si>
+    <t>Cls Caesar Pasta Pot 4 x 220g</t>
+  </si>
+  <si>
+    <t>9310645446431</t>
+  </si>
+  <si>
+    <t>19310645446438</t>
+  </si>
+  <si>
+    <t>597019</t>
+  </si>
+  <si>
+    <t>J6R</t>
+  </si>
+  <si>
+    <t>Cls Car, Cel &amp; Hummus 4 x 220g</t>
+  </si>
+  <si>
+    <t>9310645252551</t>
+  </si>
+  <si>
+    <t>19310645252558</t>
+  </si>
+  <si>
+    <t>598118</t>
+  </si>
+  <si>
+    <t>2AJ</t>
+  </si>
+  <si>
+    <t>Cls Carrot French Onion 4x220g</t>
+  </si>
+  <si>
+    <t>9310645425016</t>
+  </si>
+  <si>
+    <t>19310645425013</t>
+  </si>
+  <si>
+    <t>598121</t>
+  </si>
+  <si>
+    <t>CF5</t>
+  </si>
+  <si>
+    <t>Cls Chckn Caesar Bwl 4 x 265g</t>
+  </si>
+  <si>
+    <t>9310645279879</t>
+  </si>
+  <si>
+    <t>19310645279876</t>
+  </si>
+  <si>
+    <t>599699</t>
+  </si>
+  <si>
+    <t>EI4</t>
+  </si>
+  <si>
+    <t>Cls Chkn BLT Sld Bwl 4 x 315g</t>
+  </si>
+  <si>
+    <t>9310645321868</t>
+  </si>
+  <si>
+    <t>19310645321865</t>
+  </si>
+  <si>
+    <t>599700</t>
+  </si>
+  <si>
+    <t>K4I</t>
+  </si>
+  <si>
+    <t>19310645244607</t>
+  </si>
+  <si>
+    <t>564094</t>
+  </si>
+  <si>
+    <t>9310645389813</t>
+  </si>
+  <si>
+    <t>5505037</t>
+  </si>
+  <si>
+    <t>599732</t>
+  </si>
+  <si>
+    <t>UD1</t>
+  </si>
+  <si>
+    <t>9310645099347</t>
+  </si>
+  <si>
+    <t>2089220</t>
+  </si>
+  <si>
+    <t>599733</t>
+  </si>
+  <si>
+    <t>SO5</t>
+  </si>
+  <si>
+    <t>9310645214948</t>
+  </si>
+  <si>
+    <t>3022258</t>
+  </si>
+  <si>
+    <t>599731</t>
+  </si>
+  <si>
+    <t>LF4</t>
+  </si>
+  <si>
+    <t>Cls Egg &amp; Spinach Pot 4 x 100g</t>
+  </si>
+  <si>
+    <t>9310645353531</t>
+  </si>
+  <si>
+    <t>19310645353538</t>
+  </si>
+  <si>
+    <t>597012</t>
+  </si>
+  <si>
+    <t>SE1</t>
+  </si>
+  <si>
+    <t>Cls FK Pineapple 4 x 350g</t>
+  </si>
+  <si>
+    <t>9310645232607</t>
+  </si>
+  <si>
+    <t>7864391</t>
+  </si>
+  <si>
+    <t>598233</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>Cls FK Pump,Feta &amp; Wlnt 4x265g</t>
+  </si>
+  <si>
+    <t>9310645279886</t>
+  </si>
+  <si>
+    <t>19310645279883</t>
+  </si>
+  <si>
+    <t>599574</t>
+  </si>
+  <si>
+    <t>SU6</t>
+  </si>
+  <si>
+    <t>Cls FK Seas Fruit Sld 4 x 350g</t>
+  </si>
+  <si>
+    <t>9310645232638</t>
+  </si>
+  <si>
+    <t>7864370</t>
+  </si>
+  <si>
+    <t>598235</t>
+  </si>
+  <si>
+    <t>SF1</t>
+  </si>
+  <si>
+    <t>Cls FK Watermelon 4 x 170g</t>
+  </si>
+  <si>
+    <t>9310645354033</t>
+  </si>
+  <si>
+    <t>19310645354030</t>
+  </si>
+  <si>
+    <t>598258</t>
+  </si>
+  <si>
+    <t>WM4</t>
+  </si>
+  <si>
+    <t>Cls FK Watermelon 4 x 350g</t>
+  </si>
+  <si>
+    <t>598239</t>
+  </si>
+  <si>
+    <t>Cls Fruit Medley 4 x 350g</t>
+  </si>
+  <si>
+    <t>9310645466460</t>
+  </si>
+  <si>
+    <t>8771004</t>
+  </si>
+  <si>
+    <t>598330</t>
+  </si>
+  <si>
+    <t>B1B</t>
+  </si>
+  <si>
+    <t>Cls Grain Hommus Pot 4 x 230g</t>
+  </si>
+  <si>
+    <t>9310645446424</t>
+  </si>
+  <si>
+    <t>19310645446421</t>
+  </si>
+  <si>
+    <t>597018</t>
+  </si>
+  <si>
+    <t>JK9</t>
+  </si>
+  <si>
+    <t>19310645244669</t>
+  </si>
+  <si>
+    <t>564082</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Cls Greek Sld 2 x 1Kg</t>
+  </si>
+  <si>
+    <t>564082S</t>
+  </si>
+  <si>
+    <t>Cls Greek Style Sld Bwl 6x300g</t>
+  </si>
+  <si>
+    <t>9310645389929</t>
+  </si>
+  <si>
+    <t>5486227</t>
+  </si>
+  <si>
+    <t>599672</t>
+  </si>
+  <si>
+    <t>6HO</t>
+  </si>
+  <si>
+    <t>Cls GrkStyl SldBl 6x300g (TAS)</t>
+  </si>
+  <si>
+    <t>599672T</t>
+  </si>
+  <si>
+    <t>Cls Grn Goddess Pot 6 x 200g</t>
+  </si>
+  <si>
+    <t>9310645349954</t>
+  </si>
+  <si>
+    <t>4509123</t>
+  </si>
+  <si>
+    <t>597010</t>
+  </si>
+  <si>
+    <t>V2G</t>
+  </si>
+  <si>
+    <t>Cls Honey Soy S/Fry 4x530g</t>
+  </si>
+  <si>
+    <t>9310645460598</t>
+  </si>
+  <si>
+    <t>9964207</t>
+  </si>
+  <si>
+    <t>570350</t>
+  </si>
+  <si>
+    <t>9GS</t>
+  </si>
+  <si>
+    <t>Cls Mor,Pmpk&amp;Cous 2x1.0Kg</t>
+  </si>
+  <si>
+    <t>19310645244683</t>
+  </si>
+  <si>
+    <t>564035</t>
+  </si>
+  <si>
+    <t>19310645244621</t>
+  </si>
+  <si>
+    <t>564095</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>9310645389806</t>
+  </si>
+  <si>
+    <t>5503520</t>
+  </si>
+  <si>
+    <t>599736</t>
+  </si>
+  <si>
+    <t>5UR</t>
+  </si>
+  <si>
+    <t>9310645099262</t>
+  </si>
+  <si>
+    <t>2088953</t>
+  </si>
+  <si>
+    <t>599737</t>
+  </si>
+  <si>
+    <t>8ML</t>
+  </si>
+  <si>
+    <t>599736T</t>
+  </si>
+  <si>
+    <t>599737T</t>
+  </si>
+  <si>
+    <t>9310645214931</t>
+  </si>
+  <si>
+    <t>3022214</t>
+  </si>
+  <si>
+    <t>599735</t>
+  </si>
+  <si>
+    <t>6JH</t>
+  </si>
+  <si>
+    <t>599735T</t>
+  </si>
+  <si>
+    <t>Cls Pesto Risoni Pot 4 x 190g</t>
+  </si>
+  <si>
+    <t>9310645446400</t>
+  </si>
+  <si>
+    <t>19310645446407</t>
+  </si>
+  <si>
+    <t>597020</t>
+  </si>
+  <si>
+    <t>1TF</t>
+  </si>
+  <si>
+    <t>Cls Pineapple REG 4 x 170g</t>
+  </si>
+  <si>
+    <t>9310645363004</t>
+  </si>
+  <si>
+    <t>19310645363001</t>
+  </si>
+  <si>
+    <t>598328</t>
+  </si>
+  <si>
+    <t>OP1</t>
+  </si>
+  <si>
+    <t>Cls Potato Egg Bacon 6 x 350g</t>
+  </si>
+  <si>
+    <t>9310645466477</t>
+  </si>
+  <si>
+    <t>8771682</t>
+  </si>
+  <si>
+    <t>599756</t>
+  </si>
+  <si>
+    <t>19310645244645</t>
+  </si>
+  <si>
+    <t>564096</t>
+  </si>
+  <si>
+    <t>9310645389820</t>
+  </si>
+  <si>
+    <t>5508035</t>
+  </si>
+  <si>
+    <t>599739</t>
+  </si>
+  <si>
+    <t>EW7</t>
+  </si>
+  <si>
+    <t>9310645099378</t>
+  </si>
+  <si>
+    <t>2086288</t>
+  </si>
+  <si>
+    <t>599740</t>
+  </si>
+  <si>
+    <t>8SM</t>
+  </si>
+  <si>
+    <t>9310645214924</t>
+  </si>
+  <si>
+    <t>3022203</t>
+  </si>
+  <si>
+    <t>599738</t>
+  </si>
+  <si>
+    <t>4TV</t>
+  </si>
+  <si>
+    <t>Cls Quinoa Tabouleh 2 x 1.0Kg</t>
+  </si>
+  <si>
+    <t>19310645244720</t>
+  </si>
+  <si>
+    <t>564037</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Cls R/Melon Slices 4 x 700g</t>
+  </si>
+  <si>
+    <t>9310645443768</t>
+  </si>
+  <si>
+    <t>7548890</t>
+  </si>
+  <si>
+    <t>598332</t>
+  </si>
+  <si>
+    <t>RA2</t>
+  </si>
+  <si>
+    <t>Cls Roast Tub 4x700g</t>
+  </si>
+  <si>
+    <t>9310645455433</t>
+  </si>
+  <si>
+    <t>8057453</t>
+  </si>
+  <si>
+    <t>570343</t>
+  </si>
+  <si>
+    <t>2NT</t>
+  </si>
+  <si>
+    <t>Cls Rock+Hdew Melon REG 6x170g</t>
+  </si>
+  <si>
+    <t>9310645362991</t>
+  </si>
+  <si>
+    <t>19310645362998</t>
+  </si>
+  <si>
+    <t>598319</t>
+  </si>
+  <si>
+    <t>HR1</t>
+  </si>
+  <si>
+    <t>Cls Ruby Slaw 6 x 300g</t>
+  </si>
+  <si>
+    <t>9310645466491</t>
+  </si>
+  <si>
+    <t>8772018</t>
+  </si>
+  <si>
+    <t>599741</t>
+  </si>
+  <si>
+    <t>FG4</t>
+  </si>
+  <si>
+    <t>Cls Seasonal Fruit REG 6x170g</t>
+  </si>
+  <si>
+    <t>9310645363011</t>
+  </si>
+  <si>
+    <t>19310645363018</t>
+  </si>
+  <si>
+    <t>598320</t>
+  </si>
+  <si>
+    <t>FO1</t>
+  </si>
+  <si>
+    <t>Cls Singapore S/Fry 4x450g</t>
+  </si>
+  <si>
+    <t>9310645460604</t>
+  </si>
+  <si>
+    <t>9964138</t>
+  </si>
+  <si>
+    <t>570349</t>
+  </si>
+  <si>
+    <t>9VG</t>
+  </si>
+  <si>
+    <t>Cls Superfood Pot 6 x 200g</t>
+  </si>
+  <si>
+    <t>9310645349961</t>
+  </si>
+  <si>
+    <t>4509190</t>
+  </si>
+  <si>
+    <t>597011</t>
+  </si>
+  <si>
+    <t>A5H</t>
+  </si>
+  <si>
+    <t>Cls W/Melon Fingers 4 x 750g</t>
+  </si>
+  <si>
+    <t>9310645443751</t>
+  </si>
+  <si>
+    <t>7548802</t>
+  </si>
+  <si>
+    <t>598331</t>
+  </si>
+  <si>
+    <t>G3E</t>
+  </si>
+  <si>
+    <t>Cls Wasabi Slaw 6 x 300g</t>
+  </si>
+  <si>
+    <t>9310645466484</t>
+  </si>
+  <si>
+    <t>8771831</t>
+  </si>
+  <si>
+    <t>599745</t>
+  </si>
+  <si>
+    <t>WD8</t>
+  </si>
+  <si>
+    <t>19335656001681</t>
+  </si>
+  <si>
+    <t>564115</t>
+  </si>
+  <si>
+    <t>ClsFK Green Goddess Sld 4x300g</t>
+  </si>
+  <si>
+    <t>9310645279930</t>
+  </si>
+  <si>
+    <t>19310645279937</t>
+  </si>
+  <si>
+    <t>599572</t>
+  </si>
+  <si>
+    <t>W1N</t>
+  </si>
+  <si>
+    <t>COLES - Carrot Sticks 150g X 6</t>
+  </si>
+  <si>
+    <t>9310645103792</t>
+  </si>
+  <si>
+    <t>2313459</t>
+  </si>
+  <si>
+    <t>515570</t>
+  </si>
+  <si>
+    <t>Coriander Sliced 3mm-Sachet15g</t>
+  </si>
+  <si>
+    <t>701650SL03S015</t>
+  </si>
+  <si>
+    <t>Coriander Sliced 5mm-Sachet30g</t>
+  </si>
+  <si>
+    <t>701650SL05S030</t>
+  </si>
+  <si>
+    <t>Cucumber Slice10mm-Sachet498g</t>
+  </si>
+  <si>
+    <t>702050SL10S498</t>
+  </si>
+  <si>
+    <t>LK Asian Bowl 6 x 250g</t>
+  </si>
+  <si>
+    <t>9339562011966</t>
+  </si>
+  <si>
+    <t>19339562013875</t>
+  </si>
+  <si>
+    <t>200454N</t>
+  </si>
+  <si>
+    <t>QJ6</t>
+  </si>
+  <si>
+    <t>LK Caesar Bowl 6 x 250g</t>
+  </si>
+  <si>
+    <t>19339562013868</t>
+  </si>
+  <si>
+    <t>200453N</t>
+  </si>
+  <si>
+    <t>LK Caesar Pasta 2 x 1.5kg</t>
+  </si>
+  <si>
+    <t>19339562013653</t>
+  </si>
+  <si>
+    <t>564092</t>
+  </si>
+  <si>
+    <t>LK Coleslaw 6 x 800g</t>
+  </si>
+  <si>
+    <t>9339562011843</t>
+  </si>
+  <si>
+    <t>19339562013622</t>
+  </si>
+  <si>
+    <t>599716</t>
+  </si>
+  <si>
+    <t>2NQ</t>
+  </si>
+  <si>
+    <t>LK Coleslaw 9 x 250g</t>
+  </si>
+  <si>
+    <t>9339562011812</t>
+  </si>
+  <si>
+    <t>19339562013578</t>
+  </si>
+  <si>
+    <t>599709</t>
+  </si>
+  <si>
+    <t>GC8</t>
+  </si>
+  <si>
+    <t>LK Coleslaw Sld 2 x 2Kg</t>
+  </si>
+  <si>
+    <t>19339562013295</t>
+  </si>
+  <si>
+    <t>599643</t>
+  </si>
+  <si>
+    <t>LK Creamy Pasta Sld 2 x 2Kg</t>
+  </si>
+  <si>
+    <t>19339562013288</t>
+  </si>
+  <si>
+    <t>599644</t>
+  </si>
+  <si>
+    <t>LK Creamy Potato Sld 2 x 2Kg</t>
+  </si>
+  <si>
+    <t>19339562013233</t>
+  </si>
+  <si>
+    <t>599640</t>
+  </si>
+  <si>
+    <t>LK Greek Sld 2 x 1Kg</t>
+  </si>
+  <si>
+    <t>19339562013530</t>
+  </si>
+  <si>
+    <t>564081</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>LK Lentil Tabbouleh 2x1.5kg</t>
+  </si>
+  <si>
+    <t>19339562013608</t>
+  </si>
+  <si>
+    <t>564089</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>LK Mac &amp; Cheese 2 x 1Kg</t>
+  </si>
+  <si>
+    <t>19339562014131</t>
+  </si>
+  <si>
+    <t>564116</t>
+  </si>
+  <si>
+    <t>LK Mac &amp; Cheese 6 x 250g</t>
+  </si>
+  <si>
+    <t>9339562012130</t>
+  </si>
+  <si>
+    <t>19339562014094</t>
+  </si>
+  <si>
+    <t>599759</t>
+  </si>
+  <si>
+    <t>W8E</t>
+  </si>
+  <si>
+    <t>LK Mex St Corn 2 x 1.5kg</t>
+  </si>
+  <si>
+    <t>19339562013615</t>
+  </si>
+  <si>
+    <t>564090</t>
+  </si>
+  <si>
+    <t>LK Pasta Salad 6 x 800g</t>
+  </si>
+  <si>
+    <t>9339562011829</t>
+  </si>
+  <si>
+    <t>19339562013585</t>
+  </si>
+  <si>
+    <t>599717</t>
+  </si>
+  <si>
+    <t>LB9</t>
+  </si>
+  <si>
+    <t>LK Pasta Salad 9 x 250g</t>
+  </si>
+  <si>
+    <t>9339562011706</t>
+  </si>
+  <si>
+    <t>19339562013554</t>
+  </si>
+  <si>
+    <t>599710</t>
+  </si>
+  <si>
+    <t>F9O</t>
+  </si>
+  <si>
+    <t>LK Pot Bacon Egg Sld 9 x 250g</t>
+  </si>
+  <si>
+    <t>9339562011782</t>
+  </si>
+  <si>
+    <t>19339562013738</t>
+  </si>
+  <si>
+    <t>599712</t>
+  </si>
+  <si>
+    <t>U6S</t>
+  </si>
+  <si>
+    <t>LK Pot,Egg &amp; Bac Sld 2x1.5Kg</t>
+  </si>
+  <si>
+    <t>19339562011918</t>
+  </si>
+  <si>
+    <t>599350</t>
+  </si>
+  <si>
+    <t>LK Potato Salad 6 x 800g</t>
+  </si>
+  <si>
+    <t>9339562011836</t>
+  </si>
+  <si>
+    <t>19339562013592</t>
+  </si>
+  <si>
+    <t>599718</t>
+  </si>
+  <si>
+    <t>QF5</t>
+  </si>
+  <si>
+    <t>LK Potato Salad 9 x 250g</t>
+  </si>
+  <si>
+    <t>9339562011775</t>
+  </si>
+  <si>
+    <t>19339562013561</t>
+  </si>
+  <si>
+    <t>599711</t>
+  </si>
+  <si>
+    <t>1JI</t>
+  </si>
+  <si>
+    <t>OliveKalamattaPitted-Sachet60g</t>
+  </si>
+  <si>
+    <t>608350S060</t>
+  </si>
+  <si>
+    <t>Onion Brown Diced 1 x 2.5 Kg</t>
+  </si>
+  <si>
+    <t>421060N</t>
+  </si>
+  <si>
+    <t>Onion Brown Diced 2 x 2.5 Kg</t>
+  </si>
+  <si>
+    <t>CRD25032300421050376550</t>
+  </si>
+  <si>
+    <t>421050</t>
+  </si>
+  <si>
+    <t>Onion Brown Diced 5mm 2kg x 2</t>
+  </si>
+  <si>
+    <t>420325</t>
+  </si>
+  <si>
+    <t>Onion Brown Sliced 5mm 2x2kg</t>
+  </si>
+  <si>
+    <t>CRD25032200420450376491</t>
+  </si>
+  <si>
+    <t>420450</t>
+  </si>
+  <si>
+    <t>OnionSpanishSlice6mmSachet100g</t>
+  </si>
+  <si>
+    <t>703550SL05S100</t>
+  </si>
+  <si>
+    <t>Parsley -MixSlice5mm Sach160g</t>
+  </si>
+  <si>
+    <t>704000SL05MXS160</t>
+  </si>
+  <si>
+    <t>Parsley-Chopped 2 x 160g</t>
+  </si>
+  <si>
+    <t>460002</t>
+  </si>
+  <si>
+    <t>ParsleyContSl7-8mm-Sachet330g</t>
+  </si>
+  <si>
+    <t>704000SL08S330</t>
+  </si>
+  <si>
+    <t>ParsleyContSlice5mm-Sachet105g</t>
+  </si>
+  <si>
+    <t>704000SL05S105</t>
+  </si>
+  <si>
+    <t>PMF Broot,Ftta&amp;Walnut 6x400g</t>
+  </si>
+  <si>
+    <t>9310645466514</t>
+  </si>
+  <si>
+    <t>8772211</t>
+  </si>
+  <si>
+    <t>599754</t>
+  </si>
+  <si>
+    <t>Q7W</t>
+  </si>
+  <si>
+    <t>PMF Caps GrnStrps 2x2.5Kg(TAS)</t>
+  </si>
+  <si>
+    <t>19339562008208</t>
+  </si>
+  <si>
+    <t>400400T</t>
+  </si>
+  <si>
+    <t>PMF Capsicum Grn Strps 1x2.5Kg</t>
+  </si>
+  <si>
+    <t>400410N</t>
+  </si>
+  <si>
+    <t>PMF Capsicum Grn Strps 2x2.5Kg</t>
+  </si>
+  <si>
+    <t>400400</t>
+  </si>
+  <si>
+    <t>PMF Mix Grain Tabouleh 1.5kgx2</t>
+  </si>
+  <si>
+    <t>19339562011925</t>
+  </si>
+  <si>
+    <t>599367</t>
+  </si>
+  <si>
+    <t>PMF Onion Red Sliced 5mm 2x2Kg</t>
+  </si>
+  <si>
+    <t>CRD13091000420900000325</t>
+  </si>
+  <si>
+    <t>420900</t>
+  </si>
+  <si>
+    <t>PMF Rainbow Crnch 6x350g SA</t>
+  </si>
+  <si>
+    <t>9310645466507</t>
+  </si>
+  <si>
+    <t>8772197</t>
+  </si>
+  <si>
+    <t>599753S</t>
+  </si>
+  <si>
+    <t>R6M</t>
+  </si>
+  <si>
+    <t>PMF Rainbow Crnch 6x350g TAS</t>
+  </si>
+  <si>
+    <t>599753T</t>
+  </si>
+  <si>
+    <t>PMF Rainbow Crnch Sld 6x350g</t>
+  </si>
+  <si>
+    <t>599753</t>
+  </si>
+  <si>
+    <t>PMF Shallots Sliced 3mm 4x250g</t>
+  </si>
+  <si>
+    <t>420620</t>
+  </si>
+  <si>
+    <t>PMF Tomato Diced 10mm 1x2.5Kg</t>
+  </si>
+  <si>
+    <t>430800N</t>
+  </si>
+  <si>
+    <t>PMF Tomato Diced 10mm 2x2.5Kg</t>
+  </si>
+  <si>
+    <t>402800</t>
+  </si>
+  <si>
+    <t>PMF TomDcd 10mm 2x2.5Kg (TAS)</t>
+  </si>
+  <si>
+    <t>402800T</t>
+  </si>
+  <si>
+    <t>PMF Ultimate Pasta 6x600g SA</t>
+  </si>
+  <si>
+    <t>9310645466804</t>
+  </si>
+  <si>
+    <t>8772222</t>
+  </si>
+  <si>
+    <t>599755S</t>
+  </si>
+  <si>
+    <t>T2F</t>
+  </si>
+  <si>
+    <t>PMF Ultimate Pasta 6x600g TAS</t>
+  </si>
+  <si>
+    <t>599755T</t>
+  </si>
+  <si>
+    <t>PMF Ultimate Pasta Sld 6x600g</t>
+  </si>
+  <si>
+    <t>599755</t>
+  </si>
+  <si>
+    <t>Qts Dom Beef Kale Tab 12x260g</t>
+  </si>
+  <si>
+    <t>599783</t>
+  </si>
+  <si>
+    <t>Qts Dom Chkn Pesto 12 x 250g</t>
+  </si>
+  <si>
+    <t>599784</t>
+  </si>
+  <si>
+    <t>Qts Dom Jap Poke Sld 12 x 260g</t>
+  </si>
+  <si>
+    <t>599785</t>
+  </si>
+  <si>
+    <t>Qts Int Beef Sharw 12x300g</t>
+  </si>
+  <si>
+    <t>599786</t>
+  </si>
+  <si>
+    <t>Qts Int Jap Poke 12x300g</t>
+  </si>
+  <si>
+    <t>599788</t>
+  </si>
+  <si>
+    <t>SF Tabouleh Quinoa 8 x 200g</t>
+  </si>
+  <si>
+    <t>9310645391076</t>
+  </si>
+  <si>
+    <t>5518924</t>
+  </si>
+  <si>
+    <t>599677</t>
+  </si>
+  <si>
+    <t>EF1</t>
+  </si>
+  <si>
+    <t>Shallots Slice 5mm-Sachet 45g</t>
+  </si>
+  <si>
+    <t>704750SL05S045</t>
+  </si>
+  <si>
+    <t>WW Asian Sld Bowl 6 x 250g</t>
+  </si>
+  <si>
+    <t>9300633145484</t>
+  </si>
+  <si>
+    <t>19339687238641</t>
+  </si>
+  <si>
+    <t>200253N</t>
+  </si>
+  <si>
+    <t>ND2</t>
+  </si>
+  <si>
+    <t>9339687265442</t>
+  </si>
+  <si>
+    <t>19339687265449</t>
+  </si>
+  <si>
+    <t>200484N</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9339687343768</t>
+  </si>
+  <si>
+    <t>19339687343765</t>
+  </si>
+  <si>
+    <t>563283</t>
+  </si>
+  <si>
+    <t>BPP</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9339687354382</t>
+  </si>
+  <si>
+    <t>19339687354389</t>
+  </si>
+  <si>
+    <t>563277</t>
+  </si>
+  <si>
+    <t>WW7</t>
+  </si>
+  <si>
+    <t>WW BasPestoKit 4x400g (Tas&amp;SA)</t>
+  </si>
+  <si>
+    <t>563283T</t>
+  </si>
+  <si>
+    <t>9339687265411</t>
+  </si>
+  <si>
+    <t>19339687265418</t>
+  </si>
+  <si>
+    <t>200487N</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>WW Caesar Bowl 6 x 250g</t>
+  </si>
+  <si>
+    <t>9300633098315</t>
+  </si>
+  <si>
+    <t>19339687238634</t>
+  </si>
+  <si>
+    <t>200214N</t>
+  </si>
+  <si>
+    <t>V6V</t>
+  </si>
+  <si>
+    <t>WW Cheesey Mac Sld 8 x 350g</t>
+  </si>
+  <si>
+    <t>9339687343812</t>
+  </si>
+  <si>
+    <t>19339687343819</t>
+  </si>
+  <si>
+    <t>563245</t>
+  </si>
+  <si>
+    <t>3AU</t>
+  </si>
+  <si>
+    <t>WW Ckn Caesar Bwl (Ins) 6x180g</t>
+  </si>
+  <si>
+    <t>9300633683542</t>
+  </si>
+  <si>
+    <t>19300633683549</t>
+  </si>
+  <si>
+    <t>200275N</t>
+  </si>
+  <si>
+    <t>M9T</t>
+  </si>
+  <si>
+    <t>9339687265428</t>
+  </si>
+  <si>
+    <t>19339687265425</t>
+  </si>
+  <si>
+    <t>200486N</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>19300633699496</t>
+  </si>
+  <si>
+    <t>563250</t>
+  </si>
+  <si>
+    <t>CS0</t>
+  </si>
+  <si>
+    <t>9300633626501</t>
+  </si>
+  <si>
+    <t>19300633626508</t>
+  </si>
+  <si>
+    <t>563251</t>
+  </si>
+  <si>
+    <t>R4D</t>
+  </si>
+  <si>
+    <t>9300633225674</t>
+  </si>
+  <si>
+    <t>19300633225923</t>
+  </si>
+  <si>
+    <t>563252</t>
+  </si>
+  <si>
+    <t>8HL</t>
+  </si>
+  <si>
+    <t>9300633987015</t>
+  </si>
+  <si>
+    <t>19300633994669</t>
+  </si>
+  <si>
+    <t>563253</t>
+  </si>
+  <si>
+    <t>1KH</t>
+  </si>
+  <si>
+    <t>9339687343782</t>
+  </si>
+  <si>
+    <t>19339687343789</t>
+  </si>
+  <si>
+    <t>563284</t>
+  </si>
+  <si>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>9339687265435</t>
+  </si>
+  <si>
+    <t>19339687265432</t>
+  </si>
+  <si>
+    <t>200485N</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>WW Grain Tableh 6x250g (Tas)</t>
+  </si>
+  <si>
+    <t>9339687357932</t>
+  </si>
+  <si>
+    <t>19339687357939</t>
+  </si>
+  <si>
+    <t>563276T</t>
+  </si>
+  <si>
+    <t>GH8</t>
+  </si>
+  <si>
+    <t>563276</t>
+  </si>
+  <si>
+    <t>9339687343751</t>
+  </si>
+  <si>
+    <t>19339687343758</t>
+  </si>
+  <si>
+    <t>GSK</t>
+  </si>
+  <si>
+    <t>WW Grn Gdness Bwl (Ins) 6x240g</t>
+  </si>
+  <si>
+    <t>9339687106080</t>
+  </si>
+  <si>
+    <t>19339687106087</t>
+  </si>
+  <si>
+    <t>200274N</t>
+  </si>
+  <si>
+    <t>A1M</t>
+  </si>
+  <si>
+    <t>WW Mexcn SldBwl 6x220g (TAS)</t>
+  </si>
+  <si>
+    <t>9339687265459</t>
+  </si>
+  <si>
+    <t>19339687265456</t>
+  </si>
+  <si>
+    <t>200488T</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>200488N</t>
+  </si>
+  <si>
+    <t>WW Mixed Rainbow Veg 6 x 750g</t>
+  </si>
+  <si>
+    <t>9339687257256</t>
+  </si>
+  <si>
+    <t>19339687257253</t>
+  </si>
+  <si>
+    <t>200372N</t>
+  </si>
+  <si>
+    <t>WW Mxd Rainbw Veg 6 x 750g-TAS</t>
+  </si>
+  <si>
+    <t>200372T</t>
+  </si>
+  <si>
+    <t>19339687212085</t>
+  </si>
+  <si>
+    <t>563270</t>
+  </si>
+  <si>
+    <t>1PS</t>
+  </si>
+  <si>
+    <t>9300633626525</t>
+  </si>
+  <si>
+    <t>19300633626522</t>
+  </si>
+  <si>
+    <t>563271</t>
+  </si>
+  <si>
+    <t>2PS</t>
+  </si>
+  <si>
+    <t>9300633731151</t>
+  </si>
+  <si>
+    <t>19300633731158</t>
+  </si>
+  <si>
+    <t>563272</t>
+  </si>
+  <si>
+    <t>4SP</t>
+  </si>
+  <si>
+    <t>9300633731168</t>
+  </si>
+  <si>
+    <t>19300633731165</t>
+  </si>
+  <si>
+    <t>563273</t>
+  </si>
+  <si>
+    <t>8SP</t>
+  </si>
+  <si>
+    <t>WW Pot, Egg &amp; Bac 6 x 350g</t>
+  </si>
+  <si>
+    <t>9339687343737</t>
+  </si>
+  <si>
+    <t>19339687343734</t>
+  </si>
+  <si>
+    <t>563280</t>
+  </si>
+  <si>
+    <t>WW Pot, Egg &amp; Bac 6 x 750g</t>
+  </si>
+  <si>
+    <t>9339687343744</t>
+  </si>
+  <si>
+    <t>19339687343741</t>
+  </si>
+  <si>
+    <t>563281</t>
+  </si>
+  <si>
+    <t>9300633626518</t>
+  </si>
+  <si>
+    <t>19300633626515</t>
+  </si>
+  <si>
+    <t>563260</t>
+  </si>
+  <si>
+    <t>S2E</t>
+  </si>
+  <si>
+    <t>9300633731175</t>
+  </si>
+  <si>
+    <t>19300633731172</t>
+  </si>
+  <si>
+    <t>563261</t>
+  </si>
+  <si>
+    <t>JE5</t>
+  </si>
+  <si>
+    <t>9300633731182</t>
+  </si>
+  <si>
+    <t>19300633731189</t>
+  </si>
+  <si>
+    <t>563262</t>
+  </si>
+  <si>
+    <t>8RF</t>
+  </si>
+  <si>
+    <t>563270T</t>
+  </si>
+  <si>
+    <t>563271T</t>
+  </si>
+  <si>
+    <t>563272T</t>
+  </si>
+  <si>
+    <t>563273T</t>
+  </si>
+  <si>
+    <t>WW Veg Medley 8 x 150g</t>
+  </si>
+  <si>
+    <t>9339687257195</t>
+  </si>
+  <si>
+    <t>19339687257192</t>
+  </si>
+  <si>
+    <t>200371N</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
     <t>Ver</t>
   </si>
   <si>
@@ -73,6 +1735,186 @@
   </si>
   <si>
     <t>00:00:00 19/04/2025</t>
+  </si>
+  <si>
+    <t>WW Basil Pesto 6x250g</t>
+  </si>
+  <si>
+    <t>WW Bas PestoKit 4x400g</t>
+  </si>
+  <si>
+    <t>WW AsnStySldBwl6x230g</t>
+  </si>
+  <si>
+    <t>WW Broot&amp;FetaBwl6x200g</t>
+  </si>
+  <si>
+    <t>WW Cobb Sld Bwl 6x240g</t>
+  </si>
+  <si>
+    <t>WW Csar PstaKit 4x400g</t>
+  </si>
+  <si>
+    <t>WW Csar SldBwl 6x200g</t>
+  </si>
+  <si>
+    <t>WW Grain Tableh 6x250g</t>
+  </si>
+  <si>
+    <t>WW Greek Kit 4 x 400g</t>
+  </si>
+  <si>
+    <t>WW Mexcn SldBwl 6x220g</t>
+  </si>
+  <si>
+    <t>Cls Pasta Sld 2 x 1Kg</t>
+  </si>
+  <si>
+    <t>Cls Coleslaw 2 x 1Kg</t>
+  </si>
+  <si>
+    <t>Cls Coleslaw 6 x 400g</t>
+  </si>
+  <si>
+    <t>Cls Coleslaw 6 x 800g</t>
+  </si>
+  <si>
+    <t>Cls Coleslaw 8 x 250g</t>
+  </si>
+  <si>
+    <t>Cls Pasta Sld 6 x 400g</t>
+  </si>
+  <si>
+    <t>Cls Pasta Sld 6 x 800g</t>
+  </si>
+  <si>
+    <t>Cls Pasta Sld 6x400g(TAS)</t>
+  </si>
+  <si>
+    <t>Cls Pasta Sld 6x800g(TAS)</t>
+  </si>
+  <si>
+    <t>Cls Pasta Sld 8 x 250g</t>
+  </si>
+  <si>
+    <t>Cls Pasta Sld 8x250g(TAS)</t>
+  </si>
+  <si>
+    <t>Cls Potato Sld 2 x 1Kg</t>
+  </si>
+  <si>
+    <t>Cls Potato Sld 6 x 400g</t>
+  </si>
+  <si>
+    <t>Cls Potato Sld 6 x 800g</t>
+  </si>
+  <si>
+    <t>Cls Potato Sld 8 x 250g</t>
+  </si>
+  <si>
+    <t>Cls Greek Salad 2 x 1Kg</t>
+  </si>
+  <si>
+    <t>Cls YLC SeafdSld 3x1kg</t>
+  </si>
+  <si>
+    <t>WW Coleslaw 12 x 110g</t>
+  </si>
+  <si>
+    <t>WW Coleslaw 6 x 250g</t>
+  </si>
+  <si>
+    <t>WW Coleslaw 6 x 400g</t>
+  </si>
+  <si>
+    <t>WW Coleslaw 6 x 800g</t>
+  </si>
+  <si>
+    <t>WW Pasta Sld 12 x 110g</t>
+  </si>
+  <si>
+    <t>WW Pasta Sld 6 x 250g</t>
+  </si>
+  <si>
+    <t>WW Pasta Sld 6 x 400g</t>
+  </si>
+  <si>
+    <t>WW Pasta Sld 6 x 800g</t>
+  </si>
+  <si>
+    <t>WW Potato Sld 6 x 250g</t>
+  </si>
+  <si>
+    <t>WW Potato Sld 6 x 400g</t>
+  </si>
+  <si>
+    <t>WW Potato Sld 6 x 800g</t>
+  </si>
+  <si>
+    <t>WW Psta Sld 12x110g (TAS)</t>
+  </si>
+  <si>
+    <t>WW Psta Sld 6x250g (TAS)</t>
+  </si>
+  <si>
+    <t>WW Psta Sld 6x400g (TAS)</t>
+  </si>
+  <si>
+    <t>WW Psta Sld 6x800g (TAS)</t>
+  </si>
+  <si>
+    <t>9PW</t>
+  </si>
+  <si>
+    <t>7HM</t>
+  </si>
+  <si>
+    <t>LK Tabbouleh Sld 8 x 290g</t>
+  </si>
+  <si>
+    <t>599792</t>
+  </si>
+  <si>
+    <t>LK Tabbouleh Sld 8 x 290g (TAS)</t>
+  </si>
+  <si>
+    <t>599792T</t>
+  </si>
+  <si>
+    <t>19339562014230</t>
+  </si>
+  <si>
+    <t>E2G</t>
+  </si>
+  <si>
+    <t>9339562012192</t>
+  </si>
+  <si>
+    <t>5PS</t>
+  </si>
+  <si>
+    <t>J7C</t>
+  </si>
+  <si>
+    <t>HL9</t>
+  </si>
+  <si>
+    <t>599807</t>
+  </si>
+  <si>
+    <t>3MD</t>
+  </si>
+  <si>
+    <t>Cls Crmy Basil Pasta 6x700g</t>
+  </si>
+  <si>
+    <t>9310645484730</t>
+  </si>
+  <si>
+    <t>1311913</t>
+  </si>
+  <si>
+    <t>K3C</t>
   </si>
 </sst>
 </file>
@@ -525,10 +2367,10 @@
   <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A159"/>
+      <selection pane="bottomRight" activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -567,1742 +2409,3572 @@
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" ht="17.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="I2" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="17.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="I3" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="17.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="I4" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="17.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="17.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="I6" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="17.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="I7" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="17.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="I8" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="17.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="I9" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="17.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="17.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="17.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="17.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="17.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="17.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="17.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="I16" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="17.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="10" t="s">
+        <v>577</v>
+      </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="17.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="17.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="17.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="17.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="I21" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="17.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="I22" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="17.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="I23" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="17.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="I24" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="17.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="17.25">
-      <c r="A26" s="8"/>
+      <c r="A26" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="I26" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="17.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="I27" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="17.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="I28" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="17.25">
-      <c r="A29" s="8"/>
+      <c r="A29" s="8" t="s">
+        <v>591</v>
+      </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="17.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="17.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>137</v>
+      </c>
       <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="I31" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="17.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>137</v>
+      </c>
       <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="I32" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="17.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="I33" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="17.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="I34" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="17.25">
-      <c r="A35" s="8"/>
+      <c r="A35" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="E35" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="17.25">
-      <c r="A36" s="8"/>
+      <c r="A36" s="8" t="s">
+        <v>576</v>
+      </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>154</v>
+      </c>
       <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="17.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>156</v>
+      </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="E37" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I37" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="17.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I38" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="17.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>156</v>
+      </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="E39" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I39" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="17.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I40" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="17.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="E41" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I41" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="42" spans="1:9" ht="17.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I42" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="17.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>172</v>
+      </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="I43" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="17.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="E44" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>180</v>
+      </c>
       <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="I44" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="17.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>182</v>
+      </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="E45" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="I45" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="17.25">
-      <c r="A46" s="10"/>
+      <c r="A46" s="10" t="s">
+        <v>587</v>
+      </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="E46" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>186</v>
+      </c>
       <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="H46" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I46" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="47" spans="1:9" ht="17.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="9"/>
+      <c r="A47" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="E47" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I47" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="17.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="9"/>
+      <c r="A48" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>191</v>
+      </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="E48" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I48" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="49" spans="1:9" ht="17.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>195</v>
+      </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="E49" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I49" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="50" spans="1:9" ht="17.25">
-      <c r="A50" s="8"/>
+      <c r="A50" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
+      <c r="E50" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>201</v>
+      </c>
       <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="H50" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I50" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="51" spans="1:9" ht="17.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>204</v>
+      </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
+      <c r="E51" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="I51" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="17.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>209</v>
+      </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
+      <c r="E52" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>212</v>
+      </c>
       <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="I52" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="53" spans="1:9" ht="17.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9"/>
+      <c r="A53" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+      <c r="E53" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>217</v>
+      </c>
       <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="I53" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="54" spans="1:9" ht="17.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
+      <c r="A54" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>219</v>
+      </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="E54" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I54" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="17.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>224</v>
+      </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="E55" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>227</v>
+      </c>
       <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+      <c r="I55" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="56" spans="1:9" ht="17.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
+      <c r="E56" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+      <c r="I56" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="57" spans="1:9" ht="17.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="9"/>
+      <c r="A57" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
+      <c r="E57" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="I57" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="58" spans="1:9" ht="17.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>239</v>
+      </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="E58" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>242</v>
+      </c>
       <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
+      <c r="I58" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="59" spans="1:9" ht="17.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="9"/>
+      <c r="A59" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>244</v>
+      </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
+      <c r="E59" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I59" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="60" spans="1:9" ht="17.25">
-      <c r="A60" s="8"/>
+      <c r="A60" s="8" t="s">
+        <v>592</v>
+      </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
+      <c r="E60" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>249</v>
+      </c>
       <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="H60" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I60" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="61" spans="1:9" ht="17.25">
-      <c r="A61" s="12"/>
+      <c r="A61" s="12" t="s">
+        <v>622</v>
+      </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="13"/>
+      <c r="D61" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="13">
+        <v>28</v>
+      </c>
     </row>
     <row r="62" spans="1:9" ht="17.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="9"/>
+      <c r="A62" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>251</v>
+      </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
+      <c r="E62" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>254</v>
+      </c>
       <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
+      <c r="I62" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="63" spans="1:9" ht="17.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="9"/>
+      <c r="A63" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>256</v>
+      </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="E63" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I63" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="64" spans="1:9" ht="17.25">
-      <c r="A64" s="8"/>
+      <c r="A64" s="8" t="s">
+        <v>259</v>
+      </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
+      <c r="F64" s="9" t="s">
+        <v>260</v>
+      </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="I64" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="65" spans="1:9" ht="17.25">
-      <c r="A65" s="8"/>
+      <c r="A65" s="8" t="s">
+        <v>261</v>
+      </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
+      <c r="F65" s="9" t="s">
+        <v>262</v>
+      </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="I65" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="66" spans="1:9" ht="17.25">
-      <c r="A66" s="8"/>
+      <c r="A66" s="8" t="s">
+        <v>263</v>
+      </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
+      <c r="F66" s="9" t="s">
+        <v>264</v>
+      </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
+      <c r="I66" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="67" spans="1:9" ht="17.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="9"/>
+      <c r="A67" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>266</v>
+      </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
+      <c r="E67" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
+      <c r="I67" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="68" spans="1:9" ht="17.25">
-      <c r="A68" s="8"/>
+      <c r="A68" s="8" t="s">
+        <v>270</v>
+      </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
+      <c r="E68" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>272</v>
+      </c>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
+      <c r="I68" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="17.25">
-      <c r="A69" s="8"/>
+      <c r="A69" s="8" t="s">
+        <v>273</v>
+      </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
+      <c r="E69" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>275</v>
+      </c>
       <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
+      <c r="H69" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I69" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="70" spans="1:9" ht="17.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="9"/>
+      <c r="A70" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>277</v>
+      </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
+      <c r="E70" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I70" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="71" spans="1:9" ht="17.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="9"/>
+      <c r="A71" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>282</v>
+      </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
+      <c r="E71" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I71" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="72" spans="1:9" ht="17.25">
-      <c r="A72" s="10"/>
+      <c r="A72" s="10" t="s">
+        <v>286</v>
+      </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
+      <c r="E72" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
+      <c r="H72" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I72" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="73" spans="1:9" ht="17.25">
-      <c r="A73" s="8"/>
+      <c r="A73" s="8" t="s">
+        <v>289</v>
+      </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
+      <c r="E73" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>291</v>
+      </c>
       <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
+      <c r="H73" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I73" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="74" spans="1:9" ht="17.25">
-      <c r="A74" s="10"/>
+      <c r="A74" s="10" t="s">
+        <v>292</v>
+      </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
+      <c r="E74" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>294</v>
+      </c>
       <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
+      <c r="H74" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I74" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="75" spans="1:9" ht="17.25">
-      <c r="A75" s="8"/>
+      <c r="A75" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
+      <c r="E75" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>297</v>
+      </c>
       <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
+      <c r="H75" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="I75" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="76" spans="1:9" ht="17.25">
-      <c r="A76" s="8"/>
+      <c r="A76" s="8" t="s">
+        <v>299</v>
+      </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
+      <c r="E76" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>301</v>
+      </c>
       <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
+      <c r="H76" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="I76" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="77" spans="1:9" ht="17.25">
-      <c r="A77" s="8"/>
+      <c r="A77" s="8" t="s">
+        <v>303</v>
+      </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
+      <c r="E77" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
+      <c r="H77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="78" spans="1:9" ht="17.25">
-      <c r="A78" s="8"/>
-      <c r="B78" s="9"/>
+      <c r="A78" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>307</v>
+      </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
+      <c r="E78" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="79" spans="1:9" ht="17.25">
-      <c r="A79" s="8"/>
+      <c r="A79" s="8" t="s">
+        <v>311</v>
+      </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
+      <c r="E79" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>313</v>
+      </c>
       <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
+      <c r="H79" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="I79" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="80" spans="1:9" ht="17.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="9"/>
+      <c r="A80" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>315</v>
+      </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
+      <c r="E80" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I80" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="81" spans="1:9" ht="17.25">
-      <c r="A81" s="8"/>
-      <c r="B81" s="9"/>
+      <c r="A81" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>320</v>
+      </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
+      <c r="E81" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I81" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="17.25">
-      <c r="A82" s="8"/>
-      <c r="B82" s="9"/>
+      <c r="A82" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>325</v>
+      </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
+      <c r="E82" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="I82" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="17.25">
-      <c r="A83" s="8"/>
+      <c r="A83" s="8" t="s">
+        <v>329</v>
+      </c>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
+      <c r="E83" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>331</v>
+      </c>
       <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
+      <c r="H83" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="I83" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="84" spans="1:9" ht="17.25">
-      <c r="A84" s="10"/>
-      <c r="B84" s="9"/>
+      <c r="A84" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
+      <c r="E84" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I84" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="17.25">
-      <c r="A85" s="10"/>
-      <c r="B85" s="9"/>
+      <c r="A85" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>338</v>
+      </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
+      <c r="E85" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I85" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="17.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="9"/>
+      <c r="A86" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>616</v>
+      </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
+      <c r="E86" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I86" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="87" spans="1:9" ht="17.25">
-      <c r="A87" s="11"/>
-      <c r="B87" s="9"/>
+      <c r="A87" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>616</v>
+      </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
+      <c r="E87" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I87" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="88" spans="1:9" ht="17.25">
-      <c r="A88" s="8"/>
+      <c r="A88" s="8" t="s">
+        <v>342</v>
+      </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
+      <c r="F88" s="9" t="s">
+        <v>343</v>
+      </c>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
+      <c r="I88" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="17.25">
-      <c r="A89" s="8"/>
+      <c r="A89" s="8" t="s">
+        <v>344</v>
+      </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
+      <c r="F89" s="9" t="s">
+        <v>345</v>
+      </c>
       <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
+      <c r="H89" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I89" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="90" spans="1:9" ht="17.25">
-      <c r="A90" s="8"/>
+      <c r="A90" s="8" t="s">
+        <v>346</v>
+      </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
+      <c r="E90" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>348</v>
+      </c>
       <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
+      <c r="H90" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I90" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="17.25">
-      <c r="A91" s="10"/>
+      <c r="A91" s="10" t="s">
+        <v>349</v>
+      </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
+      <c r="F91" s="9" t="s">
+        <v>350</v>
+      </c>
       <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
+      <c r="H91" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I91" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="17.25">
-      <c r="A92" s="10"/>
+      <c r="A92" s="10" t="s">
+        <v>351</v>
+      </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
+      <c r="E92" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>353</v>
+      </c>
       <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
+      <c r="H92" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I92" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="17.25">
-      <c r="A93" s="8"/>
+      <c r="A93" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
+      <c r="F93" s="9" t="s">
+        <v>355</v>
+      </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
+      <c r="I93" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="94" spans="1:9" ht="17.25">
-      <c r="A94" s="8"/>
+      <c r="A94" s="8" t="s">
+        <v>356</v>
+      </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
+      <c r="F94" s="9" t="s">
+        <v>357</v>
+      </c>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
+      <c r="I94" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="95" spans="1:9" ht="17.25">
-      <c r="A95" s="8"/>
+      <c r="A95" s="8" t="s">
+        <v>358</v>
+      </c>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
+      <c r="F95" s="9" t="s">
+        <v>359</v>
+      </c>
       <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
+      <c r="H95" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I95" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="96" spans="1:9" ht="17.25">
-      <c r="A96" s="8"/>
+      <c r="A96" s="8" t="s">
+        <v>360</v>
+      </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
+      <c r="F96" s="9" t="s">
+        <v>361</v>
+      </c>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
+      <c r="I96" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="97" spans="1:9" ht="17.25">
-      <c r="A97" s="8"/>
+      <c r="A97" s="8" t="s">
+        <v>362</v>
+      </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
+      <c r="F97" s="9" t="s">
+        <v>363</v>
+      </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
+      <c r="I97" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="98" spans="1:9" ht="17.25">
-      <c r="A98" s="8"/>
-      <c r="B98" s="9"/>
+      <c r="A98" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>365</v>
+      </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
+      <c r="E98" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>368</v>
+      </c>
       <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
+      <c r="I98" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="17.25">
-      <c r="A99" s="8"/>
+      <c r="A99" s="8" t="s">
+        <v>369</v>
+      </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
+      <c r="E99" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>371</v>
+      </c>
       <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
+      <c r="H99" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I99" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="100" spans="1:9" ht="17.25">
-      <c r="A100" s="8"/>
+      <c r="A100" s="8" t="s">
+        <v>372</v>
+      </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
+      <c r="F100" s="9" t="s">
+        <v>373</v>
+      </c>
       <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
+      <c r="H100" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I100" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="17.25">
-      <c r="A101" s="8"/>
+      <c r="A101" s="8" t="s">
+        <v>374</v>
+      </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
+      <c r="E101" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>375</v>
+      </c>
       <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
+      <c r="H101" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I101" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="102" spans="1:9" ht="17.25">
-      <c r="A102" s="8"/>
+      <c r="A102" s="8" t="s">
+        <v>376</v>
+      </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
+      <c r="E102" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>378</v>
+      </c>
       <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
+      <c r="H102" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="I102" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="17.25">
-      <c r="A103" s="8"/>
+      <c r="A103" s="8" t="s">
+        <v>379</v>
+      </c>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
+      <c r="E103" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>381</v>
+      </c>
       <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
+      <c r="H103" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I103" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="104" spans="1:9" ht="17.25">
-      <c r="A104" s="8"/>
-      <c r="B104" s="9"/>
+      <c r="A104" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>383</v>
+      </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
+      <c r="E104" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>386</v>
+      </c>
       <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
+      <c r="I104" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="105" spans="1:9" ht="17.25">
-      <c r="A105" s="8"/>
-      <c r="B105" s="9"/>
+      <c r="A105" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>383</v>
+      </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
+      <c r="E105" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>386</v>
+      </c>
       <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
+      <c r="I105" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="106" spans="1:9" ht="17.25">
-      <c r="A106" s="8"/>
-      <c r="B106" s="9"/>
+      <c r="A106" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>383</v>
+      </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
+      <c r="E106" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>386</v>
+      </c>
       <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
+      <c r="I106" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="107" spans="1:9" ht="17.25">
-      <c r="A107" s="8"/>
+      <c r="A107" s="8" t="s">
+        <v>391</v>
+      </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
+      <c r="F107" s="9" t="s">
+        <v>392</v>
+      </c>
       <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
+      <c r="H107" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="I107" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="108" spans="1:9" ht="17.25">
-      <c r="A108" s="8"/>
+      <c r="A108" s="8" t="s">
+        <v>393</v>
+      </c>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
+      <c r="F108" s="9" t="s">
+        <v>394</v>
+      </c>
       <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
+      <c r="H108" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I108" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="109" spans="1:9" ht="17.25">
-      <c r="A109" s="8"/>
+      <c r="A109" s="8" t="s">
+        <v>395</v>
+      </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
+      <c r="F109" s="9" t="s">
+        <v>396</v>
+      </c>
       <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
+      <c r="H109" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I109" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="110" spans="1:9" ht="17.25">
-      <c r="A110" s="8"/>
+      <c r="A110" s="8" t="s">
+        <v>397</v>
+      </c>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
+      <c r="F110" s="9" t="s">
+        <v>398</v>
+      </c>
       <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
+      <c r="H110" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I110" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="111" spans="1:9" ht="17.25">
-      <c r="A111" s="8"/>
-      <c r="B111" s="9"/>
+      <c r="A111" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>400</v>
+      </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
+      <c r="E111" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>403</v>
+      </c>
       <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
+      <c r="I111" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="112" spans="1:9" ht="17.25">
-      <c r="A112" s="8"/>
-      <c r="B112" s="9"/>
+      <c r="A112" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>400</v>
+      </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
+      <c r="E112" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>403</v>
+      </c>
       <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
+      <c r="I112" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="113" spans="1:9" ht="17.25">
-      <c r="A113" s="8"/>
-      <c r="B113" s="9"/>
+      <c r="A113" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>400</v>
+      </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
+      <c r="E113" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>403</v>
+      </c>
       <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
+      <c r="I113" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="114" spans="1:9" ht="17.25">
-      <c r="A114" s="8"/>
+      <c r="A114" s="8" t="s">
+        <v>408</v>
+      </c>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
+      <c r="F114" s="9" t="s">
+        <v>409</v>
+      </c>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
+      <c r="I114" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="115" spans="1:9" ht="17.25">
-      <c r="A115" s="8"/>
+      <c r="A115" s="8" t="s">
+        <v>410</v>
+      </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
+      <c r="F115" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
+      <c r="I115" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="116" spans="1:9" ht="17.25">
-      <c r="A116" s="8"/>
+      <c r="A116" s="8" t="s">
+        <v>412</v>
+      </c>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
+      <c r="F116" s="9" t="s">
+        <v>413</v>
+      </c>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
+      <c r="I116" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="117" spans="1:9" ht="17.25">
-      <c r="A117" s="8"/>
+      <c r="A117" s="8" t="s">
+        <v>414</v>
+      </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
+      <c r="F117" s="9" t="s">
+        <v>415</v>
+      </c>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
+      <c r="I117" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="118" spans="1:9" ht="17.25">
-      <c r="A118" s="8"/>
+      <c r="A118" s="8" t="s">
+        <v>416</v>
+      </c>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
+      <c r="F118" s="9" t="s">
+        <v>417</v>
+      </c>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
-      <c r="I118" s="9"/>
+      <c r="I118" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="119" spans="1:9" ht="17.25">
-      <c r="A119" s="8"/>
-      <c r="B119" s="9"/>
+      <c r="A119" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>419</v>
+      </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
+      <c r="E119" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I119" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="120" spans="1:9" ht="17.25">
-      <c r="A120" s="8"/>
+      <c r="A120" s="8" t="s">
+        <v>423</v>
+      </c>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
+      <c r="F120" s="9" t="s">
+        <v>424</v>
+      </c>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
+      <c r="I120" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="121" spans="1:9" ht="17.25">
-      <c r="A121" s="8"/>
-      <c r="B121" s="9"/>
+      <c r="A121" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>426</v>
+      </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
+      <c r="E121" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>429</v>
+      </c>
       <c r="H121" s="9"/>
-      <c r="I121" s="9"/>
+      <c r="I121" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="122" spans="1:9" ht="17.25">
-      <c r="A122" s="8"/>
-      <c r="B122" s="9"/>
+      <c r="A122" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>430</v>
+      </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
+      <c r="E122" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>433</v>
+      </c>
       <c r="H122" s="9"/>
-      <c r="I122" s="9"/>
+      <c r="I122" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="123" spans="1:9" ht="17.25">
-      <c r="A123" s="8"/>
-      <c r="B123" s="9"/>
+      <c r="A123" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>434</v>
+      </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
+      <c r="E123" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="I123" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="124" spans="1:9" ht="17.25">
-      <c r="A124" s="8"/>
-      <c r="B124" s="9"/>
+      <c r="A124" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>439</v>
+      </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
+      <c r="E124" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="I124" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="125" spans="1:9" ht="17.25">
-      <c r="A125" s="8"/>
-      <c r="B125" s="9"/>
+      <c r="A125" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>434</v>
+      </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
+      <c r="E125" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="I125" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="126" spans="1:9" ht="17.25">
-      <c r="A126" s="8"/>
-      <c r="B126" s="9"/>
+      <c r="A126" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>445</v>
+      </c>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
+      <c r="E126" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>448</v>
+      </c>
       <c r="H126" s="9"/>
-      <c r="I126" s="9"/>
+      <c r="I126" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="127" spans="1:9" ht="17.25">
-      <c r="A127" s="8"/>
-      <c r="B127" s="9"/>
+      <c r="A127" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>450</v>
+      </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
+      <c r="E127" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>453</v>
+      </c>
       <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
+      <c r="I127" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="128" spans="1:9" ht="17.25">
-      <c r="A128" s="8"/>
-      <c r="B128" s="9"/>
+      <c r="A128" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>455</v>
+      </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
+      <c r="E128" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="I128" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="129" spans="1:9" ht="17.25">
-      <c r="A129" s="8"/>
-      <c r="B129" s="9"/>
+      <c r="A129" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>460</v>
+      </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
+      <c r="E129" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>463</v>
+      </c>
       <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
+      <c r="I129" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="130" spans="1:9" ht="17.25">
-      <c r="A130" s="8"/>
-      <c r="B130" s="9"/>
+      <c r="A130" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>464</v>
+      </c>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
+      <c r="E130" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>467</v>
+      </c>
       <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
+      <c r="I130" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="131" spans="1:9" ht="17.25">
-      <c r="A131" s="8"/>
+      <c r="A131" s="8" t="s">
+        <v>593</v>
+      </c>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
+      <c r="E131" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I131" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="132" spans="1:9" ht="17.25">
-      <c r="A132" s="8"/>
-      <c r="B132" s="9"/>
+      <c r="A132" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>471</v>
+      </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
+      <c r="E132" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I132" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="133" spans="1:9" ht="17.25">
-      <c r="A133" s="8"/>
-      <c r="B133" s="9"/>
+      <c r="A133" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>475</v>
+      </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9"/>
+      <c r="E133" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I133" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="134" spans="1:9" ht="17.25">
-      <c r="A134" s="8"/>
-      <c r="B134" s="9"/>
+      <c r="A134" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>479</v>
+      </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="9"/>
+      <c r="E134" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I134" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="135" spans="1:9" ht="17.25">
-      <c r="A135" s="8"/>
-      <c r="B135" s="9"/>
+      <c r="A135" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>483</v>
+      </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="9"/>
+      <c r="E135" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I135" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="136" spans="1:9" ht="17.25">
-      <c r="A136" s="8"/>
-      <c r="B136" s="9"/>
+      <c r="A136" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>487</v>
+      </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
+      <c r="E136" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>490</v>
+      </c>
       <c r="H136" s="9"/>
-      <c r="I136" s="9"/>
+      <c r="I136" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="137" spans="1:9" ht="17.25">
-      <c r="A137" s="8"/>
-      <c r="B137" s="9"/>
+      <c r="A137" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>492</v>
+      </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="9"/>
+      <c r="E137" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I137" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="138" spans="1:9" ht="17.25">
-      <c r="A138" s="8"/>
-      <c r="B138" s="9"/>
+      <c r="A138" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>492</v>
+      </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="9"/>
+      <c r="E138" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I138" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="139" spans="1:9" ht="17.25">
-      <c r="A139" s="8"/>
-      <c r="B139" s="9"/>
+      <c r="A139" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>497</v>
+      </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
+      <c r="E139" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="F139" s="9">
+        <v>563282</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>499</v>
+      </c>
       <c r="H139" s="9"/>
-      <c r="I139" s="9"/>
+      <c r="I139" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="140" spans="1:9" ht="17.25">
-      <c r="A140" s="8"/>
-      <c r="B140" s="9"/>
+      <c r="A140" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>501</v>
+      </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
+      <c r="E140" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>504</v>
+      </c>
       <c r="H140" s="9"/>
-      <c r="I140" s="9"/>
+      <c r="I140" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="141" spans="1:9" ht="17.25">
-      <c r="A141" s="8"/>
-      <c r="B141" s="9"/>
+      <c r="A141" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>506</v>
+      </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
+      <c r="E141" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>509</v>
+      </c>
       <c r="H141" s="9"/>
-      <c r="I141" s="9"/>
+      <c r="I141" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="142" spans="1:9" ht="17.25">
-      <c r="A142" s="8"/>
-      <c r="B142" s="9"/>
+      <c r="A142" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>506</v>
+      </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
+      <c r="E142" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>509</v>
+      </c>
       <c r="H142" s="9"/>
-      <c r="I142" s="9"/>
+      <c r="I142" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="143" spans="1:9" ht="17.25">
-      <c r="A143" s="8"/>
-      <c r="B143" s="9"/>
+      <c r="A143" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>512</v>
+      </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9"/>
-      <c r="I143" s="9"/>
+      <c r="E143" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I143" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="144" spans="1:9" ht="17.25">
-      <c r="A144" s="8"/>
-      <c r="B144" s="9"/>
+      <c r="A144" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>512</v>
+      </c>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
+      <c r="E144" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I144" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="145" spans="1:9" ht="17.25">
-      <c r="A145" s="8"/>
+      <c r="A145" s="8" t="s">
+        <v>597</v>
+      </c>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
+      <c r="E145" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I145" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="146" spans="1:9" ht="17.25">
-      <c r="A146" s="8"/>
-      <c r="B146" s="9"/>
+      <c r="A146" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>520</v>
+      </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
-      <c r="I146" s="9"/>
+      <c r="E146" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I146" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="147" spans="1:9" ht="17.25">
-      <c r="A147" s="8"/>
-      <c r="B147" s="9"/>
+      <c r="A147" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>524</v>
+      </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="9"/>
-      <c r="I147" s="9"/>
+      <c r="E147" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I147" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="148" spans="1:9" ht="17.25">
-      <c r="A148" s="8"/>
-      <c r="B148" s="9"/>
+      <c r="A148" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>528</v>
+      </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="9"/>
-      <c r="I148" s="9"/>
+      <c r="E148" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I148" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="149" spans="1:9" ht="17.25">
-      <c r="A149" s="8"/>
-      <c r="B149" s="9"/>
+      <c r="A149" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>533</v>
+      </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9"/>
-      <c r="I149" s="9"/>
+      <c r="E149" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="I149" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="150" spans="1:9" ht="17.25">
-      <c r="A150" s="8"/>
-      <c r="B150" s="9"/>
+      <c r="A150" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="9"/>
-      <c r="I150" s="9"/>
+      <c r="E150" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="H150" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="I150" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="151" spans="1:9" ht="17.25">
-      <c r="A151" s="8"/>
-      <c r="B151" s="9"/>
+      <c r="A151" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>540</v>
+      </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="9"/>
-      <c r="I151" s="9"/>
+      <c r="E151" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I151" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="152" spans="1:9" ht="17.25">
-      <c r="A152" s="8"/>
-      <c r="B152" s="9"/>
+      <c r="A152" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>544</v>
+      </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="9"/>
-      <c r="I152" s="9"/>
+      <c r="E152" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="H152" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I152" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="153" spans="1:9" ht="17.25">
-      <c r="A153" s="8"/>
-      <c r="B153" s="9"/>
+      <c r="A153" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>548</v>
+      </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="9"/>
-      <c r="I153" s="9"/>
+      <c r="E153" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="H153" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I153" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="154" spans="1:9" ht="17.25">
-      <c r="A154" s="8"/>
+      <c r="A154" s="8" t="s">
+        <v>604</v>
+      </c>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="9"/>
-      <c r="I154" s="9"/>
+      <c r="E154" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="H154" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I154" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="155" spans="1:9" ht="17.25">
-      <c r="A155" s="8"/>
-      <c r="B155" s="9"/>
+      <c r="A155" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>520</v>
+      </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="9"/>
-      <c r="I155" s="9"/>
+      <c r="E155" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="H155" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I155" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="156" spans="1:9" ht="17.25">
-      <c r="A156" s="8"/>
-      <c r="B156" s="9"/>
+      <c r="A156" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>524</v>
+      </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="9"/>
-      <c r="I156" s="9"/>
+      <c r="E156" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="H156" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I156" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="157" spans="1:9" ht="17.25">
-      <c r="A157" s="8"/>
-      <c r="B157" s="9"/>
+      <c r="A157" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>528</v>
+      </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="9"/>
-      <c r="I157" s="9"/>
+      <c r="E157" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I157" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="158" spans="1:9" ht="17.25">
-      <c r="A158" s="8"/>
-      <c r="B158" s="9"/>
+      <c r="A158" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>557</v>
+      </c>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
-      <c r="F158" s="9"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="9"/>
-      <c r="I158" s="9"/>
+      <c r="E158" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="H158" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I158" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="159" spans="1:9" ht="17.25">
-      <c r="A159" s="8"/>
-      <c r="B159" s="9"/>
+      <c r="A159" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B159" s="9">
+        <v>1</v>
+      </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
+      <c r="E159" s="9">
+        <v>1</v>
+      </c>
+      <c r="F159" s="9">
+        <v>1</v>
+      </c>
       <c r="G159" s="9"/>
-      <c r="H159" s="9"/>
-      <c r="I159" s="9"/>
+      <c r="H159" s="9">
+        <v>10</v>
+      </c>
+      <c r="I159" s="9">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I158">
@@ -2337,24 +6009,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>561</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>562</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>9</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>564</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83944B2E-7596-451C-9134-51A02F911DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF55AAB-57DE-4A52-AE6D-0B3FFA2E9AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="del" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$163</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="643">
   <si>
     <t>Product Name</t>
   </si>
@@ -1915,6 +1915,57 @@
   </si>
   <si>
     <t>K3C</t>
+  </si>
+  <si>
+    <t>WW Mexican Style Slaw 250gx6</t>
+  </si>
+  <si>
+    <t>563290</t>
+  </si>
+  <si>
+    <t>T4K</t>
+  </si>
+  <si>
+    <t>9339687425990</t>
+  </si>
+  <si>
+    <t>19339687425997</t>
+  </si>
+  <si>
+    <t>563291</t>
+  </si>
+  <si>
+    <t>563289</t>
+  </si>
+  <si>
+    <t>WW BBQ Potato Salad 400gx8</t>
+  </si>
+  <si>
+    <t>9339687426010</t>
+  </si>
+  <si>
+    <t>19339687426017</t>
+  </si>
+  <si>
+    <t>3TK</t>
+  </si>
+  <si>
+    <t>WW Creamy Rench Pasta Salad 350gx8</t>
+  </si>
+  <si>
+    <t>19339687426000</t>
+  </si>
+  <si>
+    <t>9339687426003</t>
+  </si>
+  <si>
+    <t>WW Mexican Style Slaw 250gx6 (TAS)</t>
+  </si>
+  <si>
+    <t>563290T</t>
+  </si>
+  <si>
+    <t>FV6</t>
   </si>
 </sst>
 </file>
@@ -2364,13 +2415,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B142" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G145" sqref="G145"/>
+      <selection pane="bottomRight" activeCell="G163" sqref="G163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5955,24 +6006,124 @@
     </row>
     <row r="159" spans="1:9" ht="17.25">
       <c r="A159" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="B159" s="9">
-        <v>1</v>
+        <v>626</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>629</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
-      <c r="E159" s="9">
+      <c r="E159" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="I159" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="17.25">
+      <c r="A160" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="H160" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="I160" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="17.25">
+      <c r="A161" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="I161" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="17.25">
+      <c r="A162" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="H162" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="I162" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="17.25">
+      <c r="A163" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B163" s="9">
         <v>1</v>
       </c>
-      <c r="F159" s="9">
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9">
         <v>1</v>
       </c>
-      <c r="G159" s="9"/>
-      <c r="H159" s="9">
+      <c r="F163" s="9">
+        <v>1</v>
+      </c>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9">
         <v>10</v>
       </c>
-      <c r="I159" s="9">
+      <c r="I163" s="9">
         <v>28</v>
       </c>
     </row>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF55AAB-57DE-4A52-AE6D-0B3FFA2E9AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D2F1D3-5298-47DC-803D-5279AC834991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="del" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$164</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="648">
   <si>
     <t>Product Name</t>
   </si>
@@ -1966,6 +1966,21 @@
   </si>
   <si>
     <t>FV6</t>
+  </si>
+  <si>
+    <t>599800</t>
+  </si>
+  <si>
+    <t>Cls Potato Egg &amp; Bacon 6x650g</t>
+  </si>
+  <si>
+    <t>9310645484693</t>
+  </si>
+  <si>
+    <t>1310397</t>
+  </si>
+  <si>
+    <t>RK1</t>
   </si>
 </sst>
 </file>
@@ -2415,13 +2430,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B142" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G163" sqref="G163"/>
+      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3574,21 +3589,25 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="17.25">
-      <c r="A50" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B50" s="9"/>
+      <c r="A50" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>645</v>
+      </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>200</v>
+        <v>646</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G50" s="9"/>
+        <v>643</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>647</v>
+      </c>
       <c r="H50" s="9" t="s">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c r="I50" s="9">
         <v>28</v>
@@ -3596,44 +3615,42 @@
     </row>
     <row r="51" spans="1:9" ht="17.25">
       <c r="A51" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>204</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="H51" s="9"/>
+        <v>201</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="I51" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="17.25">
       <c r="A52" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9">
@@ -3642,21 +3659,21 @@
     </row>
     <row r="53" spans="1:9" ht="17.25">
       <c r="A53" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="9">
@@ -3665,69 +3682,69 @@
     </row>
     <row r="54" spans="1:9" ht="17.25">
       <c r="A54" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>130</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="H54" s="9"/>
       <c r="I54" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="17.25">
       <c r="A55" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="H55" s="9"/>
+        <v>222</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I55" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="17.25">
       <c r="A56" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="9">
@@ -3736,21 +3753,21 @@
     </row>
     <row r="57" spans="1:9" ht="17.25">
       <c r="A57" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="9">
@@ -3759,21 +3776,21 @@
     </row>
     <row r="58" spans="1:9" ht="17.25">
       <c r="A58" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="9">
@@ -3782,150 +3799,156 @@
     </row>
     <row r="59" spans="1:9" ht="17.25">
       <c r="A59" s="8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>130</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="H59" s="9"/>
       <c r="I59" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="17.25">
       <c r="A60" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="B60" s="9"/>
+        <v>243</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>244</v>
+      </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="G60" s="9"/>
+        <v>246</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>247</v>
+      </c>
       <c r="H60" s="9" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="I60" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="17.25">
-      <c r="A61" s="12" t="s">
-        <v>622</v>
+      <c r="A61" s="8" t="s">
+        <v>592</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="9"/>
+      <c r="E61" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I61" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="17.25">
+      <c r="A62" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E62" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F62" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G62" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="H62" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I61" s="13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="17.25">
-      <c r="A62" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9">
-        <v>32</v>
+      <c r="I62" s="13">
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="17.25">
       <c r="A63" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>130</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="H63" s="9"/>
       <c r="I63" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="17.25">
       <c r="A64" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B64" s="9"/>
+        <v>255</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>256</v>
+      </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
+      <c r="E64" s="9" t="s">
+        <v>257</v>
+      </c>
       <c r="F64" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
+        <v>258</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I64" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="17.25">
       <c r="A65" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
@@ -3935,14 +3958,14 @@
     </row>
     <row r="66" spans="1:9" ht="17.25">
       <c r="A66" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
@@ -3952,41 +3975,39 @@
     </row>
     <row r="67" spans="1:9" ht="17.25">
       <c r="A67" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>266</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
-        <v>267</v>
-      </c>
+      <c r="E67" s="9"/>
       <c r="F67" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>269</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="17.25">
       <c r="A68" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B68" s="9"/>
+        <v>265</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>266</v>
+      </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="G68" s="9"/>
+        <v>268</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="H68" s="9"/>
       <c r="I68" s="9">
         <v>32</v>
@@ -3994,43 +4015,37 @@
     </row>
     <row r="69" spans="1:9" ht="17.25">
       <c r="A69" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G69" s="9"/>
-      <c r="H69" s="9" t="s">
-        <v>155</v>
-      </c>
+      <c r="H69" s="9"/>
       <c r="I69" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="17.25">
-      <c r="A70" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>277</v>
-      </c>
+      <c r="A70" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>280</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G70" s="9"/>
       <c r="H70" s="9" t="s">
         <v>155</v>
       </c>
@@ -4040,21 +4055,21 @@
     </row>
     <row r="71" spans="1:9" ht="17.25">
       <c r="A71" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H71" s="9" t="s">
         <v>155</v>
@@ -4065,18 +4080,22 @@
     </row>
     <row r="72" spans="1:9" ht="17.25">
       <c r="A72" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B72" s="9"/>
+        <v>281</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>282</v>
+      </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="G72" s="9"/>
+        <v>284</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>285</v>
+      </c>
       <c r="H72" s="9" t="s">
         <v>155</v>
       </c>
@@ -4085,17 +4104,17 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="17.25">
-      <c r="A73" s="8" t="s">
-        <v>289</v>
+      <c r="A73" s="10" t="s">
+        <v>286</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9" t="s">
@@ -4106,17 +4125,17 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="17.25">
-      <c r="A74" s="10" t="s">
-        <v>292</v>
+      <c r="A74" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9" t="s">
@@ -4127,21 +4146,21 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="17.25">
-      <c r="A75" s="8" t="s">
-        <v>295</v>
+      <c r="A75" s="10" t="s">
+        <v>292</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9" t="s">
-        <v>298</v>
+        <v>155</v>
       </c>
       <c r="I75" s="9">
         <v>28</v>
@@ -4149,20 +4168,20 @@
     </row>
     <row r="76" spans="1:9" ht="17.25">
       <c r="A76" s="8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I76" s="9">
         <v>28</v>
@@ -4170,20 +4189,20 @@
     </row>
     <row r="77" spans="1:9" ht="17.25">
       <c r="A77" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="I77" s="9">
         <v>28</v>
@@ -4191,22 +4210,18 @@
     </row>
     <row r="78" spans="1:9" ht="17.25">
       <c r="A78" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>307</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>310</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="G78" s="9"/>
       <c r="H78" s="9" t="s">
         <v>17</v>
       </c>
@@ -4216,20 +4231,24 @@
     </row>
     <row r="79" spans="1:9" ht="17.25">
       <c r="A79" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="B79" s="9"/>
+        <v>306</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>307</v>
+      </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="G79" s="9"/>
+        <v>309</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>310</v>
+      </c>
       <c r="H79" s="9" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="I79" s="9">
         <v>28</v>
@@ -4237,24 +4256,20 @@
     </row>
     <row r="80" spans="1:9" ht="17.25">
       <c r="A80" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>315</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>318</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G80" s="9"/>
       <c r="H80" s="9" t="s">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="I80" s="9">
         <v>28</v>
@@ -4262,21 +4277,21 @@
     </row>
     <row r="81" spans="1:9" ht="17.25">
       <c r="A81" s="8" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>155</v>
@@ -4287,24 +4302,24 @@
     </row>
     <row r="82" spans="1:9" ht="17.25">
       <c r="A82" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>302</v>
+        <v>155</v>
       </c>
       <c r="I82" s="9">
         <v>28</v>
@@ -4312,18 +4327,22 @@
     </row>
     <row r="83" spans="1:9" ht="17.25">
       <c r="A83" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B83" s="9"/>
+        <v>324</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>325</v>
+      </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="G83" s="9"/>
+        <v>327</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>328</v>
+      </c>
       <c r="H83" s="9" t="s">
         <v>302</v>
       </c>
@@ -4332,25 +4351,21 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="17.25">
-      <c r="A84" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>333</v>
-      </c>
+      <c r="A84" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>336</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="G84" s="9"/>
       <c r="H84" s="9" t="s">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="I84" s="9">
         <v>28</v>
@@ -4358,21 +4373,21 @@
     </row>
     <row r="85" spans="1:9" ht="17.25">
       <c r="A85" s="10" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>155</v>
@@ -4382,25 +4397,25 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="17.25">
-      <c r="A86" s="11" t="s">
-        <v>610</v>
+      <c r="A86" s="10" t="s">
+        <v>337</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>616</v>
+        <v>338</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
-        <v>614</v>
+        <v>339</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>611</v>
+        <v>340</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>615</v>
+        <v>341</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="I86" s="9">
         <v>28</v>
@@ -4408,7 +4423,7 @@
     </row>
     <row r="87" spans="1:9" ht="17.25">
       <c r="A87" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>616</v>
@@ -4419,7 +4434,7 @@
         <v>614</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>615</v>
@@ -4432,53 +4447,57 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="17.25">
-      <c r="A88" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B88" s="9"/>
+      <c r="A88" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>616</v>
+      </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
+      <c r="E88" s="9" t="s">
+        <v>614</v>
+      </c>
       <c r="F88" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
+        <v>613</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I88" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="17.25">
       <c r="A89" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G89" s="9"/>
-      <c r="H89" s="9" t="s">
-        <v>130</v>
-      </c>
+      <c r="H89" s="9"/>
       <c r="I89" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="17.25">
       <c r="A90" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
-      <c r="E90" s="9" t="s">
-        <v>347</v>
-      </c>
+      <c r="E90" s="9"/>
       <c r="F90" s="9" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="9" t="s">
@@ -4489,15 +4508,17 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="17.25">
-      <c r="A91" s="10" t="s">
-        <v>349</v>
+      <c r="A91" s="8" t="s">
+        <v>346</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
+      <c r="E91" s="9" t="s">
+        <v>347</v>
+      </c>
       <c r="F91" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="9" t="s">
@@ -4509,16 +4530,14 @@
     </row>
     <row r="92" spans="1:9" ht="17.25">
       <c r="A92" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
-      <c r="E92" s="9" t="s">
-        <v>352</v>
-      </c>
+      <c r="E92" s="9"/>
       <c r="F92" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="9" t="s">
@@ -4529,32 +4548,36 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="17.25">
-      <c r="A93" s="8" t="s">
-        <v>354</v>
+      <c r="A93" s="10" t="s">
+        <v>351</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
+      <c r="E93" s="9" t="s">
+        <v>352</v>
+      </c>
       <c r="F93" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
+      <c r="H93" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I93" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="17.25">
       <c r="A94" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
@@ -4564,50 +4587,50 @@
     </row>
     <row r="95" spans="1:9" ht="17.25">
       <c r="A95" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G95" s="9"/>
-      <c r="H95" s="9" t="s">
-        <v>130</v>
-      </c>
+      <c r="H95" s="9"/>
       <c r="I95" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="17.25">
       <c r="A96" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
+      <c r="H96" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I96" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="17.25">
       <c r="A97" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
@@ -4617,58 +4640,56 @@
     </row>
     <row r="98" spans="1:9" ht="17.25">
       <c r="A98" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>365</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
-      <c r="E98" s="9" t="s">
-        <v>366</v>
-      </c>
+      <c r="E98" s="9"/>
       <c r="F98" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>368</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="17.25">
       <c r="A99" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="B99" s="9"/>
+        <v>364</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>365</v>
+      </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9" t="s">
-        <v>130</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="H99" s="9"/>
       <c r="I99" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="17.25">
       <c r="A100" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
+      <c r="E100" s="9" t="s">
+        <v>370</v>
+      </c>
       <c r="F100" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9" t="s">
@@ -4680,16 +4701,14 @@
     </row>
     <row r="101" spans="1:9" ht="17.25">
       <c r="A101" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
-        <v>370</v>
-      </c>
+      <c r="E101" s="9"/>
       <c r="F101" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="9" t="s">
@@ -4701,20 +4720,20 @@
     </row>
     <row r="102" spans="1:9" ht="17.25">
       <c r="A102" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="9" t="s">
-        <v>298</v>
+        <v>130</v>
       </c>
       <c r="I102" s="9">
         <v>28</v>
@@ -4722,20 +4741,20 @@
     </row>
     <row r="103" spans="1:9" ht="17.25">
       <c r="A103" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G103" s="9"/>
       <c r="H103" s="9" t="s">
-        <v>130</v>
+        <v>298</v>
       </c>
       <c r="I103" s="9">
         <v>28</v>
@@ -4743,30 +4762,28 @@
     </row>
     <row r="104" spans="1:9" ht="17.25">
       <c r="A104" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>383</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="H104" s="9"/>
+        <v>381</v>
+      </c>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I104" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="17.25">
       <c r="A105" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>383</v>
@@ -4777,7 +4794,7 @@
         <v>384</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G105" s="9" t="s">
         <v>386</v>
@@ -4789,7 +4806,7 @@
     </row>
     <row r="106" spans="1:9" ht="17.25">
       <c r="A106" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>383</v>
@@ -4800,7 +4817,7 @@
         <v>384</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G106" s="9" t="s">
         <v>386</v>
@@ -4812,37 +4829,41 @@
     </row>
     <row r="107" spans="1:9" ht="17.25">
       <c r="A107" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="B107" s="9"/>
+        <v>389</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>383</v>
+      </c>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
+      <c r="E107" s="9" t="s">
+        <v>384</v>
+      </c>
       <c r="F107" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9" t="s">
-        <v>298</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="H107" s="9"/>
       <c r="I107" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="17.25">
       <c r="A108" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="9" t="s">
-        <v>130</v>
+        <v>298</v>
       </c>
       <c r="I108" s="9">
         <v>28</v>
@@ -4850,14 +4871,14 @@
     </row>
     <row r="109" spans="1:9" ht="17.25">
       <c r="A109" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="9" t="s">
@@ -4869,14 +4890,14 @@
     </row>
     <row r="110" spans="1:9" ht="17.25">
       <c r="A110" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G110" s="9"/>
       <c r="H110" s="9" t="s">
@@ -4888,30 +4909,26 @@
     </row>
     <row r="111" spans="1:9" ht="17.25">
       <c r="A111" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>400</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
-      <c r="E111" s="9" t="s">
-        <v>401</v>
-      </c>
+      <c r="E111" s="9"/>
       <c r="F111" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="H111" s="9"/>
+        <v>398</v>
+      </c>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I111" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="17.25">
       <c r="A112" s="8" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>400</v>
@@ -4922,7 +4939,7 @@
         <v>401</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>403</v>
@@ -4934,7 +4951,7 @@
     </row>
     <row r="113" spans="1:9" ht="17.25">
       <c r="A113" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>400</v>
@@ -4945,7 +4962,7 @@
         <v>401</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G113" s="9" t="s">
         <v>403</v>
@@ -4957,16 +4974,22 @@
     </row>
     <row r="114" spans="1:9" ht="17.25">
       <c r="A114" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="B114" s="9"/>
+        <v>406</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>400</v>
+      </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
+      <c r="E114" s="9" t="s">
+        <v>401</v>
+      </c>
       <c r="F114" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="G114" s="9"/>
+        <v>407</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>403</v>
+      </c>
       <c r="H114" s="9"/>
       <c r="I114" s="9">
         <v>32</v>
@@ -4974,14 +4997,14 @@
     </row>
     <row r="115" spans="1:9" ht="17.25">
       <c r="A115" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
@@ -4991,14 +5014,14 @@
     </row>
     <row r="116" spans="1:9" ht="17.25">
       <c r="A116" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
@@ -5008,14 +5031,14 @@
     </row>
     <row r="117" spans="1:9" ht="17.25">
       <c r="A117" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
@@ -5025,14 +5048,14 @@
     </row>
     <row r="118" spans="1:9" ht="17.25">
       <c r="A118" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
@@ -5042,86 +5065,80 @@
     </row>
     <row r="119" spans="1:9" ht="17.25">
       <c r="A119" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>419</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
-      <c r="E119" s="9" t="s">
-        <v>420</v>
-      </c>
+      <c r="E119" s="9"/>
       <c r="F119" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>130</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
       <c r="I119" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="17.25">
       <c r="A120" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B120" s="9"/>
+        <v>418</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>419</v>
+      </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
+      <c r="E120" s="9" t="s">
+        <v>420</v>
+      </c>
       <c r="F120" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
+        <v>421</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="I120" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="17.25">
       <c r="A121" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>426</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
-      <c r="E121" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="E121" s="9"/>
       <c r="F121" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>429</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="G121" s="9"/>
       <c r="H121" s="9"/>
       <c r="I121" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="17.25">
       <c r="A122" s="8" t="s">
-        <v>568</v>
+        <v>425</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H122" s="9"/>
       <c r="I122" s="9">
@@ -5130,46 +5147,44 @@
     </row>
     <row r="123" spans="1:9" ht="17.25">
       <c r="A123" s="8" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="H123" s="9" t="s">
-        <v>438</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="H123" s="9"/>
       <c r="I123" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="17.25">
       <c r="A124" s="8" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H124" s="9" t="s">
         <v>438</v>
@@ -5180,21 +5195,21 @@
     </row>
     <row r="125" spans="1:9" ht="17.25">
       <c r="A125" s="8" t="s">
-        <v>443</v>
+        <v>566</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="H125" s="9" t="s">
         <v>438</v>
@@ -5205,44 +5220,46 @@
     </row>
     <row r="126" spans="1:9" ht="17.25">
       <c r="A126" s="8" t="s">
-        <v>569</v>
+        <v>443</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="H126" s="9"/>
+        <v>437</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="I126" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="17.25">
       <c r="A127" s="8" t="s">
-        <v>449</v>
+        <v>569</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H127" s="9"/>
       <c r="I127" s="9">
@@ -5251,69 +5268,69 @@
     </row>
     <row r="128" spans="1:9" ht="17.25">
       <c r="A128" s="8" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="H128" s="9" t="s">
-        <v>438</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="H128" s="9"/>
       <c r="I128" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="17.25">
       <c r="A129" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="H129" s="9"/>
+        <v>458</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="I129" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="17.25">
       <c r="A130" s="8" t="s">
-        <v>570</v>
+        <v>459</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H130" s="9"/>
       <c r="I130" s="9">
@@ -5322,44 +5339,42 @@
     </row>
     <row r="131" spans="1:9" ht="17.25">
       <c r="A131" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="B131" s="9"/>
+        <v>570</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>464</v>
+      </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="H131" s="9" t="s">
-        <v>155</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="H131" s="9"/>
       <c r="I131" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="17.25">
       <c r="A132" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>471</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H132" s="9" t="s">
         <v>155</v>
@@ -5370,21 +5385,21 @@
     </row>
     <row r="133" spans="1:9" ht="17.25">
       <c r="A133" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H133" s="9" t="s">
         <v>155</v>
@@ -5395,21 +5410,21 @@
     </row>
     <row r="134" spans="1:9" ht="17.25">
       <c r="A134" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H134" s="9" t="s">
         <v>155</v>
@@ -5420,24 +5435,24 @@
     </row>
     <row r="135" spans="1:9" ht="17.25">
       <c r="A135" s="8" t="s">
-        <v>571</v>
+        <v>596</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="I135" s="9">
         <v>28</v>
@@ -5445,55 +5460,55 @@
     </row>
     <row r="136" spans="1:9" ht="17.25">
       <c r="A136" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="H136" s="9"/>
+        <v>486</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="I136" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="17.25">
       <c r="A137" s="8" t="s">
-        <v>491</v>
+        <v>572</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="H137" s="9" t="s">
-        <v>202</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="H137" s="9"/>
       <c r="I137" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="17.25">
       <c r="A138" s="8" t="s">
-        <v>573</v>
+        <v>491</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>492</v>
@@ -5504,7 +5519,7 @@
         <v>493</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G138" s="9" t="s">
         <v>495</v>
@@ -5518,44 +5533,46 @@
     </row>
     <row r="139" spans="1:9" ht="17.25">
       <c r="A139" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="F139" s="9">
-        <v>563282</v>
+        <v>493</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>496</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="H139" s="9"/>
+        <v>495</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="I139" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="17.25">
       <c r="A140" s="8" t="s">
-        <v>500</v>
+        <v>574</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="F140" s="9" t="s">
-        <v>503</v>
+        <v>498</v>
+      </c>
+      <c r="F140" s="9">
+        <v>563282</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H140" s="9"/>
       <c r="I140" s="9">
@@ -5564,21 +5581,21 @@
     </row>
     <row r="141" spans="1:9" ht="17.25">
       <c r="A141" s="8" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H141" s="9"/>
       <c r="I141" s="9">
@@ -5587,7 +5604,7 @@
     </row>
     <row r="142" spans="1:9" ht="17.25">
       <c r="A142" s="8" t="s">
-        <v>575</v>
+        <v>505</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>506</v>
@@ -5598,7 +5615,7 @@
         <v>507</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G142" s="9" t="s">
         <v>509</v>
@@ -5610,32 +5627,30 @@
     </row>
     <row r="143" spans="1:9" ht="17.25">
       <c r="A143" s="8" t="s">
-        <v>511</v>
+        <v>575</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="H143" s="9" t="s">
-        <v>202</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="H143" s="9"/>
       <c r="I143" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="17.25">
       <c r="A144" s="8" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>512</v>
@@ -5646,7 +5661,7 @@
         <v>513</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G144" s="9" t="s">
         <v>625</v>
@@ -5660,22 +5675,24 @@
     </row>
     <row r="145" spans="1:9" ht="17.25">
       <c r="A145" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="B145" s="9"/>
+        <v>515</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>512</v>
+      </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>519</v>
+        <v>625</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="I145" s="9">
         <v>28</v>
@@ -5683,21 +5700,19 @@
     </row>
     <row r="146" spans="1:9" ht="17.25">
       <c r="A146" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>520</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H146" s="9" t="s">
         <v>155</v>
@@ -5708,21 +5723,21 @@
     </row>
     <row r="147" spans="1:9" ht="17.25">
       <c r="A147" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H147" s="9" t="s">
         <v>155</v>
@@ -5733,21 +5748,21 @@
     </row>
     <row r="148" spans="1:9" ht="17.25">
       <c r="A148" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H148" s="9" t="s">
         <v>155</v>
@@ -5758,24 +5773,24 @@
     </row>
     <row r="149" spans="1:9" ht="17.25">
       <c r="A149" s="8" t="s">
-        <v>532</v>
+        <v>600</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>608</v>
+        <v>531</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>302</v>
+        <v>155</v>
       </c>
       <c r="I149" s="9">
         <v>28</v>
@@ -5783,21 +5798,21 @@
     </row>
     <row r="150" spans="1:9" ht="17.25">
       <c r="A150" s="8" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="H150" s="9" t="s">
         <v>302</v>
@@ -5808,24 +5823,24 @@
     </row>
     <row r="151" spans="1:9" ht="17.25">
       <c r="A151" s="8" t="s">
-        <v>601</v>
+        <v>536</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>543</v>
+        <v>617</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="I151" s="9">
         <v>28</v>
@@ -5833,21 +5848,21 @@
     </row>
     <row r="152" spans="1:9" ht="17.25">
       <c r="A152" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="H152" s="9" t="s">
         <v>155</v>
@@ -5858,21 +5873,21 @@
     </row>
     <row r="153" spans="1:9" ht="17.25">
       <c r="A153" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H153" s="9" t="s">
         <v>155</v>
@@ -5883,19 +5898,21 @@
     </row>
     <row r="154" spans="1:9" ht="17.25">
       <c r="A154" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="B154" s="9"/>
+        <v>603</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>548</v>
+      </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9" t="s">
-        <v>517</v>
+        <v>549</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="H154" s="9" t="s">
         <v>155</v>
@@ -5906,21 +5923,19 @@
     </row>
     <row r="155" spans="1:9" ht="17.25">
       <c r="A155" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>520</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H155" s="9" t="s">
         <v>155</v>
@@ -5931,21 +5946,21 @@
     </row>
     <row r="156" spans="1:9" ht="17.25">
       <c r="A156" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H156" s="9" t="s">
         <v>155</v>
@@ -5956,21 +5971,21 @@
     </row>
     <row r="157" spans="1:9" ht="17.25">
       <c r="A157" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H157" s="9" t="s">
         <v>155</v>
@@ -5981,24 +5996,24 @@
     </row>
     <row r="158" spans="1:9" ht="17.25">
       <c r="A158" s="8" t="s">
-        <v>556</v>
+        <v>607</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="E158" s="9" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>609</v>
+        <v>531</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="I158" s="9">
         <v>28</v>
@@ -6006,24 +6021,24 @@
     </row>
     <row r="159" spans="1:9" ht="17.25">
       <c r="A159" s="8" t="s">
-        <v>626</v>
+        <v>556</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>629</v>
+        <v>557</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
       <c r="E159" s="9" t="s">
-        <v>630</v>
+        <v>558</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>627</v>
+        <v>559</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>438</v>
+        <v>202</v>
       </c>
       <c r="I159" s="9">
         <v>28</v>
@@ -6031,7 +6046,7 @@
     </row>
     <row r="160" spans="1:9" ht="17.25">
       <c r="A160" s="8" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="B160" s="9" t="s">
         <v>629</v>
@@ -6042,7 +6057,7 @@
         <v>630</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="G160" s="9" t="s">
         <v>628</v>
@@ -6056,21 +6071,21 @@
     </row>
     <row r="161" spans="1:9" ht="17.25">
       <c r="A161" s="8" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="H161" s="9" t="s">
         <v>438</v>
@@ -6081,21 +6096,21 @@
     </row>
     <row r="162" spans="1:9" ht="17.25">
       <c r="A162" s="8" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="H162" s="9" t="s">
         <v>438</v>
@@ -6106,30 +6121,55 @@
     </row>
     <row r="163" spans="1:9" ht="17.25">
       <c r="A163" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="B163" s="9">
-        <v>1</v>
+        <v>637</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>639</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
-      <c r="E163" s="9">
+      <c r="E163" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="H163" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="I163" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="17.25">
+      <c r="A164" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B164" s="9">
         <v>1</v>
       </c>
-      <c r="F163" s="9">
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9">
         <v>1</v>
       </c>
-      <c r="G163" s="9"/>
-      <c r="H163" s="9">
+      <c r="F164" s="9">
+        <v>1</v>
+      </c>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9">
         <v>10</v>
       </c>
-      <c r="I163" s="9">
+      <c r="I164" s="9">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I158">
-    <sortCondition ref="A1:A158"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I159">
+    <sortCondition ref="A1:A159"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D2F1D3-5298-47DC-803D-5279AC834991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C47028-93CD-46D4-8703-2DD1CF75CFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="650">
   <si>
     <t>Product Name</t>
   </si>
@@ -1981,6 +1981,12 @@
   </si>
   <si>
     <t>RK1</t>
+  </si>
+  <si>
+    <t>93518918</t>
+  </si>
+  <si>
+    <t>93519007</t>
   </si>
 </sst>
 </file>
@@ -2433,17 +2439,17 @@
   <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomRight" activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="32.140625" customWidth="1"/>
     <col min="6" max="9" width="22.85546875" customWidth="1"/>
@@ -5365,7 +5371,9 @@
         <v>593</v>
       </c>
       <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
+      <c r="C132" s="9" t="s">
+        <v>648</v>
+      </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9" t="s">
         <v>468</v>
@@ -5703,7 +5711,9 @@
         <v>597</v>
       </c>
       <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
+      <c r="C146" s="9" t="s">
+        <v>649</v>
+      </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
         <v>517</v>

--- a/public/label_library.xlsx
+++ b/public/label_library.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085449C6-4BBC-4A17-9A54-9DD17F0168B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0446B254-15D7-42F7-93CF-B5E0D30865A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="645">
   <si>
     <t>Product Name</t>
   </si>
@@ -57,6 +57,1920 @@
   </si>
   <si>
     <t>water mark</t>
+  </si>
+  <si>
+    <t>Aldi Asian Bowl 7 x 230g</t>
+  </si>
+  <si>
+    <t>4088700092583</t>
+  </si>
+  <si>
+    <t>4061461820299</t>
+  </si>
+  <si>
+    <t>200305N</t>
+  </si>
+  <si>
+    <t>AS8</t>
+  </si>
+  <si>
+    <t>Aldi Coleslaw Sld 6 x 800g</t>
+  </si>
+  <si>
+    <t>4061459928037</t>
+  </si>
+  <si>
+    <t>4061459928044</t>
+  </si>
+  <si>
+    <t>599664</t>
+  </si>
+  <si>
+    <t>DT2</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Aldi Coleslaw Sld 9 x 250g</t>
+  </si>
+  <si>
+    <t>4088700203897</t>
+  </si>
+  <si>
+    <t>4061463442598</t>
+  </si>
+  <si>
+    <t>599514</t>
+  </si>
+  <si>
+    <t>LA1</t>
+  </si>
+  <si>
+    <t>Aldi Cut Watermelon 6 x 600g</t>
+  </si>
+  <si>
+    <t>4061461198541</t>
+  </si>
+  <si>
+    <t>598406</t>
+  </si>
+  <si>
+    <t>8JA</t>
+  </si>
+  <si>
+    <t>Aldi Pasta Sld 6 x 800g</t>
+  </si>
+  <si>
+    <t>4061459928051</t>
+  </si>
+  <si>
+    <t>4061459928068</t>
+  </si>
+  <si>
+    <t>599663</t>
+  </si>
+  <si>
+    <t>2MU</t>
+  </si>
+  <si>
+    <t>Aldi Pasta Sld 9 x 250g</t>
+  </si>
+  <si>
+    <t>4088700203880</t>
+  </si>
+  <si>
+    <t>4061463443731</t>
+  </si>
+  <si>
+    <t>599515</t>
+  </si>
+  <si>
+    <t>DP1</t>
+  </si>
+  <si>
+    <t>Aldi Potato Sld 6 x 800g</t>
+  </si>
+  <si>
+    <t>4061459928075</t>
+  </si>
+  <si>
+    <t>4061459935028</t>
+  </si>
+  <si>
+    <t>599662</t>
+  </si>
+  <si>
+    <t>1LF</t>
+  </si>
+  <si>
+    <t>Aldi Potato Sld 9 x 250g</t>
+  </si>
+  <si>
+    <t>4088700203903</t>
+  </si>
+  <si>
+    <t>4061463443373</t>
+  </si>
+  <si>
+    <t>599516</t>
+  </si>
+  <si>
+    <t>OT1</t>
+  </si>
+  <si>
+    <t>Celery Diced 5mm 2 x 2Kg</t>
+  </si>
+  <si>
+    <t>401220</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Cheese-AusFetaDiced10mmSht80g</t>
+  </si>
+  <si>
+    <t>600870S080</t>
+  </si>
+  <si>
+    <t>Cls Caesar Pasta Pot 4 x 220g</t>
+  </si>
+  <si>
+    <t>9310645446431</t>
+  </si>
+  <si>
+    <t>19310645446438</t>
+  </si>
+  <si>
+    <t>597019</t>
+  </si>
+  <si>
+    <t>J6R</t>
+  </si>
+  <si>
+    <t>Cls Car, Cel &amp; Hummus 4 x 220g</t>
+  </si>
+  <si>
+    <t>9310645252551</t>
+  </si>
+  <si>
+    <t>19310645252558</t>
+  </si>
+  <si>
+    <t>598118</t>
+  </si>
+  <si>
+    <t>2AJ</t>
+  </si>
+  <si>
+    <t>Cls Carrot French Onion 4x220g</t>
+  </si>
+  <si>
+    <t>9310645425016</t>
+  </si>
+  <si>
+    <t>19310645425013</t>
+  </si>
+  <si>
+    <t>598121</t>
+  </si>
+  <si>
+    <t>CF5</t>
+  </si>
+  <si>
+    <t>Cls Chckn Caesar Bwl 4 x 265g</t>
+  </si>
+  <si>
+    <t>9310645279879</t>
+  </si>
+  <si>
+    <t>19310645279876</t>
+  </si>
+  <si>
+    <t>599699</t>
+  </si>
+  <si>
+    <t>EI4</t>
+  </si>
+  <si>
+    <t>Cls Chkn BLT Sld Bwl 4 x 315g</t>
+  </si>
+  <si>
+    <t>9310645321868</t>
+  </si>
+  <si>
+    <t>19310645321865</t>
+  </si>
+  <si>
+    <t>599700</t>
+  </si>
+  <si>
+    <t>K4I</t>
+  </si>
+  <si>
+    <t>19310645244607</t>
+  </si>
+  <si>
+    <t>564094</t>
+  </si>
+  <si>
+    <t>9310645389813</t>
+  </si>
+  <si>
+    <t>5505037</t>
+  </si>
+  <si>
+    <t>599732</t>
+  </si>
+  <si>
+    <t>UD1</t>
+  </si>
+  <si>
+    <t>9310645099347</t>
+  </si>
+  <si>
+    <t>2089220</t>
+  </si>
+  <si>
+    <t>599733</t>
+  </si>
+  <si>
+    <t>SO5</t>
+  </si>
+  <si>
+    <t>9310645214948</t>
+  </si>
+  <si>
+    <t>3022258</t>
+  </si>
+  <si>
+    <t>599731</t>
+  </si>
+  <si>
+    <t>LF4</t>
+  </si>
+  <si>
+    <t>Cls Egg &amp; Spinach Pot 4 x 100g</t>
+  </si>
+  <si>
+    <t>9310645353531</t>
+  </si>
+  <si>
+    <t>19310645353538</t>
+  </si>
+  <si>
+    <t>597012</t>
+  </si>
+  <si>
+    <t>SE1</t>
+  </si>
+  <si>
+    <t>Cls FK Pineapple 4 x 350g</t>
+  </si>
+  <si>
+    <t>9310645232607</t>
+  </si>
+  <si>
+    <t>7864391</t>
+  </si>
+  <si>
+    <t>598233</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>Cls FK Pump,Feta &amp; Wlnt 4x265g</t>
+  </si>
+  <si>
+    <t>9310645279886</t>
+  </si>
+  <si>
+    <t>19310645279883</t>
+  </si>
+  <si>
+    <t>599574</t>
+  </si>
+  <si>
+    <t>SU6</t>
+  </si>
+  <si>
+    <t>Cls FK Seas Fruit Sld 4 x 350g</t>
+  </si>
+  <si>
+    <t>9310645232638</t>
+  </si>
+  <si>
+    <t>7864370</t>
+  </si>
+  <si>
+    <t>598235</t>
+  </si>
+  <si>
+    <t>SF1</t>
+  </si>
+  <si>
+    <t>Cls FK Watermelon 4 x 170g</t>
+  </si>
+  <si>
+    <t>9310645354033</t>
+  </si>
+  <si>
+    <t>19310645354030</t>
+  </si>
+  <si>
+    <t>598258</t>
+  </si>
+  <si>
+    <t>WM4</t>
+  </si>
+  <si>
+    <t>Cls FK Watermelon 4 x 350g</t>
+  </si>
+  <si>
+    <t>598239</t>
+  </si>
+  <si>
+    <t>Cls Fruit Medley 4 x 350g</t>
+  </si>
+  <si>
+    <t>9310645466460</t>
+  </si>
+  <si>
+    <t>8771004</t>
+  </si>
+  <si>
+    <t>598330</t>
+  </si>
+  <si>
+    <t>B1B</t>
+  </si>
+  <si>
+    <t>Cls Grain Hommus Pot 4 x 230g</t>
+  </si>
+  <si>
+    <t>9310645446424</t>
+  </si>
+  <si>
+    <t>19310645446421</t>
+  </si>
+  <si>
+    <t>597018</t>
+  </si>
+  <si>
+    <t>JK9</t>
+  </si>
+  <si>
+    <t>19310645244669</t>
+  </si>
+  <si>
+    <t>564082</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Cls Greek Sld 2 x 1Kg</t>
+  </si>
+  <si>
+    <t>564082S</t>
+  </si>
+  <si>
+    <t>Cls Greek Style Sld Bwl 6x300g</t>
+  </si>
+  <si>
+    <t>9310645389929</t>
+  </si>
+  <si>
+    <t>5486227</t>
+  </si>
+  <si>
+    <t>599672</t>
+  </si>
+  <si>
+    <t>6HO</t>
+  </si>
+  <si>
+    <t>Cls GrkStyl SldBl 6x300g (TAS)</t>
+  </si>
+  <si>
+    <t>599672T</t>
+  </si>
+  <si>
+    <t>Cls Grn Goddess Pot 6 x 200g</t>
+  </si>
+  <si>
+    <t>9310645349954</t>
+  </si>
+  <si>
+    <t>4509123</t>
+  </si>
+  <si>
+    <t>597010</t>
+  </si>
+  <si>
+    <t>V2G</t>
+  </si>
+  <si>
+    <t>Cls Honey Soy S/Fry 4x530g</t>
+  </si>
+  <si>
+    <t>9310645460598</t>
+  </si>
+  <si>
+    <t>9964207</t>
+  </si>
+  <si>
+    <t>570350</t>
+  </si>
+  <si>
+    <t>9GS</t>
+  </si>
+  <si>
+    <t>Cls Mor,Pmpk&amp;Cous 2x1.0Kg</t>
+  </si>
+  <si>
+    <t>19310645244683</t>
+  </si>
+  <si>
+    <t>564035</t>
+  </si>
+  <si>
+    <t>19310645244621</t>
+  </si>
+  <si>
+    <t>564095</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>9310645389806</t>
+  </si>
+  <si>
+    <t>5503520</t>
+  </si>
+  <si>
+    <t>599736</t>
+  </si>
+  <si>
+    <t>5UR</t>
+  </si>
+  <si>
+    <t>9310645099262</t>
+  </si>
+  <si>
+    <t>2088953</t>
+  </si>
+  <si>
+    <t>599737</t>
+  </si>
+  <si>
+    <t>8ML</t>
+  </si>
+  <si>
+    <t>599736T</t>
+  </si>
+  <si>
+    <t>599737T</t>
+  </si>
+  <si>
+    <t>9310645214931</t>
+  </si>
+  <si>
+    <t>3022214</t>
+  </si>
+  <si>
+    <t>599735</t>
+  </si>
+  <si>
+    <t>6JH</t>
+  </si>
+  <si>
+    <t>599735T</t>
+  </si>
+  <si>
+    <t>Cls Pesto Risoni Pot 4 x 190g</t>
+  </si>
+  <si>
+    <t>9310645446400</t>
+  </si>
+  <si>
+    <t>19310645446407</t>
+  </si>
+  <si>
+    <t>597020</t>
+  </si>
+  <si>
+    <t>1TF</t>
+  </si>
+  <si>
+    <t>Cls Pineapple REG 4 x 170g</t>
+  </si>
+  <si>
+    <t>9310645363004</t>
+  </si>
+  <si>
+    <t>19310645363001</t>
+  </si>
+  <si>
+    <t>598328</t>
+  </si>
+  <si>
+    <t>OP1</t>
+  </si>
+  <si>
+    <t>Cls Potato Egg Bacon 6 x 350g</t>
+  </si>
+  <si>
+    <t>9310645466477</t>
+  </si>
+  <si>
+    <t>8771682</t>
+  </si>
+  <si>
+    <t>599756</t>
+  </si>
+  <si>
+    <t>19310645244645</t>
+  </si>
+  <si>
+    <t>564096</t>
+  </si>
+  <si>
+    <t>9310645389820</t>
+  </si>
+  <si>
+    <t>5508035</t>
+  </si>
+  <si>
+    <t>599739</t>
+  </si>
+  <si>
+    <t>EW7</t>
+  </si>
+  <si>
+    <t>9310645099378</t>
+  </si>
+  <si>
+    <t>2086288</t>
+  </si>
+  <si>
+    <t>599740</t>
+  </si>
+  <si>
+    <t>8SM</t>
+  </si>
+  <si>
+    <t>9310645214924</t>
+  </si>
+  <si>
+    <t>3022203</t>
+  </si>
+  <si>
+    <t>599738</t>
+  </si>
+  <si>
+    <t>4TV</t>
+  </si>
+  <si>
+    <t>Cls Quinoa Tabouleh 2 x 1.0Kg</t>
+  </si>
+  <si>
+    <t>19310645244720</t>
+  </si>
+  <si>
+    <t>564037</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Cls R/Melon Slices 4 x 700g</t>
+  </si>
+  <si>
+    <t>9310645443768</t>
+  </si>
+  <si>
+    <t>7548890</t>
+  </si>
+  <si>
+    <t>598332</t>
+  </si>
+  <si>
+    <t>RA2</t>
+  </si>
+  <si>
+    <t>Cls Roast Tub 4x700g</t>
+  </si>
+  <si>
+    <t>9310645455433</t>
+  </si>
+  <si>
+    <t>8057453</t>
+  </si>
+  <si>
+    <t>570343</t>
+  </si>
+  <si>
+    <t>2NT</t>
+  </si>
+  <si>
+    <t>Cls Rock+Hdew Melon REG 6x170g</t>
+  </si>
+  <si>
+    <t>9310645362991</t>
+  </si>
+  <si>
+    <t>19310645362998</t>
+  </si>
+  <si>
+    <t>598319</t>
+  </si>
+  <si>
+    <t>HR1</t>
+  </si>
+  <si>
+    <t>Cls Ruby Slaw 6 x 300g</t>
+  </si>
+  <si>
+    <t>9310645466491</t>
+  </si>
+  <si>
+    <t>8772018</t>
+  </si>
+  <si>
+    <t>599741</t>
+  </si>
+  <si>
+    <t>FG4</t>
+  </si>
+  <si>
+    <t>Cls Seasonal Fruit REG 6x170g</t>
+  </si>
+  <si>
+    <t>9310645363011</t>
+  </si>
+  <si>
+    <t>19310645363018</t>
+  </si>
+  <si>
+    <t>598320</t>
+  </si>
+  <si>
+    <t>FO1</t>
+  </si>
+  <si>
+    <t>Cls Singapore S/Fry 4x450g</t>
+  </si>
+  <si>
+    <t>9310645460604</t>
+  </si>
+  <si>
+    <t>9964138</t>
+  </si>
+  <si>
+    <t>570349</t>
+  </si>
+  <si>
+    <t>9VG</t>
+  </si>
+  <si>
+    <t>Cls Superfood Pot 6 x 200g</t>
+  </si>
+  <si>
+    <t>9310645349961</t>
+  </si>
+  <si>
+    <t>4509190</t>
+  </si>
+  <si>
+    <t>597011</t>
+  </si>
+  <si>
+    <t>A5H</t>
+  </si>
+  <si>
+    <t>Cls W/Melon Fingers 4 x 750g</t>
+  </si>
+  <si>
+    <t>9310645443751</t>
+  </si>
+  <si>
+    <t>7548802</t>
+  </si>
+  <si>
+    <t>598331</t>
+  </si>
+  <si>
+    <t>G3E</t>
+  </si>
+  <si>
+    <t>Cls Wasabi Slaw 6 x 300g</t>
+  </si>
+  <si>
+    <t>9310645466484</t>
+  </si>
+  <si>
+    <t>8771831</t>
+  </si>
+  <si>
+    <t>599745</t>
+  </si>
+  <si>
+    <t>WD8</t>
+  </si>
+  <si>
+    <t>19335656001681</t>
+  </si>
+  <si>
+    <t>564115</t>
+  </si>
+  <si>
+    <t>ClsFK Green Goddess Sld 4x300g</t>
+  </si>
+  <si>
+    <t>9310645279930</t>
+  </si>
+  <si>
+    <t>19310645279937</t>
+  </si>
+  <si>
+    <t>599572</t>
+  </si>
+  <si>
+    <t>W1N</t>
+  </si>
+  <si>
+    <t>COLES - Carrot Sticks 150g X 6</t>
+  </si>
+  <si>
+    <t>9310645103792</t>
+  </si>
+  <si>
+    <t>2313459</t>
+  </si>
+  <si>
+    <t>515570</t>
+  </si>
+  <si>
+    <t>Coriander Sliced 3mm-Sachet15g</t>
+  </si>
+  <si>
+    <t>701650SL03S015</t>
+  </si>
+  <si>
+    <t>Coriander Sliced 5mm-Sachet30g</t>
+  </si>
+  <si>
+    <t>701650SL05S030</t>
+  </si>
+  <si>
+    <t>Cucumber Slice10mm-Sachet498g</t>
+  </si>
+  <si>
+    <t>702050SL10S498</t>
+  </si>
+  <si>
+    <t>LK Asian Bowl 6 x 250g</t>
+  </si>
+  <si>
+    <t>9339562011966</t>
+  </si>
+  <si>
+    <t>19339562013875</t>
+  </si>
+  <si>
+    <t>200454N</t>
+  </si>
+  <si>
+    <t>QJ6</t>
+  </si>
+  <si>
+    <t>LK Caesar Bowl 6 x 250g</t>
+  </si>
+  <si>
+    <t>19339562013868</t>
+  </si>
+  <si>
+    <t>200453N</t>
+  </si>
+  <si>
+    <t>LK Caesar Pasta 2 x 1.5kg</t>
+  </si>
+  <si>
+    <t>19339562013653</t>
+  </si>
+  <si>
+    <t>564092</t>
+  </si>
+  <si>
+    <t>LK Coleslaw 6 x 800g</t>
+  </si>
+  <si>
+    <t>9339562011843</t>
+  </si>
+  <si>
+    <t>19339562013622</t>
+  </si>
+  <si>
+    <t>599716</t>
+  </si>
+  <si>
+    <t>2NQ</t>
+  </si>
+  <si>
+    <t>LK Coleslaw 9 x 250g</t>
+  </si>
+  <si>
+    <t>9339562011812</t>
+  </si>
+  <si>
+    <t>19339562013578</t>
+  </si>
+  <si>
+    <t>599709</t>
+  </si>
+  <si>
+    <t>GC8</t>
+  </si>
+  <si>
+    <t>LK Coleslaw Sld 2 x 2Kg</t>
+  </si>
+  <si>
+    <t>19339562013295</t>
+  </si>
+  <si>
+    <t>599643</t>
+  </si>
+  <si>
+    <t>LK Creamy Pasta Sld 2 x 2Kg</t>
+  </si>
+  <si>
+    <t>19339562013288</t>
+  </si>
+  <si>
+    <t>599644</t>
+  </si>
+  <si>
+    <t>LK Creamy Potato Sld 2 x 2Kg</t>
+  </si>
+  <si>
+    <t>19339562013233</t>
+  </si>
+  <si>
+    <t>599640</t>
+  </si>
+  <si>
+    <t>LK Greek Sld 2 x 1Kg</t>
+  </si>
+  <si>
+    <t>19339562013530</t>
+  </si>
+  <si>
+    <t>564081</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>LK Lentil Tabbouleh 2x1.5kg</t>
+  </si>
+  <si>
+    <t>19339562013608</t>
+  </si>
+  <si>
+    <t>564089</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>LK Mac &amp; Cheese 2 x 1Kg</t>
+  </si>
+  <si>
+    <t>19339562014131</t>
+  </si>
+  <si>
+    <t>564116</t>
+  </si>
+  <si>
+    <t>LK Mac &amp; Cheese 6 x 250g</t>
+  </si>
+  <si>
+    <t>9339562012130</t>
+  </si>
+  <si>
+    <t>19339562014094</t>
+  </si>
+  <si>
+    <t>599759</t>
+  </si>
+  <si>
+    <t>W8E</t>
+  </si>
+  <si>
+    <t>LK Mex St Corn 2 x 1.5kg</t>
+  </si>
+  <si>
+    <t>19339562013615</t>
+  </si>
+  <si>
+    <t>564090</t>
+  </si>
+  <si>
+    <t>LK Pasta Salad 6 x 800g</t>
+  </si>
+  <si>
+    <t>9339562011829</t>
+  </si>
+  <si>
+    <t>19339562013585</t>
+  </si>
+  <si>
+    <t>599717</t>
+  </si>
+  <si>
+    <t>LB9</t>
+  </si>
+  <si>
+    <t>LK Pasta Salad 9 x 250g</t>
+  </si>
+  <si>
+    <t>9339562011706</t>
+  </si>
+  <si>
+    <t>19339562013554</t>
+  </si>
+  <si>
+    <t>599710</t>
+  </si>
+  <si>
+    <t>F9O</t>
+  </si>
+  <si>
+    <t>LK Pot Bacon Egg Sld 9 x 250g</t>
+  </si>
+  <si>
+    <t>9339562011782</t>
+  </si>
+  <si>
+    <t>19339562013738</t>
+  </si>
+  <si>
+    <t>599712</t>
+  </si>
+  <si>
+    <t>U6S</t>
+  </si>
+  <si>
+    <t>LK Pot,Egg &amp; Bac Sld 2x1.5Kg</t>
+  </si>
+  <si>
+    <t>19339562011918</t>
+  </si>
+  <si>
+    <t>599350</t>
+  </si>
+  <si>
+    <t>LK Potato Salad 6 x 800g</t>
+  </si>
+  <si>
+    <t>9339562011836</t>
+  </si>
+  <si>
+    <t>19339562013592</t>
+  </si>
+  <si>
+    <t>599718</t>
+  </si>
+  <si>
+    <t>QF5</t>
+  </si>
+  <si>
+    <t>LK Potato Salad 9 x 250g</t>
+  </si>
+  <si>
+    <t>9339562011775</t>
+  </si>
+  <si>
+    <t>19339562013561</t>
+  </si>
+  <si>
+    <t>599711</t>
+  </si>
+  <si>
+    <t>1JI</t>
+  </si>
+  <si>
+    <t>OliveKalamattaPitted-Sachet60g</t>
+  </si>
+  <si>
+    <t>608350S060</t>
+  </si>
+  <si>
+    <t>Onion Brown Diced 1 x 2.5 Kg</t>
+  </si>
+  <si>
+    <t>421060N</t>
+  </si>
+  <si>
+    <t>Onion Brown Diced 2 x 2.5 Kg</t>
+  </si>
+  <si>
+    <t>CRD25032300421050376550</t>
+  </si>
+  <si>
+    <t>421050</t>
+  </si>
+  <si>
+    <t>Onion Brown Diced 5mm 2kg x 2</t>
+  </si>
+  <si>
+    <t>420325</t>
+  </si>
+  <si>
+    <t>Onion Brown Sliced 5mm 2x2kg</t>
+  </si>
+  <si>
+    <t>CRD25032200420450376491</t>
+  </si>
+  <si>
+    <t>420450</t>
+  </si>
+  <si>
+    <t>OnionSpanishSlice6mmSachet100g</t>
+  </si>
+  <si>
+    <t>703550SL05S100</t>
+  </si>
+  <si>
+    <t>Parsley -MixSlice5mm Sach160g</t>
+  </si>
+  <si>
+    <t>704000SL05MXS160</t>
+  </si>
+  <si>
+    <t>Parsley-Chopped 2 x 160g</t>
+  </si>
+  <si>
+    <t>460002</t>
+  </si>
+  <si>
+    <t>ParsleyContSl7-8mm-Sachet330g</t>
+  </si>
+  <si>
+    <t>704000SL08S330</t>
+  </si>
+  <si>
+    <t>ParsleyContSlice5mm-Sachet105g</t>
+  </si>
+  <si>
+    <t>704000SL05S105</t>
+  </si>
+  <si>
+    <t>PMF Broot,Ftta&amp;Walnut 6x400g</t>
+  </si>
+  <si>
+    <t>9310645466514</t>
+  </si>
+  <si>
+    <t>8772211</t>
+  </si>
+  <si>
+    <t>599754</t>
+  </si>
+  <si>
+    <t>Q7W</t>
+  </si>
+  <si>
+    <t>PMF Caps GrnStrps 2x2.5Kg(TAS)</t>
+  </si>
+  <si>
+    <t>19339562008208</t>
+  </si>
+  <si>
+    <t>400400T</t>
+  </si>
+  <si>
+    <t>PMF Capsicum Grn Strps 1x2.5Kg</t>
+  </si>
+  <si>
+    <t>400410N</t>
+  </si>
+  <si>
+    <t>PMF Capsicum Grn Strps 2x2.5Kg</t>
+  </si>
+  <si>
+    <t>400400</t>
+  </si>
+  <si>
+    <t>PMF Mix Grain Tabouleh 1.5kgx2</t>
+  </si>
+  <si>
+    <t>19339562011925</t>
+  </si>
+  <si>
+    <t>599367</t>
+  </si>
+  <si>
+    <t>PMF Onion Red Sliced 5mm 2x2Kg</t>
+  </si>
+  <si>
+    <t>CRD13091000420900000325</t>
+  </si>
+  <si>
+    <t>420900</t>
+  </si>
+  <si>
+    <t>PMF Rainbow Crnch 6x350g SA</t>
+  </si>
+  <si>
+    <t>9310645466507</t>
+  </si>
+  <si>
+    <t>8772197</t>
+  </si>
+  <si>
+    <t>599753S</t>
+  </si>
+  <si>
+    <t>R6M</t>
+  </si>
+  <si>
+    <t>PMF Rainbow Crnch 6x350g TAS</t>
+  </si>
+  <si>
+    <t>599753T</t>
+  </si>
+  <si>
+    <t>PMF Rainbow Crnch Sld 6x350g</t>
+  </si>
+  <si>
+    <t>599753</t>
+  </si>
+  <si>
+    <t>PMF Shallots Sliced 3mm 4x250g</t>
+  </si>
+  <si>
+    <t>420620</t>
+  </si>
+  <si>
+    <t>PMF Tomato Diced 10mm 1x2.5Kg</t>
+  </si>
+  <si>
+    <t>430800N</t>
+  </si>
+  <si>
+    <t>PMF Tomato Diced 10mm 2x2.5Kg</t>
+  </si>
+  <si>
+    <t>402800</t>
+  </si>
+  <si>
+    <t>PMF TomDcd 10mm 2x2.5Kg (TAS)</t>
+  </si>
+  <si>
+    <t>402800T</t>
+  </si>
+  <si>
+    <t>PMF Ultimate Pasta 6x600g SA</t>
+  </si>
+  <si>
+    <t>9310645466804</t>
+  </si>
+  <si>
+    <t>8772222</t>
+  </si>
+  <si>
+    <t>599755S</t>
+  </si>
+  <si>
+    <t>T2F</t>
+  </si>
+  <si>
+    <t>PMF Ultimate Pasta 6x600g TAS</t>
+  </si>
+  <si>
+    <t>599755T</t>
+  </si>
+  <si>
+    <t>PMF Ultimate Pasta Sld 6x600g</t>
+  </si>
+  <si>
+    <t>599755</t>
+  </si>
+  <si>
+    <t>Qts Dom Beef Kale Tab 12x260g</t>
+  </si>
+  <si>
+    <t>599783</t>
+  </si>
+  <si>
+    <t>Qts Dom Chkn Pesto 12 x 250g</t>
+  </si>
+  <si>
+    <t>599784</t>
+  </si>
+  <si>
+    <t>Qts Dom Jap Poke Sld 12 x 260g</t>
+  </si>
+  <si>
+    <t>599785</t>
+  </si>
+  <si>
+    <t>Qts Int Beef Sharw 12x300g</t>
+  </si>
+  <si>
+    <t>599786</t>
+  </si>
+  <si>
+    <t>Qts Int Jap Poke 12x300g</t>
+  </si>
+  <si>
+    <t>599788</t>
+  </si>
+  <si>
+    <t>SF Tabouleh Quinoa 8 x 200g</t>
+  </si>
+  <si>
+    <t>9310645391076</t>
+  </si>
+  <si>
+    <t>5518924</t>
+  </si>
+  <si>
+    <t>599677</t>
+  </si>
+  <si>
+    <t>EF1</t>
+  </si>
+  <si>
+    <t>Shallots Slice 5mm-Sachet 45g</t>
+  </si>
+  <si>
+    <t>704750SL05S045</t>
+  </si>
+  <si>
+    <t>WW Asian Sld Bowl 6 x 250g</t>
+  </si>
+  <si>
+    <t>9300633145484</t>
+  </si>
+  <si>
+    <t>19339687238641</t>
+  </si>
+  <si>
+    <t>200253N</t>
+  </si>
+  <si>
+    <t>ND2</t>
+  </si>
+  <si>
+    <t>9339687265442</t>
+  </si>
+  <si>
+    <t>19339687265449</t>
+  </si>
+  <si>
+    <t>200484N</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9339687343768</t>
+  </si>
+  <si>
+    <t>19339687343765</t>
+  </si>
+  <si>
+    <t>563283</t>
+  </si>
+  <si>
+    <t>BPP</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9339687354382</t>
+  </si>
+  <si>
+    <t>19339687354389</t>
+  </si>
+  <si>
+    <t>563277</t>
+  </si>
+  <si>
+    <t>WW7</t>
+  </si>
+  <si>
+    <t>WW BasPestoKit 4x400g (Tas&amp;SA)</t>
+  </si>
+  <si>
+    <t>563283T</t>
+  </si>
+  <si>
+    <t>9339687265411</t>
+  </si>
+  <si>
+    <t>19339687265418</t>
+  </si>
+  <si>
+    <t>200487N</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>WW Caesar Bowl 6 x 250g</t>
+  </si>
+  <si>
+    <t>9300633098315</t>
+  </si>
+  <si>
+    <t>19339687238634</t>
+  </si>
+  <si>
+    <t>200214N</t>
+  </si>
+  <si>
+    <t>V6V</t>
+  </si>
+  <si>
+    <t>WW Cheesey Mac Sld 8 x 350g</t>
+  </si>
+  <si>
+    <t>9339687343812</t>
+  </si>
+  <si>
+    <t>19339687343819</t>
+  </si>
+  <si>
+    <t>563245</t>
+  </si>
+  <si>
+    <t>3AU</t>
+  </si>
+  <si>
+    <t>WW Ckn Caesar Bwl (Ins) 6x180g</t>
+  </si>
+  <si>
+    <t>9300633683542</t>
+  </si>
+  <si>
+    <t>19300633683549</t>
+  </si>
+  <si>
+    <t>200275N</t>
+  </si>
+  <si>
+    <t>M9T</t>
+  </si>
+  <si>
+    <t>9339687265428</t>
+  </si>
+  <si>
+    <t>19339687265425</t>
+  </si>
+  <si>
+    <t>200486N</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>19300633699496</t>
+  </si>
+  <si>
+    <t>563250</t>
+  </si>
+  <si>
+    <t>CS0</t>
+  </si>
+  <si>
+    <t>9300633626501</t>
+  </si>
+  <si>
+    <t>19300633626508</t>
+  </si>
+  <si>
+    <t>563251</t>
+  </si>
+  <si>
+    <t>R4D</t>
+  </si>
+  <si>
+    <t>9300633225674</t>
+  </si>
+  <si>
+    <t>19300633225923</t>
+  </si>
+  <si>
+    <t>563252</t>
+  </si>
+  <si>
+    <t>8HL</t>
+  </si>
+  <si>
+    <t>9300633987015</t>
+  </si>
+  <si>
+    <t>19300633994669</t>
+  </si>
+  <si>
+    <t>563253</t>
+  </si>
+  <si>
+    <t>1KH</t>
+  </si>
+  <si>
+    <t>9339687343782</t>
+  </si>
+  <si>
+    <t>19339687343789</t>
+  </si>
+  <si>
+    <t>563284</t>
+  </si>
+  <si>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>9339687265435</t>
+  </si>
+  <si>
+    <t>19339687265432</t>
+  </si>
+  <si>
+    <t>200485N</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>WW Grain Tableh 6x250g (Tas)</t>
+  </si>
+  <si>
+    <t>9339687357932</t>
+  </si>
+  <si>
+    <t>19339687357939</t>
+  </si>
+  <si>
+    <t>563276T</t>
+  </si>
+  <si>
+    <t>GH8</t>
+  </si>
+  <si>
+    <t>563276</t>
+  </si>
+  <si>
+    <t>9339687343751</t>
+  </si>
+  <si>
+    <t>19339687343758</t>
+  </si>
+  <si>
+    <t>GSK</t>
+  </si>
+  <si>
+    <t>WW Grn Gdness Bwl (Ins) 6x240g</t>
+  </si>
+  <si>
+    <t>9339687106080</t>
+  </si>
+  <si>
+    <t>19339687106087</t>
+  </si>
+  <si>
+    <t>200274N</t>
+  </si>
+  <si>
+    <t>A1M</t>
+  </si>
+  <si>
+    <t>WW Mexcn SldBwl 6x220g (TAS)</t>
+  </si>
+  <si>
+    <t>9339687265459</t>
+  </si>
+  <si>
+    <t>19339687265456</t>
+  </si>
+  <si>
+    <t>200488T</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>200488N</t>
+  </si>
+  <si>
+    <t>WW Mixed Rainbow Veg 6 x 750g</t>
+  </si>
+  <si>
+    <t>9339687257256</t>
+  </si>
+  <si>
+    <t>19339687257253</t>
+  </si>
+  <si>
+    <t>200372N</t>
+  </si>
+  <si>
+    <t>WW Mxd Rainbw Veg 6 x 750g-TAS</t>
+  </si>
+  <si>
+    <t>200372T</t>
+  </si>
+  <si>
+    <t>19339687212085</t>
+  </si>
+  <si>
+    <t>563270</t>
+  </si>
+  <si>
+    <t>1PS</t>
+  </si>
+  <si>
+    <t>9300633626525</t>
+  </si>
+  <si>
+    <t>19300633626522</t>
+  </si>
+  <si>
+    <t>563271</t>
+  </si>
+  <si>
+    <t>2PS</t>
+  </si>
+  <si>
+    <t>9300633731151</t>
+  </si>
+  <si>
+    <t>19300633731158</t>
+  </si>
+  <si>
+    <t>563272</t>
+  </si>
+  <si>
+    <t>4SP</t>
+  </si>
+  <si>
+    <t>9300633731168</t>
+  </si>
+  <si>
+    <t>19300633731165</t>
+  </si>
+  <si>
+    <t>563273</t>
+  </si>
+  <si>
+    <t>8SP</t>
+  </si>
+  <si>
+    <t>WW Pot, Egg &amp; Bac 6 x 350g</t>
+  </si>
+  <si>
+    <t>9339687343737</t>
+  </si>
+  <si>
+    <t>19339687343734</t>
+  </si>
+  <si>
+    <t>563280</t>
+  </si>
+  <si>
+    <t>WW Pot, Egg &amp; Bac 6 x 750g</t>
+  </si>
+  <si>
+    <t>9339687343744</t>
+  </si>
+  <si>
+    <t>19339687343741</t>
+  </si>
+  <si>
+    <t>563281</t>
+  </si>
+  <si>
+    <t>9300633626518</t>
+  </si>
+  <si>
+    <t>19300633626515</t>
+  </si>
+  <si>
+    <t>563260</t>
+  </si>
+  <si>
+    <t>S2E</t>
+  </si>
+  <si>
+    <t>9300633731175</t>
+  </si>
+  <si>
+    <t>19300633731172</t>
+  </si>
+  <si>
+    <t>563261</t>
+  </si>
+  <si>
+    <t>JE5</t>
+  </si>
+  <si>
+    <t>9300633731182</t>
+  </si>
+  <si>
+    <t>19300633731189</t>
+  </si>
+  <si>
+    <t>563262</t>
+  </si>
+  <si>
+    <t>8RF</t>
+  </si>
+  <si>
+    <t>563270T</t>
+  </si>
+  <si>
+    <t>563271T</t>
+  </si>
+  <si>
+    <t>563272T</t>
+  </si>
+  <si>
+    <t>563273T</t>
+  </si>
+  <si>
+    <t>WW Veg Medley 8 x 150g</t>
+  </si>
+  <si>
+    <t>9339687257195</t>
+  </si>
+  <si>
+    <t>19339687257192</t>
+  </si>
+  <si>
+    <t>200371N</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>WW Basil Pesto 6x250g</t>
+  </si>
+  <si>
+    <t>WW Bas PestoKit 4x400g</t>
+  </si>
+  <si>
+    <t>WW AsnStySldBwl6x230g</t>
+  </si>
+  <si>
+    <t>WW Broot&amp;FetaBwl6x200g</t>
+  </si>
+  <si>
+    <t>WW Cobb Sld Bwl 6x240g</t>
+  </si>
+  <si>
+    <t>WW Csar PstaKit 4x400g</t>
+  </si>
+  <si>
+    <t>WW Csar SldBwl 6x200g</t>
+  </si>
+  <si>
+    <t>WW Grain Tableh 6x250g</t>
+  </si>
+  <si>
+    <t>WW Greek Kit 4 x 400g</t>
+  </si>
+  <si>
+    <t>WW Mexcn SldBwl 6x220g</t>
+  </si>
+  <si>
+    <t>Cls Pasta Sld 2 x 1Kg</t>
+  </si>
+  <si>
+    <t>Cls Coleslaw 2 x 1Kg</t>
+  </si>
+  <si>
+    <t>Cls Coleslaw 6 x 400g</t>
+  </si>
+  <si>
+    <t>Cls Coleslaw 6 x 800g</t>
+  </si>
+  <si>
+    <t>Cls Coleslaw 8 x 250g</t>
+  </si>
+  <si>
+    <t>Cls Pasta Sld 6 x 400g</t>
+  </si>
+  <si>
+    <t>Cls Pasta Sld 6 x 800g</t>
+  </si>
+  <si>
+    <t>Cls Pasta Sld 6x400g(TAS)</t>
+  </si>
+  <si>
+    <t>Cls Pasta Sld 6x800g(TAS)</t>
+  </si>
+  <si>
+    <t>Cls Pasta Sld 8 x 250g</t>
+  </si>
+  <si>
+    <t>Cls Pasta Sld 8x250g(TAS)</t>
+  </si>
+  <si>
+    <t>Cls Potato Sld 2 x 1Kg</t>
+  </si>
+  <si>
+    <t>Cls Potato Sld 6 x 400g</t>
+  </si>
+  <si>
+    <t>Cls Potato Sld 6 x 800g</t>
+  </si>
+  <si>
+    <t>Cls Potato Sld 8 x 250g</t>
+  </si>
+  <si>
+    <t>Cls Greek Salad 2 x 1Kg</t>
+  </si>
+  <si>
+    <t>Cls YLC SeafdSld 3x1kg</t>
+  </si>
+  <si>
+    <t>WW Coleslaw 12 x 110g</t>
+  </si>
+  <si>
+    <t>WW Coleslaw 6 x 250g</t>
+  </si>
+  <si>
+    <t>WW Coleslaw 6 x 400g</t>
+  </si>
+  <si>
+    <t>WW Coleslaw 6 x 800g</t>
+  </si>
+  <si>
+    <t>WW Pasta Sld 12 x 110g</t>
+  </si>
+  <si>
+    <t>WW Pasta Sld 6 x 250g</t>
+  </si>
+  <si>
+    <t>WW Pasta Sld 6 x 400g</t>
+  </si>
+  <si>
+    <t>WW Pasta Sld 6 x 800g</t>
+  </si>
+  <si>
+    <t>WW Potato Sld 6 x 250g</t>
+  </si>
+  <si>
+    <t>WW Potato Sld 6 x 400g</t>
+  </si>
+  <si>
+    <t>WW Potato Sld 6 x 800g</t>
+  </si>
+  <si>
+    <t>WW Psta Sld 12x110g (TAS)</t>
+  </si>
+  <si>
+    <t>WW Psta Sld 6x250g (TAS)</t>
+  </si>
+  <si>
+    <t>WW Psta Sld 6x400g (TAS)</t>
+  </si>
+  <si>
+    <t>WW Psta Sld 6x800g (TAS)</t>
+  </si>
+  <si>
+    <t>9PW</t>
+  </si>
+  <si>
+    <t>7HM</t>
+  </si>
+  <si>
+    <t>LK Tabbouleh Sld 8 x 290g</t>
+  </si>
+  <si>
+    <t>599792</t>
+  </si>
+  <si>
+    <t>LK Tabbouleh Sld 8 x 290g (TAS)</t>
+  </si>
+  <si>
+    <t>599792T</t>
+  </si>
+  <si>
+    <t>19339562014230</t>
+  </si>
+  <si>
+    <t>E2G</t>
+  </si>
+  <si>
+    <t>9339562012192</t>
+  </si>
+  <si>
+    <t>5PS</t>
+  </si>
+  <si>
+    <t>J7C</t>
+  </si>
+  <si>
+    <t>HL9</t>
+  </si>
+  <si>
+    <t>599807</t>
+  </si>
+  <si>
+    <t>3MD</t>
+  </si>
+  <si>
+    <t>Cls Crmy Basil Pasta 6x700g</t>
+  </si>
+  <si>
+    <t>9310645484730</t>
+  </si>
+  <si>
+    <t>1311913</t>
+  </si>
+  <si>
+    <t>K3C</t>
+  </si>
+  <si>
+    <t>WW Mexican Style Slaw 250gx6</t>
+  </si>
+  <si>
+    <t>563290</t>
+  </si>
+  <si>
+    <t>T4K</t>
+  </si>
+  <si>
+    <t>9339687425990</t>
+  </si>
+  <si>
+    <t>19339687425997</t>
+  </si>
+  <si>
+    <t>563291</t>
+  </si>
+  <si>
+    <t>563289</t>
+  </si>
+  <si>
+    <t>WW BBQ Potato Salad 400gx8</t>
+  </si>
+  <si>
+    <t>9339687426010</t>
+  </si>
+  <si>
+    <t>19339687426017</t>
+  </si>
+  <si>
+    <t>3TK</t>
+  </si>
+  <si>
+    <t>WW Creamy Rench Pasta Salad 350gx8</t>
+  </si>
+  <si>
+    <t>19339687426000</t>
+  </si>
+  <si>
+    <t>9339687426003</t>
+  </si>
+  <si>
+    <t>WW Mexican Style Slaw 250gx6 (TAS)</t>
+  </si>
+  <si>
+    <t>563290T</t>
+  </si>
+  <si>
+    <t>FV6</t>
+  </si>
+  <si>
+    <t>599800</t>
+  </si>
+  <si>
+    <t>Cls Potato Egg &amp; Bacon 6x650g</t>
+  </si>
+  <si>
+    <t>9310645484693</t>
+  </si>
+  <si>
+    <t>1310397</t>
+  </si>
+  <si>
+    <t>RK1</t>
+  </si>
+  <si>
+    <t>93518918</t>
+  </si>
+  <si>
+    <t>93519007</t>
   </si>
 </sst>
 </file>
@@ -491,10 +2405,10 @@
   <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD164"/>
+      <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -533,1797 +2447,3701 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="17.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="I2" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="17.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I3" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="17.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I4" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="17.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="17.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I6" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="17.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I7" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="17.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I8" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="17.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I9" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="17.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="17.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="17.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="17.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="17.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="17.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="17.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="17.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="17.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="17.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="17.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="17.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="I21" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="17.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="17.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="I23" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="17.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="I24" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="17.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="17.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="I26" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="17.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="I27" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="17.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="I28" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="17.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>586</v>
+      </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="H29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="17.25">
-      <c r="A30" s="6"/>
+      <c r="A30" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="H30" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="17.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="I31" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="17.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="I32" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="17.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="I33" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="17.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="I34" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="17.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="H35" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="17.25">
-      <c r="A36" s="4"/>
+      <c r="A36" s="4" t="s">
+        <v>571</v>
+      </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
+      <c r="H36" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="17.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I37" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="17.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I38" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="17.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
+      <c r="A39" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I39" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="17.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I40" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="17.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
+      <c r="A41" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I41" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="42" spans="1:9" ht="17.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
+      <c r="A42" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I42" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="17.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="I43" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="17.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
+      <c r="A44" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
+      <c r="E44" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
+      <c r="I44" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="17.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
+      <c r="A45" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="I45" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="17.25">
-      <c r="A46" s="6"/>
+      <c r="A46" s="6" t="s">
+        <v>582</v>
+      </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="H46" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I46" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="47" spans="1:9" ht="17.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="5"/>
+      <c r="A47" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I47" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="17.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="5"/>
+      <c r="A48" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I48" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="49" spans="1:9" ht="17.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="5"/>
+      <c r="A49" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I49" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="50" spans="1:9" ht="17.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="5"/>
+      <c r="A50" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>640</v>
+      </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="I50" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="51" spans="1:9" ht="17.25">
-      <c r="A51" s="4"/>
+      <c r="A51" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
+      <c r="H51" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I51" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="17.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
+      <c r="A52" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="I52" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="53" spans="1:9" ht="17.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
+      <c r="A53" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
+      <c r="I53" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="54" spans="1:9" ht="17.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5"/>
+      <c r="A54" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
+      <c r="I54" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="17.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5"/>
+      <c r="A55" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I55" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="56" spans="1:9" ht="17.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
+      <c r="A56" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
+      <c r="E56" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
+      <c r="I56" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="57" spans="1:9" ht="17.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="5"/>
+      <c r="A57" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
+      <c r="I57" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="58" spans="1:9" ht="17.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
+      <c r="A58" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
+      <c r="I58" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="59" spans="1:9" ht="17.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5"/>
+      <c r="A59" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
+      <c r="I59" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="60" spans="1:9" ht="17.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
+      <c r="A60" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>244</v>
+      </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I60" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="61" spans="1:9" ht="17.25">
-      <c r="A61" s="4"/>
+      <c r="A61" s="4" t="s">
+        <v>587</v>
+      </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="E61" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>249</v>
+      </c>
       <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
+      <c r="H61" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I61" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="62" spans="1:9" ht="17.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="8" t="s">
+        <v>617</v>
+      </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="9"/>
+      <c r="D62" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="63" spans="1:9" ht="17.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="5"/>
+      <c r="A63" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>251</v>
+      </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
+      <c r="I63" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="64" spans="1:9" ht="17.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
+      <c r="A64" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I64" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="65" spans="1:9" ht="17.25">
-      <c r="A65" s="4"/>
+      <c r="A65" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
+      <c r="F65" s="5" t="s">
+        <v>260</v>
+      </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
+      <c r="I65" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="66" spans="1:9" ht="17.25">
-      <c r="A66" s="4"/>
+      <c r="A66" s="4" t="s">
+        <v>261</v>
+      </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
+      <c r="F66" s="5" t="s">
+        <v>262</v>
+      </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
+      <c r="I66" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="67" spans="1:9" ht="17.25">
-      <c r="A67" s="4"/>
+      <c r="A67" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
+      <c r="F67" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
+      <c r="I67" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="68" spans="1:9" ht="17.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="5"/>
+      <c r="A68" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>266</v>
+      </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
+      <c r="E68" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
+      <c r="I68" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="17.25">
-      <c r="A69" s="4"/>
+      <c r="A69" s="4" t="s">
+        <v>270</v>
+      </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
+      <c r="E69" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>272</v>
+      </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
+      <c r="I69" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="70" spans="1:9" ht="17.25">
-      <c r="A70" s="4"/>
+      <c r="A70" s="4" t="s">
+        <v>273</v>
+      </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
+      <c r="E70" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>275</v>
+      </c>
       <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
+      <c r="H70" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I70" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="71" spans="1:9" ht="17.25">
-      <c r="A71" s="6"/>
+      <c r="A71" s="6" t="s">
+        <v>276</v>
+      </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
+      <c r="D71" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I71" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="72" spans="1:9" ht="17.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="5"/>
+      <c r="A72" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
+      <c r="E72" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I72" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="73" spans="1:9" ht="17.25">
-      <c r="A73" s="6"/>
+      <c r="A73" s="6" t="s">
+        <v>286</v>
+      </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
+      <c r="E73" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>288</v>
+      </c>
       <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
+      <c r="H73" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I73" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="74" spans="1:9" ht="17.25">
-      <c r="A74" s="4"/>
+      <c r="A74" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
+      <c r="E74" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>291</v>
+      </c>
       <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
+      <c r="H74" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I74" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="75" spans="1:9" ht="17.25">
-      <c r="A75" s="6"/>
+      <c r="A75" s="6" t="s">
+        <v>292</v>
+      </c>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
+      <c r="E75" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>294</v>
+      </c>
       <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
+      <c r="H75" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I75" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="76" spans="1:9" ht="17.25">
-      <c r="A76" s="4"/>
+      <c r="A76" s="4" t="s">
+        <v>295</v>
+      </c>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
+      <c r="E76" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
+      <c r="H76" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="I76" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="77" spans="1:9" ht="17.25">
-      <c r="A77" s="4"/>
+      <c r="A77" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
+      <c r="E77" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
+      <c r="H77" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="I77" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="78" spans="1:9" ht="17.25">
-      <c r="A78" s="4"/>
+      <c r="A78" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
+      <c r="E78" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
+      <c r="H78" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="79" spans="1:9" ht="17.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="5"/>
+      <c r="A79" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
+      <c r="E79" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="80" spans="1:9" ht="17.25">
-      <c r="A80" s="4"/>
+      <c r="A80" s="4" t="s">
+        <v>311</v>
+      </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
+      <c r="E80" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>313</v>
+      </c>
       <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
+      <c r="H80" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="I80" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="81" spans="1:9" ht="17.25">
-      <c r="A81" s="4"/>
+      <c r="A81" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
+      <c r="D81" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I81" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="17.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="5"/>
+      <c r="A82" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>320</v>
+      </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
+      <c r="E82" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I82" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="17.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="5"/>
+      <c r="A83" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>325</v>
+      </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
+      <c r="E83" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="I83" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="84" spans="1:9" ht="17.25">
-      <c r="A84" s="4"/>
+      <c r="A84" s="4" t="s">
+        <v>329</v>
+      </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
+      <c r="E84" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>331</v>
+      </c>
       <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
+      <c r="H84" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="I84" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="17.25">
-      <c r="A85" s="6"/>
+      <c r="A85" s="6" t="s">
+        <v>332</v>
+      </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
+      <c r="D85" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I85" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="17.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="5"/>
+      <c r="A86" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>338</v>
+      </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
+      <c r="E86" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I86" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="87" spans="1:9" ht="17.25">
-      <c r="A87" s="7"/>
-      <c r="B87" s="5"/>
+      <c r="A87" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>611</v>
+      </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
+      <c r="E87" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I87" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="88" spans="1:9" ht="17.25">
-      <c r="A88" s="7"/>
-      <c r="B88" s="5"/>
+      <c r="A88" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>611</v>
+      </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
+      <c r="E88" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I88" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="17.25">
-      <c r="A89" s="4"/>
+      <c r="A89" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
+      <c r="F89" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
+      <c r="I89" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="90" spans="1:9" ht="17.25">
-      <c r="A90" s="4"/>
+      <c r="A90" s="4" t="s">
+        <v>344</v>
+      </c>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
+      <c r="F90" s="5" t="s">
+        <v>345</v>
+      </c>
       <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
+      <c r="H90" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I90" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="17.25">
-      <c r="A91" s="4"/>
+      <c r="A91" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
+      <c r="E91" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>348</v>
+      </c>
       <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
+      <c r="H91" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I91" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="17.25">
-      <c r="A92" s="6"/>
+      <c r="A92" s="6" t="s">
+        <v>349</v>
+      </c>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
+      <c r="F92" s="5" t="s">
+        <v>350</v>
+      </c>
       <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
+      <c r="H92" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I92" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="17.25">
-      <c r="A93" s="6"/>
+      <c r="A93" s="6" t="s">
+        <v>351</v>
+      </c>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
+      <c r="E93" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>353</v>
+      </c>
       <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
+      <c r="H93" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I93" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="94" spans="1:9" ht="17.25">
-      <c r="A94" s="4"/>
+      <c r="A94" s="4" t="s">
+        <v>354</v>
+      </c>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
+      <c r="F94" s="5" t="s">
+        <v>355</v>
+      </c>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
+      <c r="I94" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="95" spans="1:9" ht="17.25">
-      <c r="A95" s="4"/>
+      <c r="A95" s="4" t="s">
+        <v>356</v>
+      </c>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
+      <c r="F95" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
+      <c r="I95" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="96" spans="1:9" ht="17.25">
-      <c r="A96" s="4"/>
+      <c r="A96" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
+      <c r="F96" s="5" t="s">
+        <v>359</v>
+      </c>
       <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
+      <c r="H96" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I96" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="97" spans="1:9" ht="17.25">
-      <c r="A97" s="4"/>
+      <c r="A97" s="4" t="s">
+        <v>360</v>
+      </c>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
+      <c r="F97" s="5" t="s">
+        <v>361</v>
+      </c>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
+      <c r="I97" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="98" spans="1:9" ht="17.25">
-      <c r="A98" s="4"/>
+      <c r="A98" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
+      <c r="F98" s="5" t="s">
+        <v>363</v>
+      </c>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
+      <c r="I98" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="17.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="5"/>
+      <c r="A99" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>365</v>
+      </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
+      <c r="E99" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>368</v>
+      </c>
       <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
+      <c r="I99" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="100" spans="1:9" ht="17.25">
-      <c r="A100" s="4"/>
+      <c r="A100" s="4" t="s">
+        <v>369</v>
+      </c>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
+      <c r="E100" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>371</v>
+      </c>
       <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
+      <c r="H100" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I100" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="17.25">
-      <c r="A101" s="4"/>
+      <c r="A101" s="4" t="s">
+        <v>372</v>
+      </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
+      <c r="F101" s="5" t="s">
+        <v>373</v>
+      </c>
       <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
+      <c r="H101" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I101" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="102" spans="1:9" ht="17.25">
-      <c r="A102" s="4"/>
+      <c r="A102" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
+      <c r="E102" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>375</v>
+      </c>
       <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
+      <c r="H102" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I102" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="17.25">
-      <c r="A103" s="4"/>
+      <c r="A103" s="4" t="s">
+        <v>376</v>
+      </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
+      <c r="E103" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>378</v>
+      </c>
       <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
+      <c r="H103" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="I103" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="104" spans="1:9" ht="17.25">
-      <c r="A104" s="4"/>
+      <c r="A104" s="4" t="s">
+        <v>379</v>
+      </c>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
+      <c r="E104" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
+      <c r="H104" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I104" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="105" spans="1:9" ht="17.25">
-      <c r="A105" s="4"/>
-      <c r="B105" s="5"/>
+      <c r="A105" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>383</v>
+      </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
+      <c r="E105" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>386</v>
+      </c>
       <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
+      <c r="I105" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="106" spans="1:9" ht="17.25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="5"/>
+      <c r="A106" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>383</v>
+      </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
+      <c r="E106" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>386</v>
+      </c>
       <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
+      <c r="I106" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="107" spans="1:9" ht="17.25">
-      <c r="A107" s="4"/>
-      <c r="B107" s="5"/>
+      <c r="A107" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>383</v>
+      </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
+      <c r="E107" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>386</v>
+      </c>
       <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
+      <c r="I107" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="108" spans="1:9" ht="17.25">
-      <c r="A108" s="4"/>
+      <c r="A108" s="4" t="s">
+        <v>391</v>
+      </c>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
+      <c r="F108" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
+      <c r="H108" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="I108" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="109" spans="1:9" ht="17.25">
-      <c r="A109" s="4"/>
+      <c r="A109" s="4" t="s">
+        <v>393</v>
+      </c>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
+      <c r="F109" s="5" t="s">
+        <v>394</v>
+      </c>
       <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
+      <c r="H109" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I109" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="110" spans="1:9" ht="17.25">
-      <c r="A110" s="4"/>
+      <c r="A110" s="4" t="s">
+        <v>395</v>
+      </c>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
+      <c r="F110" s="5" t="s">
+        <v>396</v>
+      </c>
       <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
+      <c r="H110" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I110" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="111" spans="1:9" ht="17.25">
-      <c r="A111" s="4"/>
+      <c r="A111" s="4" t="s">
+        <v>397</v>
+      </c>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
+      <c r="F111" s="5" t="s">
+        <v>398</v>
+      </c>
       <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
+      <c r="H111" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I111" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="112" spans="1:9" ht="17.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="5"/>
+      <c r="A112" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>400</v>
+      </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
+      <c r="E112" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>403</v>
+      </c>
       <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
+      <c r="I112" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="113" spans="1:9" ht="17.25">
-      <c r="A113" s="4"/>
-      <c r="B113" s="5"/>
+      <c r="A113" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>400</v>
+      </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
+      <c r="E113" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>403</v>
+      </c>
       <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
+      <c r="I113" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="114" spans="1:9" ht="17.25">
-      <c r="A114" s="4"/>
-      <c r="B114" s="5"/>
+      <c r="A114" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>400</v>
+      </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
+      <c r="E114" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>403</v>
+      </c>
       <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
+      <c r="I114" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="115" spans="1:9" ht="17.25">
-      <c r="A115" s="4"/>
+      <c r="A115" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
+      <c r="F115" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
+      <c r="I115" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="116" spans="1:9" ht="17.25">
-      <c r="A116" s="4"/>
+      <c r="A116" s="4" t="s">
+        <v>410</v>
+      </c>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
+      <c r="F116" s="5" t="s">
+        <v>411</v>
+      </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
+      <c r="I116" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="117" spans="1:9" ht="17.25">
-      <c r="A117" s="4"/>
+      <c r="A117" s="4" t="s">
+        <v>412</v>
+      </c>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
+      <c r="F117" s="5" t="s">
+        <v>413</v>
+      </c>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
+      <c r="I117" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="118" spans="1:9" ht="17.25">
-      <c r="A118" s="4"/>
+      <c r="A118" s="4" t="s">
+        <v>414</v>
+      </c>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
+      <c r="F118" s="5" t="s">
+        <v>415</v>
+      </c>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
+      <c r="I118" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="119" spans="1:9" ht="17.25">
-      <c r="A119" s="4"/>
+      <c r="A119" s="4" t="s">
+        <v>416</v>
+      </c>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
+      <c r="F119" s="5" t="s">
+        <v>417</v>
+      </c>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
+      <c r="I119" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="120" spans="1:9" ht="17.25">
-      <c r="A120" s="4"/>
-      <c r="B120" s="5"/>
+      <c r="A120" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>419</v>
+      </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
+      <c r="E120" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I120" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="121" spans="1:9" ht="17.25">
-      <c r="A121" s="4"/>
+      <c r="A121" s="4" t="s">
+        <v>423</v>
+      </c>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
+      <c r="F121" s="5" t="s">
+        <v>424</v>
+      </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
+      <c r="I121" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="122" spans="1:9" ht="17.25">
-      <c r="A122" s="4"/>
-      <c r="B122" s="5"/>
+      <c r="A122" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>426</v>
+      </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
+      <c r="E122" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>429</v>
+      </c>
       <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
+      <c r="I122" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="123" spans="1:9" ht="17.25">
-      <c r="A123" s="4"/>
-      <c r="B123" s="5"/>
+      <c r="A123" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>430</v>
+      </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
+      <c r="E123" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>433</v>
+      </c>
       <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
+      <c r="I123" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="124" spans="1:9" ht="17.25">
-      <c r="A124" s="4"/>
-      <c r="B124" s="5"/>
+      <c r="A124" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>434</v>
+      </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
+      <c r="E124" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I124" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="125" spans="1:9" ht="17.25">
-      <c r="A125" s="4"/>
-      <c r="B125" s="5"/>
+      <c r="A125" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>439</v>
+      </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
+      <c r="E125" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I125" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="126" spans="1:9" ht="17.25">
-      <c r="A126" s="4"/>
-      <c r="B126" s="5"/>
+      <c r="A126" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>434</v>
+      </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
+      <c r="E126" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I126" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="127" spans="1:9" ht="17.25">
-      <c r="A127" s="4"/>
-      <c r="B127" s="5"/>
+      <c r="A127" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>445</v>
+      </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
+      <c r="E127" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>448</v>
+      </c>
       <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
+      <c r="I127" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="128" spans="1:9" ht="17.25">
-      <c r="A128" s="4"/>
-      <c r="B128" s="5"/>
+      <c r="A128" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>450</v>
+      </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
+      <c r="E128" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>453</v>
+      </c>
       <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
+      <c r="I128" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="129" spans="1:9" ht="17.25">
-      <c r="A129" s="4"/>
-      <c r="B129" s="5"/>
+      <c r="A129" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>455</v>
+      </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
+      <c r="E129" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I129" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="130" spans="1:9" ht="17.25">
-      <c r="A130" s="4"/>
-      <c r="B130" s="5"/>
+      <c r="A130" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>460</v>
+      </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
+      <c r="E130" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>463</v>
+      </c>
       <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
+      <c r="I130" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="131" spans="1:9" ht="17.25">
-      <c r="A131" s="4"/>
-      <c r="B131" s="5"/>
+      <c r="A131" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>464</v>
+      </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
+      <c r="E131" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>467</v>
+      </c>
       <c r="H131" s="5"/>
-      <c r="I131" s="5"/>
+      <c r="I131" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="132" spans="1:9" ht="17.25">
-      <c r="A132" s="4"/>
+      <c r="A132" s="4" t="s">
+        <v>588</v>
+      </c>
       <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
+      <c r="C132" s="5" t="s">
+        <v>643</v>
+      </c>
       <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
+      <c r="E132" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I132" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="133" spans="1:9" ht="17.25">
-      <c r="A133" s="4"/>
-      <c r="B133" s="5"/>
+      <c r="A133" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>471</v>
+      </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5"/>
+      <c r="E133" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I133" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="134" spans="1:9" ht="17.25">
-      <c r="A134" s="4"/>
-      <c r="B134" s="5"/>
+      <c r="A134" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>475</v>
+      </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5"/>
+      <c r="E134" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I134" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="135" spans="1:9" ht="17.25">
-      <c r="A135" s="4"/>
-      <c r="B135" s="5"/>
+      <c r="A135" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>479</v>
+      </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
+      <c r="E135" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I135" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="136" spans="1:9" ht="17.25">
-      <c r="A136" s="4"/>
-      <c r="B136" s="5"/>
+      <c r="A136" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>483</v>
+      </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
+      <c r="E136" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I136" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="137" spans="1:9" ht="17.25">
-      <c r="A137" s="4"/>
-      <c r="B137" s="5"/>
+      <c r="A137" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>487</v>
+      </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
+      <c r="E137" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>490</v>
+      </c>
       <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
+      <c r="I137" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="138" spans="1:9" ht="17.25">
-      <c r="A138" s="4"/>
-      <c r="B138" s="5"/>
+      <c r="A138" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>492</v>
+      </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
+      <c r="E138" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I138" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="139" spans="1:9" ht="17.25">
-      <c r="A139" s="4"/>
-      <c r="B139" s="5"/>
+      <c r="A139" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>492</v>
+      </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
+      <c r="E139" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I139" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="140" spans="1:9" ht="17.25">
-      <c r="A140" s="4"/>
-      <c r="B140" s="5"/>
+      <c r="A140" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>497</v>
+      </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
+      <c r="E140" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F140" s="5">
+        <v>563282</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>499</v>
+      </c>
       <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
+      <c r="I140" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="141" spans="1:9" ht="17.25">
-      <c r="A141" s="4"/>
-      <c r="B141" s="5"/>
+      <c r="A141" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>501</v>
+      </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
+      <c r="E141" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>504</v>
+      </c>
       <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
+      <c r="I141" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="142" spans="1:9" ht="17.25">
-      <c r="A142" s="4"/>
-      <c r="B142" s="5"/>
+      <c r="A142" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>506</v>
+      </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
+      <c r="E142" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>509</v>
+      </c>
       <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
+      <c r="I142" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="143" spans="1:9" ht="17.25">
-      <c r="A143" s="4"/>
-      <c r="B143" s="5"/>
+      <c r="A143" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>506</v>
+      </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
+      <c r="E143" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>509</v>
+      </c>
       <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
+      <c r="I143" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="144" spans="1:9" ht="17.25">
-      <c r="A144" s="4"/>
-      <c r="B144" s="5"/>
+      <c r="A144" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>512</v>
+      </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
+      <c r="E144" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I144" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="145" spans="1:9" ht="17.25">
-      <c r="A145" s="4"/>
-      <c r="B145" s="5"/>
+      <c r="A145" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>512</v>
+      </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
+      <c r="E145" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I145" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="146" spans="1:9" ht="17.25">
-      <c r="A146" s="4"/>
+      <c r="A146" s="4" t="s">
+        <v>592</v>
+      </c>
       <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
+      <c r="C146" s="5" t="s">
+        <v>644</v>
+      </c>
       <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
+      <c r="E146" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I146" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="147" spans="1:9" ht="17.25">
-      <c r="A147" s="4"/>
-      <c r="B147" s="5"/>
+      <c r="A147" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>520</v>
+      </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
+      <c r="E147" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I147" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="148" spans="1:9" ht="17.25">
-      <c r="A148" s="4"/>
-      <c r="B148" s="5"/>
+      <c r="A148" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>524</v>
+      </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
+      <c r="E148" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I148" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="149" spans="1:9" ht="17.25">
-      <c r="A149" s="4"/>
-      <c r="B149" s="5"/>
+      <c r="A149" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>528</v>
+      </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="5"/>
+      <c r="E149" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I149" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="150" spans="1:9" ht="17.25">
-      <c r="A150" s="4"/>
-      <c r="B150" s="5"/>
+      <c r="A150" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
+      <c r="E150" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="I150" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="151" spans="1:9" ht="17.25">
-      <c r="A151" s="4"/>
-      <c r="B151" s="5"/>
+      <c r="A151" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
+      <c r="E151" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="I151" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="152" spans="1:9" ht="17.25">
-      <c r="A152" s="4"/>
-      <c r="B152" s="5"/>
+      <c r="A152" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
+      <c r="E152" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I152" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="153" spans="1:9" ht="17.25">
-      <c r="A153" s="4"/>
-      <c r="B153" s="5"/>
+      <c r="A153" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
+      <c r="E153" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I153" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="154" spans="1:9" ht="17.25">
-      <c r="A154" s="4"/>
-      <c r="B154" s="5"/>
+      <c r="A154" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>548</v>
+      </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
+      <c r="E154" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I154" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="155" spans="1:9" ht="17.25">
-      <c r="A155" s="4"/>
+      <c r="A155" s="4" t="s">
+        <v>599</v>
+      </c>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
+      <c r="E155" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I155" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="156" spans="1:9" ht="17.25">
-      <c r="A156" s="4"/>
-      <c r="B156" s="5"/>
+      <c r="A156" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>520</v>
+      </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
+      <c r="E156" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I156" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="157" spans="1:9" ht="17.25">
-      <c r="A157" s="4"/>
-      <c r="B157" s="5"/>
+      <c r="A157" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>524</v>
+      </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
+      <c r="E157" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I157" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="158" spans="1:9" ht="17.25">
-      <c r="A158" s="4"/>
-      <c r="B158" s="5"/>
+      <c r="A158" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>528</v>
+      </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
+      <c r="E158" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I158" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="159" spans="1:9" ht="17.25">
-      <c r="A159" s="4"/>
-      <c r="B159" s="5"/>
+      <c r="A159" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>557</v>
+      </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
+      <c r="E159" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I159" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="160" spans="1:9" ht="17.25">
-      <c r="A160" s="4"/>
-      <c r="B160" s="5"/>
+      <c r="A160" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
+      <c r="E160" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I160" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="161" spans="1:9" ht="17.25">
-      <c r="A161" s="4"/>
-      <c r="B161" s="5"/>
+      <c r="A161" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-      <c r="I161" s="5"/>
+      <c r="E161" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I161" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="162" spans="1:9" ht="17.25">
-      <c r="A162" s="4"/>
-      <c r="B162" s="5"/>
+      <c r="A162" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>629</v>
+      </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
+      <c r="E162" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I162" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="163" spans="1:9" ht="17.25">
-      <c r="A163" s="4"/>
-      <c r="B163" s="5"/>
+      <c r="A163" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>634</v>
+      </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
+      <c r="E163" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I163" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="164" spans="1:9" ht="17.25">
-      <c r="A164" s="4"/>
-      <c r="B164" s="5"/>
+      <c r="A164" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B164" s="5">
+        <v>1</v>
+      </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
+      <c r="E164" s="5">
+        <v>1</v>
+      </c>
+      <c r="F164" s="5">
+        <v>1</v>
+      </c>
       <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5"/>
+      <c r="H164" s="5">
+        <v>10</v>
+      </c>
+      <c r="I164" s="5">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I159">
